--- a/GME.xlsx
+++ b/GME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ffda80931a57275/Models Backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1104" documentId="8_{BBA5C92C-9F1F-4FBB-9B1C-A2C34A286651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82011014-1C7D-4B7C-82C8-06A8CBF994A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F11B65-D3B3-44CB-8305-1C4DCA7389A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="210" windowWidth="16650" windowHeight="14085" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
+    <workbookView xWindow="-28380" yWindow="435" windowWidth="26160" windowHeight="20205" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
   <si>
     <t>Price</t>
   </si>
@@ -423,6 +423,27 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>Game Informer</t>
+  </si>
+  <si>
+    <t>Immutable X</t>
+  </si>
+  <si>
+    <t>CFO: Diana Saadeh-Jajeh</t>
+  </si>
+  <si>
+    <t>CEO: Matthew Furlong</t>
+  </si>
+  <si>
+    <t>9/7/22: FTX partnership</t>
+  </si>
+  <si>
+    <t>9/7/22: FYQ222 results</t>
+  </si>
+  <si>
+    <t>10/31/22: NFT marketplace launch with ImmutableX</t>
   </si>
 </sst>
 </file>
@@ -432,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -448,6 +469,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -469,10 +497,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -511,16 +540,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,16 +563,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14870</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>43442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14870</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>100592</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -564,8 +587,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10267950" y="66675"/>
-          <a:ext cx="0" cy="14468475"/>
+          <a:off x="10905894" y="43442"/>
+          <a:ext cx="0" cy="18270809"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -598,7 +621,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -952,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8681A739-C7D1-4EC7-91DB-542DCD5B38AF}">
-  <dimension ref="B2:N13"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -971,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>128.5</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -982,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>76.129034000000004</v>
+        <v>304.529721</v>
       </c>
       <c r="N3" s="3">
-        <v>44707</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -994,31 +1017,36 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>9782.5808690000013</v>
+        <v>7661.9677803599998</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>1035+33.3+15.3</f>
-        <v>1083.5999999999999</v>
+        <v>908.9</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
       <c r="L6" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <f>35.7+6.5</f>
-        <v>42.2</v>
+        <f>32.1+8.9</f>
+        <v>41</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -1027,12 +1055,37 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>8741.1808690000016</v>
+        <v>6794.0677803600001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1043,13 +1096,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A8DC47-869E-4A1F-AC19-77E1C7206D83}">
-  <dimension ref="A1:CF99"/>
+  <dimension ref="A1:CF98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomRight" activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1110,9 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="4"/>
-    <col min="7" max="15" width="9.85546875" style="4" customWidth="1"/>
+    <col min="7" max="12" width="9.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9.85546875" style="4" customWidth="1"/>
     <col min="16" max="23" width="10.140625" style="4" customWidth="1"/>
     <col min="28" max="31" width="9.140625" style="4"/>
     <col min="35" max="37" width="9.140625" style="4"/>
@@ -1065,7 +1120,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1445,13 +1500,17 @@
       <c r="K7" s="7">
         <v>966.3</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>795.1</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7">
         <v>995.3</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="P7" s="7">
+        <v>793.4</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -1494,13 +1553,17 @@
       <c r="K8" s="7">
         <v>61.9</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <v>62.8</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>76.900000000000006</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7">
+        <v>62.3</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -1543,13 +1606,17 @@
       <c r="K9" s="7">
         <v>114.8</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7">
+        <v>131.1</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7">
         <v>126.7</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="7">
+        <v>113.9</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -1592,13 +1659,17 @@
       <c r="K10" s="7">
         <v>133.80000000000001</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <v>194.4</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7">
         <v>179.5</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="7">
+        <v>166.4</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -1964,7 +2035,9 @@
       <c r="O20" s="7">
         <v>673.8</v>
       </c>
-      <c r="P20" s="7"/>
+      <c r="P20" s="7">
+        <v>596.4</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2023,7 +2096,9 @@
       <c r="O21" s="7">
         <v>483.7</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="7">
+        <v>316.39999999999998</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -2093,8 +2168,7 @@
         <v>220.9</v>
       </c>
       <c r="P22" s="7">
-        <f>L22*1.2</f>
-        <v>212.64</v>
+        <v>223.2</v>
       </c>
       <c r="Q22" s="7">
         <f t="shared" ref="Q22:R22" si="4">M22*1.2</f>
@@ -2104,10 +2178,22 @@
         <f t="shared" si="4"/>
         <v>335.16</v>
       </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="S22" s="7">
+        <f t="shared" ref="S22" si="5">O22*1.2</f>
+        <v>265.08</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" ref="T22" si="6">P22*1.2</f>
+        <v>267.83999999999997</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" ref="U22" si="7">Q22*1.2</f>
+        <v>276.76799999999997</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" ref="V22" si="8">R22*1.2</f>
+        <v>402.19200000000001</v>
+      </c>
       <c r="W22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
@@ -2135,39 +2221,39 @@
         <v>906.62000000000012</v>
       </c>
       <c r="AL22" s="7">
-        <f t="shared" ref="AL22:AT22" si="5">AK22*1.1</f>
+        <f t="shared" ref="AL22:AT22" si="9">AK22*1.1</f>
         <v>997.28200000000027</v>
       </c>
       <c r="AM22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1097.0102000000004</v>
       </c>
       <c r="AN22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1206.7112200000006</v>
       </c>
       <c r="AO22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1327.3823420000008</v>
       </c>
       <c r="AP22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1460.1205762000011</v>
       </c>
       <c r="AQ22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1606.1326338200013</v>
       </c>
       <c r="AR22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1766.7458972020015</v>
       </c>
       <c r="AS22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1943.4204869222019</v>
       </c>
       <c r="AT22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2137.7625356144222</v>
       </c>
     </row>
@@ -2188,36 +2274,36 @@
         <v>942</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" ref="I23:O23" si="6">SUM(I20:I22)</f>
+        <f t="shared" ref="I23:N23" si="10">SUM(I20:I22)</f>
         <v>1004.6999999999999</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2122.1</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1276.8000000000002</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1183.4000000000001</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1296.6000000000001</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2253.9</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="6"/>
+        <f>SUM(O20:O22)</f>
         <v>1378.4</v>
       </c>
       <c r="P23" s="9">
-        <f>L23*1.05</f>
-        <v>1242.5700000000002</v>
+        <f>SUM(P20:P22)</f>
+        <v>1136</v>
       </c>
       <c r="Q23" s="9">
         <f>M23*1.05</f>
@@ -2227,10 +2313,22 @@
         <f>N23*1.05</f>
         <v>2366.5950000000003</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="S23" s="9">
+        <f t="shared" ref="S23:V23" si="11">O23*1.05</f>
+        <v>1447.3200000000002</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="11"/>
+        <v>1192.8</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="11"/>
+        <v>1429.5015000000003</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="11"/>
+        <v>2484.9247500000006</v>
+      </c>
       <c r="W23" s="9"/>
       <c r="AB23" s="9">
         <v>9039.5</v>
@@ -2256,52 +2354,52 @@
         <v>6466</v>
       </c>
       <c r="AI23" s="9">
-        <f t="shared" ref="AI23:AJ23" si="7">SUM(AI20:AI22)</f>
+        <f t="shared" ref="AI23:AJ23" si="12">SUM(AI20:AI22)</f>
         <v>5089.7999999999993</v>
       </c>
       <c r="AJ23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6010.7</v>
       </c>
       <c r="AK23" s="9">
         <f>SUM(O23:R23)</f>
-        <v>6348.9950000000008</v>
+        <v>6242.4250000000011</v>
       </c>
       <c r="AL23" s="8">
         <f>AK23*1.1</f>
-        <v>6983.8945000000012</v>
+        <v>6866.6675000000014</v>
       </c>
       <c r="AM23" s="8">
         <f>AL23*1.1</f>
-        <v>7682.2839500000018</v>
+        <v>7553.3342500000017</v>
       </c>
       <c r="AN23" s="8">
         <f>AM23*1.1</f>
-        <v>8450.5123450000028</v>
+        <v>8308.6676750000024</v>
       </c>
       <c r="AO23" s="8">
-        <f t="shared" ref="AO23:AT23" si="8">AN23*1.05</f>
-        <v>8873.0379622500041</v>
+        <f t="shared" ref="AO23:AT23" si="13">AN23*1.05</f>
+        <v>8724.1010587500023</v>
       </c>
       <c r="AP23" s="8">
-        <f t="shared" si="8"/>
-        <v>9316.689860362505</v>
+        <f t="shared" si="13"/>
+        <v>9160.3061116875033</v>
       </c>
       <c r="AQ23" s="8">
-        <f t="shared" si="8"/>
-        <v>9782.5243533806315</v>
+        <f t="shared" si="13"/>
+        <v>9618.3214172718781</v>
       </c>
       <c r="AR23" s="8">
-        <f t="shared" si="8"/>
-        <v>10271.650571049664</v>
+        <f t="shared" si="13"/>
+        <v>10099.237488135472</v>
       </c>
       <c r="AS23" s="8">
-        <f t="shared" si="8"/>
-        <v>10785.233099602148</v>
+        <f t="shared" si="13"/>
+        <v>10604.199362542246</v>
       </c>
       <c r="AT23" s="8">
-        <f t="shared" si="8"/>
-        <v>11324.494754582256</v>
+        <f t="shared" si="13"/>
+        <v>11134.409330669358</v>
       </c>
     </row>
     <row r="24" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2340,8 +2438,7 @@
         <v>1079.9000000000001</v>
       </c>
       <c r="P24" s="7">
-        <f>P23*0.78</f>
-        <v>969.20460000000014</v>
+        <v>853.8</v>
       </c>
       <c r="Q24" s="7">
         <f>Q23*0.78</f>
@@ -2351,10 +2448,22 @@
         <f>R23*0.78</f>
         <v>1845.9441000000002</v>
       </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="S24" s="7">
+        <f t="shared" ref="S24:V24" si="14">S23*0.78</f>
+        <v>1128.9096000000002</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="14"/>
+        <v>930.38400000000001</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="14"/>
+        <v>1115.0111700000002</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="14"/>
+        <v>1938.2413050000005</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="AB24" s="7">
         <v>6378.4</v>
@@ -2385,43 +2494,43 @@
       </c>
       <c r="AK24" s="7">
         <f>AK23*0.77</f>
-        <v>4888.7261500000004</v>
+        <v>4806.6672500000013</v>
       </c>
       <c r="AL24" s="7">
         <f>AL23*0.76</f>
-        <v>5307.7598200000011</v>
+        <v>5218.667300000001</v>
       </c>
       <c r="AM24" s="7">
         <f>AM23*0.76</f>
-        <v>5838.5358020000012</v>
+        <v>5740.5340300000016</v>
       </c>
       <c r="AN24" s="7">
         <f>AN23*0.75</f>
-        <v>6337.8842587500021</v>
+        <v>6231.5007562500014</v>
       </c>
       <c r="AO24" s="7">
         <f>AO23*0.75</f>
-        <v>6654.778471687503</v>
+        <v>6543.0757940625017</v>
       </c>
       <c r="AP24" s="7">
         <f>AP23*0.74</f>
-        <v>6894.350496668254</v>
+        <v>6778.6265226487521</v>
       </c>
       <c r="AQ24" s="7">
         <f>AQ23*0.74</f>
-        <v>7239.0680215016673</v>
+        <v>7117.5578487811899</v>
       </c>
       <c r="AR24" s="7">
         <f>AR23*0.73</f>
-        <v>7498.3049168662546</v>
+        <v>7372.4433663388945</v>
       </c>
       <c r="AS24" s="7">
         <f>AS23*0.73</f>
-        <v>7873.2201627095683</v>
+        <v>7741.0655346558387</v>
       </c>
       <c r="AT24" s="7">
         <f>AT23*0.72</f>
-        <v>8153.6362232992242</v>
+        <v>8016.774718081937</v>
       </c>
     </row>
     <row r="25" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2433,7 +2542,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7">
-        <f t="shared" ref="G25" si="9">G23-G24</f>
+        <f t="shared" ref="G25" si="15">G23-G24</f>
         <v>282.39999999999998</v>
       </c>
       <c r="H25" s="7">
@@ -2453,11 +2562,11 @@
         <v>330.10000000000014</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" ref="L25" si="10">L23-L24</f>
+        <f t="shared" ref="L25" si="16">L23-L24</f>
         <v>320.90000000000009</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" ref="M25" si="11">M23-M24</f>
+        <f t="shared" ref="M25" si="17">M23-M24</f>
         <v>318.60000000000014</v>
       </c>
       <c r="N25" s="7">
@@ -2469,40 +2578,52 @@
         <v>298.5</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" ref="P25:R25" si="12">P23-P24</f>
-        <v>273.36540000000002</v>
+        <f>+P23-P24</f>
+        <v>282.20000000000005</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="Q25:R25" si="18">Q23-Q24</f>
         <v>299.51459999999997</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>520.65090000000009</v>
       </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="S25" s="7">
+        <f t="shared" ref="S25:V25" si="19">S23-S24</f>
+        <v>318.41039999999998</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="19"/>
+        <v>262.41599999999994</v>
+      </c>
+      <c r="U25" s="7">
+        <f t="shared" si="19"/>
+        <v>314.49033000000009</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="19"/>
+        <v>546.68344500000012</v>
+      </c>
       <c r="W25" s="7"/>
       <c r="AB25" s="7">
-        <f t="shared" ref="AB25" si="13">AB23-AB24</f>
+        <f t="shared" ref="AB25" si="20">AB23-AB24</f>
         <v>2661.1000000000004</v>
       </c>
       <c r="AC25" s="7">
-        <f t="shared" ref="AC25" si="14">AC23-AC24</f>
+        <f t="shared" ref="AC25" si="21">AC23-AC24</f>
         <v>2775.8999999999996</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" ref="AD25" si="15">AD23-AD24</f>
+        <f t="shared" ref="AD25" si="22">AD23-AD24</f>
         <v>2918.2999999999993</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" ref="AE25:AF25" si="16">AE23-AE24</f>
+        <f t="shared" ref="AE25:AF25" si="23">AE23-AE24</f>
         <v>3009.2999999999993</v>
       </c>
       <c r="AF25" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2484.8999999999987</v>
       </c>
       <c r="AG25" s="7">
@@ -2510,7 +2631,7 @@
         <v>2308.0999999999995</v>
       </c>
       <c r="AH25" s="7">
-        <f t="shared" ref="AH25" si="17">AH23-AH24</f>
+        <f t="shared" ref="AH25" si="24">AH23-AH24</f>
         <v>1908.6999999999998</v>
       </c>
       <c r="AI25" s="7">
@@ -2522,44 +2643,44 @@
         <v>1347.8000000000002</v>
       </c>
       <c r="AK25" s="7">
-        <f t="shared" ref="AK25:AT25" si="18">AK23-AK24</f>
-        <v>1460.2688500000004</v>
+        <f t="shared" ref="AK25:AT25" si="25">AK23-AK24</f>
+        <v>1435.7577499999998</v>
       </c>
       <c r="AL25" s="7">
-        <f t="shared" si="18"/>
-        <v>1676.1346800000001</v>
+        <f t="shared" si="25"/>
+        <v>1648.0002000000004</v>
       </c>
       <c r="AM25" s="7">
-        <f t="shared" si="18"/>
-        <v>1843.7481480000006</v>
+        <f t="shared" si="25"/>
+        <v>1812.8002200000001</v>
       </c>
       <c r="AN25" s="7">
-        <f t="shared" si="18"/>
-        <v>2112.6280862500007</v>
+        <f t="shared" si="25"/>
+        <v>2077.1669187500011</v>
       </c>
       <c r="AO25" s="7">
-        <f t="shared" si="18"/>
-        <v>2218.259490562501</v>
+        <f t="shared" si="25"/>
+        <v>2181.0252646875006</v>
       </c>
       <c r="AP25" s="7">
-        <f t="shared" si="18"/>
-        <v>2422.339363694251</v>
+        <f t="shared" si="25"/>
+        <v>2381.6795890387511</v>
       </c>
       <c r="AQ25" s="7">
-        <f t="shared" si="18"/>
-        <v>2543.4563318789642</v>
+        <f t="shared" si="25"/>
+        <v>2500.7635684906882</v>
       </c>
       <c r="AR25" s="7">
-        <f t="shared" si="18"/>
-        <v>2773.3456541834094</v>
+        <f t="shared" si="25"/>
+        <v>2726.7941217965772</v>
       </c>
       <c r="AS25" s="7">
-        <f t="shared" si="18"/>
-        <v>2912.01293689258</v>
+        <f t="shared" si="25"/>
+        <v>2863.1338278864068</v>
       </c>
       <c r="AT25" s="7">
-        <f t="shared" si="18"/>
-        <v>3170.8585312830319</v>
+        <f t="shared" si="25"/>
+        <v>3117.6346125874206</v>
       </c>
     </row>
     <row r="26" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2598,21 +2719,32 @@
         <v>452.2</v>
       </c>
       <c r="P26" s="7">
-        <f>L26</f>
-        <v>378.9</v>
+        <v>387.5</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" ref="Q26:R26" si="19">M26</f>
+        <f t="shared" ref="Q26:R26" si="26">M26</f>
         <v>421.5</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>538.9</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="S26" s="7">
+        <f t="shared" ref="S26" si="27">O26</f>
+        <v>452.2</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" ref="T26" si="28">P26</f>
+        <v>387.5</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" ref="U26" si="29">Q26</f>
+        <v>421.5</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" ref="V26" si="30">R26</f>
+        <v>538.9</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="AB26" s="7">
         <v>1892.4</v>
@@ -2646,19 +2778,19 @@
         <v>1692.5039999999999</v>
       </c>
       <c r="AL26" s="7">
-        <f t="shared" ref="AL26:AO26" si="20">AK26*0.99</f>
+        <f t="shared" ref="AL26:AO26" si="31">AK26*0.99</f>
         <v>1675.5789599999998</v>
       </c>
       <c r="AM26" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>1658.8231703999998</v>
       </c>
       <c r="AN26" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>1642.2349386959997</v>
       </c>
       <c r="AO26" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>1625.8125893090398</v>
       </c>
       <c r="AP26" s="7">
@@ -2666,19 +2798,19 @@
         <v>1674.5869669883111</v>
       </c>
       <c r="AQ26" s="7">
-        <f t="shared" ref="AQ26:AT26" si="21">AP26*1.03</f>
+        <f t="shared" ref="AQ26:AT26" si="32">AP26*1.03</f>
         <v>1724.8245759979604</v>
       </c>
       <c r="AR26" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1776.5693132778993</v>
       </c>
       <c r="AS26" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1829.8663926762363</v>
       </c>
       <c r="AT26" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1884.7623844565235</v>
       </c>
     </row>
@@ -2691,7 +2823,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7">
-        <f t="shared" ref="G27" si="22">G25-G26</f>
+        <f t="shared" ref="G27" si="33">G25-G26</f>
         <v>-104.10000000000002</v>
       </c>
       <c r="H27" s="7">
@@ -2711,11 +2843,11 @@
         <v>-40.199999999999875</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" ref="L27" si="23">L25-L26</f>
+        <f t="shared" ref="L27" si="34">L25-L26</f>
         <v>-57.999999999999886</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" ref="M27" si="24">M25-M26</f>
+        <f t="shared" ref="M27" si="35">M25-M26</f>
         <v>-102.89999999999986</v>
       </c>
       <c r="N27" s="7">
@@ -2727,40 +2859,52 @@
         <v>-153.69999999999999</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" ref="P27:R27" si="25">P25-P26</f>
-        <v>-105.53459999999995</v>
+        <f t="shared" ref="P27:R27" si="36">P25-P26</f>
+        <v>-105.29999999999995</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>-121.98540000000003</v>
       </c>
       <c r="R27" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>-18.249099999999885</v>
       </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="S27" s="7">
+        <f t="shared" ref="S27:V27" si="37">S25-S26</f>
+        <v>-133.78960000000001</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" si="37"/>
+        <v>-125.08400000000006</v>
+      </c>
+      <c r="U27" s="7">
+        <f t="shared" si="37"/>
+        <v>-107.00966999999991</v>
+      </c>
+      <c r="V27" s="7">
+        <f t="shared" si="37"/>
+        <v>7.7834450000001425</v>
+      </c>
       <c r="W27" s="7"/>
       <c r="AB27" s="7">
-        <f t="shared" ref="AB27" si="26">AB25-AB26</f>
+        <f t="shared" ref="AB27" si="38">AB25-AB26</f>
         <v>768.70000000000027</v>
       </c>
       <c r="AC27" s="7">
-        <f t="shared" ref="AC27" si="27">AC25-AC26</f>
+        <f t="shared" ref="AC27" si="39">AC25-AC26</f>
         <v>774.89999999999964</v>
       </c>
       <c r="AD27" s="7">
-        <f t="shared" ref="AD27" si="28">AD25-AD26</f>
+        <f t="shared" ref="AD27" si="40">AD25-AD26</f>
         <v>809.39999999999918</v>
       </c>
       <c r="AE27" s="7">
-        <f t="shared" ref="AE27:AF27" si="29">AE25-AE26</f>
+        <f t="shared" ref="AE27:AF27" si="41">AE25-AE26</f>
         <v>756.69999999999936</v>
       </c>
       <c r="AF27" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>575.29999999999882</v>
       </c>
       <c r="AG27" s="7">
@@ -2768,7 +2912,7 @@
         <v>313.89999999999941</v>
       </c>
       <c r="AH27" s="7">
-        <f t="shared" ref="AH27" si="30">AH25-AH26</f>
+        <f t="shared" ref="AH27" si="42">AH25-AH26</f>
         <v>-14.000000000000227</v>
       </c>
       <c r="AI27" s="7">
@@ -2780,44 +2924,44 @@
         <v>-361.79999999999973</v>
       </c>
       <c r="AK27" s="7">
-        <f t="shared" ref="AK27:AT27" si="31">AK25-AK26</f>
-        <v>-232.23514999999952</v>
+        <f t="shared" ref="AK27:AT27" si="43">AK25-AK26</f>
+        <v>-256.74625000000015</v>
       </c>
       <c r="AL27" s="7">
-        <f t="shared" si="31"/>
-        <v>0.5557200000002922</v>
+        <f t="shared" si="43"/>
+        <v>-27.57875999999942</v>
       </c>
       <c r="AM27" s="7">
-        <f t="shared" si="31"/>
-        <v>184.92497760000083</v>
+        <f t="shared" si="43"/>
+        <v>153.97704960000033</v>
       </c>
       <c r="AN27" s="7">
-        <f t="shared" si="31"/>
-        <v>470.39314755400096</v>
+        <f t="shared" si="43"/>
+        <v>434.93198005400131</v>
       </c>
       <c r="AO27" s="7">
-        <f t="shared" si="31"/>
-        <v>592.44690125346119</v>
+        <f t="shared" si="43"/>
+        <v>555.21267537846074</v>
       </c>
       <c r="AP27" s="7">
-        <f t="shared" si="31"/>
-        <v>747.75239670593987</v>
+        <f t="shared" si="43"/>
+        <v>707.09262205044001</v>
       </c>
       <c r="AQ27" s="7">
-        <f t="shared" si="31"/>
-        <v>818.63175588100376</v>
+        <f t="shared" si="43"/>
+        <v>775.93899249272772</v>
       </c>
       <c r="AR27" s="7">
-        <f t="shared" si="31"/>
-        <v>996.7763409055101</v>
+        <f t="shared" si="43"/>
+        <v>950.22480851867795</v>
       </c>
       <c r="AS27" s="7">
-        <f t="shared" si="31"/>
-        <v>1082.1465442163437</v>
+        <f t="shared" si="43"/>
+        <v>1033.2674352101706</v>
       </c>
       <c r="AT27" s="7">
-        <f t="shared" si="31"/>
-        <v>1286.0961468265084</v>
+        <f t="shared" si="43"/>
+        <v>1232.8722281308972</v>
       </c>
     </row>
     <row r="28" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2856,21 +3000,32 @@
         <v>-0.7</v>
       </c>
       <c r="P28" s="7">
-        <f>O28</f>
-        <v>-0.7</v>
+        <v>0.3</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" ref="Q28:R28" si="32">P28</f>
-        <v>-0.7</v>
+        <f t="shared" ref="Q28:R28" si="44">P28</f>
+        <v>0.3</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="32"/>
-        <v>-0.7</v>
-      </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+        <f t="shared" si="44"/>
+        <v>0.3</v>
+      </c>
+      <c r="S28" s="7">
+        <f t="shared" ref="S28" si="45">R28</f>
+        <v>0.3</v>
+      </c>
+      <c r="T28" s="7">
+        <f t="shared" ref="T28" si="46">S28</f>
+        <v>0.3</v>
+      </c>
+      <c r="U28" s="7">
+        <f t="shared" ref="U28" si="47">T28</f>
+        <v>0.3</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" ref="V28" si="48">U28</f>
+        <v>0.3</v>
+      </c>
       <c r="W28" s="7"/>
       <c r="AB28" s="7">
         <v>-4.7</v>
@@ -2900,44 +3055,44 @@
         <v>-26.9</v>
       </c>
       <c r="AK28" s="7">
-        <f t="shared" ref="AK28:AT28" si="33">AJ43*$AX$66</f>
-        <v>16.714617999999998</v>
+        <f>AJ43*$AX$65</f>
+        <v>15.38531</v>
       </c>
       <c r="AL28" s="7">
-        <f t="shared" si="33"/>
-        <v>12.404207360000008</v>
+        <f>AK43*$AX$65</f>
+        <v>10.558091199999996</v>
       </c>
       <c r="AM28" s="7">
-        <f t="shared" si="33"/>
-        <v>12.663405907200014</v>
+        <f>AL43*$AX$65</f>
+        <v>10.217677824000008</v>
       </c>
       <c r="AN28" s="7">
-        <f t="shared" si="33"/>
-        <v>16.615173577344031</v>
+        <f>AM43*$AX$65</f>
+        <v>13.501572372480014</v>
       </c>
       <c r="AO28" s="7">
-        <f t="shared" si="33"/>
-        <v>26.35533999997093</v>
+        <f>AN43*$AX$65</f>
+        <v>22.470243421009641</v>
       </c>
       <c r="AP28" s="7">
-        <f t="shared" si="33"/>
-        <v>37.493780342532709</v>
+        <f>AO43*$AX$65</f>
+        <v>32.868535959400106</v>
       </c>
       <c r="AQ28" s="7">
-        <f t="shared" si="33"/>
-        <v>51.62821152940522</v>
+        <f>AP43*$AX$65</f>
+        <v>46.187836803577227</v>
       </c>
       <c r="AR28" s="7">
-        <f t="shared" si="33"/>
-        <v>65.552371007971757</v>
+        <f>AQ43*$AX$65</f>
+        <v>59.341866072318112</v>
       </c>
       <c r="AS28" s="7">
-        <f t="shared" si="33"/>
-        <v>82.549630398587468</v>
+        <f>AR43*$AX$65</f>
+        <v>75.494932865774047</v>
       </c>
       <c r="AT28" s="7">
-        <f t="shared" si="33"/>
-        <v>100.02007301781146</v>
+        <f>AS43*$AX$65</f>
+        <v>92.126368386913214</v>
       </c>
     </row>
     <row r="29" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2949,7 +3104,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29" si="34">G27+G28</f>
+        <f t="shared" ref="G29" si="49">G27+G28</f>
         <v>-110.80000000000003</v>
       </c>
       <c r="H29" s="7">
@@ -2969,11 +3124,11 @@
         <v>-64.899999999999878</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" ref="L29" si="35">L27+L28</f>
+        <f t="shared" ref="L29" si="50">L27+L28</f>
         <v>-58.499999999999886</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" ref="M29" si="36">M27+M28</f>
+        <f t="shared" ref="M29" si="51">M27+M28</f>
         <v>-103.69999999999986</v>
       </c>
       <c r="N29" s="7">
@@ -2985,97 +3140,109 @@
         <v>-154.39999999999998</v>
       </c>
       <c r="P29" s="7">
-        <f t="shared" ref="P29:R29" si="37">P27+P28</f>
-        <v>-106.23459999999996</v>
+        <f t="shared" ref="P29:R29" si="52">P27+P28</f>
+        <v>-104.99999999999996</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="37"/>
-        <v>-122.68540000000003</v>
+        <f t="shared" si="52"/>
+        <v>-121.68540000000003</v>
       </c>
       <c r="R29" s="7">
-        <f t="shared" si="37"/>
-        <v>-18.949099999999884</v>
-      </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+        <f t="shared" si="52"/>
+        <v>-17.949099999999884</v>
+      </c>
+      <c r="S29" s="7">
+        <f t="shared" ref="S29:V29" si="53">S27+S28</f>
+        <v>-133.4896</v>
+      </c>
+      <c r="T29" s="7">
+        <f t="shared" si="53"/>
+        <v>-124.78400000000006</v>
+      </c>
+      <c r="U29" s="7">
+        <f t="shared" si="53"/>
+        <v>-106.70966999999992</v>
+      </c>
+      <c r="V29" s="7">
+        <f t="shared" si="53"/>
+        <v>8.0834450000001432</v>
+      </c>
       <c r="W29" s="7"/>
       <c r="AB29" s="7">
-        <f t="shared" ref="AB29" si="38">AB27+AB28</f>
+        <f t="shared" ref="AB29" si="54">AB27+AB28</f>
         <v>764.00000000000023</v>
       </c>
       <c r="AC29" s="7">
-        <f t="shared" ref="AC29" si="39">AC27+AC28</f>
+        <f t="shared" ref="AC29" si="55">AC27+AC28</f>
         <v>764.89999999999964</v>
       </c>
       <c r="AD29" s="7">
-        <f t="shared" ref="AD29" si="40">AD27+AD28</f>
+        <f t="shared" ref="AD29" si="56">AD27+AD28</f>
         <v>786.39999999999918</v>
       </c>
       <c r="AE29" s="7">
-        <f t="shared" ref="AE29:AF29" si="41">AE27+AE28</f>
+        <f t="shared" ref="AE29:AF29" si="57">AE27+AE28</f>
         <v>703.69999999999936</v>
       </c>
       <c r="AF29" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>519.99999999999886</v>
       </c>
       <c r="AG29" s="7">
-        <f t="shared" ref="AG29:AH29" si="42">AG27+AG28</f>
+        <f t="shared" ref="AG29:AH29" si="58">AG27+AG28</f>
         <v>262.79999999999939</v>
       </c>
       <c r="AH29" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>-41.20000000000023</v>
       </c>
       <c r="AI29" s="7">
-        <f t="shared" ref="AI29:AJ29" si="43">AI27+AI28</f>
+        <f t="shared" ref="AI29:AJ29" si="59">AI27+AI28</f>
         <v>-286.80000000000098</v>
       </c>
       <c r="AJ29" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>-388.6999999999997</v>
       </c>
       <c r="AK29" s="7">
-        <f t="shared" ref="AK29" si="44">AK27+AK28</f>
-        <v>-215.52053199999952</v>
+        <f t="shared" ref="AK29" si="60">AK27+AK28</f>
+        <v>-241.36094000000014</v>
       </c>
       <c r="AL29" s="7">
-        <f t="shared" ref="AL29" si="45">AL27+AL28</f>
-        <v>12.9599273600003</v>
+        <f t="shared" ref="AL29" si="61">AL27+AL28</f>
+        <v>-17.020668799999424</v>
       </c>
       <c r="AM29" s="7">
-        <f t="shared" ref="AM29" si="46">AM27+AM28</f>
-        <v>197.58838350720083</v>
+        <f t="shared" ref="AM29" si="62">AM27+AM28</f>
+        <v>164.19472742400035</v>
       </c>
       <c r="AN29" s="7">
-        <f t="shared" ref="AN29" si="47">AN27+AN28</f>
-        <v>487.00832113134499</v>
+        <f t="shared" ref="AN29" si="63">AN27+AN28</f>
+        <v>448.43355242648136</v>
       </c>
       <c r="AO29" s="7">
-        <f t="shared" ref="AO29" si="48">AO27+AO28</f>
-        <v>618.80224125343216</v>
+        <f t="shared" ref="AO29" si="64">AO27+AO28</f>
+        <v>577.68291879947037</v>
       </c>
       <c r="AP29" s="7">
-        <f t="shared" ref="AP29" si="49">AP27+AP28</f>
-        <v>785.24617704847253</v>
+        <f t="shared" ref="AP29" si="65">AP27+AP28</f>
+        <v>739.96115800984012</v>
       </c>
       <c r="AQ29" s="7">
-        <f t="shared" ref="AQ29" si="50">AQ27+AQ28</f>
-        <v>870.25996741040899</v>
+        <f t="shared" ref="AQ29" si="66">AQ27+AQ28</f>
+        <v>822.126829296305</v>
       </c>
       <c r="AR29" s="7">
-        <f t="shared" ref="AR29" si="51">AR27+AR28</f>
-        <v>1062.3287119134818</v>
+        <f t="shared" ref="AR29" si="67">AR27+AR28</f>
+        <v>1009.5666745909961</v>
       </c>
       <c r="AS29" s="7">
-        <f t="shared" ref="AS29" si="52">AS27+AS28</f>
-        <v>1164.6961746149311</v>
+        <f t="shared" ref="AS29" si="68">AS27+AS28</f>
+        <v>1108.7623680759446</v>
       </c>
       <c r="AT29" s="7">
-        <f t="shared" ref="AT29" si="53">AT27+AT28</f>
-        <v>1386.1162198443199</v>
+        <f t="shared" ref="AT29" si="69">AT27+AT28</f>
+        <v>1324.9985965178103</v>
       </c>
     </row>
     <row r="30" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3114,7 +3281,7 @@
         <v>3.5</v>
       </c>
       <c r="P30" s="7">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q30" s="7">
         <v>0</v>
@@ -3122,10 +3289,18 @@
       <c r="R30" s="7">
         <v>0</v>
       </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="S30" s="7">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="AB30" s="7">
         <v>214.6</v>
@@ -3168,27 +3343,27 @@
       </c>
       <c r="AO30" s="2">
         <f>AO29*0.1</f>
-        <v>61.880224125343219</v>
+        <v>57.768291879947043</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" ref="AP30" si="54">AP29*0.1</f>
-        <v>78.524617704847259</v>
+        <f t="shared" ref="AP30" si="70">AP29*0.1</f>
+        <v>73.996115800984015</v>
       </c>
       <c r="AQ30" s="2">
         <f>AQ29*0.2</f>
-        <v>174.0519934820818</v>
+        <v>164.42536585926101</v>
       </c>
       <c r="AR30" s="2">
         <f>AR29*0.2</f>
-        <v>212.46574238269636</v>
+        <v>201.91333491819921</v>
       </c>
       <c r="AS30" s="2">
         <f>AS29*0.25</f>
-        <v>291.17404365373278</v>
+        <v>277.19059201898614</v>
       </c>
       <c r="AT30" s="2">
         <f>AT29*0.25</f>
-        <v>346.52905496107996</v>
+        <v>331.24964912945256</v>
       </c>
     </row>
     <row r="31" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3200,7 +3375,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7">
-        <f t="shared" ref="G31" si="55">G29-G30</f>
+        <f t="shared" ref="G31" si="71">G29-G30</f>
         <v>-161.20000000000002</v>
       </c>
       <c r="H31" s="7">
@@ -3220,11 +3395,11 @@
         <v>-66.199999999999875</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" ref="L31" si="56">L29-L30</f>
+        <f t="shared" ref="L31" si="72">L29-L30</f>
         <v>-61.599999999999888</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" ref="M31" si="57">M29-M30</f>
+        <f t="shared" ref="M31" si="73">M29-M30</f>
         <v>-105.39999999999986</v>
       </c>
       <c r="N31" s="7">
@@ -3236,48 +3411,60 @@
         <v>-157.89999999999998</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" ref="P31:R31" si="58">P29-P30</f>
-        <v>-106.23459999999996</v>
+        <f t="shared" ref="P31:R31" si="74">P29-P30</f>
+        <v>-106.19999999999996</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="58"/>
-        <v>-122.68540000000003</v>
+        <f t="shared" si="74"/>
+        <v>-121.68540000000003</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="58"/>
-        <v>-18.949099999999884</v>
-      </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+        <f t="shared" si="74"/>
+        <v>-17.949099999999884</v>
+      </c>
+      <c r="S31" s="7">
+        <f t="shared" ref="S31:V31" si="75">S29-S30</f>
+        <v>-133.4896</v>
+      </c>
+      <c r="T31" s="7">
+        <f t="shared" si="75"/>
+        <v>-124.78400000000006</v>
+      </c>
+      <c r="U31" s="7">
+        <f t="shared" si="75"/>
+        <v>-106.70966999999992</v>
+      </c>
+      <c r="V31" s="7">
+        <f t="shared" si="75"/>
+        <v>8.0834450000001432</v>
+      </c>
       <c r="W31" s="7"/>
       <c r="AB31" s="7">
-        <f t="shared" ref="AB31" si="59">AB29-AB30</f>
+        <f t="shared" ref="AB31" si="76">AB29-AB30</f>
         <v>549.4000000000002</v>
       </c>
       <c r="AC31" s="7">
-        <f t="shared" ref="AC31" si="60">AC29-AC30</f>
+        <f t="shared" ref="AC31" si="77">AC29-AC30</f>
         <v>549.69999999999959</v>
       </c>
       <c r="AD31" s="7">
-        <f t="shared" ref="AD31" si="61">AD29-AD30</f>
+        <f t="shared" ref="AD31" si="78">AD29-AD30</f>
         <v>563.9999999999992</v>
       </c>
       <c r="AE31" s="7">
-        <f t="shared" ref="AE31:AF31" si="62">AE29-AE30</f>
+        <f t="shared" ref="AE31:AF31" si="79">AE29-AE30</f>
         <v>552.19999999999936</v>
       </c>
       <c r="AF31" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>366.49999999999886</v>
       </c>
       <c r="AG31" s="7">
-        <f t="shared" ref="AG31:AH31" si="63">AG29-AG30</f>
+        <f t="shared" ref="AG31:AH31" si="80">AG29-AG30</f>
         <v>221.0999999999994</v>
       </c>
       <c r="AH31" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="80"/>
         <v>-78.800000000000239</v>
       </c>
       <c r="AI31" s="7">
@@ -3289,196 +3476,196 @@
         <v>-374.59999999999968</v>
       </c>
       <c r="AK31" s="7">
-        <f t="shared" ref="AK31:AT31" si="64">AK29-AK30</f>
-        <v>-215.52053199999952</v>
+        <f t="shared" ref="AK31:AT31" si="81">AK29-AK30</f>
+        <v>-241.36094000000014</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" si="64"/>
-        <v>12.9599273600003</v>
+        <f t="shared" si="81"/>
+        <v>-17.020668799999424</v>
       </c>
       <c r="AM31" s="7">
-        <f t="shared" si="64"/>
-        <v>197.58838350720083</v>
+        <f t="shared" si="81"/>
+        <v>164.19472742400035</v>
       </c>
       <c r="AN31" s="7">
-        <f t="shared" si="64"/>
-        <v>487.00832113134499</v>
+        <f t="shared" si="81"/>
+        <v>448.43355242648136</v>
       </c>
       <c r="AO31" s="7">
-        <f t="shared" si="64"/>
-        <v>556.9220171280889</v>
+        <f t="shared" si="81"/>
+        <v>519.91462691952336</v>
       </c>
       <c r="AP31" s="7">
-        <f t="shared" si="64"/>
-        <v>706.72155934362524</v>
+        <f t="shared" si="81"/>
+        <v>665.96504220885606</v>
       </c>
       <c r="AQ31" s="7">
-        <f t="shared" si="64"/>
-        <v>696.20797392832719</v>
+        <f t="shared" si="81"/>
+        <v>657.70146343704403</v>
       </c>
       <c r="AR31" s="7">
-        <f t="shared" si="64"/>
-        <v>849.86296953078545</v>
+        <f t="shared" si="81"/>
+        <v>807.65333967279685</v>
       </c>
       <c r="AS31" s="7">
-        <f t="shared" si="64"/>
-        <v>873.5221309611984</v>
+        <f t="shared" si="81"/>
+        <v>831.57177605695847</v>
       </c>
       <c r="AT31" s="7">
-        <f t="shared" si="64"/>
-        <v>1039.5871648832399</v>
+        <f t="shared" si="81"/>
+        <v>993.74894738835769</v>
       </c>
       <c r="AU31" s="2">
-        <f t="shared" ref="AU31:CF31" si="65">AT31*(1+$AX$65)</f>
-        <v>1039.5871648832399</v>
+        <f>AT31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="AV31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>AU31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="AW31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>AV31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="AX31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>AW31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="AY31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>AX31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="AZ31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>AY31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BA31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>AZ31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BB31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BA31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BC31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BB31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BD31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BC31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BE31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BD31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BF31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BE31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BG31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BF31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BH31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BG31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BI31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BH31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BJ31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BI31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BK31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BJ31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BK31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BL31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BN31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BM31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BO31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BN31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BP31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BO31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BQ31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BP31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BQ31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BR31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BS31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BT31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BU31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BV31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BX31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BW31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BY31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BX31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="BZ31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BY31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="CA31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>BZ31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="CB31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>CA31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="CC31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>CB31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="CD31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>CC31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="CE31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>CD31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
       <c r="CF31" s="2">
-        <f t="shared" si="65"/>
-        <v>1039.5871648832399</v>
+        <f>CE31*(1+$AX$64)</f>
+        <v>993.74894738835769</v>
       </c>
     </row>
     <row r="32" spans="2:84" x14ac:dyDescent="0.2">
@@ -3486,7 +3673,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" ref="G32" si="66">G31/G33</f>
+        <f t="shared" ref="G32" si="82">G31/G33</f>
         <v>-2.4992248062015507</v>
       </c>
       <c r="H32" s="6">
@@ -3506,11 +3693,11 @@
         <v>-1.0030303030303012</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" ref="L32" si="67">L31/L33</f>
+        <f t="shared" ref="L32" si="83">L31/L33</f>
         <v>-0.84848484848484695</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" ref="M32" si="68">M31/M33</f>
+        <f t="shared" ref="M32" si="84">M31/M33</f>
         <v>-1.388669301712778</v>
       </c>
       <c r="N32" s="6">
@@ -3522,48 +3709,60 @@
         <v>-2.0803689064558624</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:R32" si="69">P31/P33</f>
-        <v>-1.3996653491436093</v>
+        <f t="shared" ref="P32:R32" si="85">P31/P33</f>
+        <v>-0.34911242603550285</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="69"/>
-        <v>-1.6164084321475629</v>
+        <f t="shared" si="85"/>
+        <v>-0.40001775147929003</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="69"/>
-        <v>-0.2496587615283252</v>
-      </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
+        <f t="shared" si="85"/>
+        <v>-5.9004273504273126E-2</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" ref="S32:V32" si="86">S31/S33</f>
+        <v>-0.43882182774490469</v>
+      </c>
+      <c r="T32" s="6">
+        <f t="shared" si="86"/>
+        <v>-0.41020381328073657</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="86"/>
+        <v>-0.35078786982248494</v>
+      </c>
+      <c r="V32" s="6">
+        <f t="shared" si="86"/>
+        <v>2.6572797501644128E-2</v>
+      </c>
       <c r="W32" s="6"/>
       <c r="AB32" s="6">
-        <f t="shared" ref="AB32" si="70">AB31/AB33</f>
+        <f t="shared" ref="AB32" si="87">AB31/AB33</f>
         <v>4.6402027027027044</v>
       </c>
       <c r="AC32" s="6">
-        <f t="shared" ref="AC32" si="71">AC31/AC33</f>
+        <f t="shared" ref="AC32" si="88">AC31/AC33</f>
         <v>4.8560070671378055</v>
       </c>
       <c r="AD32" s="6">
-        <f t="shared" ref="AD32" si="72">AD31/AD33</f>
+        <f t="shared" ref="AD32" si="89">AD31/AD33</f>
         <v>5.2858481724461033</v>
       </c>
       <c r="AE32" s="6">
-        <f t="shared" ref="AE32:AF32" si="73">AE31/AE33</f>
+        <f t="shared" ref="AE32:AF32" si="90">AE31/AE33</f>
         <v>5.3198458574181053</v>
       </c>
       <c r="AF32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>3.6108374384236339</v>
       </c>
       <c r="AG32" s="6">
-        <f t="shared" ref="AG32:AH32" si="74">AG31/AG33</f>
+        <f t="shared" ref="AG32:AH32" si="91">AG31/AG33</f>
         <v>2.1655239960822663</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>-0.90057142857143135</v>
       </c>
       <c r="AI32" s="6">
@@ -3575,44 +3774,44 @@
         <v>-5.1597796143250649</v>
       </c>
       <c r="AK32" s="6">
-        <f t="shared" ref="AK32:AT32" si="75">AK31/AK33</f>
-        <v>-2.9686023691459993</v>
+        <f t="shared" ref="AK32:AT32" si="92">AK31/AK33</f>
+        <v>-3.3245308539944927</v>
       </c>
       <c r="AL32" s="6">
-        <f t="shared" si="75"/>
-        <v>0.17851139614325484</v>
+        <f t="shared" si="92"/>
+        <v>-0.23444447382919317</v>
       </c>
       <c r="AM32" s="6">
-        <f t="shared" si="75"/>
-        <v>2.7216030786115821</v>
+        <f t="shared" si="92"/>
+        <v>2.2616353639669473</v>
       </c>
       <c r="AN32" s="6">
-        <f t="shared" si="75"/>
-        <v>6.7081035968504823</v>
+        <f t="shared" si="92"/>
+        <v>6.1767706945796332</v>
       </c>
       <c r="AO32" s="6">
-        <f t="shared" si="75"/>
-        <v>7.6711021642987456</v>
+        <f t="shared" si="92"/>
+        <v>7.1613584975140965</v>
       </c>
       <c r="AP32" s="6">
-        <f t="shared" si="75"/>
-        <v>9.7344567402703213</v>
+        <f t="shared" si="92"/>
+        <v>9.1730722067335559</v>
       </c>
       <c r="AQ32" s="6">
-        <f t="shared" si="75"/>
-        <v>9.5896415141642866</v>
+        <f t="shared" si="92"/>
+        <v>9.059248807672784</v>
       </c>
       <c r="AR32" s="6">
-        <f t="shared" si="75"/>
-        <v>11.706101508688505</v>
+        <f t="shared" si="92"/>
+        <v>11.124701648385633</v>
       </c>
       <c r="AS32" s="6">
-        <f t="shared" si="75"/>
-        <v>12.031985274947637</v>
+        <f t="shared" si="92"/>
+        <v>11.454156694999428</v>
       </c>
       <c r="AT32" s="6">
-        <f t="shared" si="75"/>
-        <v>14.319382436408263</v>
+        <f t="shared" si="92"/>
+        <v>13.68800203014267</v>
       </c>
     </row>
     <row r="33" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3651,21 +3850,32 @@
         <v>75.900000000000006</v>
       </c>
       <c r="P33" s="7">
-        <f>O33</f>
-        <v>75.900000000000006</v>
+        <v>304.2</v>
       </c>
       <c r="Q33" s="7">
         <f>P33</f>
-        <v>75.900000000000006</v>
+        <v>304.2</v>
       </c>
       <c r="R33" s="7">
         <f>Q33</f>
-        <v>75.900000000000006</v>
-      </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+        <v>304.2</v>
+      </c>
+      <c r="S33" s="7">
+        <f t="shared" ref="S33:V33" si="93">R33</f>
+        <v>304.2</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="93"/>
+        <v>304.2</v>
+      </c>
+      <c r="U33" s="7">
+        <f t="shared" si="93"/>
+        <v>304.2</v>
+      </c>
+      <c r="V33" s="7">
+        <f t="shared" si="93"/>
+        <v>304.2</v>
+      </c>
       <c r="W33" s="7"/>
       <c r="AB33" s="7">
         <v>118.4</v>
@@ -3699,39 +3909,39 @@
         <v>72.599999999999994</v>
       </c>
       <c r="AL33" s="7">
-        <f t="shared" ref="AL33:AT33" si="76">AK33</f>
+        <f t="shared" ref="AL33:AT33" si="94">AK33</f>
         <v>72.599999999999994</v>
       </c>
       <c r="AM33" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>72.599999999999994</v>
       </c>
       <c r="AN33" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>72.599999999999994</v>
       </c>
       <c r="AO33" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>72.599999999999994</v>
       </c>
       <c r="AP33" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>72.599999999999994</v>
       </c>
       <c r="AQ33" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>72.599999999999994</v>
       </c>
       <c r="AR33" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>72.599999999999994</v>
       </c>
       <c r="AS33" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>72.599999999999994</v>
       </c>
       <c r="AT33" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>72.599999999999994</v>
       </c>
     </row>
@@ -3773,69 +3983,81 @@
         <v>7.9573934837092741E-2</v>
       </c>
       <c r="P35" s="13">
-        <f t="shared" ref="P35:R35" si="77">P23/L23-1</f>
+        <f t="shared" ref="P35:R35" si="95">P23/L23-1</f>
+        <v>-4.0054081460199509E-2</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="95"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q35" s="13">
-        <f t="shared" si="77"/>
+      <c r="R35" s="13">
+        <f t="shared" si="95"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R35" s="13">
-        <f t="shared" si="77"/>
+      <c r="S35" s="13">
+        <f t="shared" ref="S35" si="96">S23/O23-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
+      <c r="T35" s="13">
+        <f t="shared" ref="T35" si="97">T23/P23-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="U35" s="13">
+        <f t="shared" ref="U35" si="98">U23/Q23-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="V35" s="13">
+        <f t="shared" ref="V35" si="99">V23/R23-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="W35" s="13"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="13">
-        <f t="shared" ref="AC35:AL35" si="78">AC23/AB23-1</f>
+        <f t="shared" ref="AC35:AL35" si="100">AC23/AB23-1</f>
         <v>2.8375463244648458E-2</v>
       </c>
       <c r="AD35" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>7.293459552495607E-3</v>
       </c>
       <c r="AE35" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>-8.0725773724342642E-2</v>
       </c>
       <c r="AF35" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>-7.0632790808444756E-3</v>
       </c>
       <c r="AG35" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>-3.0630272256086832E-2</v>
       </c>
       <c r="AH35" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>-0.21958166873860929</v>
       </c>
       <c r="AI35" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>-0.21283637488400875</v>
       </c>
       <c r="AJ35" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.18093048842783621</v>
       </c>
       <c r="AK35" s="13">
-        <f t="shared" si="78"/>
-        <v>5.6282130201141367E-2</v>
+        <f t="shared" si="100"/>
+        <v>3.8552082120219211E-2</v>
       </c>
       <c r="AL35" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AM35" s="13">
-        <f t="shared" ref="AM35:AT35" si="79">AM23/AL23-1</f>
+        <f t="shared" ref="AM35:AT35" si="101">AM23/AL23-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AN35" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AO35" s="13">
@@ -3843,272 +4065,272 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AP35" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AQ35" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AR35" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AS35" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AT35" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:46" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="s">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22">
-        <f t="shared" ref="K36:K37" si="80">K20/G20-1</f>
+      <c r="K36" s="10">
+        <f t="shared" ref="K36:K37" si="102">K20/G20-1</f>
         <v>0.37107776261937242</v>
       </c>
-      <c r="L36" s="22">
-        <f t="shared" ref="L36:L37" si="81">L20/H20-1</f>
+      <c r="L36" s="10">
+        <f t="shared" ref="L36:L37" si="103">L20/H20-1</f>
         <v>0.38043478260869557</v>
       </c>
-      <c r="M36" s="22">
-        <f t="shared" ref="M36:M37" si="82">M20/I20-1</f>
+      <c r="M36" s="10">
+        <f t="shared" ref="M36:M37" si="104">M20/I20-1</f>
         <v>0.62046444121915822</v>
       </c>
-      <c r="N36" s="22">
-        <f t="shared" ref="N36:O37" si="83">N20/J20-1</f>
+      <c r="N36" s="10">
+        <f t="shared" ref="N36:O37" si="105">N20/J20-1</f>
         <v>2.2361744216048862E-2</v>
       </c>
-      <c r="O36" s="22">
-        <f t="shared" si="83"/>
+      <c r="O36" s="10">
+        <f t="shared" si="105"/>
         <v>-4.2217484008528872E-2</v>
       </c>
-      <c r="P36" s="22">
-        <f t="shared" ref="P36:P37" si="84">P20/L20-1</f>
+      <c r="P36" s="10">
+        <f t="shared" ref="P36:P37" si="106">P20/L20-1</f>
+        <v>-2.1653543307086687E-2</v>
+      </c>
+      <c r="Q36" s="10">
+        <f t="shared" ref="Q36:Q37" si="107">Q20/M20-1</f>
         <v>-1</v>
       </c>
-      <c r="Q36" s="22">
-        <f t="shared" ref="Q36:Q37" si="85">Q20/M20-1</f>
+      <c r="R36" s="10">
+        <f t="shared" ref="R36:R37" si="108">R20/N20-1</f>
         <v>-1</v>
       </c>
-      <c r="R36" s="22">
-        <f t="shared" ref="R36:R37" si="86">R20/N20-1</f>
+      <c r="S36" s="10">
+        <f t="shared" ref="S36:S38" si="109">S20/O20-1</f>
         <v>-1</v>
       </c>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
-      <c r="AQ36" s="22"/>
-      <c r="AR36" s="22"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="22"/>
-    </row>
-    <row r="37" spans="2:46" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
+      <c r="T36" s="10">
+        <f t="shared" ref="T36:T38" si="110">T20/P20-1</f>
+        <v>-1</v>
+      </c>
+      <c r="U36" s="10" t="e">
+        <f t="shared" ref="U36:U38" si="111">U20/Q20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36" s="10" t="e">
+        <f t="shared" ref="V36:V38" si="112">V20/R20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W36" s="10"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="22">
-        <f t="shared" si="80"/>
+      <c r="K37" s="10">
+        <f t="shared" si="102"/>
         <v>-4.5803357314148752E-2</v>
       </c>
-      <c r="L37" s="22">
-        <f t="shared" si="81"/>
+      <c r="L37" s="10">
+        <f t="shared" si="103"/>
         <v>2.6131953428201848E-2</v>
       </c>
-      <c r="M37" s="22">
-        <f t="shared" si="82"/>
+      <c r="M37" s="10">
+        <f t="shared" si="104"/>
         <v>-2.2277227722772186E-2</v>
       </c>
-      <c r="N37" s="22">
-        <f t="shared" si="83"/>
+      <c r="N37" s="10">
+        <f t="shared" si="105"/>
         <v>7.480853391684894E-2</v>
       </c>
-      <c r="O37" s="22">
-        <f t="shared" ref="O37" si="87">O21/K21-1</f>
+      <c r="O37" s="10">
+        <f t="shared" ref="O37" si="113">O21/K21-1</f>
         <v>0.21563206835888415</v>
       </c>
-      <c r="P37" s="22">
-        <f t="shared" si="84"/>
+      <c r="P37" s="10">
+        <f t="shared" si="106"/>
+        <v>-0.20221886031265768</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" si="107"/>
         <v>-1</v>
       </c>
-      <c r="Q37" s="22">
-        <f t="shared" si="85"/>
+      <c r="R37" s="10">
+        <f t="shared" si="108"/>
         <v>-1</v>
       </c>
-      <c r="R37" s="22">
-        <f t="shared" si="86"/>
+      <c r="S37" s="10">
+        <f t="shared" si="109"/>
         <v>-1</v>
       </c>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="22"/>
-      <c r="AR37" s="22"/>
-      <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-    </row>
-    <row r="38" spans="2:46" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="s">
+      <c r="T37" s="10">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="U37" s="10" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" s="10" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" s="10"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="10"/>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22">
-        <f t="shared" ref="K38:N38" si="88">K22/G22-1</f>
+      <c r="K38" s="10">
+        <f t="shared" ref="K38:N38" si="114">K22/G22-1</f>
         <v>0.92959295929592956</v>
       </c>
-      <c r="L38" s="22">
-        <f t="shared" si="88"/>
+      <c r="L38" s="10">
+        <f t="shared" si="114"/>
         <v>0.55575065847234395</v>
       </c>
-      <c r="M38" s="22">
-        <f t="shared" si="88"/>
+      <c r="M38" s="10">
+        <f t="shared" si="114"/>
         <v>0.30837304288631717</v>
       </c>
-      <c r="N38" s="22">
-        <f t="shared" si="88"/>
+      <c r="N38" s="10">
+        <f t="shared" si="114"/>
         <v>0.2239263803680982</v>
       </c>
-      <c r="O38" s="22">
+      <c r="O38" s="10">
         <f>O22/K22-1</f>
         <v>0.25940706955530213</v>
       </c>
-      <c r="P38" s="22">
-        <f t="shared" ref="P38:R38" si="89">P22/L22-1</f>
+      <c r="P38" s="10">
+        <f t="shared" ref="P38:R38" si="115">P22/L22-1</f>
+        <v>0.25959367945823919</v>
+      </c>
+      <c r="Q38" s="10">
+        <f t="shared" si="115"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="Q38" s="22">
-        <f t="shared" si="89"/>
+      <c r="R38" s="10">
+        <f t="shared" si="115"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="R38" s="22">
-        <f t="shared" si="89"/>
+      <c r="S38" s="10">
+        <f t="shared" si="109"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="22">
+      <c r="T38" s="10">
+        <f t="shared" si="110"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="U38" s="10">
+        <f t="shared" si="111"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V38" s="10">
+        <f t="shared" si="112"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="W38" s="10"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="10">
         <f>AG22/AF22-1</f>
         <v>0.11207167557371878</v>
       </c>
-      <c r="AH38" s="22">
-        <f t="shared" ref="AH38:AT38" si="90">AH22/AG22-1</f>
+      <c r="AH38" s="10">
+        <f t="shared" ref="AH38:AT38" si="116">AH22/AG22-1</f>
         <v>4.2402826855123754E-2</v>
       </c>
-      <c r="AI38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AI38" s="10">
+        <f t="shared" si="116"/>
         <v>-0.21369491525423734</v>
       </c>
-      <c r="AJ38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AJ38" s="10">
+        <f t="shared" si="116"/>
         <v>0.42127953095361281</v>
       </c>
-      <c r="AK38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AK38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AL38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AM38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AN38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AO38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AO38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AP38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AQ38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AR38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AR38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AS38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AS38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AT38" s="22">
-        <f t="shared" si="90"/>
+      <c r="AT38" s="10">
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -4117,132 +4339,144 @@
         <v>24</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" ref="G39" si="91">G25/G23</f>
+        <f t="shared" ref="G39" si="117">G25/G23</f>
         <v>0.27659157688540642</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" ref="H39:O39" si="92">H25/H23</f>
+        <f t="shared" ref="H39:N39" si="118">H25/H23</f>
         <v>0.26772823779193211</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="118"/>
         <v>0.27500746491489997</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="118"/>
         <v>0.21139437349795012</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="118"/>
         <v>0.25853696741854643</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="118"/>
         <v>0.27116782153118141</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="118"/>
         <v>0.24571957427117083</v>
       </c>
       <c r="N39" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="118"/>
         <v>0.16779803895470075</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="92"/>
+        <f>O25/O23</f>
         <v>0.21655542658154381</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" ref="P39:R39" si="93">P25/P23</f>
+        <f>P25/P23</f>
+        <v>0.24841549295774651</v>
+      </c>
+      <c r="Q39" s="10">
+        <f t="shared" ref="Q39:R39" si="119">Q25/Q23</f>
+        <v>0.21999999999999995</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="119"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="S39" s="10">
+        <f t="shared" ref="S39:V39" si="120">S25/S23</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="T39" s="10">
+        <f t="shared" si="120"/>
+        <v>0.21999999999999995</v>
+      </c>
+      <c r="U39" s="10">
+        <f t="shared" si="120"/>
         <v>0.22</v>
       </c>
-      <c r="Q39" s="10">
-        <f t="shared" si="93"/>
-        <v>0.21999999999999995</v>
-      </c>
-      <c r="R39" s="10">
-        <f t="shared" si="93"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
+      <c r="V39" s="10">
+        <f t="shared" si="120"/>
+        <v>0.22</v>
+      </c>
       <c r="W39" s="10"/>
       <c r="AB39" s="10">
-        <f t="shared" ref="AB39" si="94">AB25/AB23</f>
+        <f t="shared" ref="AB39" si="121">AB25/AB23</f>
         <v>0.29438575142430451</v>
       </c>
       <c r="AC39" s="10">
-        <f t="shared" ref="AC39" si="95">AC25/AC23</f>
+        <f t="shared" ref="AC39" si="122">AC25/AC23</f>
         <v>0.29861230636833042</v>
       </c>
       <c r="AD39" s="10">
-        <f t="shared" ref="AD39:AG39" si="96">AD25/AD23</f>
+        <f t="shared" ref="AD39:AG39" si="123">AD25/AD23</f>
         <v>0.31165766035156661</v>
       </c>
       <c r="AE39" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="123"/>
         <v>0.34959746279580378</v>
       </c>
       <c r="AF39" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="123"/>
         <v>0.29073018918697557</v>
       </c>
       <c r="AG39" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="123"/>
         <v>0.27857772198954772</v>
       </c>
       <c r="AH39" s="10">
-        <f t="shared" ref="AH39" si="97">AH25/AH23</f>
+        <f t="shared" ref="AH39" si="124">AH25/AH23</f>
         <v>0.29519022579647386</v>
       </c>
       <c r="AI39" s="10">
-        <f t="shared" ref="AI39:AJ39" si="98">AI25/AI23</f>
+        <f t="shared" ref="AI39:AJ39" si="125">AI25/AI23</f>
         <v>0.24745569570513562</v>
       </c>
       <c r="AJ39" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="125"/>
         <v>0.22423345034688144</v>
       </c>
       <c r="AK39" s="10">
-        <f t="shared" ref="AK39:AT39" si="99">AK25/AK23</f>
-        <v>0.23000000000000004</v>
+        <f t="shared" ref="AK39:AT39" si="126">AK25/AK23</f>
+        <v>0.22999999999999993</v>
       </c>
       <c r="AL39" s="10">
-        <f t="shared" si="99"/>
+        <f t="shared" si="126"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="AM39" s="10">
+        <f t="shared" si="126"/>
         <v>0.23999999999999996</v>
       </c>
-      <c r="AM39" s="10">
-        <f t="shared" si="99"/>
-        <v>0.24000000000000002</v>
-      </c>
       <c r="AN39" s="10">
-        <f t="shared" si="99"/>
+        <f t="shared" si="126"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="AO39" s="10">
+        <f t="shared" si="126"/>
         <v>0.25</v>
       </c>
-      <c r="AO39" s="10">
-        <f t="shared" si="99"/>
-        <v>0.25</v>
-      </c>
       <c r="AP39" s="10">
-        <f t="shared" si="99"/>
-        <v>0.25999999999999995</v>
+        <f t="shared" si="126"/>
+        <v>0.26</v>
       </c>
       <c r="AQ39" s="10">
-        <f t="shared" si="99"/>
+        <f t="shared" si="126"/>
         <v>0.26</v>
       </c>
       <c r="AR39" s="10">
-        <f t="shared" si="99"/>
-        <v>0.27</v>
+        <f t="shared" si="126"/>
+        <v>0.26999999999999996</v>
       </c>
       <c r="AS39" s="10">
-        <f t="shared" si="99"/>
-        <v>0.27</v>
+        <f t="shared" si="126"/>
+        <v>0.27000000000000007</v>
       </c>
       <c r="AT39" s="10">
-        <f t="shared" si="99"/>
+        <f t="shared" si="126"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -4251,35 +4485,35 @@
         <v>100</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" ref="G40:N40" si="100">G29/G23</f>
+        <f t="shared" ref="G40:N40" si="127">G29/G23</f>
         <v>-0.10852105778648387</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="127"/>
         <v>-0.10987261146496809</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="127"/>
         <v>-9.3361202348959921E-2</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="127"/>
         <v>1.003722727486918E-2</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="127"/>
         <v>-5.0830200501253031E-2</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="127"/>
         <v>-4.9433834713537163E-2</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="127"/>
         <v>-7.9978405059385971E-2</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="127"/>
         <v>-7.169794578286523E-2</v>
       </c>
       <c r="O40" s="10">
@@ -4287,97 +4521,109 @@
         <v>-0.11201392919326754</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" ref="P40:R40" si="101">P29/P23</f>
-        <v>-8.5495867436039777E-2</v>
+        <f t="shared" ref="P40:R40" si="128">P29/P23</f>
+        <v>-9.2429577464788693E-2</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" si="101"/>
-        <v>-9.0115099564428577E-2</v>
+        <f t="shared" si="128"/>
+        <v>-8.9380577774839695E-2</v>
       </c>
       <c r="R40" s="10">
-        <f t="shared" si="101"/>
-        <v>-8.0069044344300063E-3</v>
-      </c>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
+        <f t="shared" si="128"/>
+        <v>-7.584356427694592E-3</v>
+      </c>
+      <c r="S40" s="10">
+        <f t="shared" ref="S40:V40" si="129">S29/S23</f>
+        <v>-9.2232263770278849E-2</v>
+      </c>
+      <c r="T40" s="10">
+        <f t="shared" si="129"/>
+        <v>-0.10461435278336692</v>
+      </c>
+      <c r="U40" s="10">
+        <f t="shared" si="129"/>
+        <v>-7.4648169309371057E-2</v>
+      </c>
+      <c r="V40" s="10">
+        <f t="shared" si="129"/>
+        <v>3.2529938783861126E-3</v>
+      </c>
       <c r="W40" s="10"/>
       <c r="AB40" s="10">
-        <f t="shared" ref="AB40" si="102">AB27/AB23</f>
+        <f t="shared" ref="AB40" si="130">AB27/AB23</f>
         <v>8.5037889263786748E-2</v>
       </c>
       <c r="AC40" s="10">
-        <f t="shared" ref="AC40" si="103">AC27/AC23</f>
+        <f t="shared" ref="AC40" si="131">AC27/AC23</f>
         <v>8.3358433734939716E-2</v>
       </c>
       <c r="AD40" s="10">
-        <f t="shared" ref="AD40:AJ40" si="104">AD27/AD23</f>
+        <f t="shared" ref="AD40:AJ40" si="132">AD27/AD23</f>
         <v>8.6439266109912566E-2</v>
       </c>
       <c r="AE40" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>8.7907619744653095E-2</v>
       </c>
       <c r="AF40" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>6.7309379789636123E-2</v>
       </c>
       <c r="AG40" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>3.7886377077474498E-2</v>
       </c>
       <c r="AH40" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>-2.1651716671822188E-3</v>
       </c>
       <c r="AI40" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>-5.0041258988565561E-2</v>
       </c>
       <c r="AJ40" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>-6.0192656429367587E-2</v>
       </c>
       <c r="AK40" s="10">
         <f>AK27/AK23</f>
-        <v>-3.6578253723620745E-2</v>
+        <v>-4.1129248649363043E-2</v>
       </c>
       <c r="AL40" s="10">
-        <f t="shared" ref="AL40:AT40" si="105">AL27/AL23</f>
-        <v>7.9571648741299302E-5</v>
+        <f t="shared" ref="AL40:AT40" si="133">AL27/AL23</f>
+        <v>-4.0163237844266396E-3</v>
       </c>
       <c r="AM40" s="10">
-        <f t="shared" si="105"/>
-        <v>2.4071614483867233E-2</v>
+        <f t="shared" si="133"/>
+        <v>2.0385308594015987E-2</v>
       </c>
       <c r="AN40" s="10">
-        <f t="shared" si="105"/>
-        <v>5.5664453035480517E-2</v>
+        <f t="shared" si="133"/>
+        <v>5.2346777734614498E-2</v>
       </c>
       <c r="AO40" s="10">
-        <f t="shared" si="105"/>
-        <v>6.6769341433453075E-2</v>
+        <f t="shared" si="133"/>
+        <v>6.364124757835074E-2</v>
       </c>
       <c r="AP40" s="10">
-        <f t="shared" si="105"/>
-        <v>8.0259449215672976E-2</v>
+        <f t="shared" si="133"/>
+        <v>7.7190938100667905E-2</v>
       </c>
       <c r="AQ40" s="10">
-        <f t="shared" si="105"/>
-        <v>8.368307875442213E-2</v>
+        <f t="shared" si="133"/>
+        <v>8.0673015470178952E-2</v>
       </c>
       <c r="AR40" s="10">
-        <f t="shared" si="105"/>
-        <v>9.7041496301956964E-2</v>
+        <f t="shared" si="133"/>
+        <v>9.4088767556461242E-2</v>
       </c>
       <c r="AS40" s="10">
-        <f t="shared" si="105"/>
-        <v>0.10033594399144349</v>
+        <f t="shared" si="133"/>
+        <v>9.7439457698242998E-2</v>
       </c>
       <c r="AT40" s="10">
-        <f t="shared" si="105"/>
-        <v>0.1135676402963684</v>
+        <f t="shared" si="133"/>
+        <v>0.11072632517065741</v>
       </c>
     </row>
     <row r="41" spans="2:46" x14ac:dyDescent="0.2">
@@ -4385,35 +4631,35 @@
         <v>99</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" ref="G41:N41" si="106">G30/G29</f>
+        <f t="shared" ref="G41:N41" si="134">G30/G29</f>
         <v>-0.45487364620938614</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-0.17294685990338171</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>0.57462686567164167</v>
       </c>
       <c r="J41" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-3.2723004694835858</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-2.003081664098617E-2</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-5.2991452991453095E-2</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-1.6393442622950841E-2</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="O41" s="10">
@@ -4421,56 +4667,68 @@
         <v>-2.2668393782383424E-2</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" ref="P41:R41" si="107">P30/P29</f>
-        <v>0</v>
+        <f t="shared" ref="P41:R41" si="135">P30/P29</f>
+        <v>-1.1428571428571432E-2</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="10">
+        <f t="shared" ref="S41:V41" si="136">S30/S29</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
       <c r="W41" s="10"/>
       <c r="AB41" s="10">
-        <f t="shared" ref="AB41" si="108">AB30/AB29</f>
+        <f t="shared" ref="AB41" si="137">AB30/AB29</f>
         <v>0.28089005235602083</v>
       </c>
       <c r="AC41" s="10">
-        <f t="shared" ref="AC41" si="109">AC30/AC29</f>
+        <f t="shared" ref="AC41" si="138">AC30/AC29</f>
         <v>0.2813439665315729</v>
       </c>
       <c r="AD41" s="10">
-        <f t="shared" ref="AD41:AJ41" si="110">AD30/AD29</f>
+        <f t="shared" ref="AD41:AJ41" si="139">AD30/AD29</f>
         <v>0.28280773143438481</v>
       </c>
       <c r="AE41" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="139"/>
         <v>0.21529060679266754</v>
       </c>
       <c r="AF41" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="139"/>
         <v>0.29519230769230836</v>
       </c>
       <c r="AG41" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="139"/>
         <v>0.15867579908675838</v>
       </c>
       <c r="AH41" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="139"/>
         <v>-0.9126213592232959</v>
       </c>
       <c r="AI41" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="139"/>
         <v>0.19281729428172875</v>
       </c>
       <c r="AJ41" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="139"/>
         <v>3.6274762027270417E-2</v>
       </c>
       <c r="AK41" s="10">
@@ -4478,39 +4736,39 @@
         <v>0</v>
       </c>
       <c r="AL41" s="10">
-        <f t="shared" ref="AL41:AT41" si="111">AL30/AL29</f>
+        <f t="shared" ref="AL41:AT41" si="140">AL30/AL29</f>
         <v>0</v>
       </c>
       <c r="AM41" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AN41" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AO41" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="140"/>
         <v>0.1</v>
       </c>
       <c r="AP41" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="140"/>
         <v>0.1</v>
       </c>
       <c r="AQ41" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AR41" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AS41" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="140"/>
         <v>0.25</v>
       </c>
       <c r="AT41" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="140"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4539,21 +4797,32 @@
         <v>1083.5999999999999</v>
       </c>
       <c r="P43" s="7">
-        <f>O43+P31</f>
-        <v>977.36539999999991</v>
+        <v>908.9</v>
       </c>
       <c r="Q43" s="7">
         <f>P43+Q31</f>
-        <v>854.67999999999984</v>
+        <v>787.2145999999999</v>
       </c>
       <c r="R43" s="7">
         <f>Q43+R31</f>
-        <v>835.73089999999991</v>
-      </c>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
+        <v>769.26549999999997</v>
+      </c>
+      <c r="S43" s="7">
+        <f t="shared" ref="S43:V43" si="141">R43+S31</f>
+        <v>635.77589999999998</v>
+      </c>
+      <c r="T43" s="7">
+        <f t="shared" si="141"/>
+        <v>510.99189999999993</v>
+      </c>
+      <c r="U43" s="7">
+        <f t="shared" si="141"/>
+        <v>404.28223000000003</v>
+      </c>
+      <c r="V43" s="7">
+        <f t="shared" si="141"/>
+        <v>412.36567500000018</v>
+      </c>
       <c r="W43" s="7"/>
       <c r="AI43" s="7">
         <f>N43</f>
@@ -4561,47 +4830,47 @@
       </c>
       <c r="AJ43" s="7">
         <f>R43</f>
-        <v>835.73089999999991</v>
+        <v>769.26549999999997</v>
       </c>
       <c r="AK43" s="7">
-        <f t="shared" ref="AK43:AT43" si="112">AJ43+AK31</f>
-        <v>620.21036800000036</v>
+        <f t="shared" ref="AK43:AT43" si="142">AJ43+AK31</f>
+        <v>527.90455999999983</v>
       </c>
       <c r="AL43" s="7">
-        <f t="shared" si="112"/>
-        <v>633.17029536000064</v>
+        <f t="shared" si="142"/>
+        <v>510.88389120000039</v>
       </c>
       <c r="AM43" s="7">
-        <f t="shared" si="112"/>
-        <v>830.75867886720152</v>
+        <f t="shared" si="142"/>
+        <v>675.07861862400068</v>
       </c>
       <c r="AN43" s="7">
-        <f t="shared" si="112"/>
-        <v>1317.7669999985465</v>
+        <f t="shared" si="142"/>
+        <v>1123.512171050482</v>
       </c>
       <c r="AO43" s="7">
-        <f t="shared" si="112"/>
-        <v>1874.6890171266355</v>
+        <f t="shared" si="142"/>
+        <v>1643.4267979700053</v>
       </c>
       <c r="AP43" s="7">
-        <f t="shared" si="112"/>
-        <v>2581.4105764702608</v>
+        <f t="shared" si="142"/>
+        <v>2309.3918401788615</v>
       </c>
       <c r="AQ43" s="7">
-        <f t="shared" si="112"/>
-        <v>3277.618550398588</v>
+        <f t="shared" si="142"/>
+        <v>2967.0933036159054</v>
       </c>
       <c r="AR43" s="7">
-        <f t="shared" si="112"/>
-        <v>4127.4815199293735</v>
+        <f t="shared" si="142"/>
+        <v>3774.7466432887022</v>
       </c>
       <c r="AS43" s="7">
-        <f t="shared" si="112"/>
-        <v>5001.0036508905723</v>
+        <f t="shared" si="142"/>
+        <v>4606.3184193456609</v>
       </c>
       <c r="AT43" s="7">
-        <f t="shared" si="112"/>
-        <v>6040.5908157738122</v>
+        <f t="shared" si="142"/>
+        <v>5600.0673667340188</v>
       </c>
     </row>
     <row r="44" spans="2:46" x14ac:dyDescent="0.2">
@@ -4623,6 +4892,9 @@
       <c r="O44" s="7">
         <v>103.4</v>
       </c>
+      <c r="P44" s="7">
+        <v>99.6</v>
+      </c>
     </row>
     <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
@@ -4643,6 +4915,9 @@
       <c r="O45" s="7">
         <v>917.6</v>
       </c>
+      <c r="P45" s="7">
+        <v>734.8</v>
+      </c>
     </row>
     <row r="46" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
@@ -4663,6 +4938,9 @@
       <c r="O46" s="7">
         <v>240.3</v>
       </c>
+      <c r="P46" s="7">
+        <v>275.89999999999998</v>
+      </c>
     </row>
     <row r="47" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
@@ -4683,6 +4961,9 @@
       <c r="O47" s="7">
         <v>157.4</v>
       </c>
+      <c r="P47" s="7">
+        <v>146.80000000000001</v>
+      </c>
     </row>
     <row r="48" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
@@ -4704,6 +4985,9 @@
       <c r="O48" s="7">
         <v>568.70000000000005</v>
       </c>
+      <c r="P48" s="7">
+        <v>554.29999999999995</v>
+      </c>
     </row>
     <row r="49" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
@@ -4724,6 +5008,9 @@
       <c r="O49" s="7">
         <v>16.7</v>
       </c>
+      <c r="P49" s="7">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="50" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -4744,6 +5031,9 @@
       <c r="O50" s="7">
         <v>37.799999999999997</v>
       </c>
+      <c r="P50" s="7">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="51" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
@@ -4754,21 +5044,25 @@
         <v>2562.6999999999998</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" ref="L51" si="113">SUM(L43:L50)</f>
+        <f t="shared" ref="L51" si="143">SUM(L43:L50)</f>
         <v>3545.8</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" ref="M51" si="114">SUM(M43:M50)</f>
+        <f t="shared" ref="M51" si="144">SUM(M43:M50)</f>
         <v>3762.0000000000005</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" ref="N51" si="115">SUM(N43:N50)</f>
+        <f t="shared" ref="N51" si="145">SUM(N43:N50)</f>
         <v>3499.2999999999997</v>
       </c>
       <c r="O51" s="7">
         <f>SUM(O43:O50)</f>
         <v>3125.5</v>
       </c>
+      <c r="P51" s="7">
+        <f>SUM(P43:P50)</f>
+        <v>2799.5</v>
+      </c>
     </row>
     <row r="52" spans="2:50" x14ac:dyDescent="0.2">
       <c r="K52" s="7"/>
@@ -4792,6 +5086,9 @@
       <c r="O53" s="7">
         <v>386.8</v>
       </c>
+      <c r="P53" s="7">
+        <v>217.4</v>
+      </c>
     </row>
     <row r="54" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
@@ -4812,6 +5109,9 @@
       <c r="O54" s="7">
         <v>533.29999999999995</v>
       </c>
+      <c r="P54" s="7">
+        <v>512.1</v>
+      </c>
     </row>
     <row r="55" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
@@ -4836,6 +5136,10 @@
         <f>200.3+374.5</f>
         <v>574.79999999999995</v>
       </c>
+      <c r="P55" s="7">
+        <f>194+367.4</f>
+        <v>561.4</v>
+      </c>
     </row>
     <row r="56" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
@@ -4859,6 +5163,10 @@
         <f>6.5+35.7</f>
         <v>42.2</v>
       </c>
+      <c r="P56" s="7">
+        <f>8.9+32.1</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="57" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
@@ -4880,6 +5188,9 @@
       <c r="O57" s="7">
         <v>137.69999999999999</v>
       </c>
+      <c r="P57" s="7">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="58" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -4900,6 +5211,9 @@
       <c r="O58" s="7">
         <v>1450.7</v>
       </c>
+      <c r="P58" s="7">
+        <v>1343.5</v>
+      </c>
     </row>
     <row r="59" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -4918,12 +5232,16 @@
         <v>3762</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" ref="N59" si="116">SUM(N53:N58)</f>
+        <f t="shared" ref="N59" si="146">SUM(N53:N58)</f>
         <v>3499.3</v>
       </c>
       <c r="O59" s="7">
         <f>SUM(O53:O58)</f>
         <v>3125.5</v>
+      </c>
+      <c r="P59" s="7">
+        <f>SUM(P53:P58)</f>
+        <v>2799.5</v>
       </c>
     </row>
     <row r="60" spans="2:50" x14ac:dyDescent="0.2">
@@ -4931,14 +5249,117 @@
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
     </row>
-    <row r="61" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="K61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
+    <row r="61" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7">
+        <f>K31</f>
+        <v>-66.199999999999875</v>
+      </c>
+      <c r="L61" s="7">
+        <f>L31</f>
+        <v>-61.599999999999888</v>
+      </c>
+      <c r="M61" s="7">
+        <f>M31</f>
+        <v>-105.39999999999986</v>
+      </c>
+      <c r="N61" s="7">
+        <f>N31</f>
+        <v>-141.39999999999995</v>
+      </c>
+      <c r="O61" s="7">
+        <f>O31</f>
+        <v>-157.89999999999998</v>
+      </c>
+      <c r="P61" s="7">
+        <f>P31</f>
+        <v>-106.19999999999996</v>
+      </c>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7">
+        <f>AF31</f>
+        <v>366.49999999999886</v>
+      </c>
+      <c r="AG61" s="7">
+        <f>AG31</f>
+        <v>221.0999999999994</v>
+      </c>
+      <c r="AH61" s="7">
+        <f>AH31</f>
+        <v>-78.800000000000239</v>
+      </c>
+      <c r="AI61" s="7">
+        <f>AI31</f>
+        <v>-231.50000000000097</v>
+      </c>
+      <c r="AJ61" s="7">
+        <f>AJ31</f>
+        <v>-374.59999999999968</v>
+      </c>
+      <c r="AK61" s="7">
+        <f>AK31</f>
+        <v>-241.36094000000014</v>
+      </c>
+      <c r="AL61" s="7">
+        <f>AL31</f>
+        <v>-17.020668799999424</v>
+      </c>
+      <c r="AM61" s="7">
+        <f>AM31</f>
+        <v>164.19472742400035</v>
+      </c>
+      <c r="AN61" s="7">
+        <f>AN31</f>
+        <v>448.43355242648136</v>
+      </c>
+      <c r="AO61" s="7">
+        <f>AO31</f>
+        <v>519.91462691952336</v>
+      </c>
+      <c r="AP61" s="7">
+        <f>AP31</f>
+        <v>665.96504220885606</v>
+      </c>
+      <c r="AQ61" s="7">
+        <f>AQ31</f>
+        <v>657.70146343704403</v>
+      </c>
+      <c r="AR61" s="7">
+        <f>AR31</f>
+        <v>807.65333967279685</v>
+      </c>
+      <c r="AS61" s="7">
+        <f>AS31</f>
+        <v>831.57177605695847</v>
+      </c>
+      <c r="AT61" s="7">
+        <f>AT31</f>
+        <v>993.74894738835769</v>
+      </c>
     </row>
     <row r="62" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -4949,26 +5370,26 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7">
-        <f t="shared" ref="K62:M62" si="117">K31</f>
-        <v>-66.199999999999875</v>
+        <v>-66.8</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="117"/>
-        <v>-61.599999999999888</v>
+        <f>-128.4-K62</f>
+        <v>-61.600000000000009</v>
       </c>
       <c r="M62" s="7">
-        <f t="shared" si="117"/>
-        <v>-105.39999999999986</v>
+        <f>-233.8-L62-K62</f>
+        <v>-105.39999999999999</v>
       </c>
       <c r="N62" s="7">
-        <f>N31</f>
-        <v>-141.39999999999995</v>
+        <f>-383.3-M62-L62-K62</f>
+        <v>-149.5</v>
       </c>
       <c r="O62" s="7">
-        <f>O31</f>
-        <v>-157.89999999999998</v>
-      </c>
-      <c r="P62" s="7"/>
+        <v>-157.9</v>
+      </c>
+      <c r="P62" s="7">
+        <v>-108.7</v>
+      </c>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
@@ -4980,70 +5401,26 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
-      <c r="AF62" s="7">
-        <f>AF31</f>
-        <v>366.49999999999886</v>
-      </c>
-      <c r="AG62" s="7">
-        <f t="shared" ref="AG62:AT62" si="118">AG31</f>
-        <v>221.0999999999994</v>
-      </c>
-      <c r="AH62" s="7">
-        <f t="shared" si="118"/>
-        <v>-78.800000000000239</v>
+      <c r="AF62" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>-673</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>-470.9</v>
       </c>
       <c r="AI62" s="7">
-        <f t="shared" si="118"/>
-        <v>-231.50000000000097</v>
+        <v>-215.3</v>
       </c>
       <c r="AJ62" s="7">
-        <f t="shared" si="118"/>
-        <v>-374.59999999999968</v>
-      </c>
-      <c r="AK62" s="7">
-        <f t="shared" si="118"/>
-        <v>-215.52053199999952</v>
-      </c>
-      <c r="AL62" s="7">
-        <f t="shared" si="118"/>
-        <v>12.9599273600003</v>
-      </c>
-      <c r="AM62" s="7">
-        <f t="shared" si="118"/>
-        <v>197.58838350720083</v>
-      </c>
-      <c r="AN62" s="7">
-        <f t="shared" si="118"/>
-        <v>487.00832113134499</v>
-      </c>
-      <c r="AO62" s="7">
-        <f t="shared" si="118"/>
-        <v>556.9220171280889</v>
-      </c>
-      <c r="AP62" s="7">
-        <f t="shared" si="118"/>
-        <v>706.72155934362524</v>
-      </c>
-      <c r="AQ62" s="7">
-        <f t="shared" si="118"/>
-        <v>696.20797392832719</v>
-      </c>
-      <c r="AR62" s="7">
-        <f t="shared" si="118"/>
-        <v>849.86296953078545</v>
-      </c>
-      <c r="AS62" s="7">
-        <f t="shared" si="118"/>
-        <v>873.5221309611984</v>
-      </c>
-      <c r="AT62" s="7">
-        <f t="shared" si="118"/>
-        <v>1039.5871648832399</v>
-      </c>
+        <v>-381.3</v>
+      </c>
+      <c r="AK62" s="7"/>
     </row>
     <row r="63" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -5054,24 +5431,26 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7">
-        <v>-66.8</v>
+        <v>18.7</v>
       </c>
       <c r="L63" s="7">
-        <f>-128.4-K63</f>
-        <v>-61.600000000000009</v>
+        <f>36.3-K63</f>
+        <v>17.599999999999998</v>
       </c>
       <c r="M63" s="7">
-        <f>-233.8-L63-K63</f>
-        <v>-105.39999999999999</v>
+        <f>53.2-L63-K63</f>
+        <v>16.900000000000009</v>
       </c>
       <c r="N63" s="7">
-        <f>-383.3-M63-L63-K63</f>
-        <v>-149.5</v>
+        <f>77.2-M63-L63-K63</f>
+        <v>24.000000000000004</v>
       </c>
       <c r="O63" s="7">
-        <v>-157.9</v>
-      </c>
-      <c r="P63" s="7"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P63" s="7">
+        <v>15.3</v>
+      </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -5084,25 +5463,31 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
       <c r="AF63" s="2">
-        <v>34.700000000000003</v>
+        <v>151.9</v>
       </c>
       <c r="AG63" s="2">
-        <v>-673</v>
+        <v>126.9</v>
       </c>
       <c r="AH63" s="2">
-        <v>-470.9</v>
+        <v>96.2</v>
       </c>
       <c r="AI63" s="7">
-        <v>-215.3</v>
+        <v>80.7</v>
       </c>
       <c r="AJ63" s="7">
-        <v>-381.3</v>
+        <v>77.2</v>
       </c>
       <c r="AK63" s="7"/>
+      <c r="AW63" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX63" s="16">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="64" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -5113,24 +5498,26 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="L64" s="7">
-        <f>36.3-K64</f>
-        <v>17.599999999999998</v>
+        <f>18.2-K64</f>
+        <v>0</v>
       </c>
       <c r="M64" s="7">
-        <f>53.2-L64-K64</f>
-        <v>16.900000000000009</v>
+        <f>18.2-L64-K64</f>
+        <v>0</v>
       </c>
       <c r="N64" s="7">
-        <f>77.2-M64-L64-K64</f>
-        <v>24.000000000000004</v>
+        <f>18.2-M64-L64-K64</f>
+        <v>0</v>
       </c>
       <c r="O64" s="7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="P64" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="7">
+        <v>0</v>
+      </c>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -5143,31 +5530,31 @@
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="2">
-        <v>151.9</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="2">
-        <v>126.9</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="2">
-        <v>96.2</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="7">
-        <v>80.7</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="7">
-        <v>77.2</v>
+        <v>18.2</v>
       </c>
       <c r="AK64" s="7"/>
-      <c r="AW64" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX64" s="16">
-        <v>0.06</v>
+      <c r="AW64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX64" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -5178,22 +5565,26 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7">
-        <v>18.2</v>
+        <v>0.6</v>
       </c>
       <c r="L65" s="7">
-        <f>18.2-K65</f>
+        <f>0.6-K65</f>
         <v>0</v>
       </c>
       <c r="M65" s="7">
-        <f>18.2-L65-K65</f>
+        <f>0.6-L65-K65</f>
         <v>0</v>
       </c>
       <c r="N65" s="7">
-        <f>18.2-M65-L65-K65</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+        <f>6.7-M65-L65-K65</f>
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0</v>
+      </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
@@ -5218,19 +5609,19 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="7">
-        <v>18.2</v>
+        <v>6.7</v>
       </c>
       <c r="AK65" s="7"/>
-      <c r="AW65" t="s">
-        <v>96</v>
+      <c r="AW65" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="AX65" s="17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="66" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -5241,22 +5632,23 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L66" s="7">
-        <f>0.6-K66</f>
         <v>0</v>
       </c>
       <c r="M66" s="7">
-        <f>0.6-L66-K66</f>
         <v>0</v>
       </c>
       <c r="N66" s="7">
-        <f>6.7-M66-L66-K66</f>
-        <v>6.1000000000000005</v>
-      </c>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0</v>
+      </c>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -5269,10 +5661,10 @@
       <c r="AD66" s="7"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="2">
-        <v>0</v>
+        <v>59.1</v>
       </c>
       <c r="AG66" s="2">
-        <v>0</v>
+        <v>57.3</v>
       </c>
       <c r="AH66" s="2">
         <v>0</v>
@@ -5281,19 +5673,20 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="7">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="AK66" s="7"/>
-      <c r="AW66" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX66" s="17">
-        <v>0.02</v>
+      <c r="AW66" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX66" s="2">
+        <f>NPV(AX63,AK31:CF31)+Main!M5-Main!M6</f>
+        <v>9004.5050317883761</v>
       </c>
     </row>
     <row r="67" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -5315,8 +5708,12 @@
       <c r="N67" s="7">
         <v>0</v>
       </c>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0</v>
+      </c>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
@@ -5329,32 +5726,32 @@
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
       <c r="AF67" s="2">
-        <v>59.1</v>
+        <v>395.1</v>
       </c>
       <c r="AG67" s="2">
-        <v>57.3</v>
+        <v>1015.9</v>
       </c>
       <c r="AH67" s="2">
-        <v>0</v>
+        <v>385.6</v>
       </c>
       <c r="AI67" s="7">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AJ67" s="7">
         <v>0</v>
       </c>
       <c r="AK67" s="7"/>
-      <c r="AW67" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX67" s="2">
-        <f>NPV(AX64,AK31:CF31)+Main!M5-Main!M6</f>
-        <v>13027.527416676256</v>
+      <c r="AW67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="18">
+        <f>AX66/Main!M3</f>
+        <v>29.568559030034301</v>
       </c>
     </row>
     <row r="68" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -5365,19 +5762,26 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L68" s="7">
-        <v>0</v>
+        <f>14.5-K68</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M68" s="7">
-        <v>0</v>
+        <f>20.7-L68-K68</f>
+        <v>6.1999999999999984</v>
       </c>
       <c r="N68" s="7">
-        <v>0</v>
-      </c>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
+        <f>30.5-M68-L68-K68</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O68" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="P68" s="7">
+        <v>7.8</v>
+      </c>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -5390,32 +5794,32 @@
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="2">
-        <v>395.1</v>
+        <v>25.6</v>
       </c>
       <c r="AG68" s="2">
-        <v>1015.9</v>
+        <v>10.7</v>
       </c>
       <c r="AH68" s="2">
-        <v>385.6</v>
+        <v>8.9</v>
       </c>
       <c r="AI68" s="7">
-        <v>15.5</v>
+        <v>7.9</v>
       </c>
       <c r="AJ68" s="7">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="AK68" s="7"/>
-      <c r="AW68" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX68" s="18">
-        <f>AX67/Main!M3</f>
-        <v>171.12429689671688</v>
+      <c r="AW68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX68" s="17">
+        <f>AX67/Main!M2-1</f>
+        <v>0.17522094713967817</v>
       </c>
     </row>
     <row r="69" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -5426,24 +5830,24 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="L69" s="7">
-        <f>14.5-K69</f>
-        <v>8.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M69" s="7">
-        <f>20.7-L69-K69</f>
-        <v>6.1999999999999984</v>
+        <v>0</v>
       </c>
       <c r="N69" s="7">
-        <f>30.5-M69-L69-K69</f>
-        <v>9.8000000000000007</v>
+        <f>-16.3-M69-L69-K69</f>
+        <v>-16.3</v>
       </c>
       <c r="O69" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="P69" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0</v>
+      </c>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
@@ -5456,32 +5860,25 @@
       <c r="AD69" s="7"/>
       <c r="AE69" s="7"/>
       <c r="AF69" s="2">
-        <v>25.6</v>
+        <v>-107.9</v>
       </c>
       <c r="AG69" s="2">
-        <v>10.7</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AH69" s="2">
-        <v>8.9</v>
+        <v>61.4</v>
       </c>
       <c r="AI69" s="7">
-        <v>7.9</v>
+        <v>80.3</v>
       </c>
       <c r="AJ69" s="7">
-        <v>30.5</v>
+        <v>-16.3</v>
       </c>
       <c r="AK69" s="7"/>
-      <c r="AW69" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX69" s="17">
-        <f>AX68/Main!M2-1</f>
-        <v>0.33170659063592911</v>
-      </c>
     </row>
     <row r="70" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -5492,20 +5889,25 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L70" s="7">
-        <v>0</v>
+        <f>0.5-K70</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
       </c>
       <c r="N70" s="7">
-        <f>-16.3-M70-L70-K70</f>
-        <v>-16.3</v>
-      </c>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
+        <f>5.4-M70-L70-K70</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O70" s="7">
+        <v>-6.9</v>
+      </c>
+      <c r="P70" s="7">
+        <v>0</v>
+      </c>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
@@ -5518,25 +5920,25 @@
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="2">
-        <v>-107.9</v>
+        <v>-6.4</v>
       </c>
       <c r="AG70" s="2">
-        <v>-4.0999999999999996</v>
+        <v>-100.8</v>
       </c>
       <c r="AH70" s="2">
-        <v>61.4</v>
+        <v>1.9</v>
       </c>
       <c r="AI70" s="7">
-        <v>80.3</v>
+        <v>-27.3</v>
       </c>
       <c r="AJ70" s="7">
-        <v>-16.3</v>
+        <v>0</v>
       </c>
       <c r="AK70" s="7"/>
     </row>
     <row r="71" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5547,23 +5949,23 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L71" s="7">
-        <f>0.5-K71</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
       </c>
       <c r="N71" s="7">
-        <f>5.4-M71-L71-K71</f>
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="O71" s="7">
-        <v>-6.9</v>
-      </c>
-      <c r="P71" s="7"/>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P71" s="7">
+        <v>2.5</v>
+      </c>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
@@ -5576,16 +5978,16 @@
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
       <c r="AF71" s="2">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="2">
-        <v>-100.8</v>
+        <v>0</v>
       </c>
       <c r="AH71" s="2">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="7">
-        <v>-27.3</v>
+        <v>0</v>
       </c>
       <c r="AJ71" s="7">
         <v>0</v>
@@ -5594,7 +5996,7 @@
     </row>
     <row r="72" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -5611,15 +6013,18 @@
         <v>0</v>
       </c>
       <c r="M72" s="7">
-        <v>0</v>
+        <f>1.9-L72-K72</f>
+        <v>1.9</v>
       </c>
       <c r="N72" s="7">
         <v>0</v>
       </c>
       <c r="O72" s="7">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="P72" s="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="P72" s="7">
+        <v>1.2</v>
+      </c>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
@@ -5632,25 +6037,25 @@
       <c r="AD72" s="7"/>
       <c r="AE72" s="7"/>
       <c r="AF72" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG72" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH72" s="2">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AI72" s="7">
         <v>0</v>
       </c>
       <c r="AJ72" s="7">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AK72" s="7"/>
     </row>
     <row r="73" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5661,22 +6066,26 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L73" s="7">
-        <v>0</v>
+        <f>-0.6-K73</f>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="M73" s="7">
-        <f>1.9-L73-K73</f>
-        <v>1.9</v>
+        <f>-1.4-L73-K73</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="N73" s="7">
-        <v>0</v>
+        <f>-3.5-M73-L73-K73</f>
+        <v>-2.1</v>
       </c>
       <c r="O73" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="P73" s="7"/>
+        <v>-4.8</v>
+      </c>
+      <c r="P73" s="7">
+        <v>-0.2</v>
+      </c>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
@@ -5689,25 +6098,25 @@
       <c r="AD73" s="7"/>
       <c r="AE73" s="7"/>
       <c r="AF73" s="2">
-        <v>8.5</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="AG73" s="2">
-        <v>2</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="AH73" s="2">
-        <v>9.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AI73" s="7">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AJ73" s="7">
-        <v>5.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AK73" s="7"/>
     </row>
     <row r="74" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5718,24 +6127,29 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7">
-        <v>-0.5</v>
+        <f>3.1+32.4-2.9-1.2-11.4-15-0.1</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L74" s="7">
-        <f>-0.6-K74</f>
-        <v>-9.9999999999999978E-2</v>
+        <f>36.2+1.2-4-13.8+25.2-16.1-0.1-K74</f>
+        <v>23.700000000000003</v>
       </c>
       <c r="M74" s="7">
-        <f>-1.4-L74-K74</f>
-        <v>-0.79999999999999982</v>
+        <f>21-545.2-5.1-12.9+376.9-18.1-L74-K74</f>
+        <v>-212.00000000000009</v>
       </c>
       <c r="N74" s="7">
-        <f>-3.5-M74-L74-K74</f>
-        <v>-2.1</v>
+        <f>-38.4-329.6-6.5-21.7+224.4-0.9+1.5-M74-L74-K74</f>
+        <v>12.200000000000093</v>
       </c>
       <c r="O74" s="7">
-        <v>-4.8</v>
-      </c>
-      <c r="P74" s="7"/>
+        <f>36.3-9.9-30.3+3.5-179.8-16.4</f>
+        <v>-196.60000000000002</v>
+      </c>
+      <c r="P74" s="7">
+        <f>3+179.5+2.9-2.6-204.2+0.6-0.5</f>
+        <v>-21.299999999999976</v>
+      </c>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
@@ -5748,25 +6162,30 @@
       <c r="AD74" s="7"/>
       <c r="AE74" s="7"/>
       <c r="AF74" s="2">
-        <v>-34.200000000000003</v>
+        <f>35.7-256.3-1.2-24.7+169.8-14.8</f>
+        <v>-91.499999999999986</v>
       </c>
       <c r="AG74" s="2">
-        <v>-36.200000000000003</v>
+        <f>-34.4-44.7+2.2-18.7+17.1+4.9</f>
+        <v>-73.599999999999994</v>
       </c>
       <c r="AH74" s="2">
-        <v>4.0999999999999996</v>
+        <f>-10.9+361.1+3.6-75.9-792.8+4.1</f>
+        <v>-510.79999999999984</v>
       </c>
       <c r="AI74" s="7">
-        <v>0.9</v>
+        <f>39.8+282.4+8.4-87-78.6+19-3</f>
+        <v>180.99999999999997</v>
       </c>
       <c r="AJ74" s="7">
-        <v>-3.5</v>
+        <f>-38.4-329.6-6.5-21.7+224.4-0.9+1.5</f>
+        <v>-171.2</v>
       </c>
       <c r="AK74" s="7"/>
     </row>
     <row r="75" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5777,26 +6196,29 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7">
-        <f>3.1+32.4-2.9-1.2-11.4-15-0.1</f>
-        <v>4.9000000000000004</v>
+        <f>SUM(K62:K74)</f>
+        <v>-18.799999999999997</v>
       </c>
       <c r="L75" s="7">
-        <f>36.2+1.2-4-13.8+25.2-16.1-0.1-K75</f>
-        <v>23.700000000000003</v>
+        <f>SUM(L62:L74)</f>
+        <v>-11.500000000000014</v>
       </c>
       <c r="M75" s="7">
-        <f>21-545.2-5.1-12.9+376.9-18.1-L75-K75</f>
-        <v>-212.00000000000009</v>
+        <f t="shared" ref="M75:N75" si="147">SUM(M62:M74)</f>
+        <v>-293.20000000000005</v>
       </c>
       <c r="N75" s="7">
-        <f>-38.4-329.6-6.5-21.7+224.4-0.9+1.5-M75-L75-K75</f>
-        <v>12.200000000000093</v>
+        <f t="shared" si="147"/>
+        <v>-110.89999999999991</v>
       </c>
       <c r="O75" s="7">
-        <f>36.3-9.9-30.3+3.5-179.8-16.4</f>
-        <v>-196.60000000000002</v>
-      </c>
-      <c r="P75" s="7"/>
+        <f>SUM(O62:O74)</f>
+        <v>-303.90000000000003</v>
+      </c>
+      <c r="P75" s="7">
+        <f>SUM(P62:P74)</f>
+        <v>-103.39999999999998</v>
+      </c>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
@@ -5808,32 +6230,68 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
-      <c r="AF75" s="2">
-        <f>35.7-256.3-1.2-24.7+169.8-14.8</f>
-        <v>-91.499999999999986</v>
-      </c>
-      <c r="AG75" s="2">
-        <f>-34.4-44.7+2.2-18.7+17.1+4.9</f>
-        <v>-73.599999999999994</v>
-      </c>
-      <c r="AH75" s="2">
-        <f>-10.9+361.1+3.6-75.9-792.8+4.1</f>
-        <v>-510.79999999999984</v>
-      </c>
-      <c r="AI75" s="7">
-        <f>39.8+282.4+8.4-87-78.6+19-3</f>
-        <v>180.99999999999997</v>
-      </c>
-      <c r="AJ75" s="7">
-        <f>-38.4-329.6-6.5-21.7+224.4-0.9+1.5</f>
-        <v>-171.2</v>
-      </c>
-      <c r="AK75" s="7"/>
+      <c r="AF75" s="19">
+        <f>SUM(AF62:AF74)</f>
+        <v>434.90000000000009</v>
+      </c>
+      <c r="AG75" s="19">
+        <f>SUM(AG62:AG74)</f>
+        <v>325.09999999999991</v>
+      </c>
+      <c r="AH75" s="19">
+        <f t="shared" ref="AH75:AK75" si="148">SUM(AH62:AH74)</f>
+        <v>-414.49999999999983</v>
+      </c>
+      <c r="AI75" s="19">
+        <f t="shared" si="148"/>
+        <v>123.69999999999996</v>
+      </c>
+      <c r="AJ75" s="19">
+        <f t="shared" si="148"/>
+        <v>-434.30000000000007</v>
+      </c>
+      <c r="AK75" s="19">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="AL75" s="19">
+        <f t="shared" ref="AL75" si="149">SUM(AL62:AL74)</f>
+        <v>0</v>
+      </c>
+      <c r="AM75" s="19">
+        <f t="shared" ref="AM75" si="150">SUM(AM62:AM74)</f>
+        <v>0</v>
+      </c>
+      <c r="AN75" s="19">
+        <f t="shared" ref="AN75" si="151">SUM(AN62:AN74)</f>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="19">
+        <f t="shared" ref="AO75" si="152">SUM(AO62:AO74)</f>
+        <v>0</v>
+      </c>
+      <c r="AP75" s="19">
+        <f t="shared" ref="AP75" si="153">SUM(AP62:AP74)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="19">
+        <f t="shared" ref="AQ75" si="154">SUM(AQ62:AQ74)</f>
+        <v>0</v>
+      </c>
+      <c r="AR75" s="19">
+        <f t="shared" ref="AR75" si="155">SUM(AR62:AR74)</f>
+        <v>0</v>
+      </c>
+      <c r="AS75" s="19">
+        <f t="shared" ref="AS75" si="156">SUM(AS62:AS74)</f>
+        <v>0</v>
+      </c>
+      <c r="AT75" s="19">
+        <f t="shared" ref="AT75" si="157">SUM(AT62:AT74)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -5842,26 +6300,11 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="7">
-        <f>SUM(K63:K75)</f>
-        <v>-18.799999999999997</v>
-      </c>
-      <c r="L76" s="7">
-        <f>SUM(L63:L75)</f>
-        <v>-11.500000000000014</v>
-      </c>
-      <c r="M76" s="7">
-        <f t="shared" ref="M76:N76" si="119">SUM(M63:M75)</f>
-        <v>-293.20000000000005</v>
-      </c>
-      <c r="N76" s="7">
-        <f t="shared" si="119"/>
-        <v>-110.89999999999991</v>
-      </c>
-      <c r="O76" s="7">
-        <f>SUM(O63:O75)</f>
-        <v>-303.90000000000003</v>
-      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
@@ -5874,68 +6317,14 @@
       <c r="AC76" s="7"/>
       <c r="AD76" s="7"/>
       <c r="AE76" s="7"/>
-      <c r="AF76" s="19">
-        <f>SUM(AF63:AF75)</f>
-        <v>434.90000000000009</v>
-      </c>
-      <c r="AG76" s="19">
-        <f>SUM(AG63:AG75)</f>
-        <v>325.09999999999991</v>
-      </c>
-      <c r="AH76" s="19">
-        <f t="shared" ref="AH76:AK76" si="120">SUM(AH63:AH75)</f>
-        <v>-414.49999999999983</v>
-      </c>
-      <c r="AI76" s="19">
-        <f t="shared" si="120"/>
-        <v>123.69999999999996</v>
-      </c>
-      <c r="AJ76" s="19">
-        <f t="shared" si="120"/>
-        <v>-434.30000000000007</v>
-      </c>
-      <c r="AK76" s="19">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="AL76" s="19">
-        <f t="shared" ref="AL76" si="121">SUM(AL63:AL75)</f>
-        <v>0</v>
-      </c>
-      <c r="AM76" s="19">
-        <f t="shared" ref="AM76" si="122">SUM(AM63:AM75)</f>
-        <v>0</v>
-      </c>
-      <c r="AN76" s="19">
-        <f t="shared" ref="AN76" si="123">SUM(AN63:AN75)</f>
-        <v>0</v>
-      </c>
-      <c r="AO76" s="19">
-        <f t="shared" ref="AO76" si="124">SUM(AO63:AO75)</f>
-        <v>0</v>
-      </c>
-      <c r="AP76" s="19">
-        <f t="shared" ref="AP76" si="125">SUM(AP63:AP75)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="19">
-        <f t="shared" ref="AQ76" si="126">SUM(AQ63:AQ75)</f>
-        <v>0</v>
-      </c>
-      <c r="AR76" s="19">
-        <f t="shared" ref="AR76" si="127">SUM(AR63:AR75)</f>
-        <v>0</v>
-      </c>
-      <c r="AS76" s="19">
-        <f t="shared" ref="AS76" si="128">SUM(AS63:AS75)</f>
-        <v>0</v>
-      </c>
-      <c r="AT76" s="19">
-        <f t="shared" ref="AT76" si="129">SUM(AT63:AT75)</f>
-        <v>0</v>
-      </c>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="7"/>
+      <c r="AK76" s="7"/>
     </row>
     <row r="77" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -5944,12 +6333,27 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
+      <c r="K77" s="7">
+        <v>-14.7</v>
+      </c>
+      <c r="L77" s="7">
+        <f>-28.2-K77</f>
+        <v>-13.5</v>
+      </c>
+      <c r="M77" s="7">
+        <f>-40.7-L77-K77</f>
+        <v>-12.500000000000004</v>
+      </c>
+      <c r="N77" s="7">
+        <f>-62-M77-L77-K77</f>
+        <v>-21.3</v>
+      </c>
+      <c r="O77" s="7">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="P77" s="7">
+        <v>-20.5</v>
+      </c>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
@@ -5961,13 +6365,26 @@
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
       <c r="AE77" s="7"/>
-      <c r="AI77" s="7"/>
-      <c r="AJ77" s="7"/>
-      <c r="AK77" s="7"/>
+      <c r="AF77" s="14">
+        <v>113.4</v>
+      </c>
+      <c r="AG77" s="14">
+        <v>93.7</v>
+      </c>
+      <c r="AH77" s="14">
+        <v>78.5</v>
+      </c>
+      <c r="AI77" s="15">
+        <v>60</v>
+      </c>
+      <c r="AJ77" s="15">
+        <v>62</v>
+      </c>
+      <c r="AK77" s="15"/>
     </row>
     <row r="78" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -5978,24 +6395,23 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7">
-        <v>-14.7</v>
+        <v>0</v>
       </c>
       <c r="L78" s="7">
-        <f>-28.2-K78</f>
-        <v>-13.5</v>
+        <v>0</v>
       </c>
       <c r="M78" s="7">
-        <f>-40.7-L78-K78</f>
-        <v>-12.500000000000004</v>
+        <v>0</v>
       </c>
       <c r="N78" s="7">
-        <f>-62-M78-L78-K78</f>
-        <v>-21.3</v>
+        <v>0</v>
       </c>
       <c r="O78" s="7">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="P78" s="7"/>
+        <v>-10.8</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0.4</v>
+      </c>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
@@ -6007,26 +6423,13 @@
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
       <c r="AE78" s="7"/>
-      <c r="AF78" s="14">
-        <v>113.4</v>
-      </c>
-      <c r="AG78" s="14">
-        <v>93.7</v>
-      </c>
-      <c r="AH78" s="14">
-        <v>78.5</v>
-      </c>
-      <c r="AI78" s="15">
-        <v>60</v>
-      </c>
-      <c r="AJ78" s="15">
-        <v>62</v>
-      </c>
-      <c r="AK78" s="15"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
     </row>
     <row r="79" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -6040,18 +6443,23 @@
         <v>0</v>
       </c>
       <c r="L79" s="7">
-        <v>0</v>
+        <f>-0.1-K79</f>
+        <v>-0.1</v>
       </c>
       <c r="M79" s="7">
-        <v>0</v>
+        <f>-0.4-L79-K79</f>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="N79" s="7">
-        <v>0</v>
+        <f>-2.8-M79-L79-K79</f>
+        <v>-2.4</v>
       </c>
       <c r="O79" s="7">
-        <v>-10.8</v>
-      </c>
-      <c r="P79" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0</v>
+      </c>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
@@ -6069,7 +6477,7 @@
     </row>
     <row r="80" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -6080,22 +6488,29 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7">
-        <v>0</v>
+        <f>K77+K78+K79</f>
+        <v>-14.7</v>
       </c>
       <c r="L80" s="7">
-        <f>-0.1-K80</f>
-        <v>-0.1</v>
+        <f>L77+L78+L79</f>
+        <v>-13.6</v>
       </c>
       <c r="M80" s="7">
-        <f>-0.4-L80-K80</f>
-        <v>-0.30000000000000004</v>
+        <f t="shared" ref="M80:P80" si="158">M77+M78+M79</f>
+        <v>-12.800000000000004</v>
       </c>
       <c r="N80" s="7">
-        <f>-2.8-M80-L80-K80</f>
-        <v>-2.4</v>
-      </c>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
+        <f t="shared" si="158"/>
+        <v>-23.7</v>
+      </c>
+      <c r="O80" s="7">
+        <f t="shared" si="158"/>
+        <v>66.100000000000009</v>
+      </c>
+      <c r="P80" s="7">
+        <f t="shared" si="158"/>
+        <v>-20.100000000000001</v>
+      </c>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
@@ -6112,9 +6527,6 @@
       <c r="AK80" s="7"/>
     </row>
     <row r="81" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -6123,26 +6535,11 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="K81" s="7">
-        <f>K78+K79+K80</f>
-        <v>-14.7</v>
-      </c>
-      <c r="L81" s="7">
-        <f>L78+L79+L80</f>
-        <v>-13.6</v>
-      </c>
-      <c r="M81" s="7">
-        <f t="shared" ref="M81:O81" si="130">M78+M79+M80</f>
-        <v>-12.800000000000004</v>
-      </c>
-      <c r="N81" s="7">
-        <f t="shared" si="130"/>
-        <v>-23.7</v>
-      </c>
-      <c r="O81" s="7">
-        <f t="shared" si="130"/>
-        <v>66.100000000000009</v>
-      </c>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
@@ -6160,6 +6557,9 @@
       <c r="AK81" s="7"/>
     </row>
     <row r="82" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -6168,12 +6568,27 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
+      <c r="K82" s="7">
+        <v>551.70000000000005</v>
+      </c>
+      <c r="L82" s="7">
+        <f>1672.8-K82</f>
+        <v>1121.0999999999999</v>
+      </c>
+      <c r="M82" s="7">
+        <f>1672.8-L82-K82</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="7">
+        <f>1672.8-M82-L82-K82</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+      <c r="P82" s="7">
+        <v>0</v>
+      </c>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
@@ -6191,7 +6606,7 @@
     </row>
     <row r="83" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -6202,22 +6617,26 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7">
-        <v>551.70000000000005</v>
+        <f>-25-307.4-0.1</f>
+        <v>-332.5</v>
       </c>
       <c r="L83" s="7">
-        <f>1672.8-K83</f>
-        <v>1121.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="M83" s="7">
-        <f>1672.8-L83-K83</f>
+        <f>-25-307.4-0.1-L83-K83</f>
         <v>0</v>
       </c>
       <c r="N83" s="7">
-        <f>1672.8-M83-L83-K83</f>
-        <v>0</v>
-      </c>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
+        <f>-307.4-25-M83-L83-K83-3</f>
+        <v>-2.8999999999999773</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <v>0</v>
+      </c>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
@@ -6235,7 +6654,7 @@
     </row>
     <row r="84" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -6246,22 +6665,26 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7">
-        <f>-25-307.4-0.1</f>
-        <v>-332.5</v>
+        <v>-49.9</v>
       </c>
       <c r="L84" s="7">
-        <v>0</v>
+        <f>-136.6-K84</f>
+        <v>-86.699999999999989</v>
       </c>
       <c r="M84" s="7">
-        <f>-25-307.4-0.1-L84-K84</f>
+        <f>-136.6-L84-K84</f>
         <v>0</v>
       </c>
       <c r="N84" s="7">
-        <f>-307.4-25-M84-L84-K84-3</f>
-        <v>-2.8999999999999773</v>
-      </c>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
+        <f>-136.8-M84-L84-K84</f>
+        <v>-0.20000000000002416</v>
+      </c>
+      <c r="O84" s="7">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="P84" s="7">
+        <v>-1.9</v>
+      </c>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
@@ -6279,7 +6702,7 @@
     </row>
     <row r="85" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -6290,24 +6713,29 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7">
-        <v>-49.9</v>
+        <f>SUM(K82:K84)</f>
+        <v>169.30000000000004</v>
       </c>
       <c r="L85" s="7">
-        <f>-136.6-K85</f>
-        <v>-86.699999999999989</v>
+        <f>SUM(L82:L84)</f>
+        <v>1034.3999999999999</v>
       </c>
       <c r="M85" s="7">
-        <f>-136.6-L85-K85</f>
+        <f>SUM(M82:M84)</f>
         <v>0</v>
       </c>
       <c r="N85" s="7">
-        <f>-136.8-M85-L85-K85</f>
-        <v>-0.20000000000002416</v>
+        <f>SUM(N82:N84)</f>
+        <v>-3.1000000000000014</v>
       </c>
       <c r="O85" s="7">
+        <f>O84</f>
         <v>-1.1000000000000001</v>
       </c>
-      <c r="P85" s="7"/>
+      <c r="P85" s="7">
+        <f>P84</f>
+        <v>-1.9</v>
+      </c>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
@@ -6325,7 +6753,7 @@
     </row>
     <row r="86" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -6336,26 +6764,26 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7">
-        <f>SUM(K83:K85)</f>
-        <v>169.30000000000004</v>
+        <v>0</v>
       </c>
       <c r="L86" s="7">
-        <f>SUM(L83:L85)</f>
-        <v>1034.3999999999999</v>
+        <f>-4.5-K86</f>
+        <v>-4.5</v>
       </c>
       <c r="M86" s="7">
-        <f>SUM(M83:M85)</f>
-        <v>0</v>
+        <f>-5.5-L86-K86</f>
+        <v>-1</v>
       </c>
       <c r="N86" s="7">
-        <f>SUM(N83:N85)</f>
-        <v>-3.1000000000000014</v>
+        <f>-16.6-M86-L86-K86</f>
+        <v>-11.100000000000001</v>
       </c>
       <c r="O86" s="7">
-        <f>O85</f>
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="P86" s="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="P86" s="7">
+        <v>-1.2</v>
+      </c>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
@@ -6373,7 +6801,7 @@
     </row>
     <row r="87" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -6384,24 +6812,29 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7">
-        <v>0</v>
+        <f>K85+K80+K75+K86</f>
+        <v>135.80000000000007</v>
       </c>
       <c r="L87" s="7">
-        <f>-4.5-K87</f>
-        <v>-4.5</v>
+        <f>L85+L80+L75+L86</f>
+        <v>1004.7999999999998</v>
       </c>
       <c r="M87" s="7">
-        <f>-5.5-L87-K87</f>
-        <v>-1</v>
+        <f>M85+M80+M75+M86</f>
+        <v>-307.00000000000006</v>
       </c>
       <c r="N87" s="7">
-        <f>-16.6-M87-L87-K87</f>
-        <v>-11.100000000000001</v>
+        <f>N85+N80+N75+N86</f>
+        <v>-148.7999999999999</v>
       </c>
       <c r="O87" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="P87" s="7"/>
+        <f>O85+O80+O75+O86</f>
+        <v>-236.30000000000004</v>
+      </c>
+      <c r="P87" s="7">
+        <f>P85+P80+P75+P86</f>
+        <v>-126.59999999999998</v>
+      </c>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
@@ -6418,9 +6851,6 @@
       <c r="AK87" s="7"/>
     </row>
     <row r="88" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -6429,26 +6859,11 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="7">
-        <f>K86+K81+K76+K87</f>
-        <v>135.80000000000007</v>
-      </c>
-      <c r="L88" s="7">
-        <f>L86+L81+L76+L87</f>
-        <v>1004.7999999999998</v>
-      </c>
-      <c r="M88" s="7">
-        <f>M86+M81+M76+M87</f>
-        <v>-307.00000000000006</v>
-      </c>
-      <c r="N88" s="7">
-        <f>N86+N81+N76+N87</f>
-        <v>-148.7999999999999</v>
-      </c>
-      <c r="O88" s="7">
-        <f>O86+O81+O76+O87</f>
-        <v>-236.30000000000004</v>
-      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
@@ -6466,6 +6881,9 @@
       <c r="AK88" s="7"/>
     </row>
     <row r="89" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -6474,12 +6892,30 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
+      <c r="K89" s="7">
+        <f>K75+K77</f>
+        <v>-33.5</v>
+      </c>
+      <c r="L89" s="7">
+        <f>L75+L77</f>
+        <v>-25.000000000000014</v>
+      </c>
+      <c r="M89" s="7">
+        <f t="shared" ref="M89:P89" si="159">M75+M77</f>
+        <v>-305.70000000000005</v>
+      </c>
+      <c r="N89" s="7">
+        <f t="shared" si="159"/>
+        <v>-132.1999999999999</v>
+      </c>
+      <c r="O89" s="7">
+        <f t="shared" si="159"/>
+        <v>-227.00000000000003</v>
+      </c>
+      <c r="P89" s="7">
+        <f t="shared" si="159"/>
+        <v>-123.89999999999998</v>
+      </c>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
@@ -6491,14 +6927,29 @@
       <c r="AC89" s="7"/>
       <c r="AD89" s="7"/>
       <c r="AE89" s="7"/>
-      <c r="AI89" s="7"/>
-      <c r="AJ89" s="7"/>
+      <c r="AF89" s="14">
+        <f>AF75-AF77</f>
+        <v>321.50000000000011</v>
+      </c>
+      <c r="AG89" s="14">
+        <f>AG75-AG77</f>
+        <v>231.39999999999992</v>
+      </c>
+      <c r="AH89" s="14">
+        <f t="shared" ref="AH89:AJ89" si="160">AH75-AH77</f>
+        <v>-492.99999999999983</v>
+      </c>
+      <c r="AI89" s="14">
+        <f t="shared" si="160"/>
+        <v>63.69999999999996</v>
+      </c>
+      <c r="AJ89" s="14">
+        <f t="shared" si="160"/>
+        <v>-496.30000000000007</v>
+      </c>
       <c r="AK89" s="7"/>
     </row>
     <row r="90" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -6507,26 +6958,10 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="7">
-        <f>K76+K78</f>
-        <v>-33.5</v>
-      </c>
-      <c r="L90" s="7">
-        <f>L76+L78</f>
-        <v>-25.000000000000014</v>
-      </c>
-      <c r="M90" s="7">
-        <f t="shared" ref="M90:O90" si="131">M76+M78</f>
-        <v>-305.70000000000005</v>
-      </c>
-      <c r="N90" s="7">
-        <f t="shared" si="131"/>
-        <v>-132.1999999999999</v>
-      </c>
-      <c r="O90" s="7">
-        <f t="shared" si="131"/>
-        <v>-227.00000000000003</v>
-      </c>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
@@ -6539,29 +6974,14 @@
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
       <c r="AE90" s="7"/>
-      <c r="AF90" s="14">
-        <f>AF76-AF78</f>
-        <v>321.50000000000011</v>
-      </c>
-      <c r="AG90" s="14">
-        <f>AG76-AG78</f>
-        <v>231.39999999999992</v>
-      </c>
-      <c r="AH90" s="14">
-        <f t="shared" ref="AH90:AJ90" si="132">AH76-AH78</f>
-        <v>-492.99999999999983</v>
-      </c>
-      <c r="AI90" s="14">
-        <f t="shared" si="132"/>
-        <v>63.69999999999996</v>
-      </c>
-      <c r="AJ90" s="14">
-        <f t="shared" si="132"/>
-        <v>-496.30000000000007</v>
-      </c>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="7"/>
       <c r="AK90" s="7"/>
     </row>
     <row r="91" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -6573,7 +6993,12 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
+      <c r="N91" s="7">
+        <v>163.1</v>
+      </c>
+      <c r="O91" s="7">
+        <v>150</v>
+      </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
@@ -6592,7 +7017,7 @@
     </row>
     <row r="92" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -6606,10 +7031,10 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
       <c r="N92" s="7">
-        <v>163.1</v>
+        <v>590.29999999999995</v>
       </c>
       <c r="O92" s="7">
-        <v>150</v>
+        <v>525.6</v>
       </c>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
@@ -6629,7 +7054,7 @@
     </row>
     <row r="93" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -6643,10 +7068,10 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7">
-        <v>590.29999999999995</v>
+        <v>977.1</v>
       </c>
       <c r="O93" s="7">
-        <v>525.6</v>
+        <v>810.4</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
@@ -6666,7 +7091,7 @@
     </row>
     <row r="94" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -6680,10 +7105,10 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7">
-        <v>977.1</v>
+        <v>255</v>
       </c>
       <c r="O94" s="7">
-        <v>810.4</v>
+        <v>312.5</v>
       </c>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
@@ -6701,91 +7126,57 @@
       <c r="AJ94" s="7"/>
       <c r="AK94" s="7"/>
     </row>
-    <row r="95" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
+        <v>78</v>
+      </c>
       <c r="N95" s="7">
-        <v>255</v>
+        <v>162.4</v>
       </c>
       <c r="O95" s="7">
-        <v>312.5</v>
-      </c>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="7"/>
-      <c r="AD95" s="7"/>
-      <c r="AE95" s="7"/>
-      <c r="AI95" s="7"/>
-      <c r="AJ95" s="7"/>
-      <c r="AK95" s="7"/>
+        <v>171.6</v>
+      </c>
     </row>
     <row r="96" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N96" s="7">
-        <v>162.4</v>
+        <v>208.2</v>
       </c>
       <c r="O96" s="7">
-        <v>171.6</v>
+        <v>233.3</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="N97" s="7">
-        <v>208.2</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="O97" s="7">
-        <v>233.3</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="N98" s="7">
-        <v>128.80000000000001</v>
+        <f>SUM(N91:N97)</f>
+        <v>2484.9</v>
       </c>
       <c r="O98" s="7">
-        <v>104.7</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N99" s="7">
-        <f>SUM(N92:N98)</f>
-        <v>2484.9</v>
-      </c>
-      <c r="O99" s="7">
-        <f>SUM(O92:O98)</f>
+        <f>SUM(O91:O97)</f>
         <v>2308.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{075751EE-11BF-4218-86BA-4C0A0B1F8F2F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/GME.xlsx
+++ b/GME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F11B65-D3B3-44CB-8305-1C4DCA7389A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E99BF-EC1C-40F9-9B49-FD29FCFD37CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28380" yWindow="435" windowWidth="26160" windowHeight="20205" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
+    <workbookView xWindow="-24705" yWindow="3975" windowWidth="24840" windowHeight="16905" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -449,9 +449,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -501,15 +502,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -541,13 +539,22 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5E299FAB-94B2-4E1D-A8E9-289F3E5180F5}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -563,16 +570,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>14870</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75028</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>43442</xdr:rowOff>
+      <xdr:rowOff>13363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>14870</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75028</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>100592</xdr:rowOff>
+      <xdr:rowOff>70513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -587,8 +594,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10905894" y="43442"/>
-          <a:ext cx="0" cy="18270809"/>
+          <a:off x="11665449" y="13363"/>
+          <a:ext cx="0" cy="18024308"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -959,7 +966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1098,11 +1105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A8DC47-869E-4A1F-AC19-77E1C7206D83}">
   <dimension ref="A1:CF98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK20" sqref="AK20"/>
+      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1120,134 +1127,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="G2" s="5">
+    <row r="2" spans="1:46" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21">
         <v>43953</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="21">
         <v>44044</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="21">
         <v>44135</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="21">
         <v>44226</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="21">
         <v>44317</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="21">
         <v>44408</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="21">
         <v>44499</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="21">
         <v>44590</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="21">
         <v>44681</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="21">
         <v>44773</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="21">
         <v>44864</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="21">
         <v>44955</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="21">
         <f>O2+365</f>
         <v>45046</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="21">
         <f t="shared" ref="T2:V2" si="0">P2+365</f>
         <v>45138</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="21">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="21">
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="AA2" s="5">
+      <c r="W2" s="21"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="1">AB2-365</f>
         <v>41303</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="21">
         <f>AC2-365</f>
         <v>41668</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="2">AD2-365</f>
         <v>42033</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="21">
         <f>AE2-365</f>
         <v>42398</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="21">
         <v>42763</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="21">
         <v>43134</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" s="21">
         <v>43498</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="21">
         <v>43862</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="21">
         <v>44226</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="21">
         <v>44590</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="21">
         <v>44955</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="20">
         <f>AK2+365</f>
         <v>45320</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="20">
         <f>AL2+366</f>
         <v>45686</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AN2" s="20">
         <f t="shared" ref="AN2:AT2" si="3">AM2+365</f>
         <v>46051</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="20">
         <f t="shared" si="3"/>
         <v>46416</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AP2" s="20">
         <f t="shared" si="3"/>
         <v>46781</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="20">
         <f>AP2+366</f>
         <v>47147</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AR2" s="20">
         <f t="shared" si="3"/>
         <v>47512</v>
       </c>
-      <c r="AS2" s="3">
+      <c r="AS2" s="20">
         <f t="shared" si="3"/>
         <v>47877</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AT2" s="20">
         <f t="shared" si="3"/>
         <v>48242</v>
       </c>
@@ -1378,98 +1389,98 @@
       <c r="B4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
         <v>4573</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6">
         <v>7535</v>
       </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6">
         <f>AE4-2069</f>
         <v>5466</v>
       </c>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="AF6" s="4"/>
@@ -1489,213 +1500,213 @@
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
         <v>966.3</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>795.1</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
         <v>995.3</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>793.4</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
     </row>
     <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <v>61.9</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>62.8</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
         <v>76.900000000000006</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>62.3</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
     </row>
     <row r="9" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
         <v>114.8</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>131.1</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
         <v>126.7</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>113.9</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
     </row>
     <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
         <v>133.80000000000001</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>194.4</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
         <v>179.5</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>166.4</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="AF11" s="4"/>
@@ -1715,285 +1726,285 @@
       <c r="B12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6">
         <v>1791.8</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="6">
         <v>1767.8</v>
       </c>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
     </row>
     <row r="13" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6">
         <v>2582</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AG13" s="6">
         <v>2449.6999999999998</v>
       </c>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
     </row>
     <row r="14" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6">
         <v>2149.6</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AG14" s="6">
         <v>1866.3</v>
       </c>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6">
         <v>784.3</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AG15" s="6">
         <v>956.5</v>
       </c>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
     </row>
     <row r="16" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6">
         <v>189.2</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AG16" s="6">
         <v>194</v>
       </c>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
     </row>
     <row r="17" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6">
         <v>175.4</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
         <v>220.9</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6">
         <v>636.20000000000005</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="6">
         <v>707.5</v>
       </c>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
     </row>
     <row r="18" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6">
         <v>414</v>
       </c>
-      <c r="AG18" s="7">
+      <c r="AG18" s="6">
         <v>343.5</v>
       </c>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
     </row>
     <row r="19" spans="2:84" x14ac:dyDescent="0.2">
       <c r="AF19" s="4"/>
@@ -2004,59 +2015,61 @@
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>513.1</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>441.6</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>413.4</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>1162.7</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>703.5</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>609.6</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>669.9</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>1188.7</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>673.8</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="6">
         <v>596.4</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7">
+      <c r="Q20" s="6">
+        <v>627</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6">
         <v>2530.8000000000002</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AJ20" s="6">
         <v>3171.7</v>
       </c>
-      <c r="AK20" s="7">
+      <c r="AK20" s="6">
         <f>AJ20*0.9</f>
         <v>2854.5299999999997</v>
       </c>
@@ -2065,140 +2078,141 @@
       <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
         <v>417</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>386.5</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>444.4</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>731.2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>397.9</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>396.6</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>434.5</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>785.9</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>483.7</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>316.39999999999998</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7">
+      <c r="Q21" s="6">
+        <v>352.1</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6">
         <v>1979.1</v>
       </c>
-      <c r="AJ21" s="7">
+      <c r="AJ21" s="6">
         <v>2014.8</v>
       </c>
-      <c r="AK21" s="7">
+      <c r="AK21" s="6">
         <f>AJ21*1.03</f>
         <v>2075.2440000000001</v>
       </c>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
     </row>
     <row r="22" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>90.9</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>113.9</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>146.9</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>228.2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>175.4</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>177.2</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>192.2</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>279.3</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <v>220.9</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="6">
         <v>223.2</v>
       </c>
-      <c r="Q22" s="7">
-        <f t="shared" ref="Q22:R22" si="4">M22*1.2</f>
-        <v>230.64</v>
-      </c>
-      <c r="R22" s="7">
-        <f t="shared" si="4"/>
+      <c r="Q22" s="6">
+        <v>207.3</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" ref="Q22:R22" si="4">N22*1.2</f>
         <v>335.16</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="6">
         <f t="shared" ref="S22" si="5">O22*1.2</f>
         <v>265.08</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="6">
         <f t="shared" ref="T22" si="6">P22*1.2</f>
         <v>267.83999999999997</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="6">
         <f t="shared" ref="U22" si="7">Q22*1.2</f>
-        <v>276.76799999999997</v>
-      </c>
-      <c r="V22" s="7">
+        <v>248.76</v>
+      </c>
+      <c r="V22" s="6">
         <f t="shared" ref="V22" si="8">R22*1.2</f>
         <v>402.19200000000001</v>
       </c>
-      <c r="W22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
+      <c r="W22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
       <c r="AF22" s="2">
         <f>AF17</f>
         <v>636.20000000000005</v>
@@ -2207,609 +2221,606 @@
         <f>AG17</f>
         <v>707.5</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AH22" s="6">
         <v>737.5</v>
       </c>
-      <c r="AI22" s="7">
+      <c r="AI22" s="6">
         <v>579.9</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AJ22" s="6">
         <v>824.2</v>
       </c>
-      <c r="AK22" s="7">
+      <c r="AK22" s="6">
         <f>AJ22*1.1</f>
         <v>906.62000000000012</v>
       </c>
-      <c r="AL22" s="7">
+      <c r="AL22" s="6">
         <f t="shared" ref="AL22:AT22" si="9">AK22*1.1</f>
         <v>997.28200000000027</v>
       </c>
-      <c r="AM22" s="7">
+      <c r="AM22" s="6">
         <f t="shared" si="9"/>
         <v>1097.0102000000004</v>
       </c>
-      <c r="AN22" s="7">
+      <c r="AN22" s="6">
         <f t="shared" si="9"/>
         <v>1206.7112200000006</v>
       </c>
-      <c r="AO22" s="7">
+      <c r="AO22" s="6">
         <f t="shared" si="9"/>
         <v>1327.3823420000008</v>
       </c>
-      <c r="AP22" s="7">
+      <c r="AP22" s="6">
         <f t="shared" si="9"/>
         <v>1460.1205762000011</v>
       </c>
-      <c r="AQ22" s="7">
+      <c r="AQ22" s="6">
         <f t="shared" si="9"/>
         <v>1606.1326338200013</v>
       </c>
-      <c r="AR22" s="7">
+      <c r="AR22" s="6">
         <f t="shared" si="9"/>
         <v>1766.7458972020015</v>
       </c>
-      <c r="AS22" s="7">
+      <c r="AS22" s="6">
         <f t="shared" si="9"/>
         <v>1943.4204869222019</v>
       </c>
-      <c r="AT22" s="7">
+      <c r="AT22" s="6">
         <f t="shared" si="9"/>
         <v>2137.7625356144222</v>
       </c>
     </row>
-    <row r="23" spans="2:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="2:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
         <f>SUM(G20:G22)</f>
         <v>1021</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <f>SUM(H20:H22)</f>
         <v>942</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f t="shared" ref="I23:N23" si="10">SUM(I20:I22)</f>
         <v>1004.6999999999999</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <f t="shared" si="10"/>
         <v>2122.1</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <f t="shared" si="10"/>
         <v>1276.8000000000002</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <f t="shared" si="10"/>
         <v>1183.4000000000001</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <f t="shared" si="10"/>
         <v>1296.6000000000001</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <f t="shared" si="10"/>
         <v>2253.9</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <f>SUM(O20:O22)</f>
         <v>1378.4</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <f>SUM(P20:P22)</f>
         <v>1136</v>
       </c>
-      <c r="Q23" s="9">
-        <f>M23*1.05</f>
-        <v>1361.4300000000003</v>
-      </c>
-      <c r="R23" s="9">
+      <c r="Q23" s="8">
+        <v>1186</v>
+      </c>
+      <c r="R23" s="8">
         <f>N23*1.05</f>
         <v>2366.5950000000003</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="8">
         <f t="shared" ref="S23:V23" si="11">O23*1.05</f>
         <v>1447.3200000000002</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <f t="shared" si="11"/>
         <v>1192.8</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="8">
         <f t="shared" si="11"/>
-        <v>1429.5015000000003</v>
-      </c>
-      <c r="V23" s="9">
+        <v>1245.3</v>
+      </c>
+      <c r="V23" s="8">
         <f t="shared" si="11"/>
         <v>2484.9247500000006</v>
       </c>
-      <c r="W23" s="9"/>
-      <c r="AB23" s="9">
+      <c r="W23" s="8"/>
+      <c r="AB23" s="8">
         <v>9039.5</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AC23" s="8">
         <v>9296</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AD23" s="8">
         <v>9363.7999999999993</v>
       </c>
-      <c r="AE23" s="9">
+      <c r="AE23" s="8">
         <v>8607.9</v>
       </c>
-      <c r="AF23" s="9">
+      <c r="AF23" s="8">
         <f>SUM(AF12:AF18)</f>
         <v>8547.0999999999985</v>
       </c>
-      <c r="AG23" s="9">
+      <c r="AG23" s="8">
         <f>SUM(AG12:AG18)</f>
         <v>8285.2999999999993</v>
       </c>
-      <c r="AH23" s="9">
+      <c r="AH23" s="8">
         <v>6466</v>
       </c>
-      <c r="AI23" s="9">
+      <c r="AI23" s="8">
         <f t="shared" ref="AI23:AJ23" si="12">SUM(AI20:AI22)</f>
         <v>5089.7999999999993</v>
       </c>
-      <c r="AJ23" s="9">
+      <c r="AJ23" s="8">
         <f t="shared" si="12"/>
         <v>6010.7</v>
       </c>
-      <c r="AK23" s="9">
+      <c r="AK23" s="8">
         <f>SUM(O23:R23)</f>
-        <v>6242.4250000000011</v>
-      </c>
-      <c r="AL23" s="8">
+        <v>6066.9950000000008</v>
+      </c>
+      <c r="AL23" s="7">
         <f>AK23*1.1</f>
-        <v>6866.6675000000014</v>
-      </c>
-      <c r="AM23" s="8">
+        <v>6673.6945000000014</v>
+      </c>
+      <c r="AM23" s="7">
         <f>AL23*1.1</f>
-        <v>7553.3342500000017</v>
-      </c>
-      <c r="AN23" s="8">
+        <v>7341.0639500000025</v>
+      </c>
+      <c r="AN23" s="7">
         <f>AM23*1.1</f>
-        <v>8308.6676750000024</v>
-      </c>
-      <c r="AO23" s="8">
+        <v>8075.1703450000032</v>
+      </c>
+      <c r="AO23" s="7">
         <f t="shared" ref="AO23:AT23" si="13">AN23*1.05</f>
-        <v>8724.1010587500023</v>
-      </c>
-      <c r="AP23" s="8">
+        <v>8478.9288622500044</v>
+      </c>
+      <c r="AP23" s="7">
         <f t="shared" si="13"/>
-        <v>9160.3061116875033</v>
-      </c>
-      <c r="AQ23" s="8">
+        <v>8902.8753053625042</v>
+      </c>
+      <c r="AQ23" s="7">
         <f t="shared" si="13"/>
-        <v>9618.3214172718781</v>
-      </c>
-      <c r="AR23" s="8">
+        <v>9348.0190706306294</v>
+      </c>
+      <c r="AR23" s="7">
         <f t="shared" si="13"/>
-        <v>10099.237488135472</v>
-      </c>
-      <c r="AS23" s="8">
+        <v>9815.420024162162</v>
+      </c>
+      <c r="AS23" s="7">
         <f t="shared" si="13"/>
-        <v>10604.199362542246</v>
-      </c>
-      <c r="AT23" s="8">
+        <v>10306.19102537027</v>
+      </c>
+      <c r="AT23" s="7">
         <f t="shared" si="13"/>
-        <v>11134.409330669358</v>
+        <v>10821.500576638784</v>
       </c>
     </row>
     <row r="24" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>738.6</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>689.8</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>728.4</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>1673.5</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>946.7</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>862.5</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>978</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>1875.7</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <v>1079.9000000000001</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="6">
         <v>853.8</v>
       </c>
-      <c r="Q24" s="7">
-        <f>Q23*0.78</f>
-        <v>1061.9154000000003</v>
-      </c>
-      <c r="R24" s="7">
+      <c r="Q24" s="6">
+        <v>894.8</v>
+      </c>
+      <c r="R24" s="6">
         <f>R23*0.78</f>
         <v>1845.9441000000002</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="6">
         <f t="shared" ref="S24:V24" si="14">S23*0.78</f>
         <v>1128.9096000000002</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="6">
         <f t="shared" si="14"/>
         <v>930.38400000000001</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="6">
         <f t="shared" si="14"/>
-        <v>1115.0111700000002</v>
-      </c>
-      <c r="V24" s="7">
+        <v>971.33399999999995</v>
+      </c>
+      <c r="V24" s="6">
         <f t="shared" si="14"/>
         <v>1938.2413050000005</v>
       </c>
-      <c r="W24" s="7"/>
-      <c r="AB24" s="7">
+      <c r="W24" s="6"/>
+      <c r="AB24" s="6">
         <v>6378.4</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AC24" s="6">
         <v>6520.1</v>
       </c>
-      <c r="AD24" s="7">
+      <c r="AD24" s="6">
         <v>6445.5</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AE24" s="6">
         <v>5598.6</v>
       </c>
-      <c r="AF24" s="7">
+      <c r="AF24" s="6">
         <v>6062.2</v>
       </c>
-      <c r="AG24" s="7">
+      <c r="AG24" s="6">
         <v>5977.2</v>
       </c>
-      <c r="AH24" s="7">
+      <c r="AH24" s="6">
         <v>4557.3</v>
       </c>
-      <c r="AI24" s="7">
+      <c r="AI24" s="6">
         <v>3830.3</v>
       </c>
-      <c r="AJ24" s="7">
+      <c r="AJ24" s="6">
         <v>4662.8999999999996</v>
       </c>
-      <c r="AK24" s="7">
+      <c r="AK24" s="6">
         <f>AK23*0.77</f>
-        <v>4806.6672500000013</v>
-      </c>
-      <c r="AL24" s="7">
+        <v>4671.586150000001</v>
+      </c>
+      <c r="AL24" s="6">
         <f>AL23*0.76</f>
-        <v>5218.667300000001</v>
-      </c>
-      <c r="AM24" s="7">
+        <v>5072.0078200000007</v>
+      </c>
+      <c r="AM24" s="6">
         <f>AM23*0.76</f>
-        <v>5740.5340300000016</v>
-      </c>
-      <c r="AN24" s="7">
+        <v>5579.2086020000015</v>
+      </c>
+      <c r="AN24" s="6">
         <f>AN23*0.75</f>
-        <v>6231.5007562500014</v>
-      </c>
-      <c r="AO24" s="7">
+        <v>6056.3777587500026</v>
+      </c>
+      <c r="AO24" s="6">
         <f>AO23*0.75</f>
-        <v>6543.0757940625017</v>
-      </c>
-      <c r="AP24" s="7">
+        <v>6359.1966466875037</v>
+      </c>
+      <c r="AP24" s="6">
         <f>AP23*0.74</f>
-        <v>6778.6265226487521</v>
-      </c>
-      <c r="AQ24" s="7">
+        <v>6588.1277259682529</v>
+      </c>
+      <c r="AQ24" s="6">
         <f>AQ23*0.74</f>
-        <v>7117.5578487811899</v>
-      </c>
-      <c r="AR24" s="7">
+        <v>6917.5341122666659</v>
+      </c>
+      <c r="AR24" s="6">
         <f>AR23*0.73</f>
-        <v>7372.4433663388945</v>
-      </c>
-      <c r="AS24" s="7">
+        <v>7165.256617638378</v>
+      </c>
+      <c r="AS24" s="6">
         <f>AS23*0.73</f>
-        <v>7741.0655346558387</v>
-      </c>
-      <c r="AT24" s="7">
+        <v>7523.5194485202965</v>
+      </c>
+      <c r="AT24" s="6">
         <f>AT23*0.72</f>
-        <v>8016.774718081937</v>
+        <v>7791.4804151799244</v>
       </c>
     </row>
     <row r="25" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <f t="shared" ref="G25" si="15">G23-G24</f>
         <v>282.39999999999998</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f>H23-H24</f>
         <v>252.20000000000005</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f>I23-I24</f>
         <v>276.29999999999995</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f>J23-J24</f>
         <v>448.59999999999991</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <f>K23-K24</f>
         <v>330.10000000000014</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f t="shared" ref="L25" si="16">L23-L24</f>
         <v>320.90000000000009</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <f t="shared" ref="M25" si="17">M23-M24</f>
         <v>318.60000000000014</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <f>N23-N24</f>
         <v>378.20000000000005</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <f>O23-O24</f>
         <v>298.5</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="6">
         <f>+P23-P24</f>
         <v>282.20000000000005</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <f t="shared" ref="Q25:R25" si="18">Q23-Q24</f>
-        <v>299.51459999999997</v>
-      </c>
-      <c r="R25" s="7">
+        <v>291.20000000000005</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="18"/>
         <v>520.65090000000009</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="6">
         <f t="shared" ref="S25:V25" si="19">S23-S24</f>
         <v>318.41039999999998</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="6">
         <f t="shared" si="19"/>
         <v>262.41599999999994</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="6">
         <f t="shared" si="19"/>
-        <v>314.49033000000009</v>
-      </c>
-      <c r="V25" s="7">
+        <v>273.96600000000001</v>
+      </c>
+      <c r="V25" s="6">
         <f t="shared" si="19"/>
         <v>546.68344500000012</v>
       </c>
-      <c r="W25" s="7"/>
-      <c r="AB25" s="7">
+      <c r="W25" s="6"/>
+      <c r="AB25" s="6">
         <f t="shared" ref="AB25" si="20">AB23-AB24</f>
         <v>2661.1000000000004</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AC25" s="6">
         <f t="shared" ref="AC25" si="21">AC23-AC24</f>
         <v>2775.8999999999996</v>
       </c>
-      <c r="AD25" s="7">
+      <c r="AD25" s="6">
         <f t="shared" ref="AD25" si="22">AD23-AD24</f>
         <v>2918.2999999999993</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AE25" s="6">
         <f t="shared" ref="AE25:AF25" si="23">AE23-AE24</f>
         <v>3009.2999999999993</v>
       </c>
-      <c r="AF25" s="7">
+      <c r="AF25" s="6">
         <f t="shared" si="23"/>
         <v>2484.8999999999987</v>
       </c>
-      <c r="AG25" s="7">
+      <c r="AG25" s="6">
         <f>AG23-AG24</f>
         <v>2308.0999999999995</v>
       </c>
-      <c r="AH25" s="7">
+      <c r="AH25" s="6">
         <f t="shared" ref="AH25" si="24">AH23-AH24</f>
         <v>1908.6999999999998</v>
       </c>
-      <c r="AI25" s="7">
+      <c r="AI25" s="6">
         <f>AI23-AI24</f>
         <v>1259.4999999999991</v>
       </c>
-      <c r="AJ25" s="7">
+      <c r="AJ25" s="6">
         <f>AJ23-AJ24</f>
         <v>1347.8000000000002</v>
       </c>
-      <c r="AK25" s="7">
+      <c r="AK25" s="6">
         <f t="shared" ref="AK25:AT25" si="25">AK23-AK24</f>
-        <v>1435.7577499999998</v>
-      </c>
-      <c r="AL25" s="7">
+        <v>1395.4088499999998</v>
+      </c>
+      <c r="AL25" s="6">
         <f t="shared" si="25"/>
-        <v>1648.0002000000004</v>
-      </c>
-      <c r="AM25" s="7">
+        <v>1601.6866800000007</v>
+      </c>
+      <c r="AM25" s="6">
         <f t="shared" si="25"/>
-        <v>1812.8002200000001</v>
-      </c>
-      <c r="AN25" s="7">
+        <v>1761.855348000001</v>
+      </c>
+      <c r="AN25" s="6">
         <f t="shared" si="25"/>
-        <v>2077.1669187500011</v>
-      </c>
-      <c r="AO25" s="7">
+        <v>2018.7925862500006</v>
+      </c>
+      <c r="AO25" s="6">
         <f t="shared" si="25"/>
-        <v>2181.0252646875006</v>
-      </c>
-      <c r="AP25" s="7">
+        <v>2119.7322155625006</v>
+      </c>
+      <c r="AP25" s="6">
         <f t="shared" si="25"/>
-        <v>2381.6795890387511</v>
-      </c>
-      <c r="AQ25" s="7">
+        <v>2314.7475793942513</v>
+      </c>
+      <c r="AQ25" s="6">
         <f t="shared" si="25"/>
-        <v>2500.7635684906882</v>
-      </c>
-      <c r="AR25" s="7">
+        <v>2430.4849583639634</v>
+      </c>
+      <c r="AR25" s="6">
         <f t="shared" si="25"/>
-        <v>2726.7941217965772</v>
-      </c>
-      <c r="AS25" s="7">
+        <v>2650.163406523784</v>
+      </c>
+      <c r="AS25" s="6">
         <f t="shared" si="25"/>
-        <v>2863.1338278864068</v>
-      </c>
-      <c r="AT25" s="7">
+        <v>2782.6715768499735</v>
+      </c>
+      <c r="AT25" s="6">
         <f t="shared" si="25"/>
-        <v>3117.6346125874206</v>
+        <v>3030.0201614588595</v>
       </c>
     </row>
     <row r="26" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
         <v>386.5</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>348.2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>360.4</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>419.1</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>370.3</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <v>378.9</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>421.5</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>538.9</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <v>452.2</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="6">
         <v>387.5</v>
       </c>
-      <c r="Q26" s="7">
-        <f t="shared" ref="Q26:R26" si="26">M26</f>
-        <v>421.5</v>
-      </c>
-      <c r="R26" s="7">
-        <f t="shared" si="26"/>
+      <c r="Q26" s="6">
+        <v>387.9</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" ref="Q26:R26" si="26">N26</f>
         <v>538.9</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="6">
         <f t="shared" ref="S26" si="27">O26</f>
         <v>452.2</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="6">
         <f t="shared" ref="T26" si="28">P26</f>
         <v>387.5</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="6">
         <f t="shared" ref="U26" si="29">Q26</f>
-        <v>421.5</v>
-      </c>
-      <c r="V26" s="7">
+        <v>387.9</v>
+      </c>
+      <c r="V26" s="6">
         <f t="shared" ref="V26" si="30">R26</f>
         <v>538.9</v>
       </c>
-      <c r="W26" s="7"/>
-      <c r="AB26" s="7">
+      <c r="W26" s="6"/>
+      <c r="AB26" s="6">
         <v>1892.4</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AC26" s="6">
         <v>2001</v>
       </c>
-      <c r="AD26" s="7">
+      <c r="AD26" s="6">
         <v>2108.9</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AE26" s="6">
         <v>2252.6</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AF26" s="6">
         <v>1909.6</v>
       </c>
-      <c r="AG26" s="7">
+      <c r="AG26" s="6">
         <v>1994.2</v>
       </c>
-      <c r="AH26" s="7">
+      <c r="AH26" s="6">
         <v>1922.7</v>
       </c>
-      <c r="AI26" s="7">
+      <c r="AI26" s="6">
         <v>1514.2</v>
       </c>
-      <c r="AJ26" s="7">
+      <c r="AJ26" s="6">
         <v>1709.6</v>
       </c>
-      <c r="AK26" s="7">
+      <c r="AK26" s="6">
         <f>AJ26*0.99</f>
         <v>1692.5039999999999</v>
       </c>
-      <c r="AL26" s="7">
+      <c r="AL26" s="6">
         <f t="shared" ref="AL26:AO26" si="31">AK26*0.99</f>
         <v>1675.5789599999998</v>
       </c>
-      <c r="AM26" s="7">
+      <c r="AM26" s="6">
         <f t="shared" si="31"/>
         <v>1658.8231703999998</v>
       </c>
-      <c r="AN26" s="7">
+      <c r="AN26" s="6">
         <f t="shared" si="31"/>
         <v>1642.2349386959997</v>
       </c>
-      <c r="AO26" s="7">
+      <c r="AO26" s="6">
         <f t="shared" si="31"/>
         <v>1625.8125893090398</v>
       </c>
-      <c r="AP26" s="7">
+      <c r="AP26" s="6">
         <f>AO26*1.03</f>
         <v>1674.5869669883111</v>
       </c>
-      <c r="AQ26" s="7">
+      <c r="AQ26" s="6">
         <f t="shared" ref="AQ26:AT26" si="32">AP26*1.03</f>
         <v>1724.8245759979604</v>
       </c>
-      <c r="AR26" s="7">
+      <c r="AR26" s="6">
         <f t="shared" si="32"/>
         <v>1776.5693132778993</v>
       </c>
-      <c r="AS26" s="7">
+      <c r="AS26" s="6">
         <f t="shared" si="32"/>
         <v>1829.8663926762363</v>
       </c>
-      <c r="AT26" s="7">
+      <c r="AT26" s="6">
         <f t="shared" si="32"/>
         <v>1884.7623844565235</v>
       </c>
@@ -2818,518 +2829,517 @@
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
         <f t="shared" ref="G27" si="33">G25-G26</f>
         <v>-104.10000000000002</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f>H25-H26</f>
         <v>-95.999999999999943</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f>I25-I26</f>
         <v>-84.100000000000023</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f>J25-J26</f>
         <v>29.499999999999886</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <f>K25-K26</f>
         <v>-40.199999999999875</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f t="shared" ref="L27" si="34">L25-L26</f>
         <v>-57.999999999999886</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <f t="shared" ref="M27" si="35">M25-M26</f>
         <v>-102.89999999999986</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <f>N25-N26</f>
         <v>-160.69999999999993</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <f>O25-O26</f>
         <v>-153.69999999999999</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="6">
         <f t="shared" ref="P27:R27" si="36">P25-P26</f>
         <v>-105.29999999999995</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="22">
         <f t="shared" si="36"/>
-        <v>-121.98540000000003</v>
-      </c>
-      <c r="R27" s="7">
+        <v>-96.699999999999932</v>
+      </c>
+      <c r="R27" s="6">
         <f t="shared" si="36"/>
         <v>-18.249099999999885</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="6">
         <f t="shared" ref="S27:V27" si="37">S25-S26</f>
         <v>-133.78960000000001</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="6">
         <f t="shared" si="37"/>
         <v>-125.08400000000006</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="6">
         <f t="shared" si="37"/>
-        <v>-107.00966999999991</v>
-      </c>
-      <c r="V27" s="7">
+        <v>-113.93399999999997</v>
+      </c>
+      <c r="V27" s="6">
         <f t="shared" si="37"/>
         <v>7.7834450000001425</v>
       </c>
-      <c r="W27" s="7"/>
-      <c r="AB27" s="7">
+      <c r="W27" s="6"/>
+      <c r="AB27" s="6">
         <f t="shared" ref="AB27" si="38">AB25-AB26</f>
         <v>768.70000000000027</v>
       </c>
-      <c r="AC27" s="7">
+      <c r="AC27" s="6">
         <f t="shared" ref="AC27" si="39">AC25-AC26</f>
         <v>774.89999999999964</v>
       </c>
-      <c r="AD27" s="7">
+      <c r="AD27" s="6">
         <f t="shared" ref="AD27" si="40">AD25-AD26</f>
         <v>809.39999999999918</v>
       </c>
-      <c r="AE27" s="7">
+      <c r="AE27" s="6">
         <f t="shared" ref="AE27:AF27" si="41">AE25-AE26</f>
         <v>756.69999999999936</v>
       </c>
-      <c r="AF27" s="7">
+      <c r="AF27" s="6">
         <f t="shared" si="41"/>
         <v>575.29999999999882</v>
       </c>
-      <c r="AG27" s="7">
+      <c r="AG27" s="6">
         <f>AG25-AG26</f>
         <v>313.89999999999941</v>
       </c>
-      <c r="AH27" s="7">
+      <c r="AH27" s="6">
         <f t="shared" ref="AH27" si="42">AH25-AH26</f>
         <v>-14.000000000000227</v>
       </c>
-      <c r="AI27" s="7">
+      <c r="AI27" s="6">
         <f>AI25-AI26</f>
         <v>-254.70000000000095</v>
       </c>
-      <c r="AJ27" s="7">
+      <c r="AJ27" s="6">
         <f>AJ25-AJ26</f>
         <v>-361.79999999999973</v>
       </c>
-      <c r="AK27" s="7">
+      <c r="AK27" s="6">
         <f t="shared" ref="AK27:AT27" si="43">AK25-AK26</f>
-        <v>-256.74625000000015</v>
-      </c>
-      <c r="AL27" s="7">
+        <v>-297.0951500000001</v>
+      </c>
+      <c r="AL27" s="6">
         <f t="shared" si="43"/>
-        <v>-27.57875999999942</v>
-      </c>
-      <c r="AM27" s="7">
+        <v>-73.892279999999118</v>
+      </c>
+      <c r="AM27" s="6">
         <f t="shared" si="43"/>
-        <v>153.97704960000033</v>
-      </c>
-      <c r="AN27" s="7">
+        <v>103.03217760000121</v>
+      </c>
+      <c r="AN27" s="6">
         <f t="shared" si="43"/>
-        <v>434.93198005400131</v>
-      </c>
-      <c r="AO27" s="7">
+        <v>376.55764755400082</v>
+      </c>
+      <c r="AO27" s="6">
         <f t="shared" si="43"/>
-        <v>555.21267537846074</v>
-      </c>
-      <c r="AP27" s="7">
+        <v>493.91962625346082</v>
+      </c>
+      <c r="AP27" s="6">
         <f t="shared" si="43"/>
-        <v>707.09262205044001</v>
-      </c>
-      <c r="AQ27" s="7">
+        <v>640.16061240594013</v>
+      </c>
+      <c r="AQ27" s="6">
         <f t="shared" si="43"/>
-        <v>775.93899249272772</v>
-      </c>
-      <c r="AR27" s="7">
+        <v>705.66038236600298</v>
+      </c>
+      <c r="AR27" s="6">
         <f t="shared" si="43"/>
-        <v>950.22480851867795</v>
-      </c>
-      <c r="AS27" s="7">
+        <v>873.59409324588478</v>
+      </c>
+      <c r="AS27" s="6">
         <f t="shared" si="43"/>
-        <v>1033.2674352101706</v>
-      </c>
-      <c r="AT27" s="7">
+        <v>952.80518417373719</v>
+      </c>
+      <c r="AT27" s="6">
         <f t="shared" si="43"/>
-        <v>1232.8722281308972</v>
+        <v>1145.2577770023361</v>
       </c>
     </row>
     <row r="28" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
         <v>-6.7</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>-7.5</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>-24.7</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>-0.5</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>-0.8</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>-0.9</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <v>-0.7</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q28" s="7">
-        <f t="shared" ref="Q28:R28" si="44">P28</f>
-        <v>0.3</v>
-      </c>
-      <c r="R28" s="7">
-        <f t="shared" si="44"/>
-        <v>0.3</v>
-      </c>
-      <c r="S28" s="7">
+      <c r="Q28" s="22">
+        <v>3.7</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" ref="Q28:R28" si="44">Q28</f>
+        <v>3.7</v>
+      </c>
+      <c r="S28" s="6">
         <f t="shared" ref="S28" si="45">R28</f>
-        <v>0.3</v>
-      </c>
-      <c r="T28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="T28" s="6">
         <f t="shared" ref="T28" si="46">S28</f>
-        <v>0.3</v>
-      </c>
-      <c r="U28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="U28" s="6">
         <f t="shared" ref="U28" si="47">T28</f>
-        <v>0.3</v>
-      </c>
-      <c r="V28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="V28" s="6">
         <f t="shared" ref="V28" si="48">U28</f>
-        <v>0.3</v>
-      </c>
-      <c r="W28" s="7"/>
-      <c r="AB28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="AB28" s="6">
         <v>-4.7</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AC28" s="6">
         <v>-10</v>
       </c>
-      <c r="AD28" s="7">
+      <c r="AD28" s="6">
         <v>-23</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AE28" s="6">
         <v>-53</v>
       </c>
-      <c r="AF28" s="7">
+      <c r="AF28" s="6">
         <v>-55.3</v>
       </c>
-      <c r="AG28" s="7">
+      <c r="AG28" s="6">
         <v>-51.1</v>
       </c>
-      <c r="AH28" s="7">
+      <c r="AH28" s="6">
         <v>-27.2</v>
       </c>
-      <c r="AI28" s="7">
+      <c r="AI28" s="6">
         <v>-32.1</v>
       </c>
-      <c r="AJ28" s="7">
+      <c r="AJ28" s="6">
         <v>-26.9</v>
       </c>
-      <c r="AK28" s="7">
-        <f>AJ43*$AX$65</f>
-        <v>15.38531</v>
-      </c>
-      <c r="AL28" s="7">
-        <f>AK43*$AX$65</f>
-        <v>10.558091199999996</v>
-      </c>
-      <c r="AM28" s="7">
-        <f>AL43*$AX$65</f>
-        <v>10.217677824000008</v>
-      </c>
-      <c r="AN28" s="7">
-        <f>AM43*$AX$65</f>
-        <v>13.501572372480014</v>
-      </c>
-      <c r="AO28" s="7">
-        <f>AN43*$AX$65</f>
-        <v>22.470243421009641</v>
-      </c>
-      <c r="AP28" s="7">
-        <f>AO43*$AX$65</f>
-        <v>32.868535959400106</v>
-      </c>
-      <c r="AQ28" s="7">
-        <f>AP43*$AX$65</f>
-        <v>46.187836803577227</v>
-      </c>
-      <c r="AR28" s="7">
-        <f>AQ43*$AX$65</f>
-        <v>59.341866072318112</v>
-      </c>
-      <c r="AS28" s="7">
-        <f>AR43*$AX$65</f>
-        <v>75.494932865774047</v>
-      </c>
-      <c r="AT28" s="7">
-        <f>AS43*$AX$65</f>
-        <v>92.126368386913214</v>
+      <c r="AK28" s="6">
+        <f t="shared" ref="AK28:AT28" si="49">AJ43*$AX$65</f>
+        <v>15.985018000000006</v>
+      </c>
+      <c r="AL28" s="6">
+        <f t="shared" si="49"/>
+        <v>10.362815360000004</v>
+      </c>
+      <c r="AM28" s="6">
+        <f t="shared" si="49"/>
+        <v>9.0922260672000217</v>
+      </c>
+      <c r="AN28" s="6">
+        <f t="shared" si="49"/>
+        <v>11.334714140544047</v>
+      </c>
+      <c r="AO28" s="6">
+        <f t="shared" si="49"/>
+        <v>19.092561374434947</v>
+      </c>
+      <c r="AP28" s="6">
+        <f t="shared" si="49"/>
+        <v>28.326780751737068</v>
+      </c>
+      <c r="AQ28" s="6">
+        <f t="shared" si="49"/>
+        <v>40.359553828575258</v>
+      </c>
+      <c r="AR28" s="6">
+        <f t="shared" si="49"/>
+        <v>52.295872807688511</v>
+      </c>
+      <c r="AS28" s="6">
+        <f t="shared" si="49"/>
+        <v>67.110112264545677</v>
+      </c>
+      <c r="AT28" s="6">
+        <f t="shared" si="49"/>
+        <v>82.408841711119933</v>
       </c>
     </row>
     <row r="29" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <f t="shared" ref="G29" si="49">G27+G28</f>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <f t="shared" ref="G29" si="50">G27+G28</f>
         <v>-110.80000000000003</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f>H27+H28</f>
         <v>-103.49999999999994</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f>I27+I28</f>
         <v>-93.800000000000026</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f>J27+J28</f>
         <v>21.299999999999887</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <f>K27+K28</f>
         <v>-64.899999999999878</v>
       </c>
-      <c r="L29" s="7">
-        <f t="shared" ref="L29" si="50">L27+L28</f>
+      <c r="L29" s="6">
+        <f t="shared" ref="L29" si="51">L27+L28</f>
         <v>-58.499999999999886</v>
       </c>
-      <c r="M29" s="7">
-        <f t="shared" ref="M29" si="51">M27+M28</f>
+      <c r="M29" s="6">
+        <f t="shared" ref="M29" si="52">M27+M28</f>
         <v>-103.69999999999986</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <f>N27+N28</f>
         <v>-161.59999999999994</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <f>O27+O28</f>
         <v>-154.39999999999998</v>
       </c>
-      <c r="P29" s="7">
-        <f t="shared" ref="P29:R29" si="52">P27+P28</f>
+      <c r="P29" s="6">
+        <f t="shared" ref="P29:R29" si="53">P27+P28</f>
         <v>-104.99999999999996</v>
       </c>
-      <c r="Q29" s="7">
-        <f t="shared" si="52"/>
-        <v>-121.68540000000003</v>
-      </c>
-      <c r="R29" s="7">
-        <f t="shared" si="52"/>
-        <v>-17.949099999999884</v>
-      </c>
-      <c r="S29" s="7">
-        <f t="shared" ref="S29:V29" si="53">S27+S28</f>
-        <v>-133.4896</v>
-      </c>
-      <c r="T29" s="7">
+      <c r="Q29" s="22">
         <f t="shared" si="53"/>
-        <v>-124.78400000000006</v>
-      </c>
-      <c r="U29" s="7">
+        <v>-92.999999999999929</v>
+      </c>
+      <c r="R29" s="6">
         <f t="shared" si="53"/>
-        <v>-106.70966999999992</v>
-      </c>
-      <c r="V29" s="7">
-        <f t="shared" si="53"/>
-        <v>8.0834450000001432</v>
-      </c>
-      <c r="W29" s="7"/>
-      <c r="AB29" s="7">
-        <f t="shared" ref="AB29" si="54">AB27+AB28</f>
+        <v>-14.549099999999886</v>
+      </c>
+      <c r="S29" s="6">
+        <f t="shared" ref="S29:V29" si="54">S27+S28</f>
+        <v>-130.08960000000002</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="54"/>
+        <v>-121.38400000000006</v>
+      </c>
+      <c r="U29" s="6">
+        <f t="shared" si="54"/>
+        <v>-110.23399999999997</v>
+      </c>
+      <c r="V29" s="6">
+        <f t="shared" si="54"/>
+        <v>11.483445000000142</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="AB29" s="6">
+        <f t="shared" ref="AB29" si="55">AB27+AB28</f>
         <v>764.00000000000023</v>
       </c>
-      <c r="AC29" s="7">
-        <f t="shared" ref="AC29" si="55">AC27+AC28</f>
+      <c r="AC29" s="6">
+        <f t="shared" ref="AC29" si="56">AC27+AC28</f>
         <v>764.89999999999964</v>
       </c>
-      <c r="AD29" s="7">
-        <f t="shared" ref="AD29" si="56">AD27+AD28</f>
+      <c r="AD29" s="6">
+        <f t="shared" ref="AD29" si="57">AD27+AD28</f>
         <v>786.39999999999918</v>
       </c>
-      <c r="AE29" s="7">
-        <f t="shared" ref="AE29:AF29" si="57">AE27+AE28</f>
+      <c r="AE29" s="6">
+        <f t="shared" ref="AE29:AF29" si="58">AE27+AE28</f>
         <v>703.69999999999936</v>
       </c>
-      <c r="AF29" s="7">
-        <f t="shared" si="57"/>
+      <c r="AF29" s="6">
+        <f t="shared" si="58"/>
         <v>519.99999999999886</v>
       </c>
-      <c r="AG29" s="7">
-        <f t="shared" ref="AG29:AH29" si="58">AG27+AG28</f>
+      <c r="AG29" s="6">
+        <f t="shared" ref="AG29:AH29" si="59">AG27+AG28</f>
         <v>262.79999999999939</v>
       </c>
-      <c r="AH29" s="7">
-        <f t="shared" si="58"/>
+      <c r="AH29" s="6">
+        <f t="shared" si="59"/>
         <v>-41.20000000000023</v>
       </c>
-      <c r="AI29" s="7">
-        <f t="shared" ref="AI29:AJ29" si="59">AI27+AI28</f>
+      <c r="AI29" s="6">
+        <f t="shared" ref="AI29:AJ29" si="60">AI27+AI28</f>
         <v>-286.80000000000098</v>
       </c>
-      <c r="AJ29" s="7">
-        <f t="shared" si="59"/>
+      <c r="AJ29" s="6">
+        <f t="shared" si="60"/>
         <v>-388.6999999999997</v>
       </c>
-      <c r="AK29" s="7">
-        <f t="shared" ref="AK29" si="60">AK27+AK28</f>
-        <v>-241.36094000000014</v>
-      </c>
-      <c r="AL29" s="7">
-        <f t="shared" ref="AL29" si="61">AL27+AL28</f>
-        <v>-17.020668799999424</v>
-      </c>
-      <c r="AM29" s="7">
-        <f t="shared" ref="AM29" si="62">AM27+AM28</f>
-        <v>164.19472742400035</v>
-      </c>
-      <c r="AN29" s="7">
-        <f t="shared" ref="AN29" si="63">AN27+AN28</f>
-        <v>448.43355242648136</v>
-      </c>
-      <c r="AO29" s="7">
-        <f t="shared" ref="AO29" si="64">AO27+AO28</f>
-        <v>577.68291879947037</v>
-      </c>
-      <c r="AP29" s="7">
-        <f t="shared" ref="AP29" si="65">AP27+AP28</f>
-        <v>739.96115800984012</v>
-      </c>
-      <c r="AQ29" s="7">
-        <f t="shared" ref="AQ29" si="66">AQ27+AQ28</f>
-        <v>822.126829296305</v>
-      </c>
-      <c r="AR29" s="7">
-        <f t="shared" ref="AR29" si="67">AR27+AR28</f>
-        <v>1009.5666745909961</v>
-      </c>
-      <c r="AS29" s="7">
-        <f t="shared" ref="AS29" si="68">AS27+AS28</f>
-        <v>1108.7623680759446</v>
-      </c>
-      <c r="AT29" s="7">
-        <f t="shared" ref="AT29" si="69">AT27+AT28</f>
-        <v>1324.9985965178103</v>
+      <c r="AK29" s="6">
+        <f t="shared" ref="AK29" si="61">AK27+AK28</f>
+        <v>-281.11013200000008</v>
+      </c>
+      <c r="AL29" s="6">
+        <f t="shared" ref="AL29" si="62">AL27+AL28</f>
+        <v>-63.529464639999112</v>
+      </c>
+      <c r="AM29" s="6">
+        <f t="shared" ref="AM29" si="63">AM27+AM28</f>
+        <v>112.12440366720122</v>
+      </c>
+      <c r="AN29" s="6">
+        <f t="shared" ref="AN29" si="64">AN27+AN28</f>
+        <v>387.89236169454489</v>
+      </c>
+      <c r="AO29" s="6">
+        <f t="shared" ref="AO29" si="65">AO27+AO28</f>
+        <v>513.01218762789574</v>
+      </c>
+      <c r="AP29" s="6">
+        <f t="shared" ref="AP29" si="66">AP27+AP28</f>
+        <v>668.48739315767716</v>
+      </c>
+      <c r="AQ29" s="6">
+        <f t="shared" ref="AQ29" si="67">AQ27+AQ28</f>
+        <v>746.01993619457824</v>
+      </c>
+      <c r="AR29" s="6">
+        <f t="shared" ref="AR29" si="68">AR27+AR28</f>
+        <v>925.88996605357329</v>
+      </c>
+      <c r="AS29" s="6">
+        <f t="shared" ref="AS29" si="69">AS27+AS28</f>
+        <v>1019.9152964382829</v>
+      </c>
+      <c r="AT29" s="6">
+        <f t="shared" ref="AT29" si="70">AT27+AT28</f>
+        <v>1227.666618713456</v>
       </c>
     </row>
     <row r="30" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
         <v>50.4</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>-53.9</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>-69.7</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <v>1.3</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <v>3.1</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>1.7</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <v>-20.2</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="6">
         <v>3.5</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="6">
         <v>1.2</v>
       </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7">
-        <v>0</v>
-      </c>
-      <c r="U30" s="7">
-        <v>0</v>
-      </c>
-      <c r="V30" s="7">
-        <v>0</v>
-      </c>
-      <c r="W30" s="7"/>
-      <c r="AB30" s="7">
+      <c r="Q30" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0</v>
+      </c>
+      <c r="V30" s="6">
+        <v>0</v>
+      </c>
+      <c r="W30" s="6"/>
+      <c r="AB30" s="6">
         <v>214.6</v>
       </c>
-      <c r="AC30" s="7">
+      <c r="AC30" s="6">
         <v>215.2</v>
       </c>
-      <c r="AD30" s="7">
+      <c r="AD30" s="6">
         <v>222.4</v>
       </c>
-      <c r="AE30" s="7">
+      <c r="AE30" s="6">
         <v>151.5</v>
       </c>
-      <c r="AF30" s="7">
+      <c r="AF30" s="6">
         <v>153.5</v>
       </c>
-      <c r="AG30" s="7">
+      <c r="AG30" s="6">
         <v>41.7</v>
       </c>
-      <c r="AH30" s="7">
+      <c r="AH30" s="6">
         <v>37.6</v>
       </c>
-      <c r="AI30" s="7">
+      <c r="AI30" s="6">
         <v>-55.3</v>
       </c>
-      <c r="AJ30" s="7">
+      <c r="AJ30" s="6">
         <v>-14.1</v>
       </c>
-      <c r="AK30" s="7">
+      <c r="AK30" s="6">
         <v>0</v>
       </c>
       <c r="AL30" s="2">
@@ -3343,605 +3353,604 @@
       </c>
       <c r="AO30" s="2">
         <f>AO29*0.1</f>
-        <v>57.768291879947043</v>
+        <v>51.301218762789574</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" ref="AP30" si="70">AP29*0.1</f>
-        <v>73.996115800984015</v>
+        <f t="shared" ref="AP30" si="71">AP29*0.1</f>
+        <v>66.848739315767716</v>
       </c>
       <c r="AQ30" s="2">
         <f>AQ29*0.2</f>
-        <v>164.42536585926101</v>
+        <v>149.20398723891566</v>
       </c>
       <c r="AR30" s="2">
         <f>AR29*0.2</f>
-        <v>201.91333491819921</v>
+        <v>185.17799321071467</v>
       </c>
       <c r="AS30" s="2">
         <f>AS29*0.25</f>
-        <v>277.19059201898614</v>
+        <v>254.97882410957072</v>
       </c>
       <c r="AT30" s="2">
         <f>AT29*0.25</f>
-        <v>331.24964912945256</v>
+        <v>306.91665467836401</v>
       </c>
     </row>
     <row r="31" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <f t="shared" ref="G31" si="71">G29-G30</f>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <f t="shared" ref="G31" si="72">G29-G30</f>
         <v>-161.20000000000002</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <f>H29-H30</f>
         <v>-121.39999999999995</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <f>I29-I30</f>
         <v>-39.900000000000027</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f>J29-J30</f>
         <v>90.999999999999886</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <f>K29-K30</f>
         <v>-66.199999999999875</v>
       </c>
-      <c r="L31" s="7">
-        <f t="shared" ref="L31" si="72">L29-L30</f>
+      <c r="L31" s="6">
+        <f t="shared" ref="L31" si="73">L29-L30</f>
         <v>-61.599999999999888</v>
       </c>
-      <c r="M31" s="7">
-        <f t="shared" ref="M31" si="73">M29-M30</f>
+      <c r="M31" s="6">
+        <f t="shared" ref="M31" si="74">M29-M30</f>
         <v>-105.39999999999986</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <f>N29-N30</f>
         <v>-141.39999999999995</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <f>O29-O30</f>
         <v>-157.89999999999998</v>
       </c>
-      <c r="P31" s="7">
-        <f t="shared" ref="P31:R31" si="74">P29-P30</f>
+      <c r="P31" s="6">
+        <f t="shared" ref="P31:R31" si="75">P29-P30</f>
         <v>-106.19999999999996</v>
       </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="74"/>
-        <v>-121.68540000000003</v>
-      </c>
-      <c r="R31" s="7">
-        <f t="shared" si="74"/>
-        <v>-17.949099999999884</v>
-      </c>
-      <c r="S31" s="7">
-        <f t="shared" ref="S31:V31" si="75">S29-S30</f>
-        <v>-133.4896</v>
-      </c>
-      <c r="T31" s="7">
+      <c r="Q31" s="6">
         <f t="shared" si="75"/>
-        <v>-124.78400000000006</v>
-      </c>
-      <c r="U31" s="7">
+        <v>-95.099999999999923</v>
+      </c>
+      <c r="R31" s="6">
         <f t="shared" si="75"/>
-        <v>-106.70966999999992</v>
-      </c>
-      <c r="V31" s="7">
-        <f t="shared" si="75"/>
-        <v>8.0834450000001432</v>
-      </c>
-      <c r="W31" s="7"/>
-      <c r="AB31" s="7">
-        <f t="shared" ref="AB31" si="76">AB29-AB30</f>
+        <v>-14.549099999999886</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" ref="S31:V31" si="76">S29-S30</f>
+        <v>-130.08960000000002</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="76"/>
+        <v>-121.38400000000006</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" si="76"/>
+        <v>-110.23399999999997</v>
+      </c>
+      <c r="V31" s="6">
+        <f t="shared" si="76"/>
+        <v>11.483445000000142</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="AB31" s="6">
+        <f t="shared" ref="AB31" si="77">AB29-AB30</f>
         <v>549.4000000000002</v>
       </c>
-      <c r="AC31" s="7">
-        <f t="shared" ref="AC31" si="77">AC29-AC30</f>
+      <c r="AC31" s="6">
+        <f t="shared" ref="AC31" si="78">AC29-AC30</f>
         <v>549.69999999999959</v>
       </c>
-      <c r="AD31" s="7">
-        <f t="shared" ref="AD31" si="78">AD29-AD30</f>
+      <c r="AD31" s="6">
+        <f t="shared" ref="AD31" si="79">AD29-AD30</f>
         <v>563.9999999999992</v>
       </c>
-      <c r="AE31" s="7">
-        <f t="shared" ref="AE31:AF31" si="79">AE29-AE30</f>
+      <c r="AE31" s="6">
+        <f t="shared" ref="AE31:AF31" si="80">AE29-AE30</f>
         <v>552.19999999999936</v>
       </c>
-      <c r="AF31" s="7">
-        <f t="shared" si="79"/>
+      <c r="AF31" s="6">
+        <f t="shared" si="80"/>
         <v>366.49999999999886</v>
       </c>
-      <c r="AG31" s="7">
-        <f t="shared" ref="AG31:AH31" si="80">AG29-AG30</f>
+      <c r="AG31" s="6">
+        <f t="shared" ref="AG31:AH31" si="81">AG29-AG30</f>
         <v>221.0999999999994</v>
       </c>
-      <c r="AH31" s="7">
-        <f t="shared" si="80"/>
+      <c r="AH31" s="6">
+        <f t="shared" si="81"/>
         <v>-78.800000000000239</v>
       </c>
-      <c r="AI31" s="7">
+      <c r="AI31" s="6">
         <f>AI29-AI30</f>
         <v>-231.50000000000097</v>
       </c>
-      <c r="AJ31" s="7">
+      <c r="AJ31" s="6">
         <f>AJ29-AJ30</f>
         <v>-374.59999999999968</v>
       </c>
-      <c r="AK31" s="7">
-        <f t="shared" ref="AK31:AT31" si="81">AK29-AK30</f>
-        <v>-241.36094000000014</v>
-      </c>
-      <c r="AL31" s="7">
-        <f t="shared" si="81"/>
-        <v>-17.020668799999424</v>
-      </c>
-      <c r="AM31" s="7">
-        <f t="shared" si="81"/>
-        <v>164.19472742400035</v>
-      </c>
-      <c r="AN31" s="7">
-        <f t="shared" si="81"/>
-        <v>448.43355242648136</v>
-      </c>
-      <c r="AO31" s="7">
-        <f t="shared" si="81"/>
-        <v>519.91462691952336</v>
-      </c>
-      <c r="AP31" s="7">
-        <f t="shared" si="81"/>
-        <v>665.96504220885606</v>
-      </c>
-      <c r="AQ31" s="7">
-        <f t="shared" si="81"/>
-        <v>657.70146343704403</v>
-      </c>
-      <c r="AR31" s="7">
-        <f t="shared" si="81"/>
-        <v>807.65333967279685</v>
-      </c>
-      <c r="AS31" s="7">
-        <f t="shared" si="81"/>
-        <v>831.57177605695847</v>
-      </c>
-      <c r="AT31" s="7">
-        <f t="shared" si="81"/>
-        <v>993.74894738835769</v>
+      <c r="AK31" s="6">
+        <f t="shared" ref="AK31:AT31" si="82">AK29-AK30</f>
+        <v>-281.11013200000008</v>
+      </c>
+      <c r="AL31" s="6">
+        <f t="shared" si="82"/>
+        <v>-63.529464639999112</v>
+      </c>
+      <c r="AM31" s="6">
+        <f t="shared" si="82"/>
+        <v>112.12440366720122</v>
+      </c>
+      <c r="AN31" s="6">
+        <f t="shared" si="82"/>
+        <v>387.89236169454489</v>
+      </c>
+      <c r="AO31" s="6">
+        <f t="shared" si="82"/>
+        <v>461.71096886510617</v>
+      </c>
+      <c r="AP31" s="6">
+        <f t="shared" si="82"/>
+        <v>601.63865384190944</v>
+      </c>
+      <c r="AQ31" s="6">
+        <f t="shared" si="82"/>
+        <v>596.81594895566263</v>
+      </c>
+      <c r="AR31" s="6">
+        <f t="shared" si="82"/>
+        <v>740.71197284285859</v>
+      </c>
+      <c r="AS31" s="6">
+        <f t="shared" si="82"/>
+        <v>764.93647232871217</v>
+      </c>
+      <c r="AT31" s="6">
+        <f t="shared" si="82"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="AU31" s="2">
-        <f>AT31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" ref="AU31:CF31" si="83">AT31*(1+$AX$64)</f>
+        <v>920.74996403509203</v>
       </c>
       <c r="AV31" s="2">
-        <f>AU31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="AW31" s="2">
-        <f>AV31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="AX31" s="2">
-        <f>AW31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="AY31" s="2">
-        <f>AX31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="AZ31" s="2">
-        <f>AY31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BA31" s="2">
-        <f>AZ31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BB31" s="2">
-        <f>BA31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BC31" s="2">
-        <f>BB31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BD31" s="2">
-        <f>BC31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BE31" s="2">
-        <f>BD31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BF31" s="2">
-        <f>BE31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BG31" s="2">
-        <f>BF31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BH31" s="2">
-        <f>BG31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BI31" s="2">
-        <f>BH31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BJ31" s="2">
-        <f>BI31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BK31" s="2">
-        <f>BJ31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BL31" s="2">
-        <f>BK31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BM31" s="2">
-        <f>BL31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BN31" s="2">
-        <f>BM31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BO31" s="2">
-        <f>BN31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BP31" s="2">
-        <f>BO31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BQ31" s="2">
-        <f>BP31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BR31" s="2">
-        <f>BQ31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BS31" s="2">
-        <f>BR31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BT31" s="2">
-        <f>BS31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BU31" s="2">
-        <f>BT31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BV31" s="2">
-        <f>BU31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BW31" s="2">
-        <f>BV31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BX31" s="2">
-        <f>BW31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BY31" s="2">
-        <f>BX31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="BZ31" s="2">
-        <f>BY31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="CA31" s="2">
-        <f>BZ31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="CB31" s="2">
-        <f>CA31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="CC31" s="2">
-        <f>CB31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="CD31" s="2">
-        <f>CC31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="CE31" s="2">
-        <f>CD31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
       <c r="CF31" s="2">
-        <f>CE31*(1+$AX$64)</f>
-        <v>993.74894738835769</v>
+        <f t="shared" si="83"/>
+        <v>920.74996403509203</v>
       </c>
     </row>
     <row r="32" spans="2:84" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" ref="G32" si="82">G31/G33</f>
+      <c r="G32" s="5">
+        <f t="shared" ref="G32" si="84">G31/G33</f>
         <v>-2.4992248062015507</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <f>H31/H33</f>
         <v>-1.8676923076923069</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <f>I31/I33</f>
         <v>-0.61196319018404943</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <f>J31/J33</f>
         <v>1.3421828908554556</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <f>K31/K33</f>
         <v>-1.0030303030303012</v>
       </c>
-      <c r="L32" s="6">
-        <f t="shared" ref="L32" si="83">L31/L33</f>
+      <c r="L32" s="5">
+        <f t="shared" ref="L32" si="85">L31/L33</f>
         <v>-0.84848484848484695</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" ref="M32" si="84">M31/M33</f>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32" si="86">M31/M33</f>
         <v>-1.388669301712778</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <f>N31/N33</f>
         <v>-1.862977602108036</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <f>O31/O33</f>
         <v>-2.0803689064558624</v>
       </c>
-      <c r="P32" s="6">
-        <f t="shared" ref="P32:R32" si="85">P31/P33</f>
+      <c r="P32" s="5">
+        <f t="shared" ref="P32:R32" si="87">P31/P33</f>
         <v>-0.34911242603550285</v>
       </c>
-      <c r="Q32" s="6">
-        <f t="shared" si="85"/>
-        <v>-0.40001775147929003</v>
-      </c>
-      <c r="R32" s="6">
-        <f t="shared" si="85"/>
-        <v>-5.9004273504273126E-2</v>
-      </c>
-      <c r="S32" s="6">
-        <f t="shared" ref="S32:V32" si="86">S31/S33</f>
-        <v>-0.43882182774490469</v>
-      </c>
-      <c r="T32" s="6">
-        <f t="shared" si="86"/>
-        <v>-0.41020381328073657</v>
-      </c>
-      <c r="U32" s="6">
-        <f t="shared" si="86"/>
-        <v>-0.35078786982248494</v>
-      </c>
-      <c r="V32" s="6">
-        <f t="shared" si="86"/>
-        <v>2.6572797501644128E-2</v>
-      </c>
-      <c r="W32" s="6"/>
-      <c r="AB32" s="6">
-        <f t="shared" ref="AB32" si="87">AB31/AB33</f>
+      <c r="Q32" s="5">
+        <f t="shared" si="87"/>
+        <v>-0.31262327416173546</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="87"/>
+        <v>-4.7827416173569642E-2</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" ref="S32:V32" si="88">S31/S33</f>
+        <v>-0.42764497041420124</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="88"/>
+        <v>-0.39902695595003307</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" si="88"/>
+        <v>-0.3623734385272846</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="88"/>
+        <v>3.7749654832347608E-2</v>
+      </c>
+      <c r="W32" s="5"/>
+      <c r="AB32" s="5">
+        <f t="shared" ref="AB32" si="89">AB31/AB33</f>
         <v>4.6402027027027044</v>
       </c>
-      <c r="AC32" s="6">
-        <f t="shared" ref="AC32" si="88">AC31/AC33</f>
+      <c r="AC32" s="5">
+        <f t="shared" ref="AC32" si="90">AC31/AC33</f>
         <v>4.8560070671378055</v>
       </c>
-      <c r="AD32" s="6">
-        <f t="shared" ref="AD32" si="89">AD31/AD33</f>
+      <c r="AD32" s="5">
+        <f t="shared" ref="AD32" si="91">AD31/AD33</f>
         <v>5.2858481724461033</v>
       </c>
-      <c r="AE32" s="6">
-        <f t="shared" ref="AE32:AF32" si="90">AE31/AE33</f>
+      <c r="AE32" s="5">
+        <f t="shared" ref="AE32:AF32" si="92">AE31/AE33</f>
         <v>5.3198458574181053</v>
       </c>
-      <c r="AF32" s="6">
-        <f t="shared" si="90"/>
+      <c r="AF32" s="5">
+        <f t="shared" si="92"/>
         <v>3.6108374384236339</v>
       </c>
-      <c r="AG32" s="6">
-        <f t="shared" ref="AG32:AH32" si="91">AG31/AG33</f>
+      <c r="AG32" s="5">
+        <f t="shared" ref="AG32:AH32" si="93">AG31/AG33</f>
         <v>2.1655239960822663</v>
       </c>
-      <c r="AH32" s="6">
-        <f t="shared" si="91"/>
+      <c r="AH32" s="5">
+        <f t="shared" si="93"/>
         <v>-0.90057142857143135</v>
       </c>
-      <c r="AI32" s="6">
+      <c r="AI32" s="5">
         <f>AI31/AI33</f>
         <v>-3.5615384615384764</v>
       </c>
-      <c r="AJ32" s="6">
+      <c r="AJ32" s="5">
         <f>AJ31/AJ33</f>
         <v>-5.1597796143250649</v>
       </c>
-      <c r="AK32" s="6">
-        <f t="shared" ref="AK32:AT32" si="92">AK31/AK33</f>
-        <v>-3.3245308539944927</v>
-      </c>
-      <c r="AL32" s="6">
-        <f t="shared" si="92"/>
-        <v>-0.23444447382919317</v>
-      </c>
-      <c r="AM32" s="6">
-        <f t="shared" si="92"/>
-        <v>2.2616353639669473</v>
-      </c>
-      <c r="AN32" s="6">
-        <f t="shared" si="92"/>
-        <v>6.1767706945796332</v>
-      </c>
-      <c r="AO32" s="6">
-        <f t="shared" si="92"/>
-        <v>7.1613584975140965</v>
-      </c>
-      <c r="AP32" s="6">
-        <f t="shared" si="92"/>
-        <v>9.1730722067335559</v>
-      </c>
-      <c r="AQ32" s="6">
-        <f t="shared" si="92"/>
-        <v>9.059248807672784</v>
-      </c>
-      <c r="AR32" s="6">
-        <f t="shared" si="92"/>
-        <v>11.124701648385633</v>
-      </c>
-      <c r="AS32" s="6">
-        <f t="shared" si="92"/>
-        <v>11.454156694999428</v>
-      </c>
-      <c r="AT32" s="6">
-        <f t="shared" si="92"/>
-        <v>13.68800203014267</v>
+      <c r="AK32" s="5">
+        <f t="shared" ref="AK32:AT32" si="94">AK31/AK33</f>
+        <v>-3.8720403856749326</v>
+      </c>
+      <c r="AL32" s="5">
+        <f t="shared" si="94"/>
+        <v>-0.87506149641872066</v>
+      </c>
+      <c r="AM32" s="5">
+        <f t="shared" si="94"/>
+        <v>1.5444132736529095</v>
+      </c>
+      <c r="AN32" s="5">
+        <f t="shared" si="94"/>
+        <v>5.34286999579263</v>
+      </c>
+      <c r="AO32" s="5">
+        <f t="shared" si="94"/>
+        <v>6.3596552185276334</v>
+      </c>
+      <c r="AP32" s="5">
+        <f t="shared" si="94"/>
+        <v>8.2870337994753367</v>
+      </c>
+      <c r="AQ32" s="5">
+        <f t="shared" si="94"/>
+        <v>8.2206053575160141</v>
+      </c>
+      <c r="AR32" s="5">
+        <f t="shared" si="94"/>
+        <v>10.202644254033865</v>
+      </c>
+      <c r="AS32" s="5">
+        <f t="shared" si="94"/>
+        <v>10.536315045850031</v>
+      </c>
+      <c r="AT32" s="5">
+        <f t="shared" si="94"/>
+        <v>12.682506391667935</v>
       </c>
     </row>
     <row r="33" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
         <v>64.5</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>65</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>65.2</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>67.8</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>66</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <v>72.599999999999994</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>75.900000000000006</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <v>75.900000000000006</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <v>75.900000000000006</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="6">
         <v>304.2</v>
       </c>
-      <c r="Q33" s="7">
-        <f>P33</f>
+      <c r="Q33" s="6">
         <v>304.2</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="6">
         <f>Q33</f>
         <v>304.2</v>
       </c>
-      <c r="S33" s="7">
-        <f t="shared" ref="S33:V33" si="93">R33</f>
+      <c r="S33" s="6">
+        <f t="shared" ref="S33:V33" si="95">R33</f>
         <v>304.2</v>
       </c>
-      <c r="T33" s="7">
-        <f t="shared" si="93"/>
+      <c r="T33" s="6">
+        <f t="shared" si="95"/>
         <v>304.2</v>
       </c>
-      <c r="U33" s="7">
-        <f t="shared" si="93"/>
+      <c r="U33" s="6">
+        <f t="shared" si="95"/>
         <v>304.2</v>
       </c>
-      <c r="V33" s="7">
-        <f t="shared" si="93"/>
+      <c r="V33" s="6">
+        <f t="shared" si="95"/>
         <v>304.2</v>
       </c>
-      <c r="W33" s="7"/>
-      <c r="AB33" s="7">
+      <c r="W33" s="6"/>
+      <c r="AB33" s="6">
         <v>118.4</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AC33" s="6">
         <v>113.2</v>
       </c>
-      <c r="AD33" s="7">
+      <c r="AD33" s="6">
         <v>106.7</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AE33" s="6">
         <v>103.8</v>
       </c>
-      <c r="AF33" s="7">
+      <c r="AF33" s="6">
         <v>101.5</v>
       </c>
-      <c r="AG33" s="7">
+      <c r="AG33" s="6">
         <v>102.1</v>
       </c>
-      <c r="AH33" s="7">
+      <c r="AH33" s="6">
         <v>87.5</v>
       </c>
-      <c r="AI33" s="7">
+      <c r="AI33" s="6">
         <v>65</v>
       </c>
-      <c r="AJ33" s="7">
+      <c r="AJ33" s="6">
         <v>72.599999999999994</v>
       </c>
-      <c r="AK33" s="7">
+      <c r="AK33" s="6">
         <f>AJ33</f>
         <v>72.599999999999994</v>
       </c>
-      <c r="AL33" s="7">
-        <f t="shared" ref="AL33:AT33" si="94">AK33</f>
+      <c r="AL33" s="6">
+        <f t="shared" ref="AL33:AT33" si="96">AK33</f>
         <v>72.599999999999994</v>
       </c>
-      <c r="AM33" s="7">
-        <f t="shared" si="94"/>
+      <c r="AM33" s="6">
+        <f t="shared" si="96"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AN33" s="7">
-        <f t="shared" si="94"/>
+      <c r="AN33" s="6">
+        <f t="shared" si="96"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AO33" s="7">
-        <f t="shared" si="94"/>
+      <c r="AO33" s="6">
+        <f t="shared" si="96"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AP33" s="7">
-        <f t="shared" si="94"/>
+      <c r="AP33" s="6">
+        <f t="shared" si="96"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AQ33" s="7">
-        <f t="shared" si="94"/>
+      <c r="AQ33" s="6">
+        <f t="shared" si="96"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AR33" s="7">
-        <f t="shared" si="94"/>
+      <c r="AR33" s="6">
+        <f t="shared" si="96"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AS33" s="7">
-        <f t="shared" si="94"/>
+      <c r="AS33" s="6">
+        <f t="shared" si="96"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AT33" s="7">
-        <f t="shared" si="94"/>
+      <c r="AT33" s="6">
+        <f t="shared" si="96"/>
         <v>72.599999999999994</v>
       </c>
     </row>
@@ -3950,138 +3959,138 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
     </row>
-    <row r="35" spans="2:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="2:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12">
         <f>K23/G23-1</f>
         <v>0.25053868756121478</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="12">
         <f>L23/H23-1</f>
         <v>0.25626326963906587</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="12">
         <f>M23/I23-1</f>
         <v>0.29053448790683811</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="12">
         <f>N23/J23-1</f>
         <v>6.2108288959050073E-2</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="12">
         <f>O23/K23-1</f>
         <v>7.9573934837092741E-2</v>
       </c>
-      <c r="P35" s="13">
-        <f t="shared" ref="P35:R35" si="95">P23/L23-1</f>
+      <c r="P35" s="12">
+        <f t="shared" ref="P35:R35" si="97">P23/L23-1</f>
         <v>-4.0054081460199509E-2</v>
       </c>
-      <c r="Q35" s="13">
-        <f t="shared" si="95"/>
+      <c r="Q35" s="12">
+        <f>Q23/M23-1</f>
+        <v>-8.5300015424957687E-2</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" si="97"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R35" s="13">
-        <f t="shared" si="95"/>
+      <c r="S35" s="12">
+        <f t="shared" ref="S35" si="98">S23/O23-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S35" s="13">
-        <f t="shared" ref="S35" si="96">S23/O23-1</f>
+      <c r="T35" s="12">
+        <f t="shared" ref="T35" si="99">T23/P23-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T35" s="13">
-        <f t="shared" ref="T35" si="97">T23/P23-1</f>
+      <c r="U35" s="12">
+        <f t="shared" ref="U35" si="100">U23/Q23-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U35" s="13">
-        <f t="shared" ref="U35" si="98">U23/Q23-1</f>
+      <c r="V35" s="12">
+        <f t="shared" ref="V35" si="101">V23/R23-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V35" s="13">
-        <f t="shared" ref="V35" si="99">V23/R23-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="W35" s="13"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="13">
-        <f t="shared" ref="AC35:AL35" si="100">AC23/AB23-1</f>
+      <c r="W35" s="12"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="12">
+        <f t="shared" ref="AC35:AL35" si="102">AC23/AB23-1</f>
         <v>2.8375463244648458E-2</v>
       </c>
-      <c r="AD35" s="13">
-        <f t="shared" si="100"/>
+      <c r="AD35" s="12">
+        <f t="shared" si="102"/>
         <v>7.293459552495607E-3</v>
       </c>
-      <c r="AE35" s="13">
-        <f t="shared" si="100"/>
+      <c r="AE35" s="12">
+        <f t="shared" si="102"/>
         <v>-8.0725773724342642E-2</v>
       </c>
-      <c r="AF35" s="13">
-        <f t="shared" si="100"/>
+      <c r="AF35" s="12">
+        <f t="shared" si="102"/>
         <v>-7.0632790808444756E-3</v>
       </c>
-      <c r="AG35" s="13">
-        <f t="shared" si="100"/>
+      <c r="AG35" s="12">
+        <f t="shared" si="102"/>
         <v>-3.0630272256086832E-2</v>
       </c>
-      <c r="AH35" s="13">
-        <f t="shared" si="100"/>
+      <c r="AH35" s="12">
+        <f t="shared" si="102"/>
         <v>-0.21958166873860929</v>
       </c>
-      <c r="AI35" s="13">
-        <f t="shared" si="100"/>
+      <c r="AI35" s="12">
+        <f t="shared" si="102"/>
         <v>-0.21283637488400875</v>
       </c>
-      <c r="AJ35" s="13">
-        <f t="shared" si="100"/>
+      <c r="AJ35" s="12">
+        <f t="shared" si="102"/>
         <v>0.18093048842783621</v>
       </c>
-      <c r="AK35" s="13">
-        <f t="shared" si="100"/>
-        <v>3.8552082120219211E-2</v>
-      </c>
-      <c r="AL35" s="13">
-        <f t="shared" si="100"/>
+      <c r="AK35" s="12">
+        <f t="shared" si="102"/>
+        <v>9.3657976608383375E-3</v>
+      </c>
+      <c r="AL35" s="12">
+        <f t="shared" si="102"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM35" s="13">
-        <f t="shared" ref="AM35:AT35" si="101">AM23/AL23-1</f>
+      <c r="AM35" s="12">
+        <f t="shared" ref="AM35:AT35" si="103">AM23/AL23-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN35" s="13">
-        <f t="shared" si="101"/>
+      <c r="AN35" s="12">
+        <f t="shared" si="103"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AO35" s="13">
+      <c r="AO35" s="12">
         <f>AO23/AN23-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AP35" s="13">
-        <f t="shared" si="101"/>
+      <c r="AP35" s="12">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AQ35" s="13">
-        <f t="shared" si="101"/>
+      <c r="AQ35" s="12">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AR35" s="13">
-        <f t="shared" si="101"/>
+      <c r="AR35" s="12">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AS35" s="13">
-        <f t="shared" si="101"/>
+      <c r="AS35" s="12">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AT35" s="13">
-        <f t="shared" si="101"/>
+      <c r="AT35" s="12">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -4089,248 +4098,248 @@
       <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="10">
-        <f t="shared" ref="K36:K37" si="102">K20/G20-1</f>
+      <c r="K36" s="9">
+        <f t="shared" ref="K36:K37" si="104">K20/G20-1</f>
         <v>0.37107776261937242</v>
       </c>
-      <c r="L36" s="10">
-        <f t="shared" ref="L36:L37" si="103">L20/H20-1</f>
+      <c r="L36" s="9">
+        <f t="shared" ref="L36:L37" si="105">L20/H20-1</f>
         <v>0.38043478260869557</v>
       </c>
-      <c r="M36" s="10">
-        <f t="shared" ref="M36:M37" si="104">M20/I20-1</f>
+      <c r="M36" s="9">
+        <f t="shared" ref="M36:M37" si="106">M20/I20-1</f>
         <v>0.62046444121915822</v>
       </c>
-      <c r="N36" s="10">
-        <f t="shared" ref="N36:O37" si="105">N20/J20-1</f>
+      <c r="N36" s="9">
+        <f t="shared" ref="N36:O37" si="107">N20/J20-1</f>
         <v>2.2361744216048862E-2</v>
       </c>
-      <c r="O36" s="10">
-        <f t="shared" si="105"/>
+      <c r="O36" s="9">
+        <f t="shared" si="107"/>
         <v>-4.2217484008528872E-2</v>
       </c>
-      <c r="P36" s="10">
-        <f t="shared" ref="P36:P37" si="106">P20/L20-1</f>
+      <c r="P36" s="9">
+        <f t="shared" ref="P36:P37" si="108">P20/L20-1</f>
         <v>-2.1653543307086687E-2</v>
       </c>
-      <c r="Q36" s="10">
-        <f t="shared" ref="Q36:Q37" si="107">Q20/M20-1</f>
+      <c r="Q36" s="9">
+        <f t="shared" ref="Q36:Q37" si="109">Q20/M20-1</f>
+        <v>-6.4039408866994996E-2</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" ref="R36:R37" si="110">R20/N20-1</f>
         <v>-1</v>
       </c>
-      <c r="R36" s="10">
-        <f t="shared" ref="R36:R37" si="108">R20/N20-1</f>
+      <c r="S36" s="9">
+        <f t="shared" ref="S36:S38" si="111">S20/O20-1</f>
         <v>-1</v>
       </c>
-      <c r="S36" s="10">
-        <f t="shared" ref="S36:S38" si="109">S20/O20-1</f>
+      <c r="T36" s="9">
+        <f t="shared" ref="T36:T38" si="112">T20/P20-1</f>
         <v>-1</v>
       </c>
-      <c r="T36" s="10">
-        <f t="shared" ref="T36:T38" si="110">T20/P20-1</f>
+      <c r="U36" s="9">
+        <f t="shared" ref="U36:U38" si="113">U20/Q20-1</f>
         <v>-1</v>
       </c>
-      <c r="U36" s="10" t="e">
-        <f t="shared" ref="U36:U38" si="111">U20/Q20-1</f>
+      <c r="V36" s="9" t="e">
+        <f t="shared" ref="V36:V38" si="114">V20/R20-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V36" s="10" t="e">
-        <f t="shared" ref="V36:V38" si="112">V20/R20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" s="10"/>
+      <c r="W36" s="9"/>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
-      <c r="AL36" s="10"/>
-      <c r="AM36" s="10"/>
-      <c r="AN36" s="10"/>
-      <c r="AO36" s="10"/>
-      <c r="AP36" s="10"/>
-      <c r="AQ36" s="10"/>
-      <c r="AR36" s="10"/>
-      <c r="AS36" s="10"/>
-      <c r="AT36" s="10"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9"/>
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K37" s="10">
-        <f t="shared" si="102"/>
+      <c r="K37" s="9">
+        <f t="shared" si="104"/>
         <v>-4.5803357314148752E-2</v>
       </c>
-      <c r="L37" s="10">
-        <f t="shared" si="103"/>
+      <c r="L37" s="9">
+        <f t="shared" si="105"/>
         <v>2.6131953428201848E-2</v>
       </c>
-      <c r="M37" s="10">
-        <f t="shared" si="104"/>
+      <c r="M37" s="9">
+        <f t="shared" si="106"/>
         <v>-2.2277227722772186E-2</v>
       </c>
-      <c r="N37" s="10">
-        <f t="shared" si="105"/>
+      <c r="N37" s="9">
+        <f t="shared" si="107"/>
         <v>7.480853391684894E-2</v>
       </c>
-      <c r="O37" s="10">
-        <f t="shared" ref="O37" si="113">O21/K21-1</f>
+      <c r="O37" s="9">
+        <f t="shared" ref="O37" si="115">O21/K21-1</f>
         <v>0.21563206835888415</v>
       </c>
-      <c r="P37" s="10">
-        <f t="shared" si="106"/>
+      <c r="P37" s="9">
+        <f t="shared" si="108"/>
         <v>-0.20221886031265768</v>
       </c>
-      <c r="Q37" s="10">
-        <f t="shared" si="107"/>
-        <v>-1</v>
-      </c>
-      <c r="R37" s="10">
-        <f t="shared" si="108"/>
-        <v>-1</v>
-      </c>
-      <c r="S37" s="10">
+      <c r="Q37" s="9">
         <f t="shared" si="109"/>
-        <v>-1</v>
-      </c>
-      <c r="T37" s="10">
+        <v>-0.18964326812428078</v>
+      </c>
+      <c r="R37" s="9">
         <f t="shared" si="110"/>
         <v>-1</v>
       </c>
-      <c r="U37" s="10" t="e">
+      <c r="S37" s="9">
         <f t="shared" si="111"/>
+        <v>-1</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="U37" s="9">
+        <f t="shared" si="113"/>
+        <v>-1</v>
+      </c>
+      <c r="V37" s="9" t="e">
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V37" s="10" t="e">
-        <f t="shared" si="112"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="10"/>
+      <c r="W37" s="9"/>
       <c r="AF37" s="4"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="10"/>
-      <c r="AO37" s="10"/>
-      <c r="AP37" s="10"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="10"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
     </row>
     <row r="38" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="10">
-        <f t="shared" ref="K38:N38" si="114">K22/G22-1</f>
+      <c r="K38" s="9">
+        <f t="shared" ref="K38:N38" si="116">K22/G22-1</f>
         <v>0.92959295929592956</v>
       </c>
-      <c r="L38" s="10">
-        <f t="shared" si="114"/>
+      <c r="L38" s="9">
+        <f t="shared" si="116"/>
         <v>0.55575065847234395</v>
       </c>
-      <c r="M38" s="10">
-        <f t="shared" si="114"/>
+      <c r="M38" s="9">
+        <f t="shared" si="116"/>
         <v>0.30837304288631717</v>
       </c>
-      <c r="N38" s="10">
-        <f t="shared" si="114"/>
+      <c r="N38" s="9">
+        <f t="shared" si="116"/>
         <v>0.2239263803680982</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="9">
         <f>O22/K22-1</f>
         <v>0.25940706955530213</v>
       </c>
-      <c r="P38" s="10">
-        <f t="shared" ref="P38:R38" si="115">P22/L22-1</f>
+      <c r="P38" s="9">
+        <f t="shared" ref="P38:R38" si="117">P22/L22-1</f>
         <v>0.25959367945823919</v>
       </c>
-      <c r="Q38" s="10">
-        <f t="shared" si="115"/>
+      <c r="Q38" s="9">
+        <f t="shared" si="117"/>
+        <v>7.8563995837669154E-2</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="117"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="R38" s="10">
-        <f t="shared" si="115"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="S38" s="10">
-        <f t="shared" si="109"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="T38" s="10">
-        <f t="shared" si="110"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="U38" s="10">
+      <c r="S38" s="9">
         <f t="shared" si="111"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="V38" s="10">
+      <c r="T38" s="9">
         <f t="shared" si="112"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="W38" s="10"/>
+      <c r="U38" s="9">
+        <f t="shared" si="113"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V38" s="9">
+        <f t="shared" si="114"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="W38" s="9"/>
       <c r="AF38" s="4"/>
-      <c r="AG38" s="10">
+      <c r="AG38" s="9">
         <f>AG22/AF22-1</f>
         <v>0.11207167557371878</v>
       </c>
-      <c r="AH38" s="10">
-        <f t="shared" ref="AH38:AT38" si="116">AH22/AG22-1</f>
+      <c r="AH38" s="9">
+        <f t="shared" ref="AH38:AT38" si="118">AH22/AG22-1</f>
         <v>4.2402826855123754E-2</v>
       </c>
-      <c r="AI38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AI38" s="9">
+        <f t="shared" si="118"/>
         <v>-0.21369491525423734</v>
       </c>
-      <c r="AJ38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AJ38" s="9">
+        <f t="shared" si="118"/>
         <v>0.42127953095361281</v>
       </c>
-      <c r="AK38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AK38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AL38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AM38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AN38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AO38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AO38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AP38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AQ38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AR38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AR38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AS38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AS38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AT38" s="10">
-        <f t="shared" si="116"/>
+      <c r="AT38" s="9">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -4338,145 +4347,145 @@
       <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="10">
-        <f t="shared" ref="G39" si="117">G25/G23</f>
+      <c r="G39" s="9">
+        <f t="shared" ref="G39" si="119">G25/G23</f>
         <v>0.27659157688540642</v>
       </c>
-      <c r="H39" s="10">
-        <f t="shared" ref="H39:N39" si="118">H25/H23</f>
+      <c r="H39" s="9">
+        <f t="shared" ref="H39:N39" si="120">H25/H23</f>
         <v>0.26772823779193211</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" si="118"/>
+      <c r="I39" s="9">
+        <f t="shared" si="120"/>
         <v>0.27500746491489997</v>
       </c>
-      <c r="J39" s="10">
-        <f t="shared" si="118"/>
+      <c r="J39" s="9">
+        <f t="shared" si="120"/>
         <v>0.21139437349795012</v>
       </c>
-      <c r="K39" s="10">
-        <f t="shared" si="118"/>
+      <c r="K39" s="9">
+        <f t="shared" si="120"/>
         <v>0.25853696741854643</v>
       </c>
-      <c r="L39" s="10">
-        <f t="shared" si="118"/>
+      <c r="L39" s="9">
+        <f t="shared" si="120"/>
         <v>0.27116782153118141</v>
       </c>
-      <c r="M39" s="10">
-        <f t="shared" si="118"/>
+      <c r="M39" s="9">
+        <f t="shared" si="120"/>
         <v>0.24571957427117083</v>
       </c>
-      <c r="N39" s="10">
-        <f t="shared" si="118"/>
+      <c r="N39" s="9">
+        <f t="shared" si="120"/>
         <v>0.16779803895470075</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="9">
         <f>O25/O23</f>
         <v>0.21655542658154381</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="9">
         <f>P25/P23</f>
         <v>0.24841549295774651</v>
       </c>
-      <c r="Q39" s="10">
-        <f t="shared" ref="Q39:R39" si="119">Q25/Q23</f>
+      <c r="Q39" s="9">
+        <f t="shared" ref="Q39:R39" si="121">Q25/Q23</f>
+        <v>0.24553119730185502</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="121"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" ref="S39:V39" si="122">S25/S23</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="T39" s="9">
+        <f t="shared" si="122"/>
         <v>0.21999999999999995</v>
       </c>
-      <c r="R39" s="10">
-        <f t="shared" si="119"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="S39" s="10">
-        <f t="shared" ref="S39:V39" si="120">S25/S23</f>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="T39" s="10">
-        <f t="shared" si="120"/>
-        <v>0.21999999999999995</v>
-      </c>
-      <c r="U39" s="10">
-        <f t="shared" si="120"/>
+      <c r="U39" s="9">
+        <f t="shared" si="122"/>
         <v>0.22</v>
       </c>
-      <c r="V39" s="10">
-        <f t="shared" si="120"/>
+      <c r="V39" s="9">
+        <f t="shared" si="122"/>
         <v>0.22</v>
       </c>
-      <c r="W39" s="10"/>
-      <c r="AB39" s="10">
-        <f t="shared" ref="AB39" si="121">AB25/AB23</f>
+      <c r="W39" s="9"/>
+      <c r="AB39" s="9">
+        <f t="shared" ref="AB39" si="123">AB25/AB23</f>
         <v>0.29438575142430451</v>
       </c>
-      <c r="AC39" s="10">
-        <f t="shared" ref="AC39" si="122">AC25/AC23</f>
+      <c r="AC39" s="9">
+        <f t="shared" ref="AC39" si="124">AC25/AC23</f>
         <v>0.29861230636833042</v>
       </c>
-      <c r="AD39" s="10">
-        <f t="shared" ref="AD39:AG39" si="123">AD25/AD23</f>
+      <c r="AD39" s="9">
+        <f t="shared" ref="AD39:AG39" si="125">AD25/AD23</f>
         <v>0.31165766035156661</v>
       </c>
-      <c r="AE39" s="10">
-        <f t="shared" si="123"/>
+      <c r="AE39" s="9">
+        <f t="shared" si="125"/>
         <v>0.34959746279580378</v>
       </c>
-      <c r="AF39" s="10">
-        <f t="shared" si="123"/>
+      <c r="AF39" s="9">
+        <f t="shared" si="125"/>
         <v>0.29073018918697557</v>
       </c>
-      <c r="AG39" s="10">
-        <f t="shared" si="123"/>
+      <c r="AG39" s="9">
+        <f t="shared" si="125"/>
         <v>0.27857772198954772</v>
       </c>
-      <c r="AH39" s="10">
-        <f t="shared" ref="AH39" si="124">AH25/AH23</f>
+      <c r="AH39" s="9">
+        <f t="shared" ref="AH39" si="126">AH25/AH23</f>
         <v>0.29519022579647386</v>
       </c>
-      <c r="AI39" s="10">
-        <f t="shared" ref="AI39:AJ39" si="125">AI25/AI23</f>
+      <c r="AI39" s="9">
+        <f t="shared" ref="AI39:AJ39" si="127">AI25/AI23</f>
         <v>0.24745569570513562</v>
       </c>
-      <c r="AJ39" s="10">
-        <f t="shared" si="125"/>
+      <c r="AJ39" s="9">
+        <f t="shared" si="127"/>
         <v>0.22423345034688144</v>
       </c>
-      <c r="AK39" s="10">
-        <f t="shared" ref="AK39:AT39" si="126">AK25/AK23</f>
+      <c r="AK39" s="9">
+        <f t="shared" ref="AK39:AT39" si="128">AK25/AK23</f>
         <v>0.22999999999999993</v>
       </c>
-      <c r="AL39" s="10">
-        <f t="shared" si="126"/>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="AM39" s="10">
-        <f t="shared" si="126"/>
-        <v>0.23999999999999996</v>
-      </c>
-      <c r="AN39" s="10">
-        <f t="shared" si="126"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="AO39" s="10">
-        <f t="shared" si="126"/>
-        <v>0.25</v>
-      </c>
-      <c r="AP39" s="10">
-        <f t="shared" si="126"/>
+      <c r="AL39" s="9">
+        <f t="shared" si="128"/>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="AM39" s="9">
+        <f t="shared" si="128"/>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="AN39" s="9">
+        <f t="shared" si="128"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="AO39" s="9">
+        <f t="shared" si="128"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="AP39" s="9">
+        <f t="shared" si="128"/>
         <v>0.26</v>
       </c>
-      <c r="AQ39" s="10">
-        <f t="shared" si="126"/>
-        <v>0.26</v>
-      </c>
-      <c r="AR39" s="10">
-        <f t="shared" si="126"/>
-        <v>0.26999999999999996</v>
-      </c>
-      <c r="AS39" s="10">
-        <f t="shared" si="126"/>
+      <c r="AQ39" s="9">
+        <f t="shared" si="128"/>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="AR39" s="9">
+        <f t="shared" si="128"/>
+        <v>0.27</v>
+      </c>
+      <c r="AS39" s="9">
+        <f t="shared" si="128"/>
         <v>0.27000000000000007</v>
       </c>
-      <c r="AT39" s="10">
-        <f t="shared" si="126"/>
+      <c r="AT39" s="9">
+        <f t="shared" si="128"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -4484,291 +4493,291 @@
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="10">
-        <f t="shared" ref="G40:N40" si="127">G29/G23</f>
+      <c r="G40" s="9">
+        <f t="shared" ref="G40:N40" si="129">G29/G23</f>
         <v>-0.10852105778648387</v>
       </c>
-      <c r="H40" s="10">
-        <f t="shared" si="127"/>
+      <c r="H40" s="9">
+        <f t="shared" si="129"/>
         <v>-0.10987261146496809</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="127"/>
+      <c r="I40" s="9">
+        <f t="shared" si="129"/>
         <v>-9.3361202348959921E-2</v>
       </c>
-      <c r="J40" s="10">
-        <f t="shared" si="127"/>
+      <c r="J40" s="9">
+        <f t="shared" si="129"/>
         <v>1.003722727486918E-2</v>
       </c>
-      <c r="K40" s="10">
-        <f t="shared" si="127"/>
+      <c r="K40" s="9">
+        <f t="shared" si="129"/>
         <v>-5.0830200501253031E-2</v>
       </c>
-      <c r="L40" s="10">
-        <f t="shared" si="127"/>
+      <c r="L40" s="9">
+        <f t="shared" si="129"/>
         <v>-4.9433834713537163E-2</v>
       </c>
-      <c r="M40" s="10">
-        <f t="shared" si="127"/>
+      <c r="M40" s="9">
+        <f t="shared" si="129"/>
         <v>-7.9978405059385971E-2</v>
       </c>
-      <c r="N40" s="10">
-        <f t="shared" si="127"/>
+      <c r="N40" s="9">
+        <f t="shared" si="129"/>
         <v>-7.169794578286523E-2</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="9">
         <f>O29/O23</f>
         <v>-0.11201392919326754</v>
       </c>
-      <c r="P40" s="10">
-        <f t="shared" ref="P40:R40" si="128">P29/P23</f>
+      <c r="P40" s="9">
+        <f t="shared" ref="P40:R40" si="130">P29/P23</f>
         <v>-9.2429577464788693E-2</v>
       </c>
-      <c r="Q40" s="10">
-        <f t="shared" si="128"/>
-        <v>-8.9380577774839695E-2</v>
-      </c>
-      <c r="R40" s="10">
-        <f t="shared" si="128"/>
-        <v>-7.584356427694592E-3</v>
-      </c>
-      <c r="S40" s="10">
-        <f t="shared" ref="S40:V40" si="129">S29/S23</f>
-        <v>-9.2232263770278849E-2</v>
-      </c>
-      <c r="T40" s="10">
-        <f t="shared" si="129"/>
-        <v>-0.10461435278336692</v>
-      </c>
-      <c r="U40" s="10">
-        <f t="shared" si="129"/>
-        <v>-7.4648169309371057E-2</v>
-      </c>
-      <c r="V40" s="10">
-        <f t="shared" si="129"/>
-        <v>3.2529938783861126E-3</v>
-      </c>
-      <c r="W40" s="10"/>
-      <c r="AB40" s="10">
-        <f t="shared" ref="AB40" si="130">AB27/AB23</f>
+      <c r="Q40" s="9">
+        <f t="shared" si="130"/>
+        <v>-7.8414839797639066E-2</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="130"/>
+        <v>-6.1476932047941808E-3</v>
+      </c>
+      <c r="S40" s="9">
+        <f t="shared" ref="S40:V40" si="131">S29/S23</f>
+        <v>-8.9883094270790151E-2</v>
+      </c>
+      <c r="T40" s="9">
+        <f t="shared" si="131"/>
+        <v>-0.10176391683433943</v>
+      </c>
+      <c r="U40" s="9">
+        <f t="shared" si="131"/>
+        <v>-8.8520035332851493E-2</v>
+      </c>
+      <c r="V40" s="9">
+        <f t="shared" si="131"/>
+        <v>4.621244566862694E-3</v>
+      </c>
+      <c r="W40" s="9"/>
+      <c r="AB40" s="9">
+        <f t="shared" ref="AB40" si="132">AB27/AB23</f>
         <v>8.5037889263786748E-2</v>
       </c>
-      <c r="AC40" s="10">
-        <f t="shared" ref="AC40" si="131">AC27/AC23</f>
+      <c r="AC40" s="9">
+        <f t="shared" ref="AC40" si="133">AC27/AC23</f>
         <v>8.3358433734939716E-2</v>
       </c>
-      <c r="AD40" s="10">
-        <f t="shared" ref="AD40:AJ40" si="132">AD27/AD23</f>
+      <c r="AD40" s="9">
+        <f t="shared" ref="AD40:AJ40" si="134">AD27/AD23</f>
         <v>8.6439266109912566E-2</v>
       </c>
-      <c r="AE40" s="10">
-        <f t="shared" si="132"/>
+      <c r="AE40" s="9">
+        <f t="shared" si="134"/>
         <v>8.7907619744653095E-2</v>
       </c>
-      <c r="AF40" s="10">
-        <f t="shared" si="132"/>
+      <c r="AF40" s="9">
+        <f t="shared" si="134"/>
         <v>6.7309379789636123E-2</v>
       </c>
-      <c r="AG40" s="10">
-        <f t="shared" si="132"/>
+      <c r="AG40" s="9">
+        <f t="shared" si="134"/>
         <v>3.7886377077474498E-2</v>
       </c>
-      <c r="AH40" s="10">
-        <f t="shared" si="132"/>
+      <c r="AH40" s="9">
+        <f t="shared" si="134"/>
         <v>-2.1651716671822188E-3</v>
       </c>
-      <c r="AI40" s="10">
-        <f t="shared" si="132"/>
+      <c r="AI40" s="9">
+        <f t="shared" si="134"/>
         <v>-5.0041258988565561E-2</v>
       </c>
-      <c r="AJ40" s="10">
-        <f t="shared" si="132"/>
+      <c r="AJ40" s="9">
+        <f t="shared" si="134"/>
         <v>-6.0192656429367587E-2</v>
       </c>
-      <c r="AK40" s="10">
+      <c r="AK40" s="9">
         <f>AK27/AK23</f>
-        <v>-4.1129248649363043E-2</v>
-      </c>
-      <c r="AL40" s="10">
-        <f t="shared" ref="AL40:AT40" si="133">AL27/AL23</f>
-        <v>-4.0163237844266396E-3</v>
-      </c>
-      <c r="AM40" s="10">
-        <f t="shared" si="133"/>
-        <v>2.0385308594015987E-2</v>
-      </c>
-      <c r="AN40" s="10">
-        <f t="shared" si="133"/>
-        <v>5.2346777734614498E-2</v>
-      </c>
-      <c r="AO40" s="10">
-        <f t="shared" si="133"/>
-        <v>6.364124757835074E-2</v>
-      </c>
-      <c r="AP40" s="10">
-        <f t="shared" si="133"/>
-        <v>7.7190938100667905E-2</v>
-      </c>
-      <c r="AQ40" s="10">
-        <f t="shared" si="133"/>
-        <v>8.0673015470178952E-2</v>
-      </c>
-      <c r="AR40" s="10">
-        <f t="shared" si="133"/>
-        <v>9.4088767556461242E-2</v>
-      </c>
-      <c r="AS40" s="10">
-        <f t="shared" si="133"/>
-        <v>9.7439457698242998E-2</v>
-      </c>
-      <c r="AT40" s="10">
-        <f t="shared" si="133"/>
-        <v>0.11072632517065741</v>
+        <v>-4.8969077772439251E-2</v>
+      </c>
+      <c r="AL40" s="9">
+        <f t="shared" ref="AL40:AT40" si="135">AL27/AL23</f>
+        <v>-1.1072169995195181E-2</v>
+      </c>
+      <c r="AM40" s="9">
+        <f t="shared" si="135"/>
+        <v>1.4035047004324376E-2</v>
+      </c>
+      <c r="AN40" s="9">
+        <f t="shared" si="135"/>
+        <v>4.6631542303891875E-2</v>
+      </c>
+      <c r="AO40" s="9">
+        <f t="shared" si="135"/>
+        <v>5.8252597029383756E-2</v>
+      </c>
+      <c r="AP40" s="9">
+        <f t="shared" si="135"/>
+        <v>7.1904928514538405E-2</v>
+      </c>
+      <c r="AQ40" s="9">
+        <f t="shared" si="135"/>
+        <v>7.5487691780928109E-2</v>
+      </c>
+      <c r="AR40" s="9">
+        <f t="shared" si="135"/>
+        <v>8.9002211937481937E-2</v>
+      </c>
+      <c r="AS40" s="9">
+        <f t="shared" si="135"/>
+        <v>9.2449788852958487E-2</v>
+      </c>
+      <c r="AT40" s="9">
+        <f t="shared" si="135"/>
+        <v>0.1058316976367116</v>
       </c>
     </row>
     <row r="41" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="10">
-        <f t="shared" ref="G41:N41" si="134">G30/G29</f>
+      <c r="G41" s="9">
+        <f t="shared" ref="G41:N41" si="136">G30/G29</f>
         <v>-0.45487364620938614</v>
       </c>
-      <c r="H41" s="10">
-        <f t="shared" si="134"/>
+      <c r="H41" s="9">
+        <f t="shared" si="136"/>
         <v>-0.17294685990338171</v>
       </c>
-      <c r="I41" s="10">
-        <f t="shared" si="134"/>
+      <c r="I41" s="9">
+        <f t="shared" si="136"/>
         <v>0.57462686567164167</v>
       </c>
-      <c r="J41" s="10">
-        <f t="shared" si="134"/>
+      <c r="J41" s="9">
+        <f t="shared" si="136"/>
         <v>-3.2723004694835858</v>
       </c>
-      <c r="K41" s="10">
-        <f t="shared" si="134"/>
+      <c r="K41" s="9">
+        <f t="shared" si="136"/>
         <v>-2.003081664098617E-2</v>
       </c>
-      <c r="L41" s="10">
-        <f t="shared" si="134"/>
+      <c r="L41" s="9">
+        <f t="shared" si="136"/>
         <v>-5.2991452991453095E-2</v>
       </c>
-      <c r="M41" s="10">
-        <f t="shared" si="134"/>
+      <c r="M41" s="9">
+        <f t="shared" si="136"/>
         <v>-1.6393442622950841E-2</v>
       </c>
-      <c r="N41" s="10">
-        <f t="shared" si="134"/>
+      <c r="N41" s="9">
+        <f t="shared" si="136"/>
         <v>0.12500000000000006</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="9">
         <f>O30/O29</f>
         <v>-2.2668393782383424E-2</v>
       </c>
-      <c r="P41" s="10">
-        <f t="shared" ref="P41:R41" si="135">P30/P29</f>
+      <c r="P41" s="9">
+        <f t="shared" ref="P41:R41" si="137">P30/P29</f>
         <v>-1.1428571428571432E-2</v>
       </c>
-      <c r="Q41" s="10">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="10">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="10">
-        <f t="shared" ref="S41:V41" si="136">S30/S29</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="10">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="10">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="10">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="10"/>
-      <c r="AB41" s="10">
-        <f t="shared" ref="AB41" si="137">AB30/AB29</f>
+      <c r="Q41" s="9">
+        <f t="shared" si="137"/>
+        <v>-2.2580645161290342E-2</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <f t="shared" ref="S41:V41" si="138">S30/S29</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="9">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="9">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="9"/>
+      <c r="AB41" s="9">
+        <f t="shared" ref="AB41" si="139">AB30/AB29</f>
         <v>0.28089005235602083</v>
       </c>
-      <c r="AC41" s="10">
-        <f t="shared" ref="AC41" si="138">AC30/AC29</f>
+      <c r="AC41" s="9">
+        <f t="shared" ref="AC41" si="140">AC30/AC29</f>
         <v>0.2813439665315729</v>
       </c>
-      <c r="AD41" s="10">
-        <f t="shared" ref="AD41:AJ41" si="139">AD30/AD29</f>
+      <c r="AD41" s="9">
+        <f t="shared" ref="AD41:AJ41" si="141">AD30/AD29</f>
         <v>0.28280773143438481</v>
       </c>
-      <c r="AE41" s="10">
-        <f t="shared" si="139"/>
+      <c r="AE41" s="9">
+        <f t="shared" si="141"/>
         <v>0.21529060679266754</v>
       </c>
-      <c r="AF41" s="10">
-        <f t="shared" si="139"/>
+      <c r="AF41" s="9">
+        <f t="shared" si="141"/>
         <v>0.29519230769230836</v>
       </c>
-      <c r="AG41" s="10">
-        <f t="shared" si="139"/>
+      <c r="AG41" s="9">
+        <f t="shared" si="141"/>
         <v>0.15867579908675838</v>
       </c>
-      <c r="AH41" s="10">
-        <f t="shared" si="139"/>
+      <c r="AH41" s="9">
+        <f t="shared" si="141"/>
         <v>-0.9126213592232959</v>
       </c>
-      <c r="AI41" s="10">
-        <f t="shared" si="139"/>
+      <c r="AI41" s="9">
+        <f t="shared" si="141"/>
         <v>0.19281729428172875</v>
       </c>
-      <c r="AJ41" s="10">
-        <f t="shared" si="139"/>
+      <c r="AJ41" s="9">
+        <f t="shared" si="141"/>
         <v>3.6274762027270417E-2</v>
       </c>
-      <c r="AK41" s="10">
+      <c r="AK41" s="9">
         <f>AK30/AK29</f>
         <v>0</v>
       </c>
-      <c r="AL41" s="10">
-        <f t="shared" ref="AL41:AT41" si="140">AL30/AL29</f>
-        <v>0</v>
-      </c>
-      <c r="AM41" s="10">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="AN41" s="10">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="AO41" s="10">
-        <f t="shared" si="140"/>
+      <c r="AL41" s="9">
+        <f t="shared" ref="AL41:AT41" si="142">AL30/AL29</f>
+        <v>0</v>
+      </c>
+      <c r="AM41" s="9">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="AN41" s="9">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="AO41" s="9">
+        <f t="shared" si="142"/>
         <v>0.1</v>
       </c>
-      <c r="AP41" s="10">
-        <f t="shared" si="140"/>
+      <c r="AP41" s="9">
+        <f t="shared" si="142"/>
         <v>0.1</v>
       </c>
-      <c r="AQ41" s="10">
-        <f t="shared" si="140"/>
+      <c r="AQ41" s="9">
+        <f t="shared" si="142"/>
         <v>0.2</v>
       </c>
-      <c r="AR41" s="10">
-        <f t="shared" si="140"/>
+      <c r="AR41" s="9">
+        <f t="shared" si="142"/>
         <v>0.2</v>
       </c>
-      <c r="AS41" s="10">
-        <f t="shared" si="140"/>
+      <c r="AS41" s="9">
+        <f t="shared" si="142"/>
         <v>0.25</v>
       </c>
-      <c r="AT41" s="10">
-        <f t="shared" si="140"/>
+      <c r="AT41" s="9">
+        <f t="shared" si="142"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4776,123 +4785,123 @@
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <f>694.7+57.4+18.7</f>
         <v>770.80000000000007</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <f>1720.4+36.7+18.5</f>
         <v>1775.6000000000001</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <f>1413+39.5+15.6</f>
         <v>1468.1</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="6">
         <f>1271.4+33.1+15.4</f>
         <v>1319.9</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="6">
         <f>1035+33.3+15.3</f>
         <v>1083.5999999999999</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="6">
         <v>908.9</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="6">
         <f>P43+Q31</f>
-        <v>787.2145999999999</v>
-      </c>
-      <c r="R43" s="7">
+        <v>813.80000000000007</v>
+      </c>
+      <c r="R43" s="6">
         <f>Q43+R31</f>
-        <v>769.26549999999997</v>
-      </c>
-      <c r="S43" s="7">
-        <f t="shared" ref="S43:V43" si="141">R43+S31</f>
-        <v>635.77589999999998</v>
-      </c>
-      <c r="T43" s="7">
-        <f t="shared" si="141"/>
-        <v>510.99189999999993</v>
-      </c>
-      <c r="U43" s="7">
-        <f t="shared" si="141"/>
-        <v>404.28223000000003</v>
-      </c>
-      <c r="V43" s="7">
-        <f t="shared" si="141"/>
-        <v>412.36567500000018</v>
-      </c>
-      <c r="W43" s="7"/>
-      <c r="AI43" s="7">
+        <v>799.25090000000023</v>
+      </c>
+      <c r="S43" s="6">
+        <f t="shared" ref="S43:V43" si="143">R43+S31</f>
+        <v>669.16130000000021</v>
+      </c>
+      <c r="T43" s="6">
+        <f t="shared" si="143"/>
+        <v>547.7773000000002</v>
+      </c>
+      <c r="U43" s="6">
+        <f t="shared" si="143"/>
+        <v>437.54330000000022</v>
+      </c>
+      <c r="V43" s="6">
+        <f t="shared" si="143"/>
+        <v>449.02674500000035</v>
+      </c>
+      <c r="W43" s="6"/>
+      <c r="AI43" s="6">
         <f>N43</f>
         <v>1319.9</v>
       </c>
-      <c r="AJ43" s="7">
+      <c r="AJ43" s="6">
         <f>R43</f>
-        <v>769.26549999999997</v>
-      </c>
-      <c r="AK43" s="7">
-        <f t="shared" ref="AK43:AT43" si="142">AJ43+AK31</f>
-        <v>527.90455999999983</v>
-      </c>
-      <c r="AL43" s="7">
-        <f t="shared" si="142"/>
-        <v>510.88389120000039</v>
-      </c>
-      <c r="AM43" s="7">
-        <f t="shared" si="142"/>
-        <v>675.07861862400068</v>
-      </c>
-      <c r="AN43" s="7">
-        <f t="shared" si="142"/>
-        <v>1123.512171050482</v>
-      </c>
-      <c r="AO43" s="7">
-        <f t="shared" si="142"/>
-        <v>1643.4267979700053</v>
-      </c>
-      <c r="AP43" s="7">
-        <f t="shared" si="142"/>
-        <v>2309.3918401788615</v>
-      </c>
-      <c r="AQ43" s="7">
-        <f t="shared" si="142"/>
-        <v>2967.0933036159054</v>
-      </c>
-      <c r="AR43" s="7">
-        <f t="shared" si="142"/>
-        <v>3774.7466432887022</v>
-      </c>
-      <c r="AS43" s="7">
-        <f t="shared" si="142"/>
-        <v>4606.3184193456609</v>
-      </c>
-      <c r="AT43" s="7">
-        <f t="shared" si="142"/>
-        <v>5600.0673667340188</v>
+        <v>799.25090000000023</v>
+      </c>
+      <c r="AK43" s="6">
+        <f t="shared" ref="AK43:AT43" si="144">AJ43+AK31</f>
+        <v>518.14076800000021</v>
+      </c>
+      <c r="AL43" s="6">
+        <f t="shared" si="144"/>
+        <v>454.6113033600011</v>
+      </c>
+      <c r="AM43" s="6">
+        <f t="shared" si="144"/>
+        <v>566.73570702720235</v>
+      </c>
+      <c r="AN43" s="6">
+        <f t="shared" si="144"/>
+        <v>954.62806872174724</v>
+      </c>
+      <c r="AO43" s="6">
+        <f t="shared" si="144"/>
+        <v>1416.3390375868535</v>
+      </c>
+      <c r="AP43" s="6">
+        <f t="shared" si="144"/>
+        <v>2017.9776914287629</v>
+      </c>
+      <c r="AQ43" s="6">
+        <f t="shared" si="144"/>
+        <v>2614.7936403844255</v>
+      </c>
+      <c r="AR43" s="6">
+        <f t="shared" si="144"/>
+        <v>3355.5056132272839</v>
+      </c>
+      <c r="AS43" s="6">
+        <f t="shared" si="144"/>
+        <v>4120.4420855559965</v>
+      </c>
+      <c r="AT43" s="6">
+        <f t="shared" si="144"/>
+        <v>5041.192049591089</v>
       </c>
     </row>
     <row r="44" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="6">
         <v>102.1</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <v>68.5</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <v>83.4</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <v>141.1</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="6">
         <v>103.4</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="6">
         <v>99.6</v>
       </c>
     </row>
@@ -4900,22 +4909,22 @@
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <v>570.9</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <v>596.4</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>1140.9000000000001</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>915</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <v>917.6</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="6">
         <v>734.8</v>
       </c>
     </row>
@@ -4923,22 +4932,22 @@
       <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <v>232.1</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <v>235</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="6">
         <v>236.3</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="6">
         <v>238.2</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="6">
         <v>240.3</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="6">
         <v>275.89999999999998</v>
       </c>
     </row>
@@ -4946,22 +4955,22 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <v>192.6</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <v>186.6</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <v>179.6</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="6">
         <v>163.6</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="6">
         <v>157.4</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="6">
         <v>146.80000000000001</v>
       </c>
     </row>
@@ -4969,23 +4978,23 @@
       <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <v>654.20000000000005</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <v>645.20000000000005</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <f>615.8</f>
         <v>615.79999999999995</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="6">
         <v>586.6</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="6">
         <v>568.70000000000005</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="6">
         <v>554.29999999999995</v>
       </c>
     </row>
@@ -4993,22 +5002,22 @@
       <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K49" s="7">
-        <v>0</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
         <v>16.3</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="6">
         <v>16.7</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="6">
         <v>16.7</v>
       </c>
     </row>
@@ -5016,22 +5025,22 @@
       <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <v>40</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <v>38.5</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <v>37.9</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="6">
         <v>118.6</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="6">
         <v>62.5</v>
       </c>
     </row>
@@ -5039,54 +5048,54 @@
       <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <f>SUM(K43:K50)</f>
         <v>2562.6999999999998</v>
       </c>
-      <c r="L51" s="7">
-        <f t="shared" ref="L51" si="143">SUM(L43:L50)</f>
+      <c r="L51" s="6">
+        <f t="shared" ref="L51" si="145">SUM(L43:L50)</f>
         <v>3545.8</v>
       </c>
-      <c r="M51" s="7">
-        <f t="shared" ref="M51" si="144">SUM(M43:M50)</f>
+      <c r="M51" s="6">
+        <f t="shared" ref="M51" si="146">SUM(M43:M50)</f>
         <v>3762.0000000000005</v>
       </c>
-      <c r="N51" s="7">
-        <f t="shared" ref="N51" si="145">SUM(N43:N50)</f>
+      <c r="N51" s="6">
+        <f t="shared" ref="N51" si="147">SUM(N43:N50)</f>
         <v>3499.2999999999997</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="6">
         <f>SUM(O43:O50)</f>
         <v>3125.5</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="6">
         <f>SUM(P43:P50)</f>
         <v>2799.5</v>
       </c>
     </row>
     <row r="52" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="K52" s="7"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
         <v>388.6</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <v>409.7</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="6">
         <v>711.5</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="6">
         <v>471</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="6">
         <v>386.8</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="6">
         <v>217.4</v>
       </c>
     </row>
@@ -5094,22 +5103,22 @@
       <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
         <v>561.79999999999995</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <v>563.1</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="6">
         <v>608.5</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="6">
         <v>668.9</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="6">
         <v>533.29999999999995</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="6">
         <v>512.1</v>
       </c>
     </row>
@@ -5117,26 +5126,26 @@
       <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <f>219.4+445</f>
         <v>664.4</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <f>432+221.5</f>
         <v>653.5</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="6">
         <v>211.9</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="6">
         <f>210.7+393.7</f>
         <v>604.4</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="6">
         <f>200.3+374.5</f>
         <v>574.79999999999995</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="6">
         <f>194+367.4</f>
         <v>561.4</v>
       </c>
@@ -5145,25 +5154,25 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <f>48.1</f>
         <v>48.1</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <v>47.5</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="6">
         <f>1.4+44.8</f>
         <v>46.199999999999996</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="6">
         <v>44.6</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="6">
         <f>6.5+35.7</f>
         <v>42.2</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="6">
         <f>8.9+32.1</f>
         <v>41</v>
       </c>
@@ -5172,23 +5181,23 @@
       <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="6">
         <v>20.3</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="6">
         <v>20</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="6">
         <f>19.3+409.7</f>
         <v>429</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="6">
         <v>107.9</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="6">
         <v>137.69999999999999</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="6">
         <v>124.1</v>
       </c>
     </row>
@@ -5196,22 +5205,22 @@
       <c r="B58" t="s">
         <v>62</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="6">
         <v>879.5</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="6">
         <v>1852</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="6">
         <v>1754.9</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N58" s="6">
         <v>1602.5</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O58" s="6">
         <v>1450.7</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="6">
         <v>1343.5</v>
       </c>
     </row>
@@ -5219,188 +5228,188 @@
       <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="6">
         <f>SUM(K53:K58)</f>
         <v>2562.6999999999998</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="6">
         <f>SUM(L53:L58)</f>
         <v>3545.8</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="6">
         <f>SUM(M53:M58)</f>
         <v>3762</v>
       </c>
-      <c r="N59" s="7">
-        <f t="shared" ref="N59" si="146">SUM(N53:N58)</f>
+      <c r="N59" s="6">
+        <f t="shared" ref="N59" si="148">SUM(N53:N58)</f>
         <v>3499.3</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="6">
         <f>SUM(O53:O58)</f>
         <v>3125.5</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="6">
         <f>SUM(P53:P58)</f>
         <v>2799.5</v>
       </c>
     </row>
     <row r="60" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="K60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
+      <c r="K60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
     </row>
     <row r="61" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7">
-        <f>K31</f>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6">
+        <f t="shared" ref="K61:P61" si="149">K31</f>
         <v>-66.199999999999875</v>
       </c>
-      <c r="L61" s="7">
-        <f>L31</f>
+      <c r="L61" s="6">
+        <f t="shared" si="149"/>
         <v>-61.599999999999888</v>
       </c>
-      <c r="M61" s="7">
-        <f>M31</f>
+      <c r="M61" s="6">
+        <f t="shared" si="149"/>
         <v>-105.39999999999986</v>
       </c>
-      <c r="N61" s="7">
-        <f>N31</f>
+      <c r="N61" s="6">
+        <f t="shared" si="149"/>
         <v>-141.39999999999995</v>
       </c>
-      <c r="O61" s="7">
-        <f>O31</f>
+      <c r="O61" s="6">
+        <f t="shared" si="149"/>
         <v>-157.89999999999998</v>
       </c>
-      <c r="P61" s="7">
-        <f>P31</f>
+      <c r="P61" s="6">
+        <f t="shared" si="149"/>
         <v>-106.19999999999996</v>
       </c>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="7">
-        <f>AF31</f>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6">
+        <f t="shared" ref="AF61:AT61" si="150">AF31</f>
         <v>366.49999999999886</v>
       </c>
-      <c r="AG61" s="7">
-        <f>AG31</f>
+      <c r="AG61" s="6">
+        <f t="shared" si="150"/>
         <v>221.0999999999994</v>
       </c>
-      <c r="AH61" s="7">
-        <f>AH31</f>
+      <c r="AH61" s="6">
+        <f t="shared" si="150"/>
         <v>-78.800000000000239</v>
       </c>
-      <c r="AI61" s="7">
-        <f>AI31</f>
+      <c r="AI61" s="6">
+        <f t="shared" si="150"/>
         <v>-231.50000000000097</v>
       </c>
-      <c r="AJ61" s="7">
-        <f>AJ31</f>
+      <c r="AJ61" s="6">
+        <f t="shared" si="150"/>
         <v>-374.59999999999968</v>
       </c>
-      <c r="AK61" s="7">
-        <f>AK31</f>
-        <v>-241.36094000000014</v>
-      </c>
-      <c r="AL61" s="7">
-        <f>AL31</f>
-        <v>-17.020668799999424</v>
-      </c>
-      <c r="AM61" s="7">
-        <f>AM31</f>
-        <v>164.19472742400035</v>
-      </c>
-      <c r="AN61" s="7">
-        <f>AN31</f>
-        <v>448.43355242648136</v>
-      </c>
-      <c r="AO61" s="7">
-        <f>AO31</f>
-        <v>519.91462691952336</v>
-      </c>
-      <c r="AP61" s="7">
-        <f>AP31</f>
-        <v>665.96504220885606</v>
-      </c>
-      <c r="AQ61" s="7">
-        <f>AQ31</f>
-        <v>657.70146343704403</v>
-      </c>
-      <c r="AR61" s="7">
-        <f>AR31</f>
-        <v>807.65333967279685</v>
-      </c>
-      <c r="AS61" s="7">
-        <f>AS31</f>
-        <v>831.57177605695847</v>
-      </c>
-      <c r="AT61" s="7">
-        <f>AT31</f>
-        <v>993.74894738835769</v>
+      <c r="AK61" s="6">
+        <f t="shared" si="150"/>
+        <v>-281.11013200000008</v>
+      </c>
+      <c r="AL61" s="6">
+        <f t="shared" si="150"/>
+        <v>-63.529464639999112</v>
+      </c>
+      <c r="AM61" s="6">
+        <f t="shared" si="150"/>
+        <v>112.12440366720122</v>
+      </c>
+      <c r="AN61" s="6">
+        <f t="shared" si="150"/>
+        <v>387.89236169454489</v>
+      </c>
+      <c r="AO61" s="6">
+        <f t="shared" si="150"/>
+        <v>461.71096886510617</v>
+      </c>
+      <c r="AP61" s="6">
+        <f t="shared" si="150"/>
+        <v>601.63865384190944</v>
+      </c>
+      <c r="AQ61" s="6">
+        <f t="shared" si="150"/>
+        <v>596.81594895566263</v>
+      </c>
+      <c r="AR61" s="6">
+        <f t="shared" si="150"/>
+        <v>740.71197284285859</v>
+      </c>
+      <c r="AS61" s="6">
+        <f t="shared" si="150"/>
+        <v>764.93647232871217</v>
+      </c>
+      <c r="AT61" s="6">
+        <f t="shared" si="150"/>
+        <v>920.74996403509203</v>
       </c>
     </row>
     <row r="62" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6">
         <v>-66.8</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="6">
         <f>-128.4-K62</f>
         <v>-61.600000000000009</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="6">
         <f>-233.8-L62-K62</f>
         <v>-105.39999999999999</v>
       </c>
-      <c r="N62" s="7">
+      <c r="N62" s="6">
         <f>-383.3-M62-L62-K62</f>
         <v>-149.5</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O62" s="6">
         <v>-157.9</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="6">
         <v>-108.7</v>
       </c>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="7"/>
-      <c r="AD62" s="7"/>
-      <c r="AE62" s="7"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
       <c r="AF62" s="2">
         <v>34.700000000000003</v>
       </c>
@@ -5410,58 +5419,58 @@
       <c r="AH62" s="2">
         <v>-470.9</v>
       </c>
-      <c r="AI62" s="7">
+      <c r="AI62" s="6">
         <v>-215.3</v>
       </c>
-      <c r="AJ62" s="7">
+      <c r="AJ62" s="6">
         <v>-381.3</v>
       </c>
-      <c r="AK62" s="7"/>
+      <c r="AK62" s="6"/>
     </row>
     <row r="63" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6">
         <v>18.7</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="6">
         <f>36.3-K63</f>
         <v>17.599999999999998</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M63" s="6">
         <f>53.2-L63-K63</f>
         <v>16.900000000000009</v>
       </c>
-      <c r="N63" s="7">
+      <c r="N63" s="6">
         <f>77.2-M63-L63-K63</f>
         <v>24.000000000000004</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="6">
         <v>17.100000000000001</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="6">
         <v>15.3</v>
       </c>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="7"/>
-      <c r="AD63" s="7"/>
-      <c r="AE63" s="7"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
       <c r="AF63" s="2">
         <v>151.9</v>
       </c>
@@ -5471,64 +5480,64 @@
       <c r="AH63" s="2">
         <v>96.2</v>
       </c>
-      <c r="AI63" s="7">
+      <c r="AI63" s="6">
         <v>80.7</v>
       </c>
-      <c r="AJ63" s="7">
+      <c r="AJ63" s="6">
         <v>77.2</v>
       </c>
-      <c r="AK63" s="7"/>
-      <c r="AW63" s="11" t="s">
+      <c r="AK63" s="6"/>
+      <c r="AW63" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AX63" s="16">
-        <v>0.08</v>
+      <c r="AX63" s="15">
+        <v>0.1</v>
       </c>
     </row>
     <row r="64" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6">
         <v>18.2</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="6">
         <f>18.2-K64</f>
         <v>0</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="6">
         <f>18.2-L64-K64</f>
         <v>0</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N64" s="6">
         <f>18.2-M64-L64-K64</f>
         <v>0</v>
       </c>
-      <c r="O64" s="7">
-        <v>0</v>
-      </c>
-      <c r="P64" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
-      <c r="AD64" s="7"/>
-      <c r="AE64" s="7"/>
+      <c r="O64" s="6">
+        <v>0</v>
+      </c>
+      <c r="P64" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
       <c r="AF64" s="2">
         <v>0</v>
       </c>
@@ -5538,17 +5547,17 @@
       <c r="AH64" s="2">
         <v>0</v>
       </c>
-      <c r="AI64" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="7">
+      <c r="AI64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="6">
         <v>18.2</v>
       </c>
-      <c r="AK64" s="7"/>
+      <c r="AK64" s="6"/>
       <c r="AW64" t="s">
         <v>96</v>
       </c>
-      <c r="AX64" s="17">
+      <c r="AX64" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5556,46 +5565,46 @@
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6">
         <v>0.6</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="6">
         <f>0.6-K65</f>
         <v>0</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M65" s="6">
         <f>0.6-L65-K65</f>
         <v>0</v>
       </c>
-      <c r="N65" s="7">
+      <c r="N65" s="6">
         <f>6.7-M65-L65-K65</f>
         <v>6.1000000000000005</v>
       </c>
-      <c r="O65" s="7">
-        <v>0</v>
-      </c>
-      <c r="P65" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="AB65" s="7"/>
-      <c r="AC65" s="7"/>
-      <c r="AD65" s="7"/>
-      <c r="AE65" s="7"/>
+      <c r="O65" s="6">
+        <v>0</v>
+      </c>
+      <c r="P65" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
       <c r="AF65" s="2">
         <v>0</v>
       </c>
@@ -5605,17 +5614,17 @@
       <c r="AH65" s="2">
         <v>0</v>
       </c>
-      <c r="AI65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="7">
+      <c r="AI65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="6">
         <v>6.7</v>
       </c>
-      <c r="AK65" s="7"/>
+      <c r="AK65" s="6"/>
       <c r="AW65" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AX65" s="17">
+      <c r="AX65" s="16">
         <v>0.02</v>
       </c>
     </row>
@@ -5623,43 +5632,43 @@
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7">
-        <v>0</v>
-      </c>
-      <c r="L66" s="7">
-        <v>0</v>
-      </c>
-      <c r="M66" s="7">
-        <v>0</v>
-      </c>
-      <c r="N66" s="7">
-        <v>0</v>
-      </c>
-      <c r="O66" s="7">
-        <v>0</v>
-      </c>
-      <c r="P66" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <v>0</v>
+      </c>
+      <c r="N66" s="6">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
       <c r="AF66" s="2">
         <v>59.1</v>
       </c>
@@ -5669,62 +5678,62 @@
       <c r="AH66" s="2">
         <v>0</v>
       </c>
-      <c r="AI66" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK66" s="7"/>
+      <c r="AI66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="6"/>
       <c r="AW66" t="s">
         <v>97</v>
       </c>
       <c r="AX66" s="2">
         <f>NPV(AX63,AK31:CF31)+Main!M5-Main!M6</f>
-        <v>9004.5050317883761</v>
+        <v>6321.5027331205829</v>
       </c>
     </row>
     <row r="67" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7">
-        <v>0</v>
-      </c>
-      <c r="L67" s="7">
-        <v>0</v>
-      </c>
-      <c r="M67" s="7">
-        <v>0</v>
-      </c>
-      <c r="N67" s="7">
-        <v>0</v>
-      </c>
-      <c r="O67" s="7">
-        <v>0</v>
-      </c>
-      <c r="P67" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <v>0</v>
+      </c>
+      <c r="P67" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
       <c r="AF67" s="2">
         <v>395.1</v>
       </c>
@@ -5734,65 +5743,65 @@
       <c r="AH67" s="2">
         <v>385.6</v>
       </c>
-      <c r="AI67" s="7">
+      <c r="AI67" s="6">
         <v>15.5</v>
       </c>
-      <c r="AJ67" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="7"/>
-      <c r="AW67" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX67" s="18">
+      <c r="AJ67" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="6"/>
+      <c r="AW67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="17">
         <f>AX66/Main!M3</f>
-        <v>29.568559030034301</v>
+        <v>20.75824557406856</v>
       </c>
     </row>
     <row r="68" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6">
         <v>5.7</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="6">
         <f>14.5-K68</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="6">
         <f>20.7-L68-K68</f>
         <v>6.1999999999999984</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N68" s="6">
         <f>30.5-M68-L68-K68</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="6">
         <v>11.1</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="6">
         <v>7.8</v>
       </c>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
-      <c r="AD68" s="7"/>
-      <c r="AE68" s="7"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
       <c r="AF68" s="2">
         <v>25.6</v>
       </c>
@@ -5802,63 +5811,63 @@
       <c r="AH68" s="2">
         <v>8.9</v>
       </c>
-      <c r="AI68" s="7">
+      <c r="AI68" s="6">
         <v>7.9</v>
       </c>
-      <c r="AJ68" s="7">
+      <c r="AJ68" s="6">
         <v>30.5</v>
       </c>
-      <c r="AK68" s="7"/>
+      <c r="AK68" s="6"/>
       <c r="AW68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AX68" s="17">
+      <c r="AX68" s="16">
         <f>AX67/Main!M2-1</f>
-        <v>0.17522094713967817</v>
+        <v>-0.17495049387644834</v>
       </c>
     </row>
     <row r="69" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7">
-        <v>0</v>
-      </c>
-      <c r="L69" s="7">
-        <v>0</v>
-      </c>
-      <c r="M69" s="7">
-        <v>0</v>
-      </c>
-      <c r="N69" s="7">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0</v>
+      </c>
+      <c r="N69" s="6">
         <f>-16.3-M69-L69-K69</f>
         <v>-16.3</v>
       </c>
-      <c r="O69" s="7">
-        <v>0</v>
-      </c>
-      <c r="P69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="7"/>
-      <c r="AE69" s="7"/>
+      <c r="O69" s="6">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
       <c r="AF69" s="2">
         <v>-107.9</v>
       </c>
@@ -5868,57 +5877,57 @@
       <c r="AH69" s="2">
         <v>61.4</v>
       </c>
-      <c r="AI69" s="7">
+      <c r="AI69" s="6">
         <v>80.3</v>
       </c>
-      <c r="AJ69" s="7">
+      <c r="AJ69" s="6">
         <v>-16.3</v>
       </c>
-      <c r="AK69" s="7"/>
+      <c r="AK69" s="6"/>
     </row>
     <row r="70" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6">
         <v>0.4</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="6">
         <f>0.5-K70</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="M70" s="7">
-        <v>0</v>
-      </c>
-      <c r="N70" s="7">
+      <c r="M70" s="6">
+        <v>0</v>
+      </c>
+      <c r="N70" s="6">
         <f>5.4-M70-L70-K70</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O70" s="6">
         <v>-6.9</v>
       </c>
-      <c r="P70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
-      <c r="AB70" s="7"/>
-      <c r="AC70" s="7"/>
-      <c r="AD70" s="7"/>
-      <c r="AE70" s="7"/>
+      <c r="P70" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
       <c r="AF70" s="2">
         <v>-6.4</v>
       </c>
@@ -5928,55 +5937,55 @@
       <c r="AH70" s="2">
         <v>1.9</v>
       </c>
-      <c r="AI70" s="7">
+      <c r="AI70" s="6">
         <v>-27.3</v>
       </c>
-      <c r="AJ70" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK70" s="7"/>
+      <c r="AJ70" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="6"/>
     </row>
     <row r="71" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7">
-        <v>0</v>
-      </c>
-      <c r="L71" s="7">
-        <v>0</v>
-      </c>
-      <c r="M71" s="7">
-        <v>0</v>
-      </c>
-      <c r="N71" s="7">
-        <v>0</v>
-      </c>
-      <c r="O71" s="7">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6">
+        <v>0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
         <v>33.700000000000003</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="6">
         <v>2.5</v>
       </c>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
-      <c r="AB71" s="7"/>
-      <c r="AC71" s="7"/>
-      <c r="AD71" s="7"/>
-      <c r="AE71" s="7"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
       <c r="AF71" s="2">
         <v>0</v>
       </c>
@@ -5986,56 +5995,56 @@
       <c r="AH71" s="2">
         <v>0</v>
       </c>
-      <c r="AI71" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK71" s="7"/>
+      <c r="AI71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK71" s="6"/>
     </row>
     <row r="72" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7">
-        <v>0</v>
-      </c>
-      <c r="L72" s="7">
-        <v>0</v>
-      </c>
-      <c r="M72" s="7">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
         <f>1.9-L72-K72</f>
         <v>1.9</v>
       </c>
-      <c r="N72" s="7">
-        <v>0</v>
-      </c>
-      <c r="O72" s="7">
+      <c r="N72" s="6">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
         <v>0.4</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="6">
         <v>1.2</v>
       </c>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="AB72" s="7"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="7"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
       <c r="AF72" s="2">
         <v>8.5</v>
       </c>
@@ -6045,58 +6054,58 @@
       <c r="AH72" s="2">
         <v>9.1</v>
       </c>
-      <c r="AI72" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="7">
+      <c r="AI72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="6">
         <v>5.4</v>
       </c>
-      <c r="AK72" s="7"/>
+      <c r="AK72" s="6"/>
     </row>
     <row r="73" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6">
         <v>-0.5</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="6">
         <f>-0.6-K73</f>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="M73" s="7">
+      <c r="M73" s="6">
         <f>-1.4-L73-K73</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="N73" s="7">
+      <c r="N73" s="6">
         <f>-3.5-M73-L73-K73</f>
         <v>-2.1</v>
       </c>
-      <c r="O73" s="7">
+      <c r="O73" s="6">
         <v>-4.8</v>
       </c>
-      <c r="P73" s="7">
+      <c r="P73" s="6">
         <v>-0.2</v>
       </c>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7"/>
-      <c r="AE73" s="7"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
       <c r="AF73" s="2">
         <v>-34.200000000000003</v>
       </c>
@@ -6106,61 +6115,61 @@
       <c r="AH73" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI73" s="7">
+      <c r="AI73" s="6">
         <v>0.9</v>
       </c>
-      <c r="AJ73" s="7">
+      <c r="AJ73" s="6">
         <v>-3.5</v>
       </c>
-      <c r="AK73" s="7"/>
+      <c r="AK73" s="6"/>
     </row>
     <row r="74" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6">
         <f>3.1+32.4-2.9-1.2-11.4-15-0.1</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="6">
         <f>36.2+1.2-4-13.8+25.2-16.1-0.1-K74</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M74" s="6">
         <f>21-545.2-5.1-12.9+376.9-18.1-L74-K74</f>
         <v>-212.00000000000009</v>
       </c>
-      <c r="N74" s="7">
+      <c r="N74" s="6">
         <f>-38.4-329.6-6.5-21.7+224.4-0.9+1.5-M74-L74-K74</f>
         <v>12.200000000000093</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="6">
         <f>36.3-9.9-30.3+3.5-179.8-16.4</f>
         <v>-196.60000000000002</v>
       </c>
-      <c r="P74" s="7">
+      <c r="P74" s="6">
         <f>3+179.5+2.9-2.6-204.2+0.6-0.5</f>
         <v>-21.299999999999976</v>
       </c>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="7"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
       <c r="AF74" s="2">
         <f>35.7-256.3-1.2-24.7+169.8-14.8</f>
         <v>-91.499999999999986</v>
@@ -6173,967 +6182,967 @@
         <f>-10.9+361.1+3.6-75.9-792.8+4.1</f>
         <v>-510.79999999999984</v>
       </c>
-      <c r="AI74" s="7">
+      <c r="AI74" s="6">
         <f>39.8+282.4+8.4-87-78.6+19-3</f>
         <v>180.99999999999997</v>
       </c>
-      <c r="AJ74" s="7">
+      <c r="AJ74" s="6">
         <f>-38.4-329.6-6.5-21.7+224.4-0.9+1.5</f>
         <v>-171.2</v>
       </c>
-      <c r="AK74" s="7"/>
+      <c r="AK74" s="6"/>
     </row>
     <row r="75" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6">
         <f>SUM(K62:K74)</f>
         <v>-18.799999999999997</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="6">
         <f>SUM(L62:L74)</f>
         <v>-11.500000000000014</v>
       </c>
-      <c r="M75" s="7">
-        <f t="shared" ref="M75:N75" si="147">SUM(M62:M74)</f>
+      <c r="M75" s="6">
+        <f t="shared" ref="M75:N75" si="151">SUM(M62:M74)</f>
         <v>-293.20000000000005</v>
       </c>
-      <c r="N75" s="7">
-        <f t="shared" si="147"/>
+      <c r="N75" s="6">
+        <f t="shared" si="151"/>
         <v>-110.89999999999991</v>
       </c>
-      <c r="O75" s="7">
+      <c r="O75" s="6">
         <f>SUM(O62:O74)</f>
         <v>-303.90000000000003</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75" s="6">
         <f>SUM(P62:P74)</f>
         <v>-103.39999999999998</v>
       </c>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="AB75" s="7"/>
-      <c r="AC75" s="7"/>
-      <c r="AD75" s="7"/>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="19">
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="18">
         <f>SUM(AF62:AF74)</f>
         <v>434.90000000000009</v>
       </c>
-      <c r="AG75" s="19">
+      <c r="AG75" s="18">
         <f>SUM(AG62:AG74)</f>
         <v>325.09999999999991</v>
       </c>
-      <c r="AH75" s="19">
-        <f t="shared" ref="AH75:AK75" si="148">SUM(AH62:AH74)</f>
+      <c r="AH75" s="18">
+        <f t="shared" ref="AH75:AK75" si="152">SUM(AH62:AH74)</f>
         <v>-414.49999999999983</v>
       </c>
-      <c r="AI75" s="19">
-        <f t="shared" si="148"/>
+      <c r="AI75" s="18">
+        <f t="shared" si="152"/>
         <v>123.69999999999996</v>
       </c>
-      <c r="AJ75" s="19">
-        <f t="shared" si="148"/>
+      <c r="AJ75" s="18">
+        <f t="shared" si="152"/>
         <v>-434.30000000000007</v>
       </c>
-      <c r="AK75" s="19">
-        <f t="shared" si="148"/>
-        <v>0</v>
-      </c>
-      <c r="AL75" s="19">
-        <f t="shared" ref="AL75" si="149">SUM(AL62:AL74)</f>
-        <v>0</v>
-      </c>
-      <c r="AM75" s="19">
-        <f t="shared" ref="AM75" si="150">SUM(AM62:AM74)</f>
-        <v>0</v>
-      </c>
-      <c r="AN75" s="19">
-        <f t="shared" ref="AN75" si="151">SUM(AN62:AN74)</f>
-        <v>0</v>
-      </c>
-      <c r="AO75" s="19">
-        <f t="shared" ref="AO75" si="152">SUM(AO62:AO74)</f>
-        <v>0</v>
-      </c>
-      <c r="AP75" s="19">
-        <f t="shared" ref="AP75" si="153">SUM(AP62:AP74)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ75" s="19">
-        <f t="shared" ref="AQ75" si="154">SUM(AQ62:AQ74)</f>
-        <v>0</v>
-      </c>
-      <c r="AR75" s="19">
-        <f t="shared" ref="AR75" si="155">SUM(AR62:AR74)</f>
-        <v>0</v>
-      </c>
-      <c r="AS75" s="19">
-        <f t="shared" ref="AS75" si="156">SUM(AS62:AS74)</f>
-        <v>0</v>
-      </c>
-      <c r="AT75" s="19">
-        <f t="shared" ref="AT75" si="157">SUM(AT62:AT74)</f>
+      <c r="AK75" s="18">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="AL75" s="18">
+        <f t="shared" ref="AL75" si="153">SUM(AL62:AL74)</f>
+        <v>0</v>
+      </c>
+      <c r="AM75" s="18">
+        <f t="shared" ref="AM75" si="154">SUM(AM62:AM74)</f>
+        <v>0</v>
+      </c>
+      <c r="AN75" s="18">
+        <f t="shared" ref="AN75" si="155">SUM(AN62:AN74)</f>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="18">
+        <f t="shared" ref="AO75" si="156">SUM(AO62:AO74)</f>
+        <v>0</v>
+      </c>
+      <c r="AP75" s="18">
+        <f t="shared" ref="AP75" si="157">SUM(AP62:AP74)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="18">
+        <f t="shared" ref="AQ75" si="158">SUM(AQ62:AQ74)</f>
+        <v>0</v>
+      </c>
+      <c r="AR75" s="18">
+        <f t="shared" ref="AR75" si="159">SUM(AR62:AR74)</f>
+        <v>0</v>
+      </c>
+      <c r="AS75" s="18">
+        <f t="shared" ref="AS75" si="160">SUM(AS62:AS74)</f>
+        <v>0</v>
+      </c>
+      <c r="AT75" s="18">
+        <f t="shared" ref="AT75" si="161">SUM(AT62:AT74)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
-      <c r="W76" s="7"/>
-      <c r="AB76" s="7"/>
-      <c r="AC76" s="7"/>
-      <c r="AD76" s="7"/>
-      <c r="AE76" s="7"/>
-      <c r="AI76" s="7"/>
-      <c r="AJ76" s="7"/>
-      <c r="AK76" s="7"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6"/>
     </row>
     <row r="77" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6">
         <v>-14.7</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="6">
         <f>-28.2-K77</f>
         <v>-13.5</v>
       </c>
-      <c r="M77" s="7">
+      <c r="M77" s="6">
         <f>-40.7-L77-K77</f>
         <v>-12.500000000000004</v>
       </c>
-      <c r="N77" s="7">
+      <c r="N77" s="6">
         <f>-62-M77-L77-K77</f>
         <v>-21.3</v>
       </c>
-      <c r="O77" s="7">
+      <c r="O77" s="6">
         <v>76.900000000000006</v>
       </c>
-      <c r="P77" s="7">
+      <c r="P77" s="6">
         <v>-20.5</v>
       </c>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-      <c r="AB77" s="7"/>
-      <c r="AC77" s="7"/>
-      <c r="AD77" s="7"/>
-      <c r="AE77" s="7"/>
-      <c r="AF77" s="14">
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="13">
         <v>113.4</v>
       </c>
-      <c r="AG77" s="14">
+      <c r="AG77" s="13">
         <v>93.7</v>
       </c>
-      <c r="AH77" s="14">
+      <c r="AH77" s="13">
         <v>78.5</v>
       </c>
-      <c r="AI77" s="15">
+      <c r="AI77" s="14">
         <v>60</v>
       </c>
-      <c r="AJ77" s="15">
+      <c r="AJ77" s="14">
         <v>62</v>
       </c>
-      <c r="AK77" s="15"/>
+      <c r="AK77" s="14"/>
     </row>
     <row r="78" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7">
-        <v>0</v>
-      </c>
-      <c r="L78" s="7">
-        <v>0</v>
-      </c>
-      <c r="M78" s="7">
-        <v>0</v>
-      </c>
-      <c r="N78" s="7">
-        <v>0</v>
-      </c>
-      <c r="O78" s="7">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6">
+        <v>0</v>
+      </c>
+      <c r="L78" s="6">
+        <v>0</v>
+      </c>
+      <c r="M78" s="6">
+        <v>0</v>
+      </c>
+      <c r="N78" s="6">
+        <v>0</v>
+      </c>
+      <c r="O78" s="6">
         <v>-10.8</v>
       </c>
-      <c r="P78" s="7">
+      <c r="P78" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="7"/>
-      <c r="AB78" s="7"/>
-      <c r="AC78" s="7"/>
-      <c r="AD78" s="7"/>
-      <c r="AE78" s="7"/>
-      <c r="AI78" s="7"/>
-      <c r="AJ78" s="7"/>
-      <c r="AK78" s="7"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
     </row>
     <row r="79" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7">
-        <v>0</v>
-      </c>
-      <c r="L79" s="7">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="6">
         <f>-0.1-K79</f>
         <v>-0.1</v>
       </c>
-      <c r="M79" s="7">
+      <c r="M79" s="6">
         <f>-0.4-L79-K79</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="N79" s="7">
+      <c r="N79" s="6">
         <f>-2.8-M79-L79-K79</f>
         <v>-2.4</v>
       </c>
-      <c r="O79" s="7">
-        <v>0</v>
-      </c>
-      <c r="P79" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="7"/>
-      <c r="AD79" s="7"/>
-      <c r="AE79" s="7"/>
-      <c r="AI79" s="7"/>
-      <c r="AJ79" s="7"/>
-      <c r="AK79" s="7"/>
+      <c r="O79" s="6">
+        <v>0</v>
+      </c>
+      <c r="P79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
     </row>
     <row r="80" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6">
         <f>K77+K78+K79</f>
         <v>-14.7</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="6">
         <f>L77+L78+L79</f>
         <v>-13.6</v>
       </c>
-      <c r="M80" s="7">
-        <f t="shared" ref="M80:P80" si="158">M77+M78+M79</f>
+      <c r="M80" s="6">
+        <f t="shared" ref="M80:P80" si="162">M77+M78+M79</f>
         <v>-12.800000000000004</v>
       </c>
-      <c r="N80" s="7">
-        <f t="shared" si="158"/>
+      <c r="N80" s="6">
+        <f t="shared" si="162"/>
         <v>-23.7</v>
       </c>
-      <c r="O80" s="7">
-        <f t="shared" si="158"/>
+      <c r="O80" s="6">
+        <f t="shared" si="162"/>
         <v>66.100000000000009</v>
       </c>
-      <c r="P80" s="7">
-        <f t="shared" si="158"/>
+      <c r="P80" s="6">
+        <f t="shared" si="162"/>
         <v>-20.100000000000001</v>
       </c>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="7"/>
-      <c r="AD80" s="7"/>
-      <c r="AE80" s="7"/>
-      <c r="AI80" s="7"/>
-      <c r="AJ80" s="7"/>
-      <c r="AK80" s="7"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
     </row>
     <row r="81" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="AB81" s="7"/>
-      <c r="AC81" s="7"/>
-      <c r="AD81" s="7"/>
-      <c r="AE81" s="7"/>
-      <c r="AI81" s="7"/>
-      <c r="AJ81" s="7"/>
-      <c r="AK81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
     </row>
     <row r="82" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6">
         <v>551.70000000000005</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="6">
         <f>1672.8-K82</f>
         <v>1121.0999999999999</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M82" s="6">
         <f>1672.8-L82-K82</f>
         <v>0</v>
       </c>
-      <c r="N82" s="7">
+      <c r="N82" s="6">
         <f>1672.8-M82-L82-K82</f>
         <v>0</v>
       </c>
-      <c r="O82" s="7">
-        <v>0</v>
-      </c>
-      <c r="P82" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="7"/>
-      <c r="AD82" s="7"/>
-      <c r="AE82" s="7"/>
-      <c r="AI82" s="7"/>
-      <c r="AJ82" s="7"/>
-      <c r="AK82" s="7"/>
+      <c r="O82" s="6">
+        <v>0</v>
+      </c>
+      <c r="P82" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6"/>
     </row>
     <row r="83" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6">
         <f>-25-307.4-0.1</f>
         <v>-332.5</v>
       </c>
-      <c r="L83" s="7">
-        <v>0</v>
-      </c>
-      <c r="M83" s="7">
+      <c r="L83" s="6">
+        <v>0</v>
+      </c>
+      <c r="M83" s="6">
         <f>-25-307.4-0.1-L83-K83</f>
         <v>0</v>
       </c>
-      <c r="N83" s="7">
+      <c r="N83" s="6">
         <f>-307.4-25-M83-L83-K83-3</f>
         <v>-2.8999999999999773</v>
       </c>
-      <c r="O83" s="7">
-        <v>0</v>
-      </c>
-      <c r="P83" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="7"/>
-      <c r="AD83" s="7"/>
-      <c r="AE83" s="7"/>
-      <c r="AI83" s="7"/>
-      <c r="AJ83" s="7"/>
-      <c r="AK83" s="7"/>
+      <c r="O83" s="6">
+        <v>0</v>
+      </c>
+      <c r="P83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
     </row>
     <row r="84" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6">
         <v>-49.9</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="6">
         <f>-136.6-K84</f>
         <v>-86.699999999999989</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M84" s="6">
         <f>-136.6-L84-K84</f>
         <v>0</v>
       </c>
-      <c r="N84" s="7">
+      <c r="N84" s="6">
         <f>-136.8-M84-L84-K84</f>
         <v>-0.20000000000002416</v>
       </c>
-      <c r="O84" s="7">
+      <c r="O84" s="6">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="P84" s="7">
+      <c r="P84" s="6">
         <v>-1.9</v>
       </c>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="7"/>
-      <c r="AD84" s="7"/>
-      <c r="AE84" s="7"/>
-      <c r="AI84" s="7"/>
-      <c r="AJ84" s="7"/>
-      <c r="AK84" s="7"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+      <c r="AI84" s="6"/>
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
     </row>
     <row r="85" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6">
         <f>SUM(K82:K84)</f>
         <v>169.30000000000004</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="6">
         <f>SUM(L82:L84)</f>
         <v>1034.3999999999999</v>
       </c>
-      <c r="M85" s="7">
+      <c r="M85" s="6">
         <f>SUM(M82:M84)</f>
         <v>0</v>
       </c>
-      <c r="N85" s="7">
+      <c r="N85" s="6">
         <f>SUM(N82:N84)</f>
         <v>-3.1000000000000014</v>
       </c>
-      <c r="O85" s="7">
+      <c r="O85" s="6">
         <f>O84</f>
         <v>-1.1000000000000001</v>
       </c>
-      <c r="P85" s="7">
+      <c r="P85" s="6">
         <f>P84</f>
         <v>-1.9</v>
       </c>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="AB85" s="7"/>
-      <c r="AC85" s="7"/>
-      <c r="AD85" s="7"/>
-      <c r="AE85" s="7"/>
-      <c r="AI85" s="7"/>
-      <c r="AJ85" s="7"/>
-      <c r="AK85" s="7"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
+      <c r="AK85" s="6"/>
     </row>
     <row r="86" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7">
-        <v>0</v>
-      </c>
-      <c r="L86" s="7">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6">
+        <v>0</v>
+      </c>
+      <c r="L86" s="6">
         <f>-4.5-K86</f>
         <v>-4.5</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M86" s="6">
         <f>-5.5-L86-K86</f>
         <v>-1</v>
       </c>
-      <c r="N86" s="7">
+      <c r="N86" s="6">
         <f>-16.6-M86-L86-K86</f>
         <v>-11.100000000000001</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O86" s="6">
         <v>2.6</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86" s="6">
         <v>-1.2</v>
       </c>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="7"/>
-      <c r="AD86" s="7"/>
-      <c r="AE86" s="7"/>
-      <c r="AI86" s="7"/>
-      <c r="AJ86" s="7"/>
-      <c r="AK86" s="7"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AI86" s="6"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="6"/>
     </row>
     <row r="87" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7">
-        <f>K85+K80+K75+K86</f>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6">
+        <f t="shared" ref="K87:P87" si="163">K85+K80+K75+K86</f>
         <v>135.80000000000007</v>
       </c>
-      <c r="L87" s="7">
-        <f>L85+L80+L75+L86</f>
+      <c r="L87" s="6">
+        <f t="shared" si="163"/>
         <v>1004.7999999999998</v>
       </c>
-      <c r="M87" s="7">
-        <f>M85+M80+M75+M86</f>
+      <c r="M87" s="6">
+        <f t="shared" si="163"/>
         <v>-307.00000000000006</v>
       </c>
-      <c r="N87" s="7">
-        <f>N85+N80+N75+N86</f>
+      <c r="N87" s="6">
+        <f t="shared" si="163"/>
         <v>-148.7999999999999</v>
       </c>
-      <c r="O87" s="7">
-        <f>O85+O80+O75+O86</f>
+      <c r="O87" s="6">
+        <f t="shared" si="163"/>
         <v>-236.30000000000004</v>
       </c>
-      <c r="P87" s="7">
-        <f>P85+P80+P75+P86</f>
+      <c r="P87" s="6">
+        <f t="shared" si="163"/>
         <v>-126.59999999999998</v>
       </c>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="7"/>
-      <c r="AD87" s="7"/>
-      <c r="AE87" s="7"/>
-      <c r="AI87" s="7"/>
-      <c r="AJ87" s="7"/>
-      <c r="AK87" s="7"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
     </row>
     <row r="88" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="7"/>
-      <c r="AD88" s="7"/>
-      <c r="AE88" s="7"/>
-      <c r="AI88" s="7"/>
-      <c r="AJ88" s="7"/>
-      <c r="AK88" s="7"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+      <c r="AI88" s="6"/>
+      <c r="AJ88" s="6"/>
+      <c r="AK88" s="6"/>
     </row>
     <row r="89" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6">
         <f>K75+K77</f>
         <v>-33.5</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="6">
         <f>L75+L77</f>
         <v>-25.000000000000014</v>
       </c>
-      <c r="M89" s="7">
-        <f t="shared" ref="M89:P89" si="159">M75+M77</f>
+      <c r="M89" s="6">
+        <f t="shared" ref="M89:P89" si="164">M75+M77</f>
         <v>-305.70000000000005</v>
       </c>
-      <c r="N89" s="7">
-        <f t="shared" si="159"/>
+      <c r="N89" s="6">
+        <f t="shared" si="164"/>
         <v>-132.1999999999999</v>
       </c>
-      <c r="O89" s="7">
-        <f t="shared" si="159"/>
+      <c r="O89" s="6">
+        <f t="shared" si="164"/>
         <v>-227.00000000000003</v>
       </c>
-      <c r="P89" s="7">
-        <f t="shared" si="159"/>
+      <c r="P89" s="6">
+        <f t="shared" si="164"/>
         <v>-123.89999999999998</v>
       </c>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="AB89" s="7"/>
-      <c r="AC89" s="7"/>
-      <c r="AD89" s="7"/>
-      <c r="AE89" s="7"/>
-      <c r="AF89" s="14">
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="6"/>
+      <c r="AE89" s="6"/>
+      <c r="AF89" s="13">
         <f>AF75-AF77</f>
         <v>321.50000000000011</v>
       </c>
-      <c r="AG89" s="14">
+      <c r="AG89" s="13">
         <f>AG75-AG77</f>
         <v>231.39999999999992</v>
       </c>
-      <c r="AH89" s="14">
-        <f t="shared" ref="AH89:AJ89" si="160">AH75-AH77</f>
+      <c r="AH89" s="13">
+        <f t="shared" ref="AH89:AJ89" si="165">AH75-AH77</f>
         <v>-492.99999999999983</v>
       </c>
-      <c r="AI89" s="14">
-        <f t="shared" si="160"/>
+      <c r="AI89" s="13">
+        <f t="shared" si="165"/>
         <v>63.69999999999996</v>
       </c>
-      <c r="AJ89" s="14">
-        <f t="shared" si="160"/>
+      <c r="AJ89" s="13">
+        <f t="shared" si="165"/>
         <v>-496.30000000000007</v>
       </c>
-      <c r="AK89" s="7"/>
+      <c r="AK89" s="6"/>
     </row>
     <row r="90" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="7"/>
-      <c r="AD90" s="7"/>
-      <c r="AE90" s="7"/>
-      <c r="AI90" s="7"/>
-      <c r="AJ90" s="7"/>
-      <c r="AK90" s="7"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
     </row>
     <row r="91" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6">
         <v>163.1</v>
       </c>
-      <c r="O91" s="7">
+      <c r="O91" s="6">
         <v>150</v>
       </c>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="AB91" s="7"/>
-      <c r="AC91" s="7"/>
-      <c r="AD91" s="7"/>
-      <c r="AE91" s="7"/>
-      <c r="AI91" s="7"/>
-      <c r="AJ91" s="7"/>
-      <c r="AK91" s="7"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AI91" s="6"/>
+      <c r="AJ91" s="6"/>
+      <c r="AK91" s="6"/>
     </row>
     <row r="92" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6">
         <v>590.29999999999995</v>
       </c>
-      <c r="O92" s="7">
+      <c r="O92" s="6">
         <v>525.6</v>
       </c>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="AB92" s="7"/>
-      <c r="AC92" s="7"/>
-      <c r="AD92" s="7"/>
-      <c r="AE92" s="7"/>
-      <c r="AI92" s="7"/>
-      <c r="AJ92" s="7"/>
-      <c r="AK92" s="7"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
+      <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
+      <c r="AI92" s="6"/>
+      <c r="AJ92" s="6"/>
+      <c r="AK92" s="6"/>
     </row>
     <row r="93" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6">
         <v>977.1</v>
       </c>
-      <c r="O93" s="7">
+      <c r="O93" s="6">
         <v>810.4</v>
       </c>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
-      <c r="AD93" s="7"/>
-      <c r="AE93" s="7"/>
-      <c r="AI93" s="7"/>
-      <c r="AJ93" s="7"/>
-      <c r="AK93" s="7"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
+      <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
+      <c r="AI93" s="6"/>
+      <c r="AJ93" s="6"/>
+      <c r="AK93" s="6"/>
     </row>
     <row r="94" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7">
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6">
         <v>255</v>
       </c>
-      <c r="O94" s="7">
+      <c r="O94" s="6">
         <v>312.5</v>
       </c>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="7"/>
-      <c r="AD94" s="7"/>
-      <c r="AE94" s="7"/>
-      <c r="AI94" s="7"/>
-      <c r="AJ94" s="7"/>
-      <c r="AK94" s="7"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+      <c r="AI94" s="6"/>
+      <c r="AJ94" s="6"/>
+      <c r="AK94" s="6"/>
     </row>
     <row r="95" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N95" s="7">
+      <c r="N95" s="6">
         <v>162.4</v>
       </c>
-      <c r="O95" s="7">
+      <c r="O95" s="6">
         <v>171.6</v>
       </c>
     </row>
@@ -7141,10 +7150,10 @@
       <c r="B96" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N96" s="7">
+      <c r="N96" s="6">
         <v>208.2</v>
       </c>
-      <c r="O96" s="7">
+      <c r="O96" s="6">
         <v>233.3</v>
       </c>
     </row>
@@ -7152,10 +7161,10 @@
       <c r="B97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N97" s="7">
+      <c r="N97" s="6">
         <v>128.80000000000001</v>
       </c>
-      <c r="O97" s="7">
+      <c r="O97" s="6">
         <v>104.7</v>
       </c>
     </row>
@@ -7163,11 +7172,11 @@
       <c r="B98" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N98" s="7">
+      <c r="N98" s="6">
         <f>SUM(N91:N97)</f>
         <v>2484.9</v>
       </c>
-      <c r="O98" s="7">
+      <c r="O98" s="6">
         <f>SUM(O91:O97)</f>
         <v>2308.1</v>
       </c>

--- a/GME.xlsx
+++ b/GME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E99BF-EC1C-40F9-9B49-FD29FCFD37CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD1065-A955-47B0-877A-790F46678A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24705" yWindow="3975" windowWidth="24840" windowHeight="16905" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
   <si>
     <t>Price</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>10/31/22: NFT marketplace launch with ImmutableX</t>
+  </si>
+  <si>
+    <t>https://nft.gamestop.com/</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -502,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -539,11 +542,8 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -966,7 +966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,7 +985,7 @@
   <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1012,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>304.529721</v>
+        <v>304.57807000000003</v>
       </c>
       <c r="N3" s="3">
-        <v>44805</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>7661.9677803599998</v>
+        <v>7663.1842412000005</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1035,10 +1035,11 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>908.9</v>
+        <f>803.8+238.3</f>
+        <v>1042.0999999999999</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -1049,11 +1050,11 @@
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <f>32.1+8.9</f>
-        <v>41</v>
+        <f>9.9+28.8</f>
+        <v>38.700000000000003</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -1062,7 +1063,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>6794.0677803600001</v>
+        <v>6659.7842412</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -1084,6 +1085,9 @@
       <c r="B14" t="s">
         <v>127</v>
       </c>
+      <c r="J14" s="19" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -1096,8 +1100,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J14" r:id="rId1" xr:uid="{3222DACB-6DBB-4EB3-A3EE-2DD85D386975}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1106,10 +1113,10 @@
   <dimension ref="A1:CF98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomRight" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2189,7 +2196,7 @@
         <v>207.3</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="Q22:R22" si="4">N22*1.2</f>
+        <f t="shared" ref="R22" si="4">N22*1.2</f>
         <v>335.16</v>
       </c>
       <c r="S22" s="6">
@@ -2737,7 +2744,7 @@
         <v>387.9</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" ref="Q26:R26" si="26">N26</f>
+        <f t="shared" ref="R26" si="26">N26</f>
         <v>538.9</v>
       </c>
       <c r="S26" s="6">
@@ -2873,7 +2880,7 @@
         <f t="shared" ref="P27:R27" si="36">P25-P26</f>
         <v>-105.29999999999995</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="6">
         <f t="shared" si="36"/>
         <v>-96.699999999999932</v>
       </c>
@@ -3013,11 +3020,11 @@
       <c r="P28" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="Q28" s="6">
         <v>3.7</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ref="Q28:R28" si="44">Q28</f>
+        <f t="shared" ref="R28" si="44">Q28</f>
         <v>3.7</v>
       </c>
       <c r="S28" s="6">
@@ -3066,43 +3073,43 @@
       </c>
       <c r="AK28" s="6">
         <f t="shared" ref="AK28:AT28" si="49">AJ43*$AX$65</f>
-        <v>15.985018000000006</v>
+        <v>20.551017999999999</v>
       </c>
       <c r="AL28" s="6">
         <f t="shared" si="49"/>
-        <v>10.362815360000004</v>
+        <v>15.020135359999998</v>
       </c>
       <c r="AM28" s="6">
         <f t="shared" si="49"/>
-        <v>9.0922260672000217</v>
+        <v>13.842692467200015</v>
       </c>
       <c r="AN28" s="6">
         <f t="shared" si="49"/>
-        <v>11.334714140544047</v>
+        <v>16.180189868544041</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="49"/>
-        <v>19.092561374434947</v>
+        <v>24.03494661699494</v>
       </c>
       <c r="AP28" s="6">
         <f t="shared" si="49"/>
-        <v>28.326780751737068</v>
+        <v>33.358128928663149</v>
       </c>
       <c r="AQ28" s="6">
         <f t="shared" si="49"/>
-        <v>40.359553828575258</v>
+        <v>45.481466272686006</v>
       </c>
       <c r="AR28" s="6">
         <f t="shared" si="49"/>
-        <v>52.295872807688511</v>
+        <v>57.499735850905026</v>
       </c>
       <c r="AS28" s="6">
         <f t="shared" si="49"/>
-        <v>67.110112264545677</v>
+        <v>72.397237116453667</v>
       </c>
       <c r="AT28" s="6">
         <f t="shared" si="49"/>
-        <v>82.408841711119933</v>
+        <v>87.775273435806525</v>
       </c>
     </row>
     <row r="29" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3153,7 +3160,7 @@
         <f t="shared" ref="P29:R29" si="53">P27+P28</f>
         <v>-104.99999999999996</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="6">
         <f t="shared" si="53"/>
         <v>-92.999999999999929</v>
       </c>
@@ -3216,43 +3223,43 @@
       </c>
       <c r="AK29" s="6">
         <f t="shared" ref="AK29" si="61">AK27+AK28</f>
-        <v>-281.11013200000008</v>
+        <v>-276.5441320000001</v>
       </c>
       <c r="AL29" s="6">
         <f t="shared" ref="AL29" si="62">AL27+AL28</f>
-        <v>-63.529464639999112</v>
+        <v>-58.872144639999121</v>
       </c>
       <c r="AM29" s="6">
         <f t="shared" ref="AM29" si="63">AM27+AM28</f>
-        <v>112.12440366720122</v>
+        <v>116.87487006720121</v>
       </c>
       <c r="AN29" s="6">
         <f t="shared" ref="AN29" si="64">AN27+AN28</f>
-        <v>387.89236169454489</v>
+        <v>392.73783742254489</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" ref="AO29" si="65">AO27+AO28</f>
-        <v>513.01218762789574</v>
+        <v>517.95457287045576</v>
       </c>
       <c r="AP29" s="6">
         <f t="shared" ref="AP29" si="66">AP27+AP28</f>
-        <v>668.48739315767716</v>
+        <v>673.51874133460331</v>
       </c>
       <c r="AQ29" s="6">
         <f t="shared" ref="AQ29" si="67">AQ27+AQ28</f>
-        <v>746.01993619457824</v>
+        <v>751.141848638689</v>
       </c>
       <c r="AR29" s="6">
         <f t="shared" ref="AR29" si="68">AR27+AR28</f>
-        <v>925.88996605357329</v>
+        <v>931.09382909678982</v>
       </c>
       <c r="AS29" s="6">
         <f t="shared" ref="AS29" si="69">AS27+AS28</f>
-        <v>1019.9152964382829</v>
+        <v>1025.2024212901908</v>
       </c>
       <c r="AT29" s="6">
         <f t="shared" ref="AT29" si="70">AT27+AT28</f>
-        <v>1227.666618713456</v>
+        <v>1233.0330504381427</v>
       </c>
     </row>
     <row r="30" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3353,27 +3360,27 @@
       </c>
       <c r="AO30" s="2">
         <f>AO29*0.1</f>
-        <v>51.301218762789574</v>
+        <v>51.795457287045579</v>
       </c>
       <c r="AP30" s="2">
         <f t="shared" ref="AP30" si="71">AP29*0.1</f>
-        <v>66.848739315767716</v>
+        <v>67.351874133460328</v>
       </c>
       <c r="AQ30" s="2">
         <f>AQ29*0.2</f>
-        <v>149.20398723891566</v>
+        <v>150.2283697277378</v>
       </c>
       <c r="AR30" s="2">
         <f>AR29*0.2</f>
-        <v>185.17799321071467</v>
+        <v>186.21876581935797</v>
       </c>
       <c r="AS30" s="2">
         <f>AS29*0.25</f>
-        <v>254.97882410957072</v>
+        <v>256.30060532254771</v>
       </c>
       <c r="AT30" s="2">
         <f>AT29*0.25</f>
-        <v>306.91665467836401</v>
+        <v>308.25826260953568</v>
       </c>
     </row>
     <row r="31" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3487,195 +3494,195 @@
       </c>
       <c r="AK31" s="6">
         <f t="shared" ref="AK31:AT31" si="82">AK29-AK30</f>
-        <v>-281.11013200000008</v>
+        <v>-276.5441320000001</v>
       </c>
       <c r="AL31" s="6">
         <f t="shared" si="82"/>
-        <v>-63.529464639999112</v>
+        <v>-58.872144639999121</v>
       </c>
       <c r="AM31" s="6">
         <f t="shared" si="82"/>
-        <v>112.12440366720122</v>
+        <v>116.87487006720121</v>
       </c>
       <c r="AN31" s="6">
         <f t="shared" si="82"/>
-        <v>387.89236169454489</v>
+        <v>392.73783742254489</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="82"/>
-        <v>461.71096886510617</v>
+        <v>466.1591155834102</v>
       </c>
       <c r="AP31" s="6">
         <f t="shared" si="82"/>
-        <v>601.63865384190944</v>
+        <v>606.16686720114296</v>
       </c>
       <c r="AQ31" s="6">
         <f t="shared" si="82"/>
-        <v>596.81594895566263</v>
+        <v>600.9134789109512</v>
       </c>
       <c r="AR31" s="6">
         <f t="shared" si="82"/>
-        <v>740.71197284285859</v>
+        <v>744.87506327743188</v>
       </c>
       <c r="AS31" s="6">
         <f t="shared" si="82"/>
-        <v>764.93647232871217</v>
+        <v>768.90181596764319</v>
       </c>
       <c r="AT31" s="6">
         <f t="shared" si="82"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="AU31" s="2">
         <f t="shared" ref="AU31:CF31" si="83">AT31*(1+$AX$64)</f>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="AV31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="AW31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="AX31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="AY31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="AZ31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BA31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BB31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BC31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BD31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BE31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BF31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BG31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BH31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BI31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BJ31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BK31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BL31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BM31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BN31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BO31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BP31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BQ31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BR31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BS31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BT31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BU31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BV31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BW31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BX31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BY31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="BZ31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="CA31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="CB31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="CC31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="CD31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="CE31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
       <c r="CF31" s="2">
         <f t="shared" si="83"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
     </row>
     <row r="32" spans="2:84" x14ac:dyDescent="0.2">
@@ -3785,43 +3792,43 @@
       </c>
       <c r="AK32" s="5">
         <f t="shared" ref="AK32:AT32" si="94">AK31/AK33</f>
-        <v>-3.8720403856749326</v>
+        <v>-3.809147823691462</v>
       </c>
       <c r="AL32" s="5">
         <f t="shared" si="94"/>
-        <v>-0.87506149641872066</v>
+        <v>-0.81091108319558025</v>
       </c>
       <c r="AM32" s="5">
         <f t="shared" si="94"/>
-        <v>1.5444132736529095</v>
+        <v>1.6098466951405128</v>
       </c>
       <c r="AN32" s="5">
         <f t="shared" si="94"/>
-        <v>5.34286999579263</v>
+        <v>5.409612085709985</v>
       </c>
       <c r="AO32" s="5">
         <f t="shared" si="94"/>
-        <v>6.3596552185276334</v>
+        <v>6.4209244570717665</v>
       </c>
       <c r="AP32" s="5">
         <f t="shared" si="94"/>
-        <v>8.2870337994753367</v>
+        <v>8.3494058843132652</v>
       </c>
       <c r="AQ32" s="5">
         <f t="shared" si="94"/>
-        <v>8.2206053575160141</v>
+        <v>8.2770451640626899</v>
       </c>
       <c r="AR32" s="5">
         <f t="shared" si="94"/>
-        <v>10.202644254033865</v>
+        <v>10.259987097485288</v>
       </c>
       <c r="AS32" s="5">
         <f t="shared" si="94"/>
-        <v>10.536315045850031</v>
+        <v>10.59093410423751</v>
       </c>
       <c r="AT32" s="5">
         <f t="shared" si="94"/>
-        <v>12.682506391667935</v>
+        <v>12.737944735931228</v>
       </c>
     </row>
     <row r="33" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4762,7 +4769,7 @@
       </c>
       <c r="AP41" s="9">
         <f t="shared" si="142"/>
-        <v>0.1</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AQ41" s="9">
         <f t="shared" si="142"/>
@@ -4809,28 +4816,28 @@
         <v>908.9</v>
       </c>
       <c r="Q43" s="6">
-        <f>P43+Q31</f>
-        <v>813.80000000000007</v>
+        <f>803.8+238.3</f>
+        <v>1042.0999999999999</v>
       </c>
       <c r="R43" s="6">
         <f>Q43+R31</f>
-        <v>799.25090000000023</v>
+        <v>1027.5509</v>
       </c>
       <c r="S43" s="6">
         <f t="shared" ref="S43:V43" si="143">R43+S31</f>
-        <v>669.16130000000021</v>
+        <v>897.46129999999994</v>
       </c>
       <c r="T43" s="6">
         <f t="shared" si="143"/>
-        <v>547.7773000000002</v>
+        <v>776.07729999999992</v>
       </c>
       <c r="U43" s="6">
         <f t="shared" si="143"/>
-        <v>437.54330000000022</v>
+        <v>665.8433</v>
       </c>
       <c r="V43" s="6">
         <f t="shared" si="143"/>
-        <v>449.02674500000035</v>
+        <v>677.32674500000019</v>
       </c>
       <c r="W43" s="6"/>
       <c r="AI43" s="6">
@@ -4839,47 +4846,47 @@
       </c>
       <c r="AJ43" s="6">
         <f>R43</f>
-        <v>799.25090000000023</v>
+        <v>1027.5509</v>
       </c>
       <c r="AK43" s="6">
         <f t="shared" ref="AK43:AT43" si="144">AJ43+AK31</f>
-        <v>518.14076800000021</v>
+        <v>751.00676799999985</v>
       </c>
       <c r="AL43" s="6">
         <f t="shared" si="144"/>
-        <v>454.6113033600011</v>
+        <v>692.13462336000077</v>
       </c>
       <c r="AM43" s="6">
         <f t="shared" si="144"/>
-        <v>566.73570702720235</v>
+        <v>809.00949342720196</v>
       </c>
       <c r="AN43" s="6">
         <f t="shared" si="144"/>
-        <v>954.62806872174724</v>
+        <v>1201.747330849747</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="144"/>
-        <v>1416.3390375868535</v>
+        <v>1667.9064464331573</v>
       </c>
       <c r="AP43" s="6">
         <f t="shared" si="144"/>
-        <v>2017.9776914287629</v>
+        <v>2274.0733136343001</v>
       </c>
       <c r="AQ43" s="6">
         <f t="shared" si="144"/>
-        <v>2614.7936403844255</v>
+        <v>2874.9867925452513</v>
       </c>
       <c r="AR43" s="6">
         <f t="shared" si="144"/>
-        <v>3355.5056132272839</v>
+        <v>3619.8618558226831</v>
       </c>
       <c r="AS43" s="6">
         <f t="shared" si="144"/>
-        <v>4120.4420855559965</v>
+        <v>4388.763671790326</v>
       </c>
       <c r="AT43" s="6">
         <f t="shared" si="144"/>
-        <v>5041.192049591089</v>
+        <v>5313.5384596189333</v>
       </c>
     </row>
     <row r="44" spans="2:46" x14ac:dyDescent="0.2">
@@ -4904,6 +4911,9 @@
       <c r="P44" s="6">
         <v>99.6</v>
       </c>
+      <c r="Q44" s="6">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
@@ -4927,6 +4937,9 @@
       <c r="P45" s="6">
         <v>734.8</v>
       </c>
+      <c r="Q45" s="6">
+        <v>1131.3</v>
+      </c>
     </row>
     <row r="46" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
@@ -4950,6 +4963,9 @@
       <c r="P46" s="6">
         <v>275.89999999999998</v>
       </c>
+      <c r="Q46" s="6">
+        <v>283.10000000000002</v>
+      </c>
     </row>
     <row r="47" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
@@ -4973,6 +4989,9 @@
       <c r="P47" s="6">
         <v>146.80000000000001</v>
       </c>
+      <c r="Q47" s="6">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="48" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
@@ -4997,6 +5016,9 @@
       <c r="P48" s="6">
         <v>554.29999999999995</v>
       </c>
+      <c r="Q48" s="6">
+        <v>523.20000000000005</v>
+      </c>
     </row>
     <row r="49" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
@@ -5020,6 +5042,9 @@
       <c r="P49" s="6">
         <v>16.7</v>
       </c>
+      <c r="Q49" s="6">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="50" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -5043,6 +5068,9 @@
       <c r="P50" s="6">
         <v>62.5</v>
       </c>
+      <c r="Q50" s="6">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="51" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
@@ -5072,6 +5100,10 @@
         <f>SUM(P43:P50)</f>
         <v>2799.5</v>
       </c>
+      <c r="Q51" s="6">
+        <f>SUM(Q43:Q50)</f>
+        <v>3322.5</v>
+      </c>
     </row>
     <row r="52" spans="2:50" x14ac:dyDescent="0.2">
       <c r="K52" s="6"/>
@@ -5098,6 +5130,9 @@
       <c r="P53" s="6">
         <v>217.4</v>
       </c>
+      <c r="Q53" s="6">
+        <v>888.4</v>
+      </c>
     </row>
     <row r="54" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
@@ -5121,6 +5156,9 @@
       <c r="P54" s="6">
         <v>512.1</v>
       </c>
+      <c r="Q54" s="6">
+        <v>504.2</v>
+      </c>
     </row>
     <row r="55" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
@@ -5149,6 +5187,10 @@
         <f>194+367.4</f>
         <v>561.4</v>
       </c>
+      <c r="Q55" s="6">
+        <f>186.2+349.6</f>
+        <v>535.79999999999995</v>
+      </c>
     </row>
     <row r="56" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
@@ -5176,6 +5218,10 @@
         <f>8.9+32.1</f>
         <v>41</v>
       </c>
+      <c r="Q56" s="6">
+        <f>9.9+28.8</f>
+        <v>38.700000000000003</v>
+      </c>
     </row>
     <row r="57" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
@@ -5200,6 +5246,9 @@
       <c r="P57" s="6">
         <v>124.1</v>
       </c>
+      <c r="Q57" s="6">
+        <v>110.4</v>
+      </c>
     </row>
     <row r="58" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -5223,6 +5272,9 @@
       <c r="P58" s="6">
         <v>1343.5</v>
       </c>
+      <c r="Q58" s="6">
+        <v>1245</v>
+      </c>
     </row>
     <row r="59" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -5251,6 +5303,10 @@
       <c r="P59" s="6">
         <f>SUM(P53:P58)</f>
         <v>2799.5</v>
+      </c>
+      <c r="Q59" s="6">
+        <f>SUM(Q53:Q58)</f>
+        <v>3322.5</v>
       </c>
     </row>
     <row r="60" spans="2:50" x14ac:dyDescent="0.2">
@@ -5271,7 +5327,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6">
-        <f t="shared" ref="K61:P61" si="149">K31</f>
+        <f t="shared" ref="K61:Q61" si="149">K31</f>
         <v>-66.199999999999875</v>
       </c>
       <c r="L61" s="6">
@@ -5294,7 +5350,10 @@
         <f t="shared" si="149"/>
         <v>-106.19999999999996</v>
       </c>
-      <c r="Q61" s="6"/>
+      <c r="Q61" s="6">
+        <f t="shared" si="149"/>
+        <v>-95.099999999999923</v>
+      </c>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
@@ -5327,43 +5386,43 @@
       </c>
       <c r="AK61" s="6">
         <f t="shared" si="150"/>
-        <v>-281.11013200000008</v>
+        <v>-276.5441320000001</v>
       </c>
       <c r="AL61" s="6">
         <f t="shared" si="150"/>
-        <v>-63.529464639999112</v>
+        <v>-58.872144639999121</v>
       </c>
       <c r="AM61" s="6">
         <f t="shared" si="150"/>
-        <v>112.12440366720122</v>
+        <v>116.87487006720121</v>
       </c>
       <c r="AN61" s="6">
         <f t="shared" si="150"/>
-        <v>387.89236169454489</v>
+        <v>392.73783742254489</v>
       </c>
       <c r="AO61" s="6">
         <f t="shared" si="150"/>
-        <v>461.71096886510617</v>
+        <v>466.1591155834102</v>
       </c>
       <c r="AP61" s="6">
         <f t="shared" si="150"/>
-        <v>601.63865384190944</v>
+        <v>606.16686720114296</v>
       </c>
       <c r="AQ61" s="6">
         <f t="shared" si="150"/>
-        <v>596.81594895566263</v>
+        <v>600.9134789109512</v>
       </c>
       <c r="AR61" s="6">
         <f t="shared" si="150"/>
-        <v>740.71197284285859</v>
+        <v>744.87506327743188</v>
       </c>
       <c r="AS61" s="6">
         <f t="shared" si="150"/>
-        <v>764.93647232871217</v>
+        <v>768.90181596764319</v>
       </c>
       <c r="AT61" s="6">
         <f t="shared" si="150"/>
-        <v>920.74996403509203</v>
+        <v>924.77478782860703</v>
       </c>
     </row>
     <row r="62" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5690,7 +5749,7 @@
       </c>
       <c r="AX66" s="2">
         <f>NPV(AX63,AK31:CF31)+Main!M5-Main!M6</f>
-        <v>6321.5027331205829</v>
+        <v>6499.5801066161957</v>
       </c>
     </row>
     <row r="67" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5755,7 +5814,7 @@
       </c>
       <c r="AX67" s="17">
         <f>AX66/Main!M3</f>
-        <v>20.75824557406856</v>
+        <v>21.339619450002409</v>
       </c>
     </row>
     <row r="68" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5823,7 +5882,7 @@
       </c>
       <c r="AX68" s="16">
         <f>AX67/Main!M2-1</f>
-        <v>-0.17495049387644834</v>
+        <v>-0.1518434240857548</v>
       </c>
     </row>
     <row r="69" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/GME.xlsx
+++ b/GME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD1065-A955-47B0-877A-790F46678A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3304DF-994E-4D83-B8ED-EEF02531FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
+    <workbookView xWindow="-28155" yWindow="0" windowWidth="28335" windowHeight="20235" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
   <si>
     <t>Price</t>
   </si>
@@ -447,6 +447,18 @@
   </si>
   <si>
     <t>https://nft.gamestop.com/</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -570,16 +582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>75028</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13363</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>75028</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>70513</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -594,8 +606,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11665449" y="13363"/>
-          <a:ext cx="0" cy="18024308"/>
+          <a:off x="15007298" y="0"/>
+          <a:ext cx="0" cy="18110688"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -620,13 +632,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -678,9 +690,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -718,7 +730,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -824,7 +836,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -966,7 +978,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,13 +1122,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A8DC47-869E-4A1F-AC19-77E1C7206D83}">
-  <dimension ref="A1:CF98"/>
+  <dimension ref="A1:CI98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q62" sqref="Q62"/>
+      <selection pane="bottomRight" activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1127,18 +1139,18 @@
     <col min="7" max="12" width="9.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.85546875" style="4" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="4" customWidth="1"/>
-    <col min="28" max="31" width="9.140625" style="4"/>
-    <col min="35" max="37" width="9.140625" style="4"/>
-    <col min="50" max="50" width="8.42578125" customWidth="1"/>
+    <col min="16" max="26" width="10.140625" style="4" customWidth="1"/>
+    <col min="31" max="34" width="9.140625" style="4"/>
+    <col min="38" max="40" width="9.140625" style="4"/>
+    <col min="53" max="53" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -1195,82 +1207,97 @@
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="AA2" s="21">
-        <f t="shared" ref="AA2" si="1">AB2-365</f>
+      <c r="W2" s="21">
+        <f>+S2+365</f>
+        <v>45411</v>
+      </c>
+      <c r="X2" s="21">
+        <f>+T2+365</f>
+        <v>45503</v>
+      </c>
+      <c r="Y2" s="21">
+        <f>+U2+365</f>
+        <v>45594</v>
+      </c>
+      <c r="Z2" s="21">
+        <f>+V2+365</f>
+        <v>45685</v>
+      </c>
+      <c r="AD2" s="21">
+        <f t="shared" ref="AD2" si="1">AE2-365</f>
         <v>41303</v>
       </c>
-      <c r="AB2" s="21">
-        <f>AC2-365</f>
+      <c r="AE2" s="21">
+        <f>AF2-365</f>
         <v>41668</v>
       </c>
-      <c r="AC2" s="21">
-        <f t="shared" ref="AC2" si="2">AD2-365</f>
+      <c r="AF2" s="21">
+        <f t="shared" ref="AF2" si="2">AG2-365</f>
         <v>42033</v>
       </c>
-      <c r="AD2" s="21">
-        <f>AE2-365</f>
+      <c r="AG2" s="21">
+        <f>AH2-365</f>
         <v>42398</v>
       </c>
-      <c r="AE2" s="21">
+      <c r="AH2" s="21">
         <v>42763</v>
       </c>
-      <c r="AF2" s="21">
+      <c r="AI2" s="21">
         <v>43134</v>
       </c>
-      <c r="AG2" s="21">
+      <c r="AJ2" s="21">
         <v>43498</v>
       </c>
-      <c r="AH2" s="21">
+      <c r="AK2" s="21">
         <v>43862</v>
       </c>
-      <c r="AI2" s="21">
+      <c r="AL2" s="21">
         <v>44226</v>
       </c>
-      <c r="AJ2" s="21">
+      <c r="AM2" s="21">
         <v>44590</v>
       </c>
-      <c r="AK2" s="21">
+      <c r="AN2" s="21">
         <v>44955</v>
       </c>
-      <c r="AL2" s="20">
-        <f>AK2+365</f>
+      <c r="AO2" s="20">
+        <f>AN2+365</f>
         <v>45320</v>
       </c>
-      <c r="AM2" s="20">
-        <f>AL2+366</f>
+      <c r="AP2" s="20">
+        <f>AO2+366</f>
         <v>45686</v>
       </c>
-      <c r="AN2" s="20">
-        <f t="shared" ref="AN2:AT2" si="3">AM2+365</f>
+      <c r="AQ2" s="20">
+        <f t="shared" ref="AQ2:AW2" si="3">AP2+365</f>
         <v>46051</v>
       </c>
-      <c r="AO2" s="20">
+      <c r="AR2" s="20">
         <f t="shared" si="3"/>
         <v>46416</v>
       </c>
-      <c r="AP2" s="20">
+      <c r="AS2" s="20">
         <f t="shared" si="3"/>
         <v>46781</v>
       </c>
-      <c r="AQ2" s="20">
-        <f>AP2+366</f>
+      <c r="AT2" s="20">
+        <f>AS2+366</f>
         <v>47147</v>
       </c>
-      <c r="AR2" s="20">
+      <c r="AU2" s="20">
         <f t="shared" si="3"/>
         <v>47512</v>
       </c>
-      <c r="AS2" s="20">
+      <c r="AV2" s="20">
         <f t="shared" si="3"/>
         <v>47877</v>
       </c>
-      <c r="AT2" s="20">
+      <c r="AW2" s="20">
         <f t="shared" si="3"/>
         <v>48242</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1331,68 +1358,80 @@
       <c r="V3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="W3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>112</v>
       </c>
@@ -1419,15 +1458,15 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6">
-        <v>7535</v>
-      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="AH4" s="6">
+        <v>7535</v>
+      </c>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
@@ -1440,8 +1479,11 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
       <c r="AT4" s="6"/>
-    </row>
-    <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+    </row>
+    <row r="5" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>113</v>
       </c>
@@ -1466,16 +1508,16 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6">
-        <f>AE4-2069</f>
-        <v>5466</v>
-      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
+      <c r="AH5" s="6">
+        <f>AH4-2069</f>
+        <v>5466</v>
+      </c>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
@@ -1488,22 +1530,25 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
       <c r="AT5" s="6"/>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
-    </row>
-    <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+    </row>
+    <row r="7" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1536,9 +1581,9 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
@@ -1555,8 +1600,11 @@
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
       <c r="AT7" s="6"/>
-    </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+    </row>
+    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>103</v>
       </c>
@@ -1589,9 +1637,9 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
@@ -1608,8 +1656,11 @@
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
-    </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+    </row>
+    <row r="9" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>104</v>
       </c>
@@ -1642,9 +1693,9 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
@@ -1661,8 +1712,11 @@
       <c r="AR9" s="6"/>
       <c r="AS9" s="6"/>
       <c r="AT9" s="6"/>
-    </row>
-    <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+    </row>
+    <row r="10" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>105</v>
       </c>
@@ -1695,9 +1749,9 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
@@ -1714,22 +1768,25 @@
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
-    </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+    </row>
+    <row r="12" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>74</v>
       </c>
@@ -1754,22 +1811,25 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="6">
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6">
         <v>1791.8</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AJ12" s="6">
         <v>1767.8</v>
       </c>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-    </row>
-    <row r="13" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+    </row>
+    <row r="13" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -1794,22 +1854,25 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
       <c r="AE13" s="6"/>
-      <c r="AF13" s="6">
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6">
         <v>2582</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AJ13" s="6">
         <v>2449.6999999999998</v>
       </c>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
-    </row>
-    <row r="14" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+    </row>
+    <row r="14" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
@@ -1834,22 +1897,25 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="6">
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6">
         <v>2149.6</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AJ14" s="6">
         <v>1866.3</v>
       </c>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-    </row>
-    <row r="15" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+    </row>
+    <row r="15" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
@@ -1874,22 +1940,25 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="6">
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6">
         <v>784.3</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AJ15" s="6">
         <v>956.5</v>
       </c>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
-    </row>
-    <row r="16" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+    </row>
+    <row r="16" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
@@ -1914,22 +1983,25 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="6">
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6">
         <v>189.2</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AJ16" s="6">
         <v>194</v>
       </c>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-    </row>
-    <row r="17" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+    </row>
+    <row r="17" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
@@ -1958,22 +2030,25 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="6">
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6">
         <v>636.20000000000005</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AJ17" s="6">
         <v>707.5</v>
       </c>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-    </row>
-    <row r="18" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+    </row>
+    <row r="18" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1998,27 +2073,30 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="6">
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6">
         <v>414</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AJ18" s="6">
         <v>343.5</v>
       </c>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
-    </row>
-    <row r="19" spans="2:84" x14ac:dyDescent="0.2">
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-    </row>
-    <row r="20" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+    </row>
+    <row r="19" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+    </row>
+    <row r="20" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
@@ -2065,23 +2143,26 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
       <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
-      <c r="AI20" s="6">
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6">
         <v>2530.8000000000002</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AM20" s="6">
         <v>3171.7</v>
       </c>
-      <c r="AK20" s="6">
-        <f>AJ20*0.9</f>
+      <c r="AN20" s="6">
+        <f>AM20*0.9</f>
         <v>2854.5299999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
@@ -2128,33 +2209,36 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
       <c r="AE21" s="6"/>
-      <c r="AG21" s="16"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
-      <c r="AI21" s="6">
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6">
         <v>1979.1</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AM21" s="6">
         <v>2014.8</v>
       </c>
-      <c r="AK21" s="6">
-        <f>AJ21*1.03</f>
+      <c r="AN21" s="6">
+        <f>AM21*1.03</f>
         <v>2075.2440000000001</v>
       </c>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
       <c r="AP21" s="6"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
-    </row>
-    <row r="22" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+    </row>
+    <row r="22" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
@@ -2195,90 +2279,78 @@
       <c r="Q22" s="6">
         <v>207.3</v>
       </c>
-      <c r="R22" s="6">
-        <f t="shared" ref="R22" si="4">N22*1.2</f>
-        <v>335.16</v>
-      </c>
-      <c r="S22" s="6">
-        <f t="shared" ref="S22" si="5">O22*1.2</f>
-        <v>265.08</v>
-      </c>
-      <c r="T22" s="6">
-        <f t="shared" ref="T22" si="6">P22*1.2</f>
-        <v>267.83999999999997</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" ref="U22" si="7">Q22*1.2</f>
-        <v>248.76</v>
-      </c>
-      <c r="V22" s="6">
-        <f t="shared" ref="V22" si="8">R22*1.2</f>
-        <v>402.19200000000001</v>
-      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="2">
-        <f>AF17</f>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="2">
+        <f>AI17</f>
         <v>636.20000000000005</v>
       </c>
-      <c r="AG22" s="2">
-        <f>AG17</f>
+      <c r="AJ22" s="2">
+        <f>AJ17</f>
         <v>707.5</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AK22" s="6">
         <v>737.5</v>
       </c>
-      <c r="AI22" s="6">
+      <c r="AL22" s="6">
         <v>579.9</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AM22" s="6">
         <v>824.2</v>
       </c>
-      <c r="AK22" s="6">
-        <f>AJ22*1.1</f>
+      <c r="AN22" s="6">
+        <f>AM22*1.1</f>
         <v>906.62000000000012</v>
       </c>
-      <c r="AL22" s="6">
-        <f t="shared" ref="AL22:AT22" si="9">AK22*1.1</f>
+      <c r="AO22" s="6">
+        <f t="shared" ref="AO22:AW22" si="4">AN22*1.1</f>
         <v>997.28200000000027</v>
       </c>
-      <c r="AM22" s="6">
-        <f t="shared" si="9"/>
+      <c r="AP22" s="6">
+        <f t="shared" si="4"/>
         <v>1097.0102000000004</v>
       </c>
-      <c r="AN22" s="6">
-        <f t="shared" si="9"/>
+      <c r="AQ22" s="6">
+        <f t="shared" si="4"/>
         <v>1206.7112200000006</v>
       </c>
-      <c r="AO22" s="6">
-        <f t="shared" si="9"/>
+      <c r="AR22" s="6">
+        <f t="shared" si="4"/>
         <v>1327.3823420000008</v>
       </c>
-      <c r="AP22" s="6">
-        <f t="shared" si="9"/>
+      <c r="AS22" s="6">
+        <f t="shared" si="4"/>
         <v>1460.1205762000011</v>
       </c>
-      <c r="AQ22" s="6">
-        <f t="shared" si="9"/>
+      <c r="AT22" s="6">
+        <f t="shared" si="4"/>
         <v>1606.1326338200013</v>
       </c>
-      <c r="AR22" s="6">
-        <f t="shared" si="9"/>
+      <c r="AU22" s="6">
+        <f t="shared" si="4"/>
         <v>1766.7458972020015</v>
       </c>
-      <c r="AS22" s="6">
-        <f t="shared" si="9"/>
+      <c r="AV22" s="6">
+        <f t="shared" si="4"/>
         <v>1943.4204869222019</v>
       </c>
-      <c r="AT22" s="6">
-        <f t="shared" si="9"/>
+      <c r="AW22" s="6">
+        <f t="shared" si="4"/>
         <v>2137.7625356144222</v>
       </c>
     </row>
-    <row r="23" spans="2:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:87" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
@@ -2295,27 +2367,27 @@
         <v>942</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" ref="I23:N23" si="10">SUM(I20:I22)</f>
+        <f t="shared" ref="I23:N23" si="5">SUM(I20:I22)</f>
         <v>1004.6999999999999</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2122.1</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1276.8000000000002</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1183.4000000000001</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1296.6000000000001</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2253.9</v>
       </c>
       <c r="O23" s="8">
@@ -2330,99 +2402,110 @@
         <v>1186</v>
       </c>
       <c r="R23" s="8">
-        <f>N23*1.05</f>
-        <v>2366.5950000000003</v>
+        <f>5927.2-Q23-P23-O23</f>
+        <v>2226.7999999999997</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" ref="S23:V23" si="11">O23*1.05</f>
-        <v>1447.3200000000002</v>
+        <v>1237</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="11"/>
-        <v>1192.8</v>
+        <v>1163.8</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="11"/>
-        <v>1245.3</v>
+        <v>1078.3</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="11"/>
-        <v>2484.9247500000006</v>
-      </c>
-      <c r="W23" s="8"/>
-      <c r="AB23" s="8">
+        <f>5272.8-U23-T23-S23</f>
+        <v>1793.6999999999998</v>
+      </c>
+      <c r="W23" s="8">
+        <v>882</v>
+      </c>
+      <c r="X23" s="8">
+        <f>+T23*0.8</f>
+        <v>931.04</v>
+      </c>
+      <c r="Y23" s="8">
+        <f>+U23*0.85</f>
+        <v>916.55499999999995</v>
+      </c>
+      <c r="Z23" s="8">
+        <f>+V23*0.9</f>
+        <v>1614.33</v>
+      </c>
+      <c r="AE23" s="8">
         <v>9039.5</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AF23" s="8">
         <v>9296</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AG23" s="8">
         <v>9363.7999999999993</v>
       </c>
-      <c r="AE23" s="8">
+      <c r="AH23" s="8">
         <v>8607.9</v>
       </c>
-      <c r="AF23" s="8">
-        <f>SUM(AF12:AF18)</f>
+      <c r="AI23" s="8">
+        <f>SUM(AI12:AI18)</f>
         <v>8547.0999999999985</v>
       </c>
-      <c r="AG23" s="8">
-        <f>SUM(AG12:AG18)</f>
+      <c r="AJ23" s="8">
+        <f>SUM(AJ12:AJ18)</f>
         <v>8285.2999999999993</v>
       </c>
-      <c r="AH23" s="8">
+      <c r="AK23" s="8">
         <v>6466</v>
       </c>
-      <c r="AI23" s="8">
-        <f t="shared" ref="AI23:AJ23" si="12">SUM(AI20:AI22)</f>
+      <c r="AL23" s="8">
+        <f t="shared" ref="AL23:AM23" si="6">SUM(AL20:AL22)</f>
         <v>5089.7999999999993</v>
       </c>
-      <c r="AJ23" s="8">
-        <f t="shared" si="12"/>
+      <c r="AM23" s="8">
+        <f t="shared" si="6"/>
         <v>6010.7</v>
       </c>
-      <c r="AK23" s="8">
+      <c r="AN23" s="8">
         <f>SUM(O23:R23)</f>
-        <v>6066.9950000000008</v>
-      </c>
-      <c r="AL23" s="7">
-        <f>AK23*1.1</f>
-        <v>6673.6945000000014</v>
-      </c>
-      <c r="AM23" s="7">
-        <f>AL23*1.1</f>
-        <v>7341.0639500000025</v>
-      </c>
-      <c r="AN23" s="7">
-        <f>AM23*1.1</f>
-        <v>8075.1703450000032</v>
+        <v>5927.2</v>
       </c>
       <c r="AO23" s="7">
-        <f t="shared" ref="AO23:AT23" si="13">AN23*1.05</f>
-        <v>8478.9288622500044</v>
+        <f>AN23*1.1</f>
+        <v>6519.92</v>
       </c>
       <c r="AP23" s="7">
-        <f t="shared" si="13"/>
-        <v>8902.8753053625042</v>
+        <f>AO23*1.1</f>
+        <v>7171.9120000000003</v>
       </c>
       <c r="AQ23" s="7">
-        <f t="shared" si="13"/>
-        <v>9348.0190706306294</v>
+        <f>AP23*1.1</f>
+        <v>7889.1032000000014</v>
       </c>
       <c r="AR23" s="7">
-        <f t="shared" si="13"/>
-        <v>9815.420024162162</v>
+        <f t="shared" ref="AR23:AW23" si="7">AQ23*1.05</f>
+        <v>8283.5583600000009</v>
       </c>
       <c r="AS23" s="7">
-        <f t="shared" si="13"/>
-        <v>10306.19102537027</v>
+        <f t="shared" si="7"/>
+        <v>8697.7362780000021</v>
       </c>
       <c r="AT23" s="7">
-        <f t="shared" si="13"/>
-        <v>10821.500576638784</v>
-      </c>
-    </row>
-    <row r="24" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>9132.6230919000027</v>
+      </c>
+      <c r="AU23" s="7">
+        <f t="shared" si="7"/>
+        <v>9589.2542464950038</v>
+      </c>
+      <c r="AV23" s="7">
+        <f t="shared" si="7"/>
+        <v>10068.716958819754</v>
+      </c>
+      <c r="AW23" s="7">
+        <f t="shared" si="7"/>
+        <v>10572.152806760741</v>
+      </c>
+    </row>
+    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2465,94 +2548,94 @@
       </c>
       <c r="R24" s="6">
         <f>R23*0.78</f>
-        <v>1845.9441000000002</v>
+        <v>1736.9039999999998</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" ref="S24:V24" si="14">S23*0.78</f>
-        <v>1128.9096000000002</v>
+        <v>949.8</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" si="14"/>
-        <v>930.38400000000001</v>
+        <v>857.9</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="14"/>
-        <v>971.33399999999995</v>
+        <v>796.5</v>
       </c>
       <c r="V24" s="6">
-        <f t="shared" si="14"/>
-        <v>1938.2413050000005</v>
+        <f>3978.6-U24-T24-S24</f>
+        <v>1374.3999999999999</v>
       </c>
       <c r="W24" s="6"/>
-      <c r="AB24" s="6">
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AE24" s="6">
         <v>6378.4</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AF24" s="6">
         <v>6520.1</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AG24" s="6">
         <v>6445.5</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AH24" s="6">
         <v>5598.6</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AI24" s="6">
         <v>6062.2</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AJ24" s="6">
         <v>5977.2</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AK24" s="6">
         <v>4557.3</v>
       </c>
-      <c r="AI24" s="6">
+      <c r="AL24" s="6">
         <v>3830.3</v>
       </c>
-      <c r="AJ24" s="6">
+      <c r="AM24" s="6">
         <v>4662.8999999999996</v>
       </c>
-      <c r="AK24" s="6">
-        <f>AK23*0.77</f>
-        <v>4671.586150000001</v>
-      </c>
-      <c r="AL24" s="6">
-        <f>AL23*0.76</f>
-        <v>5072.0078200000007</v>
-      </c>
-      <c r="AM24" s="6">
-        <f>AM23*0.76</f>
-        <v>5579.2086020000015</v>
-      </c>
       <c r="AN24" s="6">
-        <f>AN23*0.75</f>
-        <v>6056.3777587500026</v>
+        <f>AN23*0.77</f>
+        <v>4563.9440000000004</v>
       </c>
       <c r="AO24" s="6">
-        <f>AO23*0.75</f>
-        <v>6359.1966466875037</v>
+        <f>AO23*0.76</f>
+        <v>4955.1392000000005</v>
       </c>
       <c r="AP24" s="6">
-        <f>AP23*0.74</f>
-        <v>6588.1277259682529</v>
+        <f>AP23*0.76</f>
+        <v>5450.6531199999999</v>
       </c>
       <c r="AQ24" s="6">
-        <f>AQ23*0.74</f>
-        <v>6917.5341122666659</v>
+        <f>AQ23*0.75</f>
+        <v>5916.827400000001</v>
       </c>
       <c r="AR24" s="6">
-        <f>AR23*0.73</f>
-        <v>7165.256617638378</v>
+        <f>AR23*0.75</f>
+        <v>6212.6687700000002</v>
       </c>
       <c r="AS24" s="6">
-        <f>AS23*0.73</f>
-        <v>7523.5194485202965</v>
+        <f>AS23*0.74</f>
+        <v>6436.3248457200016</v>
       </c>
       <c r="AT24" s="6">
-        <f>AT23*0.72</f>
-        <v>7791.4804151799244</v>
-      </c>
-    </row>
-    <row r="25" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AT23*0.74</f>
+        <v>6758.1410880060021</v>
+      </c>
+      <c r="AU24" s="6">
+        <f>AU23*0.73</f>
+        <v>7000.1555999413522</v>
+      </c>
+      <c r="AV24" s="6">
+        <f>AV23*0.73</f>
+        <v>7350.1633799384199</v>
+      </c>
+      <c r="AW24" s="6">
+        <f>AW23*0.72</f>
+        <v>7611.9500208677337</v>
+      </c>
+    </row>
+    <row r="25" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2561,7 +2644,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6">
-        <f t="shared" ref="G25" si="15">G23-G24</f>
+        <f t="shared" ref="G25" si="8">G23-G24</f>
         <v>282.39999999999998</v>
       </c>
       <c r="H25" s="6">
@@ -2581,11 +2664,11 @@
         <v>330.10000000000014</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25" si="16">L23-L24</f>
+        <f t="shared" ref="L25" si="9">L23-L24</f>
         <v>320.90000000000009</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" ref="M25" si="17">M23-M24</f>
+        <f t="shared" ref="M25" si="10">M23-M24</f>
         <v>318.60000000000014</v>
       </c>
       <c r="N25" s="6">
@@ -2601,108 +2684,111 @@
         <v>282.20000000000005</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" ref="Q25:R25" si="18">Q23-Q24</f>
+        <f t="shared" ref="Q25:R25" si="11">Q23-Q24</f>
         <v>291.20000000000005</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="18"/>
-        <v>520.65090000000009</v>
+        <f t="shared" si="11"/>
+        <v>489.89599999999996</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" ref="S25:V25" si="19">S23-S24</f>
-        <v>318.41039999999998</v>
+        <f t="shared" ref="S25:V25" si="12">S23-S24</f>
+        <v>287.20000000000005</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="19"/>
-        <v>262.41599999999994</v>
+        <f t="shared" si="12"/>
+        <v>305.89999999999998</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="19"/>
-        <v>273.96600000000001</v>
+        <f t="shared" si="12"/>
+        <v>281.79999999999995</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" si="19"/>
-        <v>546.68344500000012</v>
+        <f t="shared" si="12"/>
+        <v>419.29999999999995</v>
       </c>
       <c r="W25" s="6"/>
-      <c r="AB25" s="6">
-        <f t="shared" ref="AB25" si="20">AB23-AB24</f>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AE25" s="6">
+        <f t="shared" ref="AE25" si="13">AE23-AE24</f>
         <v>2661.1000000000004</v>
       </c>
-      <c r="AC25" s="6">
-        <f t="shared" ref="AC25" si="21">AC23-AC24</f>
+      <c r="AF25" s="6">
+        <f t="shared" ref="AF25" si="14">AF23-AF24</f>
         <v>2775.8999999999996</v>
       </c>
-      <c r="AD25" s="6">
-        <f t="shared" ref="AD25" si="22">AD23-AD24</f>
+      <c r="AG25" s="6">
+        <f t="shared" ref="AG25" si="15">AG23-AG24</f>
         <v>2918.2999999999993</v>
       </c>
-      <c r="AE25" s="6">
-        <f t="shared" ref="AE25:AF25" si="23">AE23-AE24</f>
+      <c r="AH25" s="6">
+        <f t="shared" ref="AH25:AI25" si="16">AH23-AH24</f>
         <v>3009.2999999999993</v>
       </c>
-      <c r="AF25" s="6">
-        <f t="shared" si="23"/>
+      <c r="AI25" s="6">
+        <f t="shared" si="16"/>
         <v>2484.8999999999987</v>
-      </c>
-      <c r="AG25" s="6">
-        <f>AG23-AG24</f>
-        <v>2308.0999999999995</v>
-      </c>
-      <c r="AH25" s="6">
-        <f t="shared" ref="AH25" si="24">AH23-AH24</f>
-        <v>1908.6999999999998</v>
-      </c>
-      <c r="AI25" s="6">
-        <f>AI23-AI24</f>
-        <v>1259.4999999999991</v>
       </c>
       <c r="AJ25" s="6">
         <f>AJ23-AJ24</f>
+        <v>2308.0999999999995</v>
+      </c>
+      <c r="AK25" s="6">
+        <f t="shared" ref="AK25" si="17">AK23-AK24</f>
+        <v>1908.6999999999998</v>
+      </c>
+      <c r="AL25" s="6">
+        <f>AL23-AL24</f>
+        <v>1259.4999999999991</v>
+      </c>
+      <c r="AM25" s="6">
+        <f>AM23-AM24</f>
         <v>1347.8000000000002</v>
       </c>
-      <c r="AK25" s="6">
-        <f t="shared" ref="AK25:AT25" si="25">AK23-AK24</f>
-        <v>1395.4088499999998</v>
-      </c>
-      <c r="AL25" s="6">
-        <f t="shared" si="25"/>
-        <v>1601.6866800000007</v>
-      </c>
-      <c r="AM25" s="6">
-        <f t="shared" si="25"/>
-        <v>1761.855348000001</v>
-      </c>
       <c r="AN25" s="6">
-        <f t="shared" si="25"/>
-        <v>2018.7925862500006</v>
+        <f t="shared" ref="AN25:AW25" si="18">AN23-AN24</f>
+        <v>1363.2559999999994</v>
       </c>
       <c r="AO25" s="6">
-        <f t="shared" si="25"/>
-        <v>2119.7322155625006</v>
+        <f t="shared" si="18"/>
+        <v>1564.7807999999995</v>
       </c>
       <c r="AP25" s="6">
-        <f t="shared" si="25"/>
-        <v>2314.7475793942513</v>
+        <f t="shared" si="18"/>
+        <v>1721.2588800000003</v>
       </c>
       <c r="AQ25" s="6">
-        <f t="shared" si="25"/>
-        <v>2430.4849583639634</v>
+        <f t="shared" si="18"/>
+        <v>1972.2758000000003</v>
       </c>
       <c r="AR25" s="6">
-        <f t="shared" si="25"/>
-        <v>2650.163406523784</v>
+        <f t="shared" si="18"/>
+        <v>2070.8895900000007</v>
       </c>
       <c r="AS25" s="6">
-        <f t="shared" si="25"/>
-        <v>2782.6715768499735</v>
+        <f t="shared" si="18"/>
+        <v>2261.4114322800006</v>
       </c>
       <c r="AT25" s="6">
-        <f t="shared" si="25"/>
-        <v>3030.0201614588595</v>
-      </c>
-    </row>
-    <row r="26" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>2374.4820038940006</v>
+      </c>
+      <c r="AU25" s="6">
+        <f t="shared" si="18"/>
+        <v>2589.0986465536516</v>
+      </c>
+      <c r="AV25" s="6">
+        <f t="shared" si="18"/>
+        <v>2718.553578881334</v>
+      </c>
+      <c r="AW25" s="6">
+        <f t="shared" si="18"/>
+        <v>2960.2027858930078</v>
+      </c>
+    </row>
+    <row r="26" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2744,95 +2830,95 @@
         <v>387.9</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" ref="R26" si="26">N26</f>
-        <v>538.9</v>
+        <f>1681-Q26-P26-O26</f>
+        <v>453.39999999999992</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" ref="S26" si="27">O26</f>
-        <v>452.2</v>
+        <v>345.7</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" ref="T26" si="28">P26</f>
-        <v>387.5</v>
+        <v>322.5</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" ref="U26" si="29">Q26</f>
-        <v>387.9</v>
+        <v>296.5</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" ref="V26" si="30">R26</f>
-        <v>538.9</v>
+        <f>1323.9-U26-T26-S26</f>
+        <v>359.2000000000001</v>
       </c>
       <c r="W26" s="6"/>
-      <c r="AB26" s="6">
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AE26" s="6">
         <v>1892.4</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AF26" s="6">
         <v>2001</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AG26" s="6">
         <v>2108.9</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AH26" s="6">
         <v>2252.6</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AI26" s="6">
         <v>1909.6</v>
       </c>
-      <c r="AG26" s="6">
+      <c r="AJ26" s="6">
         <v>1994.2</v>
       </c>
-      <c r="AH26" s="6">
+      <c r="AK26" s="6">
         <v>1922.7</v>
       </c>
-      <c r="AI26" s="6">
+      <c r="AL26" s="6">
         <v>1514.2</v>
       </c>
-      <c r="AJ26" s="6">
+      <c r="AM26" s="6">
         <v>1709.6</v>
       </c>
-      <c r="AK26" s="6">
-        <f>AJ26*0.99</f>
+      <c r="AN26" s="6">
+        <f>AM26*0.99</f>
         <v>1692.5039999999999</v>
       </c>
-      <c r="AL26" s="6">
-        <f t="shared" ref="AL26:AO26" si="31">AK26*0.99</f>
+      <c r="AO26" s="6">
+        <f t="shared" ref="AO26:AR26" si="19">AN26*0.99</f>
         <v>1675.5789599999998</v>
       </c>
-      <c r="AM26" s="6">
-        <f t="shared" si="31"/>
+      <c r="AP26" s="6">
+        <f t="shared" si="19"/>
         <v>1658.8231703999998</v>
       </c>
-      <c r="AN26" s="6">
-        <f t="shared" si="31"/>
+      <c r="AQ26" s="6">
+        <f t="shared" si="19"/>
         <v>1642.2349386959997</v>
       </c>
-      <c r="AO26" s="6">
-        <f t="shared" si="31"/>
+      <c r="AR26" s="6">
+        <f t="shared" si="19"/>
         <v>1625.8125893090398</v>
       </c>
-      <c r="AP26" s="6">
-        <f>AO26*1.03</f>
+      <c r="AS26" s="6">
+        <f>AR26*1.03</f>
         <v>1674.5869669883111</v>
       </c>
-      <c r="AQ26" s="6">
-        <f t="shared" ref="AQ26:AT26" si="32">AP26*1.03</f>
+      <c r="AT26" s="6">
+        <f t="shared" ref="AT26:AW26" si="20">AS26*1.03</f>
         <v>1724.8245759979604</v>
       </c>
-      <c r="AR26" s="6">
-        <f t="shared" si="32"/>
+      <c r="AU26" s="6">
+        <f t="shared" si="20"/>
         <v>1776.5693132778993</v>
       </c>
-      <c r="AS26" s="6">
-        <f t="shared" si="32"/>
+      <c r="AV26" s="6">
+        <f t="shared" si="20"/>
         <v>1829.8663926762363</v>
       </c>
-      <c r="AT26" s="6">
-        <f t="shared" si="32"/>
+      <c r="AW26" s="6">
+        <f t="shared" si="20"/>
         <v>1884.7623844565235</v>
       </c>
     </row>
-    <row r="27" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -2841,7 +2927,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6">
-        <f t="shared" ref="G27" si="33">G25-G26</f>
+        <f t="shared" ref="G27" si="21">G25-G26</f>
         <v>-104.10000000000002</v>
       </c>
       <c r="H27" s="6">
@@ -2861,11 +2947,11 @@
         <v>-40.199999999999875</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27" si="34">L25-L26</f>
+        <f t="shared" ref="L27" si="22">L25-L26</f>
         <v>-57.999999999999886</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" ref="M27" si="35">M25-M26</f>
+        <f t="shared" ref="M27" si="23">M25-M26</f>
         <v>-102.89999999999986</v>
       </c>
       <c r="N27" s="6">
@@ -2877,112 +2963,115 @@
         <v>-153.69999999999999</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:R27" si="36">P25-P26</f>
+        <f t="shared" ref="P27:R27" si="24">P25-P26</f>
         <v>-105.29999999999995</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="24"/>
         <v>-96.699999999999932</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="36"/>
-        <v>-18.249099999999885</v>
+        <f t="shared" si="24"/>
+        <v>36.496000000000038</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" ref="S27:V27" si="37">S25-S26</f>
-        <v>-133.78960000000001</v>
+        <f t="shared" ref="S27:V27" si="25">S25-S26</f>
+        <v>-58.499999999999943</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="37"/>
-        <v>-125.08400000000006</v>
+        <f t="shared" si="25"/>
+        <v>-16.600000000000023</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="37"/>
-        <v>-113.93399999999997</v>
+        <f t="shared" si="25"/>
+        <v>-14.700000000000045</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" si="37"/>
-        <v>7.7834450000001425</v>
+        <f t="shared" si="25"/>
+        <v>60.099999999999852</v>
       </c>
       <c r="W27" s="6"/>
-      <c r="AB27" s="6">
-        <f t="shared" ref="AB27" si="38">AB25-AB26</f>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AE27" s="6">
+        <f t="shared" ref="AE27" si="26">AE25-AE26</f>
         <v>768.70000000000027</v>
       </c>
-      <c r="AC27" s="6">
-        <f t="shared" ref="AC27" si="39">AC25-AC26</f>
+      <c r="AF27" s="6">
+        <f t="shared" ref="AF27" si="27">AF25-AF26</f>
         <v>774.89999999999964</v>
       </c>
-      <c r="AD27" s="6">
-        <f t="shared" ref="AD27" si="40">AD25-AD26</f>
+      <c r="AG27" s="6">
+        <f t="shared" ref="AG27" si="28">AG25-AG26</f>
         <v>809.39999999999918</v>
       </c>
-      <c r="AE27" s="6">
-        <f t="shared" ref="AE27:AF27" si="41">AE25-AE26</f>
+      <c r="AH27" s="6">
+        <f t="shared" ref="AH27:AI27" si="29">AH25-AH26</f>
         <v>756.69999999999936</v>
       </c>
-      <c r="AF27" s="6">
-        <f t="shared" si="41"/>
+      <c r="AI27" s="6">
+        <f t="shared" si="29"/>
         <v>575.29999999999882</v>
-      </c>
-      <c r="AG27" s="6">
-        <f>AG25-AG26</f>
-        <v>313.89999999999941</v>
-      </c>
-      <c r="AH27" s="6">
-        <f t="shared" ref="AH27" si="42">AH25-AH26</f>
-        <v>-14.000000000000227</v>
-      </c>
-      <c r="AI27" s="6">
-        <f>AI25-AI26</f>
-        <v>-254.70000000000095</v>
       </c>
       <c r="AJ27" s="6">
         <f>AJ25-AJ26</f>
+        <v>313.89999999999941</v>
+      </c>
+      <c r="AK27" s="6">
+        <f t="shared" ref="AK27" si="30">AK25-AK26</f>
+        <v>-14.000000000000227</v>
+      </c>
+      <c r="AL27" s="6">
+        <f>AL25-AL26</f>
+        <v>-254.70000000000095</v>
+      </c>
+      <c r="AM27" s="6">
+        <f>AM25-AM26</f>
         <v>-361.79999999999973</v>
       </c>
-      <c r="AK27" s="6">
-        <f t="shared" ref="AK27:AT27" si="43">AK25-AK26</f>
-        <v>-297.0951500000001</v>
-      </c>
-      <c r="AL27" s="6">
-        <f t="shared" si="43"/>
-        <v>-73.892279999999118</v>
-      </c>
-      <c r="AM27" s="6">
-        <f t="shared" si="43"/>
-        <v>103.03217760000121</v>
-      </c>
       <c r="AN27" s="6">
-        <f t="shared" si="43"/>
-        <v>376.55764755400082</v>
+        <f t="shared" ref="AN27:AW27" si="31">AN25-AN26</f>
+        <v>-329.2480000000005</v>
       </c>
       <c r="AO27" s="6">
-        <f t="shared" si="43"/>
-        <v>493.91962625346082</v>
+        <f t="shared" si="31"/>
+        <v>-110.79816000000028</v>
       </c>
       <c r="AP27" s="6">
-        <f t="shared" si="43"/>
-        <v>640.16061240594013</v>
+        <f t="shared" si="31"/>
+        <v>62.435709600000564</v>
       </c>
       <c r="AQ27" s="6">
-        <f t="shared" si="43"/>
-        <v>705.66038236600298</v>
+        <f t="shared" si="31"/>
+        <v>330.0408613040006</v>
       </c>
       <c r="AR27" s="6">
-        <f t="shared" si="43"/>
-        <v>873.59409324588478</v>
+        <f t="shared" si="31"/>
+        <v>445.07700069096086</v>
       </c>
       <c r="AS27" s="6">
-        <f t="shared" si="43"/>
-        <v>952.80518417373719</v>
+        <f t="shared" si="31"/>
+        <v>586.82446529168942</v>
       </c>
       <c r="AT27" s="6">
-        <f t="shared" si="43"/>
-        <v>1145.2577770023361</v>
-      </c>
-    </row>
-    <row r="28" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>649.65742789604019</v>
+      </c>
+      <c r="AU27" s="6">
+        <f t="shared" si="31"/>
+        <v>812.52933327575238</v>
+      </c>
+      <c r="AV27" s="6">
+        <f t="shared" si="31"/>
+        <v>888.68718620509776</v>
+      </c>
+      <c r="AW27" s="6">
+        <f t="shared" si="31"/>
+        <v>1075.4404014364843</v>
+      </c>
+    </row>
+    <row r="28" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -3024,95 +3113,98 @@
         <v>3.7</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ref="R28" si="44">Q28</f>
+        <f t="shared" ref="R28" si="32">Q28</f>
         <v>3.7</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" ref="S28" si="45">R28</f>
+        <f t="shared" ref="S28" si="33">R28</f>
         <v>3.7</v>
       </c>
       <c r="T28" s="6">
-        <f t="shared" ref="T28" si="46">S28</f>
-        <v>3.7</v>
+        <f>11.6+2</f>
+        <v>13.6</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" ref="U28" si="47">T28</f>
-        <v>3.7</v>
+        <f>12.9-2.5</f>
+        <v>10.4</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" ref="V28" si="48">U28</f>
-        <v>3.7</v>
+        <f t="shared" ref="V28" si="34">U28</f>
+        <v>10.4</v>
       </c>
       <c r="W28" s="6"/>
-      <c r="AB28" s="6">
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AE28" s="6">
         <v>-4.7</v>
       </c>
-      <c r="AC28" s="6">
+      <c r="AF28" s="6">
         <v>-10</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AG28" s="6">
         <v>-23</v>
       </c>
-      <c r="AE28" s="6">
+      <c r="AH28" s="6">
         <v>-53</v>
       </c>
-      <c r="AF28" s="6">
+      <c r="AI28" s="6">
         <v>-55.3</v>
       </c>
-      <c r="AG28" s="6">
+      <c r="AJ28" s="6">
         <v>-51.1</v>
       </c>
-      <c r="AH28" s="6">
+      <c r="AK28" s="6">
         <v>-27.2</v>
       </c>
-      <c r="AI28" s="6">
+      <c r="AL28" s="6">
         <v>-32.1</v>
       </c>
-      <c r="AJ28" s="6">
+      <c r="AM28" s="6">
         <v>-26.9</v>
       </c>
-      <c r="AK28" s="6">
-        <f t="shared" ref="AK28:AT28" si="49">AJ43*$AX$65</f>
-        <v>20.551017999999999</v>
-      </c>
-      <c r="AL28" s="6">
-        <f t="shared" si="49"/>
-        <v>15.020135359999998</v>
-      </c>
-      <c r="AM28" s="6">
-        <f t="shared" si="49"/>
-        <v>13.842692467200015</v>
-      </c>
       <c r="AN28" s="6">
-        <f t="shared" si="49"/>
-        <v>16.180189868544041</v>
+        <f t="shared" ref="AN28:AW28" si="35">AM43*$BA$65</f>
+        <v>0</v>
       </c>
       <c r="AO28" s="6">
-        <f t="shared" si="49"/>
-        <v>24.03494661699494</v>
+        <f t="shared" si="35"/>
+        <v>-6.5849600000000104</v>
       </c>
       <c r="AP28" s="6">
-        <f t="shared" si="49"/>
-        <v>33.358128928663149</v>
+        <f t="shared" si="35"/>
+        <v>-8.9326224000000156</v>
       </c>
       <c r="AQ28" s="6">
-        <f t="shared" si="49"/>
-        <v>45.481466272686006</v>
+        <f t="shared" si="35"/>
+        <v>-7.8625606560000056</v>
       </c>
       <c r="AR28" s="6">
-        <f t="shared" si="49"/>
-        <v>57.499735850905026</v>
+        <f t="shared" si="35"/>
+        <v>-1.4189946430399938</v>
       </c>
       <c r="AS28" s="6">
-        <f t="shared" si="49"/>
-        <v>72.397237116453667</v>
+        <f t="shared" si="35"/>
+        <v>6.5668494658225827</v>
       </c>
       <c r="AT28" s="6">
-        <f t="shared" si="49"/>
-        <v>87.775273435806525</v>
-      </c>
-    </row>
-    <row r="29" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="35"/>
+        <v>17.247893131457801</v>
+      </c>
+      <c r="AU28" s="6">
+        <f t="shared" si="35"/>
+        <v>27.918378267897769</v>
+      </c>
+      <c r="AV28" s="6">
+        <f t="shared" si="35"/>
+        <v>41.365541652596164</v>
+      </c>
+      <c r="AW28" s="6">
+        <f t="shared" si="35"/>
+        <v>55.316332570461583</v>
+      </c>
+    </row>
+    <row r="29" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -3121,7 +3213,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6">
-        <f t="shared" ref="G29" si="50">G27+G28</f>
+        <f t="shared" ref="G29" si="36">G27+G28</f>
         <v>-110.80000000000003</v>
       </c>
       <c r="H29" s="6">
@@ -3141,11 +3233,11 @@
         <v>-64.899999999999878</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" ref="L29" si="51">L27+L28</f>
+        <f t="shared" ref="L29" si="37">L27+L28</f>
         <v>-58.499999999999886</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" ref="M29" si="52">M27+M28</f>
+        <f t="shared" ref="M29" si="38">M27+M28</f>
         <v>-103.69999999999986</v>
       </c>
       <c r="N29" s="6">
@@ -3157,112 +3249,115 @@
         <v>-154.39999999999998</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" ref="P29:R29" si="53">P27+P28</f>
+        <f t="shared" ref="P29:R29" si="39">P27+P28</f>
         <v>-104.99999999999996</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>-92.999999999999929</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" si="53"/>
-        <v>-14.549099999999886</v>
+        <f t="shared" si="39"/>
+        <v>40.196000000000041</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" ref="S29:V29" si="54">S27+S28</f>
-        <v>-130.08960000000002</v>
+        <f t="shared" ref="S29:V29" si="40">S27+S28</f>
+        <v>-54.79999999999994</v>
       </c>
       <c r="T29" s="6">
-        <f t="shared" si="54"/>
-        <v>-121.38400000000006</v>
+        <f t="shared" si="40"/>
+        <v>-3.0000000000000231</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="54"/>
-        <v>-110.23399999999997</v>
+        <f t="shared" si="40"/>
+        <v>-4.3000000000000451</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" si="54"/>
-        <v>11.483445000000142</v>
+        <f t="shared" si="40"/>
+        <v>70.499999999999858</v>
       </c>
       <c r="W29" s="6"/>
-      <c r="AB29" s="6">
-        <f t="shared" ref="AB29" si="55">AB27+AB28</f>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AE29" s="6">
+        <f t="shared" ref="AE29" si="41">AE27+AE28</f>
         <v>764.00000000000023</v>
       </c>
-      <c r="AC29" s="6">
-        <f t="shared" ref="AC29" si="56">AC27+AC28</f>
+      <c r="AF29" s="6">
+        <f t="shared" ref="AF29" si="42">AF27+AF28</f>
         <v>764.89999999999964</v>
       </c>
-      <c r="AD29" s="6">
-        <f t="shared" ref="AD29" si="57">AD27+AD28</f>
+      <c r="AG29" s="6">
+        <f t="shared" ref="AG29" si="43">AG27+AG28</f>
         <v>786.39999999999918</v>
       </c>
-      <c r="AE29" s="6">
-        <f t="shared" ref="AE29:AF29" si="58">AE27+AE28</f>
+      <c r="AH29" s="6">
+        <f t="shared" ref="AH29:AI29" si="44">AH27+AH28</f>
         <v>703.69999999999936</v>
       </c>
-      <c r="AF29" s="6">
-        <f t="shared" si="58"/>
+      <c r="AI29" s="6">
+        <f t="shared" si="44"/>
         <v>519.99999999999886</v>
       </c>
-      <c r="AG29" s="6">
-        <f t="shared" ref="AG29:AH29" si="59">AG27+AG28</f>
+      <c r="AJ29" s="6">
+        <f t="shared" ref="AJ29:AK29" si="45">AJ27+AJ28</f>
         <v>262.79999999999939</v>
       </c>
-      <c r="AH29" s="6">
-        <f t="shared" si="59"/>
+      <c r="AK29" s="6">
+        <f t="shared" si="45"/>
         <v>-41.20000000000023</v>
       </c>
-      <c r="AI29" s="6">
-        <f t="shared" ref="AI29:AJ29" si="60">AI27+AI28</f>
+      <c r="AL29" s="6">
+        <f t="shared" ref="AL29:AM29" si="46">AL27+AL28</f>
         <v>-286.80000000000098</v>
       </c>
-      <c r="AJ29" s="6">
-        <f t="shared" si="60"/>
+      <c r="AM29" s="6">
+        <f t="shared" si="46"/>
         <v>-388.6999999999997</v>
       </c>
-      <c r="AK29" s="6">
-        <f t="shared" ref="AK29" si="61">AK27+AK28</f>
-        <v>-276.5441320000001</v>
-      </c>
-      <c r="AL29" s="6">
-        <f t="shared" ref="AL29" si="62">AL27+AL28</f>
-        <v>-58.872144639999121</v>
-      </c>
-      <c r="AM29" s="6">
-        <f t="shared" ref="AM29" si="63">AM27+AM28</f>
-        <v>116.87487006720121</v>
-      </c>
       <c r="AN29" s="6">
-        <f t="shared" ref="AN29" si="64">AN27+AN28</f>
-        <v>392.73783742254489</v>
+        <f t="shared" ref="AN29" si="47">AN27+AN28</f>
+        <v>-329.2480000000005</v>
       </c>
       <c r="AO29" s="6">
-        <f t="shared" ref="AO29" si="65">AO27+AO28</f>
-        <v>517.95457287045576</v>
+        <f t="shared" ref="AO29" si="48">AO27+AO28</f>
+        <v>-117.38312000000029</v>
       </c>
       <c r="AP29" s="6">
-        <f t="shared" ref="AP29" si="66">AP27+AP28</f>
-        <v>673.51874133460331</v>
+        <f t="shared" ref="AP29" si="49">AP27+AP28</f>
+        <v>53.50308720000055</v>
       </c>
       <c r="AQ29" s="6">
-        <f t="shared" ref="AQ29" si="67">AQ27+AQ28</f>
-        <v>751.141848638689</v>
+        <f t="shared" ref="AQ29" si="50">AQ27+AQ28</f>
+        <v>322.17830064800057</v>
       </c>
       <c r="AR29" s="6">
-        <f t="shared" ref="AR29" si="68">AR27+AR28</f>
-        <v>931.09382909678982</v>
+        <f t="shared" ref="AR29" si="51">AR27+AR28</f>
+        <v>443.65800604792088</v>
       </c>
       <c r="AS29" s="6">
-        <f t="shared" ref="AS29" si="69">AS27+AS28</f>
-        <v>1025.2024212901908</v>
+        <f t="shared" ref="AS29" si="52">AS27+AS28</f>
+        <v>593.39131475751196</v>
       </c>
       <c r="AT29" s="6">
-        <f t="shared" ref="AT29" si="70">AT27+AT28</f>
-        <v>1233.0330504381427</v>
-      </c>
-    </row>
-    <row r="30" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AT29" si="53">AT27+AT28</f>
+        <v>666.90532102749796</v>
+      </c>
+      <c r="AU29" s="6">
+        <f t="shared" ref="AU29" si="54">AU27+AU28</f>
+        <v>840.44771154365014</v>
+      </c>
+      <c r="AV29" s="6">
+        <f t="shared" ref="AV29" si="55">AV27+AV28</f>
+        <v>930.05272785769398</v>
+      </c>
+      <c r="AW29" s="6">
+        <f t="shared" ref="AW29" si="56">AW27+AW28</f>
+        <v>1130.7567340069459</v>
+      </c>
+    </row>
+    <row r="30" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
@@ -3310,80 +3405,83 @@
         <v>0</v>
       </c>
       <c r="T30" s="6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U30" s="6">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="V30" s="6">
         <v>0</v>
       </c>
       <c r="W30" s="6"/>
-      <c r="AB30" s="6">
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AE30" s="6">
         <v>214.6</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AF30" s="6">
         <v>215.2</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AG30" s="6">
         <v>222.4</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AH30" s="6">
         <v>151.5</v>
       </c>
-      <c r="AF30" s="6">
+      <c r="AI30" s="6">
         <v>153.5</v>
       </c>
-      <c r="AG30" s="6">
+      <c r="AJ30" s="6">
         <v>41.7</v>
       </c>
-      <c r="AH30" s="6">
+      <c r="AK30" s="6">
         <v>37.6</v>
       </c>
-      <c r="AI30" s="6">
+      <c r="AL30" s="6">
         <v>-55.3</v>
       </c>
-      <c r="AJ30" s="6">
+      <c r="AM30" s="6">
         <v>-14.1</v>
       </c>
-      <c r="AK30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="2">
+      <c r="AN30" s="6">
         <v>0</v>
       </c>
       <c r="AO30" s="2">
-        <f>AO29*0.1</f>
-        <v>51.795457287045579</v>
+        <v>0</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" ref="AP30" si="71">AP29*0.1</f>
-        <v>67.351874133460328</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="2">
-        <f>AQ29*0.2</f>
-        <v>150.2283697277378</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="2">
-        <f>AR29*0.2</f>
-        <v>186.21876581935797</v>
+        <f>AR29*0.1</f>
+        <v>44.365800604792092</v>
       </c>
       <c r="AS30" s="2">
-        <f>AS29*0.25</f>
-        <v>256.30060532254771</v>
+        <f t="shared" ref="AS30" si="57">AS29*0.1</f>
+        <v>59.339131475751202</v>
       </c>
       <c r="AT30" s="2">
-        <f>AT29*0.25</f>
-        <v>308.25826260953568</v>
-      </c>
-    </row>
-    <row r="31" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AT29*0.2</f>
+        <v>133.3810642054996</v>
+      </c>
+      <c r="AU30" s="2">
+        <f>AU29*0.2</f>
+        <v>168.08954230873005</v>
+      </c>
+      <c r="AV30" s="2">
+        <f>AV29*0.25</f>
+        <v>232.5131819644235</v>
+      </c>
+      <c r="AW30" s="2">
+        <f>AW29*0.25</f>
+        <v>282.68918350173647</v>
+      </c>
+    </row>
+    <row r="31" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3392,7 +3490,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6">
-        <f t="shared" ref="G31" si="72">G29-G30</f>
+        <f t="shared" ref="G31" si="58">G29-G30</f>
         <v>-161.20000000000002</v>
       </c>
       <c r="H31" s="6">
@@ -3412,11 +3510,11 @@
         <v>-66.199999999999875</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31" si="73">L29-L30</f>
+        <f t="shared" ref="L31" si="59">L29-L30</f>
         <v>-61.599999999999888</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" ref="M31" si="74">M29-M30</f>
+        <f t="shared" ref="M31" si="60">M29-M30</f>
         <v>-105.39999999999986</v>
       </c>
       <c r="N31" s="6">
@@ -3428,269 +3526,272 @@
         <v>-157.89999999999998</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" ref="P31:R31" si="75">P29-P30</f>
+        <f t="shared" ref="P31:R31" si="61">P29-P30</f>
         <v>-106.19999999999996</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="61"/>
         <v>-95.099999999999923</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="75"/>
-        <v>-14.549099999999886</v>
+        <f t="shared" si="61"/>
+        <v>40.196000000000041</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" ref="S31:V31" si="76">S29-S30</f>
-        <v>-130.08960000000002</v>
+        <f t="shared" ref="S31:V31" si="62">S29-S30</f>
+        <v>-54.79999999999994</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" si="76"/>
-        <v>-121.38400000000006</v>
+        <f t="shared" si="62"/>
+        <v>-3.2000000000000233</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="76"/>
-        <v>-110.23399999999997</v>
+        <f t="shared" si="62"/>
+        <v>-3.1000000000000449</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="76"/>
-        <v>11.483445000000142</v>
+        <f t="shared" si="62"/>
+        <v>70.499999999999858</v>
       </c>
       <c r="W31" s="6"/>
-      <c r="AB31" s="6">
-        <f t="shared" ref="AB31" si="77">AB29-AB30</f>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AE31" s="6">
+        <f t="shared" ref="AE31" si="63">AE29-AE30</f>
         <v>549.4000000000002</v>
       </c>
-      <c r="AC31" s="6">
-        <f t="shared" ref="AC31" si="78">AC29-AC30</f>
+      <c r="AF31" s="6">
+        <f t="shared" ref="AF31" si="64">AF29-AF30</f>
         <v>549.69999999999959</v>
       </c>
-      <c r="AD31" s="6">
-        <f t="shared" ref="AD31" si="79">AD29-AD30</f>
+      <c r="AG31" s="6">
+        <f t="shared" ref="AG31" si="65">AG29-AG30</f>
         <v>563.9999999999992</v>
       </c>
-      <c r="AE31" s="6">
-        <f t="shared" ref="AE31:AF31" si="80">AE29-AE30</f>
+      <c r="AH31" s="6">
+        <f t="shared" ref="AH31:AI31" si="66">AH29-AH30</f>
         <v>552.19999999999936</v>
       </c>
-      <c r="AF31" s="6">
-        <f t="shared" si="80"/>
+      <c r="AI31" s="6">
+        <f t="shared" si="66"/>
         <v>366.49999999999886</v>
       </c>
-      <c r="AG31" s="6">
-        <f t="shared" ref="AG31:AH31" si="81">AG29-AG30</f>
+      <c r="AJ31" s="6">
+        <f t="shared" ref="AJ31:AK31" si="67">AJ29-AJ30</f>
         <v>221.0999999999994</v>
       </c>
-      <c r="AH31" s="6">
-        <f t="shared" si="81"/>
+      <c r="AK31" s="6">
+        <f t="shared" si="67"/>
         <v>-78.800000000000239</v>
       </c>
-      <c r="AI31" s="6">
-        <f>AI29-AI30</f>
+      <c r="AL31" s="6">
+        <f>AL29-AL30</f>
         <v>-231.50000000000097</v>
       </c>
-      <c r="AJ31" s="6">
-        <f>AJ29-AJ30</f>
+      <c r="AM31" s="6">
+        <f>AM29-AM30</f>
         <v>-374.59999999999968</v>
       </c>
-      <c r="AK31" s="6">
-        <f t="shared" ref="AK31:AT31" si="82">AK29-AK30</f>
-        <v>-276.5441320000001</v>
-      </c>
-      <c r="AL31" s="6">
-        <f t="shared" si="82"/>
-        <v>-58.872144639999121</v>
-      </c>
-      <c r="AM31" s="6">
-        <f t="shared" si="82"/>
-        <v>116.87487006720121</v>
-      </c>
       <c r="AN31" s="6">
-        <f t="shared" si="82"/>
-        <v>392.73783742254489</v>
+        <f t="shared" ref="AN31:AW31" si="68">AN29-AN30</f>
+        <v>-329.2480000000005</v>
       </c>
       <c r="AO31" s="6">
-        <f t="shared" si="82"/>
-        <v>466.1591155834102</v>
+        <f t="shared" si="68"/>
+        <v>-117.38312000000029</v>
       </c>
       <c r="AP31" s="6">
-        <f t="shared" si="82"/>
-        <v>606.16686720114296</v>
+        <f t="shared" si="68"/>
+        <v>53.50308720000055</v>
       </c>
       <c r="AQ31" s="6">
-        <f t="shared" si="82"/>
-        <v>600.9134789109512</v>
+        <f t="shared" si="68"/>
+        <v>322.17830064800057</v>
       </c>
       <c r="AR31" s="6">
-        <f t="shared" si="82"/>
-        <v>744.87506327743188</v>
+        <f t="shared" si="68"/>
+        <v>399.29220544312881</v>
       </c>
       <c r="AS31" s="6">
-        <f t="shared" si="82"/>
-        <v>768.90181596764319</v>
+        <f t="shared" si="68"/>
+        <v>534.05218328176079</v>
       </c>
       <c r="AT31" s="6">
-        <f t="shared" si="82"/>
-        <v>924.77478782860703</v>
-      </c>
-      <c r="AU31" s="2">
-        <f t="shared" ref="AU31:CF31" si="83">AT31*(1+$AX$64)</f>
-        <v>924.77478782860703</v>
-      </c>
-      <c r="AV31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
-      </c>
-      <c r="AW31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="68"/>
+        <v>533.52425682199839</v>
+      </c>
+      <c r="AU31" s="6">
+        <f t="shared" si="68"/>
+        <v>672.35816923492007</v>
+      </c>
+      <c r="AV31" s="6">
+        <f t="shared" si="68"/>
+        <v>697.53954589327054</v>
+      </c>
+      <c r="AW31" s="6">
+        <f t="shared" si="68"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="AX31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" ref="AX31:CI31" si="69">AW31*(1+$BA$64)</f>
+        <v>848.0675505052094</v>
       </c>
       <c r="AY31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="AZ31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BA31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BB31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BC31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BD31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BE31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BF31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BG31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BH31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BI31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BJ31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BK31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BN31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BO31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BP31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BQ31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BX31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BY31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="BZ31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="CA31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="CB31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="CC31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="CD31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="CE31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
       </c>
       <c r="CF31" s="2">
-        <f t="shared" si="83"/>
-        <v>924.77478782860703</v>
-      </c>
-    </row>
-    <row r="32" spans="2:84" x14ac:dyDescent="0.2">
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
+      </c>
+      <c r="CG31" s="2">
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
+      </c>
+      <c r="CH31" s="2">
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
+      </c>
+      <c r="CI31" s="2">
+        <f t="shared" si="69"/>
+        <v>848.0675505052094</v>
+      </c>
+    </row>
+    <row r="32" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32" si="84">G31/G33</f>
+        <f t="shared" ref="G32" si="70">G31/G33</f>
         <v>-2.4992248062015507</v>
       </c>
       <c r="H32" s="5">
@@ -3710,11 +3811,11 @@
         <v>-1.0030303030303012</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" ref="L32" si="85">L31/L33</f>
+        <f t="shared" ref="L32" si="71">L31/L33</f>
         <v>-0.84848484848484695</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32" si="86">M31/M33</f>
+        <f t="shared" ref="M32" si="72">M31/M33</f>
         <v>-1.388669301712778</v>
       </c>
       <c r="N32" s="5">
@@ -3726,112 +3827,115 @@
         <v>-2.0803689064558624</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" ref="P32:R32" si="87">P31/P33</f>
+        <f t="shared" ref="P32:R32" si="73">P31/P33</f>
         <v>-0.34911242603550285</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="73"/>
         <v>-0.31262327416173546</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="87"/>
-        <v>-4.7827416173569642E-2</v>
+        <f t="shared" si="73"/>
+        <v>0.13213675213675227</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" ref="S32:V32" si="88">S31/S33</f>
-        <v>-0.42764497041420124</v>
+        <f t="shared" ref="S32:V32" si="74">S31/S33</f>
+        <v>-0.18014464168310304</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="88"/>
-        <v>-0.39902695595003307</v>
+        <f t="shared" si="74"/>
+        <v>-1.0498687664042071E-2</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="88"/>
-        <v>-0.3623734385272846</v>
+        <f t="shared" si="74"/>
+        <v>-1.0153946937438731E-2</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="88"/>
-        <v>3.7749654832347608E-2</v>
+        <f t="shared" si="74"/>
+        <v>0.23092040615787701</v>
       </c>
       <c r="W32" s="5"/>
-      <c r="AB32" s="5">
-        <f t="shared" ref="AB32" si="89">AB31/AB33</f>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AE32" s="5">
+        <f t="shared" ref="AE32" si="75">AE31/AE33</f>
         <v>4.6402027027027044</v>
       </c>
-      <c r="AC32" s="5">
-        <f t="shared" ref="AC32" si="90">AC31/AC33</f>
+      <c r="AF32" s="5">
+        <f t="shared" ref="AF32" si="76">AF31/AF33</f>
         <v>4.8560070671378055</v>
       </c>
-      <c r="AD32" s="5">
-        <f t="shared" ref="AD32" si="91">AD31/AD33</f>
+      <c r="AG32" s="5">
+        <f t="shared" ref="AG32" si="77">AG31/AG33</f>
         <v>5.2858481724461033</v>
       </c>
-      <c r="AE32" s="5">
-        <f t="shared" ref="AE32:AF32" si="92">AE31/AE33</f>
+      <c r="AH32" s="5">
+        <f t="shared" ref="AH32:AI32" si="78">AH31/AH33</f>
         <v>5.3198458574181053</v>
       </c>
-      <c r="AF32" s="5">
-        <f t="shared" si="92"/>
+      <c r="AI32" s="5">
+        <f t="shared" si="78"/>
         <v>3.6108374384236339</v>
       </c>
-      <c r="AG32" s="5">
-        <f t="shared" ref="AG32:AH32" si="93">AG31/AG33</f>
+      <c r="AJ32" s="5">
+        <f t="shared" ref="AJ32:AK32" si="79">AJ31/AJ33</f>
         <v>2.1655239960822663</v>
       </c>
-      <c r="AH32" s="5">
-        <f t="shared" si="93"/>
+      <c r="AK32" s="5">
+        <f t="shared" si="79"/>
         <v>-0.90057142857143135</v>
       </c>
-      <c r="AI32" s="5">
-        <f>AI31/AI33</f>
+      <c r="AL32" s="5">
+        <f>AL31/AL33</f>
         <v>-3.5615384615384764</v>
       </c>
-      <c r="AJ32" s="5">
-        <f>AJ31/AJ33</f>
+      <c r="AM32" s="5">
+        <f>AM31/AM33</f>
         <v>-5.1597796143250649</v>
       </c>
-      <c r="AK32" s="5">
-        <f t="shared" ref="AK32:AT32" si="94">AK31/AK33</f>
-        <v>-3.809147823691462</v>
-      </c>
-      <c r="AL32" s="5">
-        <f t="shared" si="94"/>
-        <v>-0.81091108319558025</v>
-      </c>
-      <c r="AM32" s="5">
-        <f t="shared" si="94"/>
-        <v>1.6098466951405128</v>
-      </c>
       <c r="AN32" s="5">
-        <f t="shared" si="94"/>
-        <v>5.409612085709985</v>
+        <f t="shared" ref="AN32:AW32" si="80">AN31/AN33</f>
+        <v>-4.53509641873279</v>
       </c>
       <c r="AO32" s="5">
-        <f t="shared" si="94"/>
-        <v>6.4209244570717665</v>
+        <f t="shared" si="80"/>
+        <v>-1.6168473829201142</v>
       </c>
       <c r="AP32" s="5">
-        <f t="shared" si="94"/>
-        <v>8.3494058843132652</v>
+        <f t="shared" si="80"/>
+        <v>0.73695712396694979</v>
       </c>
       <c r="AQ32" s="5">
-        <f t="shared" si="94"/>
-        <v>8.2770451640626899</v>
+        <f t="shared" si="80"/>
+        <v>4.4377176397796223</v>
       </c>
       <c r="AR32" s="5">
-        <f t="shared" si="94"/>
-        <v>10.259987097485288</v>
+        <f t="shared" si="80"/>
+        <v>5.4998926369576973</v>
       </c>
       <c r="AS32" s="5">
-        <f t="shared" si="94"/>
-        <v>10.59093410423751</v>
+        <f t="shared" si="80"/>
+        <v>7.3560906788121327</v>
       </c>
       <c r="AT32" s="5">
-        <f t="shared" si="94"/>
-        <v>12.737944735931228</v>
-      </c>
-    </row>
-    <row r="33" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="80"/>
+        <v>7.3488189644903361</v>
+      </c>
+      <c r="AU32" s="5">
+        <f t="shared" si="80"/>
+        <v>9.2611318076435278</v>
+      </c>
+      <c r="AV32" s="5">
+        <f t="shared" si="80"/>
+        <v>9.6079827258026249</v>
+      </c>
+      <c r="AW32" s="5">
+        <f t="shared" si="80"/>
+        <v>11.68137121908002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
@@ -3877,96 +3981,97 @@
         <v>304.2</v>
       </c>
       <c r="S33" s="6">
-        <f t="shared" ref="S33:V33" si="95">R33</f>
+        <f t="shared" ref="S33:V33" si="81">R33</f>
         <v>304.2</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" si="95"/>
-        <v>304.2</v>
+        <v>304.8</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="95"/>
-        <v>304.2</v>
+        <v>305.3</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="95"/>
-        <v>304.2</v>
+        <f t="shared" si="81"/>
+        <v>305.3</v>
       </c>
       <c r="W33" s="6"/>
-      <c r="AB33" s="6">
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AE33" s="6">
         <v>118.4</v>
       </c>
-      <c r="AC33" s="6">
+      <c r="AF33" s="6">
         <v>113.2</v>
       </c>
-      <c r="AD33" s="6">
+      <c r="AG33" s="6">
         <v>106.7</v>
       </c>
-      <c r="AE33" s="6">
+      <c r="AH33" s="6">
         <v>103.8</v>
       </c>
-      <c r="AF33" s="6">
+      <c r="AI33" s="6">
         <v>101.5</v>
       </c>
-      <c r="AG33" s="6">
+      <c r="AJ33" s="6">
         <v>102.1</v>
       </c>
-      <c r="AH33" s="6">
+      <c r="AK33" s="6">
         <v>87.5</v>
       </c>
-      <c r="AI33" s="6">
+      <c r="AL33" s="6">
         <v>65</v>
       </c>
-      <c r="AJ33" s="6">
+      <c r="AM33" s="6">
         <v>72.599999999999994</v>
       </c>
-      <c r="AK33" s="6">
-        <f>AJ33</f>
+      <c r="AN33" s="6">
+        <f>AM33</f>
         <v>72.599999999999994</v>
       </c>
-      <c r="AL33" s="6">
-        <f t="shared" ref="AL33:AT33" si="96">AK33</f>
+      <c r="AO33" s="6">
+        <f t="shared" ref="AO33:AW33" si="82">AN33</f>
         <v>72.599999999999994</v>
       </c>
-      <c r="AM33" s="6">
-        <f t="shared" si="96"/>
+      <c r="AP33" s="6">
+        <f t="shared" si="82"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AN33" s="6">
-        <f t="shared" si="96"/>
+      <c r="AQ33" s="6">
+        <f t="shared" si="82"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AO33" s="6">
-        <f t="shared" si="96"/>
+      <c r="AR33" s="6">
+        <f t="shared" si="82"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AP33" s="6">
-        <f t="shared" si="96"/>
+      <c r="AS33" s="6">
+        <f t="shared" si="82"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AQ33" s="6">
-        <f t="shared" si="96"/>
+      <c r="AT33" s="6">
+        <f t="shared" si="82"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AR33" s="6">
-        <f t="shared" si="96"/>
+      <c r="AU33" s="6">
+        <f t="shared" si="82"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AS33" s="6">
-        <f t="shared" si="96"/>
+      <c r="AV33" s="6">
+        <f t="shared" si="82"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="AT33" s="6">
-        <f t="shared" si="96"/>
+      <c r="AW33" s="6">
+        <f t="shared" si="82"/>
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-    </row>
-    <row r="35" spans="2:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+    </row>
+    <row r="35" spans="2:49" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>33</v>
       </c>
@@ -3999,7 +4104,7 @@
         <v>7.9573934837092741E-2</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" ref="P35:R35" si="97">P23/L23-1</f>
+        <f t="shared" ref="P35:R35" si="83">P23/L23-1</f>
         <v>-4.0054081460199509E-2</v>
       </c>
       <c r="Q35" s="12">
@@ -4007,157 +4112,163 @@
         <v>-8.5300015424957687E-2</v>
       </c>
       <c r="R35" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="83"/>
+        <v>-1.2023603531656435E-2</v>
+      </c>
+      <c r="S35" s="12">
+        <f t="shared" ref="S35" si="84">S23/O23-1</f>
+        <v>-0.10258270458502616</v>
+      </c>
+      <c r="T35" s="12">
+        <f t="shared" ref="T35" si="85">T23/P23-1</f>
+        <v>2.4471830985915544E-2</v>
+      </c>
+      <c r="U35" s="12">
+        <f t="shared" ref="U35" si="86">U23/Q23-1</f>
+        <v>-9.0809443507588572E-2</v>
+      </c>
+      <c r="V35" s="12">
+        <f t="shared" ref="V35:W35" si="87">V23/R23-1</f>
+        <v>-0.19449434165618829</v>
+      </c>
+      <c r="W35" s="12">
+        <f t="shared" si="87"/>
+        <v>-0.28698464025869042</v>
+      </c>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="12">
+        <f t="shared" ref="AF35:AO35" si="88">AF23/AE23-1</f>
+        <v>2.8375463244648458E-2</v>
+      </c>
+      <c r="AG35" s="12">
+        <f t="shared" si="88"/>
+        <v>7.293459552495607E-3</v>
+      </c>
+      <c r="AH35" s="12">
+        <f t="shared" si="88"/>
+        <v>-8.0725773724342642E-2</v>
+      </c>
+      <c r="AI35" s="12">
+        <f t="shared" si="88"/>
+        <v>-7.0632790808444756E-3</v>
+      </c>
+      <c r="AJ35" s="12">
+        <f t="shared" si="88"/>
+        <v>-3.0630272256086832E-2</v>
+      </c>
+      <c r="AK35" s="12">
+        <f t="shared" si="88"/>
+        <v>-0.21958166873860929</v>
+      </c>
+      <c r="AL35" s="12">
+        <f t="shared" si="88"/>
+        <v>-0.21283637488400875</v>
+      </c>
+      <c r="AM35" s="12">
+        <f t="shared" si="88"/>
+        <v>0.18093048842783621</v>
+      </c>
+      <c r="AN35" s="12">
+        <f t="shared" si="88"/>
+        <v>-1.3891892791189075E-2</v>
+      </c>
+      <c r="AO35" s="12">
+        <f t="shared" si="88"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AP35" s="12">
+        <f t="shared" ref="AP35:AW35" si="89">AP23/AO23-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AQ35" s="12">
+        <f t="shared" si="89"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AR35" s="12">
+        <f>AR23/AQ23-1</f>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="AS35" s="12">
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S35" s="12">
-        <f t="shared" ref="S35" si="98">S23/O23-1</f>
+      <c r="AT35" s="12">
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T35" s="12">
-        <f t="shared" ref="T35" si="99">T23/P23-1</f>
+      <c r="AU35" s="12">
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U35" s="12">
-        <f t="shared" ref="U35" si="100">U23/Q23-1</f>
+      <c r="AV35" s="12">
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V35" s="12">
-        <f t="shared" ref="V35" si="101">V23/R23-1</f>
+      <c r="AW35" s="12">
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="W35" s="12"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="12">
-        <f t="shared" ref="AC35:AL35" si="102">AC23/AB23-1</f>
-        <v>2.8375463244648458E-2</v>
-      </c>
-      <c r="AD35" s="12">
-        <f t="shared" si="102"/>
-        <v>7.293459552495607E-3</v>
-      </c>
-      <c r="AE35" s="12">
-        <f t="shared" si="102"/>
-        <v>-8.0725773724342642E-2</v>
-      </c>
-      <c r="AF35" s="12">
-        <f t="shared" si="102"/>
-        <v>-7.0632790808444756E-3</v>
-      </c>
-      <c r="AG35" s="12">
-        <f t="shared" si="102"/>
-        <v>-3.0630272256086832E-2</v>
-      </c>
-      <c r="AH35" s="12">
-        <f t="shared" si="102"/>
-        <v>-0.21958166873860929</v>
-      </c>
-      <c r="AI35" s="12">
-        <f t="shared" si="102"/>
-        <v>-0.21283637488400875</v>
-      </c>
-      <c r="AJ35" s="12">
-        <f t="shared" si="102"/>
-        <v>0.18093048842783621</v>
-      </c>
-      <c r="AK35" s="12">
-        <f t="shared" si="102"/>
-        <v>9.3657976608383375E-3</v>
-      </c>
-      <c r="AL35" s="12">
-        <f t="shared" si="102"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AM35" s="12">
-        <f t="shared" ref="AM35:AT35" si="103">AM23/AL23-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AN35" s="12">
-        <f t="shared" si="103"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AO35" s="12">
-        <f>AO23/AN23-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AP35" s="12">
-        <f t="shared" si="103"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AQ35" s="12">
-        <f t="shared" si="103"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AR35" s="12">
-        <f t="shared" si="103"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AS35" s="12">
-        <f t="shared" si="103"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AT35" s="12">
-        <f t="shared" si="103"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" ref="K36:K37" si="104">K20/G20-1</f>
+        <f t="shared" ref="K36:K37" si="90">K20/G20-1</f>
         <v>0.37107776261937242</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" ref="L36:L37" si="105">L20/H20-1</f>
+        <f t="shared" ref="L36:L37" si="91">L20/H20-1</f>
         <v>0.38043478260869557</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" ref="M36:M37" si="106">M20/I20-1</f>
+        <f t="shared" ref="M36:M37" si="92">M20/I20-1</f>
         <v>0.62046444121915822</v>
       </c>
       <c r="N36" s="9">
-        <f t="shared" ref="N36:O37" si="107">N20/J20-1</f>
+        <f t="shared" ref="N36:O37" si="93">N20/J20-1</f>
         <v>2.2361744216048862E-2</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="93"/>
         <v>-4.2217484008528872E-2</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" ref="P36:P37" si="108">P20/L20-1</f>
+        <f t="shared" ref="P36:P37" si="94">P20/L20-1</f>
         <v>-2.1653543307086687E-2</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" ref="Q36:Q37" si="109">Q20/M20-1</f>
+        <f t="shared" ref="Q36:Q37" si="95">Q20/M20-1</f>
         <v>-6.4039408866994996E-2</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" ref="R36:R37" si="110">R20/N20-1</f>
+        <f t="shared" ref="R36:R37" si="96">R20/N20-1</f>
         <v>-1</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" ref="S36:S38" si="111">S20/O20-1</f>
+        <f t="shared" ref="S36:S38" si="97">S20/O20-1</f>
         <v>-1</v>
       </c>
       <c r="T36" s="9">
-        <f t="shared" ref="T36:T38" si="112">T20/P20-1</f>
+        <f t="shared" ref="T36:T38" si="98">T20/P20-1</f>
         <v>-1</v>
       </c>
       <c r="U36" s="9">
-        <f t="shared" ref="U36:U38" si="113">U20/Q20-1</f>
+        <f t="shared" ref="U36:U38" si="99">U20/Q20-1</f>
         <v>-1</v>
       </c>
       <c r="V36" s="9" t="e">
-        <f t="shared" ref="V36:V38" si="114">V20/R20-1</f>
+        <f t="shared" ref="V36:V38" si="100">V20/R20-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W36" s="9"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AI36" s="4"/>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
       <c r="AL36" s="9"/>
@@ -4169,64 +4280,67 @@
       <c r="AR36" s="9"/>
       <c r="AS36" s="9"/>
       <c r="AT36" s="9"/>
-    </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+    </row>
+    <row r="37" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="90"/>
         <v>-4.5803357314148752E-2</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="91"/>
         <v>2.6131953428201848E-2</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="92"/>
         <v>-2.2277227722772186E-2</v>
       </c>
       <c r="N37" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="93"/>
         <v>7.480853391684894E-2</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" ref="O37" si="115">O21/K21-1</f>
+        <f t="shared" ref="O37" si="101">O21/K21-1</f>
         <v>0.21563206835888415</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="94"/>
         <v>-0.20221886031265768</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="95"/>
         <v>-0.18964326812428078</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="99"/>
         <v>-1</v>
       </c>
       <c r="V37" s="9" t="e">
-        <f t="shared" si="114"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W37" s="9"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AI37" s="4"/>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
@@ -4238,25 +4352,28 @@
       <c r="AR37" s="9"/>
       <c r="AS37" s="9"/>
       <c r="AT37" s="9"/>
-    </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+    </row>
+    <row r="38" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>106</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" ref="K38:N38" si="116">K22/G22-1</f>
+        <f t="shared" ref="K38:N38" si="102">K22/G22-1</f>
         <v>0.92959295929592956</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="102"/>
         <v>0.55575065847234395</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="102"/>
         <v>0.30837304288631717</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="102"/>
         <v>0.2239263803680982</v>
       </c>
       <c r="O38" s="9">
@@ -4264,126 +4381,129 @@
         <v>0.25940706955530213</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" ref="P38:R38" si="117">P22/L22-1</f>
+        <f t="shared" ref="P38:R38" si="103">P22/L22-1</f>
         <v>0.25959367945823919</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="103"/>
         <v>7.8563995837669154E-2</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="117"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="103"/>
+        <v>-1</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="111"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="97"/>
+        <v>-1</v>
       </c>
       <c r="T38" s="9">
-        <f t="shared" si="112"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="U38" s="9">
-        <f t="shared" si="113"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="V38" s="9">
-        <f t="shared" si="114"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="99"/>
+        <v>-1</v>
+      </c>
+      <c r="V38" s="9" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W38" s="9"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="9">
-        <f>AG22/AF22-1</f>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="9">
+        <f>AJ22/AI22-1</f>
         <v>0.11207167557371878</v>
       </c>
-      <c r="AH38" s="9">
-        <f t="shared" ref="AH38:AT38" si="118">AH22/AG22-1</f>
+      <c r="AK38" s="9">
+        <f t="shared" ref="AK38:AW38" si="104">AK22/AJ22-1</f>
         <v>4.2402826855123754E-2</v>
       </c>
-      <c r="AI38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AL38" s="9">
+        <f t="shared" si="104"/>
         <v>-0.21369491525423734</v>
       </c>
-      <c r="AJ38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AM38" s="9">
+        <f t="shared" si="104"/>
         <v>0.42127953095361281</v>
       </c>
-      <c r="AK38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AN38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AO38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AP38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AQ38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AO38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AR38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AS38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AT38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AR38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AU38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AS38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AV38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AT38" s="9">
-        <f t="shared" si="118"/>
+      <c r="AW38" s="9">
+        <f t="shared" si="104"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" ref="G39" si="119">G25/G23</f>
+        <f t="shared" ref="G39" si="105">G25/G23</f>
         <v>0.27659157688540642</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" ref="H39:N39" si="120">H25/H23</f>
+        <f t="shared" ref="H39:N39" si="106">H25/H23</f>
         <v>0.26772823779193211</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="106"/>
         <v>0.27500746491489997</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="106"/>
         <v>0.21139437349795012</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="106"/>
         <v>0.25853696741854643</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="106"/>
         <v>0.27116782153118141</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="106"/>
         <v>0.24571957427117083</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="106"/>
         <v>0.16779803895470075</v>
       </c>
       <c r="O39" s="9">
@@ -4395,141 +4515,144 @@
         <v>0.24841549295774651</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" ref="Q39:R39" si="121">Q25/Q23</f>
+        <f t="shared" ref="Q39:R39" si="107">Q25/Q23</f>
         <v>0.24553119730185502</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="121"/>
-        <v>0.22000000000000003</v>
+        <f t="shared" si="107"/>
+        <v>0.22</v>
       </c>
       <c r="S39" s="9">
-        <f t="shared" ref="S39:V39" si="122">S25/S23</f>
-        <v>0.21999999999999997</v>
+        <f t="shared" ref="S39:V39" si="108">S25/S23</f>
+        <v>0.2321746160064673</v>
       </c>
       <c r="T39" s="9">
-        <f t="shared" si="122"/>
-        <v>0.21999999999999995</v>
+        <f t="shared" si="108"/>
+        <v>0.26284584980237152</v>
       </c>
       <c r="U39" s="9">
-        <f t="shared" si="122"/>
-        <v>0.22</v>
+        <f t="shared" si="108"/>
+        <v>0.26133729017898538</v>
       </c>
       <c r="V39" s="9">
-        <f t="shared" si="122"/>
-        <v>0.22</v>
+        <f t="shared" si="108"/>
+        <v>0.2337626135920165</v>
       </c>
       <c r="W39" s="9"/>
-      <c r="AB39" s="9">
-        <f t="shared" ref="AB39" si="123">AB25/AB23</f>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AE39" s="9">
+        <f t="shared" ref="AE39" si="109">AE25/AE23</f>
         <v>0.29438575142430451</v>
       </c>
-      <c r="AC39" s="9">
-        <f t="shared" ref="AC39" si="124">AC25/AC23</f>
+      <c r="AF39" s="9">
+        <f t="shared" ref="AF39" si="110">AF25/AF23</f>
         <v>0.29861230636833042</v>
       </c>
-      <c r="AD39" s="9">
-        <f t="shared" ref="AD39:AG39" si="125">AD25/AD23</f>
+      <c r="AG39" s="9">
+        <f t="shared" ref="AG39:AJ39" si="111">AG25/AG23</f>
         <v>0.31165766035156661</v>
       </c>
-      <c r="AE39" s="9">
-        <f t="shared" si="125"/>
+      <c r="AH39" s="9">
+        <f t="shared" si="111"/>
         <v>0.34959746279580378</v>
       </c>
-      <c r="AF39" s="9">
-        <f t="shared" si="125"/>
+      <c r="AI39" s="9">
+        <f t="shared" si="111"/>
         <v>0.29073018918697557</v>
       </c>
-      <c r="AG39" s="9">
-        <f t="shared" si="125"/>
+      <c r="AJ39" s="9">
+        <f t="shared" si="111"/>
         <v>0.27857772198954772</v>
       </c>
-      <c r="AH39" s="9">
-        <f t="shared" ref="AH39" si="126">AH25/AH23</f>
+      <c r="AK39" s="9">
+        <f t="shared" ref="AK39" si="112">AK25/AK23</f>
         <v>0.29519022579647386</v>
       </c>
-      <c r="AI39" s="9">
-        <f t="shared" ref="AI39:AJ39" si="127">AI25/AI23</f>
+      <c r="AL39" s="9">
+        <f t="shared" ref="AL39:AM39" si="113">AL25/AL23</f>
         <v>0.24745569570513562</v>
       </c>
-      <c r="AJ39" s="9">
-        <f t="shared" si="127"/>
+      <c r="AM39" s="9">
+        <f t="shared" si="113"/>
         <v>0.22423345034688144</v>
       </c>
-      <c r="AK39" s="9">
-        <f t="shared" ref="AK39:AT39" si="128">AK25/AK23</f>
-        <v>0.22999999999999993</v>
-      </c>
-      <c r="AL39" s="9">
-        <f t="shared" si="128"/>
+      <c r="AN39" s="9">
+        <f t="shared" ref="AN39:AW39" si="114">AN25/AN23</f>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="AO39" s="9">
+        <f t="shared" si="114"/>
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="AP39" s="9">
+        <f t="shared" si="114"/>
         <v>0.24000000000000005</v>
       </c>
-      <c r="AM39" s="9">
-        <f t="shared" si="128"/>
-        <v>0.24000000000000005</v>
-      </c>
-      <c r="AN39" s="9">
-        <f t="shared" si="128"/>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="AO39" s="9">
-        <f t="shared" si="128"/>
-        <v>0.24999999999999994</v>
-      </c>
-      <c r="AP39" s="9">
-        <f t="shared" si="128"/>
+      <c r="AQ39" s="9">
+        <f t="shared" si="114"/>
+        <v>0.25</v>
+      </c>
+      <c r="AR39" s="9">
+        <f t="shared" si="114"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="AS39" s="9">
+        <f t="shared" si="114"/>
         <v>0.26</v>
       </c>
-      <c r="AQ39" s="9">
-        <f t="shared" si="128"/>
-        <v>0.25999999999999995</v>
-      </c>
-      <c r="AR39" s="9">
-        <f t="shared" si="128"/>
-        <v>0.27</v>
-      </c>
-      <c r="AS39" s="9">
-        <f t="shared" si="128"/>
+      <c r="AT39" s="9">
+        <f t="shared" si="114"/>
+        <v>0.26</v>
+      </c>
+      <c r="AU39" s="9">
+        <f t="shared" si="114"/>
         <v>0.27000000000000007</v>
       </c>
-      <c r="AT39" s="9">
-        <f t="shared" si="128"/>
+      <c r="AV39" s="9">
+        <f t="shared" si="114"/>
+        <v>0.27000000000000007</v>
+      </c>
+      <c r="AW39" s="9">
+        <f t="shared" si="114"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>100</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" ref="G40:N40" si="129">G29/G23</f>
+        <f t="shared" ref="G40:N40" si="115">G29/G23</f>
         <v>-0.10852105778648387</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="115"/>
         <v>-0.10987261146496809</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="115"/>
         <v>-9.3361202348959921E-2</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="115"/>
         <v>1.003722727486918E-2</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="115"/>
         <v>-5.0830200501253031E-2</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="115"/>
         <v>-4.9433834713537163E-2</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="115"/>
         <v>-7.9978405059385971E-2</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="115"/>
         <v>-7.169794578286523E-2</v>
       </c>
       <c r="O40" s="9">
@@ -4537,145 +4660,148 @@
         <v>-0.11201392919326754</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" ref="P40:R40" si="130">P29/P23</f>
+        <f t="shared" ref="P40:R40" si="116">P29/P23</f>
         <v>-9.2429577464788693E-2</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" si="130"/>
+        <f t="shared" si="116"/>
         <v>-7.8414839797639066E-2</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="130"/>
-        <v>-6.1476932047941808E-3</v>
+        <f t="shared" si="116"/>
+        <v>1.8051014909286889E-2</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" ref="S40:V40" si="131">S29/S23</f>
-        <v>-8.9883094270790151E-2</v>
+        <f t="shared" ref="S40:V40" si="117">S29/S23</f>
+        <v>-4.4300727566693565E-2</v>
       </c>
       <c r="T40" s="9">
-        <f t="shared" si="131"/>
-        <v>-0.10176391683433943</v>
+        <f t="shared" si="117"/>
+        <v>-2.5777625021481555E-3</v>
       </c>
       <c r="U40" s="9">
-        <f t="shared" si="131"/>
-        <v>-8.8520035332851493E-2</v>
+        <f t="shared" si="117"/>
+        <v>-3.9877585087638367E-3</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" si="131"/>
-        <v>4.621244566862694E-3</v>
+        <f t="shared" si="117"/>
+        <v>3.9304231476835517E-2</v>
       </c>
       <c r="W40" s="9"/>
-      <c r="AB40" s="9">
-        <f t="shared" ref="AB40" si="132">AB27/AB23</f>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AE40" s="9">
+        <f t="shared" ref="AE40" si="118">AE27/AE23</f>
         <v>8.5037889263786748E-2</v>
       </c>
-      <c r="AC40" s="9">
-        <f t="shared" ref="AC40" si="133">AC27/AC23</f>
+      <c r="AF40" s="9">
+        <f t="shared" ref="AF40" si="119">AF27/AF23</f>
         <v>8.3358433734939716E-2</v>
       </c>
-      <c r="AD40" s="9">
-        <f t="shared" ref="AD40:AJ40" si="134">AD27/AD23</f>
+      <c r="AG40" s="9">
+        <f t="shared" ref="AG40:AM40" si="120">AG27/AG23</f>
         <v>8.6439266109912566E-2</v>
       </c>
-      <c r="AE40" s="9">
-        <f t="shared" si="134"/>
+      <c r="AH40" s="9">
+        <f t="shared" si="120"/>
         <v>8.7907619744653095E-2</v>
       </c>
-      <c r="AF40" s="9">
-        <f t="shared" si="134"/>
+      <c r="AI40" s="9">
+        <f t="shared" si="120"/>
         <v>6.7309379789636123E-2</v>
       </c>
-      <c r="AG40" s="9">
-        <f t="shared" si="134"/>
+      <c r="AJ40" s="9">
+        <f t="shared" si="120"/>
         <v>3.7886377077474498E-2</v>
       </c>
-      <c r="AH40" s="9">
-        <f t="shared" si="134"/>
+      <c r="AK40" s="9">
+        <f t="shared" si="120"/>
         <v>-2.1651716671822188E-3</v>
       </c>
-      <c r="AI40" s="9">
-        <f t="shared" si="134"/>
+      <c r="AL40" s="9">
+        <f t="shared" si="120"/>
         <v>-5.0041258988565561E-2</v>
       </c>
-      <c r="AJ40" s="9">
-        <f t="shared" si="134"/>
+      <c r="AM40" s="9">
+        <f t="shared" si="120"/>
         <v>-6.0192656429367587E-2</v>
       </c>
-      <c r="AK40" s="9">
-        <f>AK27/AK23</f>
-        <v>-4.8969077772439251E-2</v>
-      </c>
-      <c r="AL40" s="9">
-        <f t="shared" ref="AL40:AT40" si="135">AL27/AL23</f>
-        <v>-1.1072169995195181E-2</v>
-      </c>
-      <c r="AM40" s="9">
-        <f t="shared" si="135"/>
-        <v>1.4035047004324376E-2</v>
-      </c>
       <c r="AN40" s="9">
-        <f t="shared" si="135"/>
-        <v>4.6631542303891875E-2</v>
+        <f>AN27/AN23</f>
+        <v>-5.5548657038736758E-2</v>
       </c>
       <c r="AO40" s="9">
-        <f t="shared" si="135"/>
-        <v>5.8252597029383756E-2</v>
+        <f t="shared" ref="AO40:AW40" si="121">AO27/AO23</f>
+        <v>-1.6993791334863048E-2</v>
       </c>
       <c r="AP40" s="9">
-        <f t="shared" si="135"/>
-        <v>7.1904928514538405E-2</v>
+        <f t="shared" si="121"/>
+        <v>8.7055877986233748E-3</v>
       </c>
       <c r="AQ40" s="9">
-        <f t="shared" si="135"/>
-        <v>7.5487691780928109E-2</v>
+        <f t="shared" si="121"/>
+        <v>4.1835029018761037E-2</v>
       </c>
       <c r="AR40" s="9">
-        <f t="shared" si="135"/>
-        <v>8.9002211937481937E-2</v>
+        <f t="shared" si="121"/>
+        <v>5.3730170217689006E-2</v>
       </c>
       <c r="AS40" s="9">
-        <f t="shared" si="135"/>
-        <v>9.2449788852958487E-2</v>
+        <f t="shared" si="121"/>
+        <v>6.7468643165923464E-2</v>
       </c>
       <c r="AT40" s="9">
-        <f t="shared" si="135"/>
-        <v>0.1058316976367116</v>
-      </c>
-    </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
+        <f t="shared" si="121"/>
+        <v>7.1135907105620164E-2</v>
+      </c>
+      <c r="AU40" s="9">
+        <f t="shared" si="121"/>
+        <v>8.4733318398846541E-2</v>
+      </c>
+      <c r="AV40" s="9">
+        <f t="shared" si="121"/>
+        <v>8.8262207572201823E-2</v>
+      </c>
+      <c r="AW40" s="9">
+        <f t="shared" si="121"/>
+        <v>0.10172387980892174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>99</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" ref="G41:N41" si="136">G30/G29</f>
+        <f t="shared" ref="G41:N41" si="122">G30/G29</f>
         <v>-0.45487364620938614</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="122"/>
         <v>-0.17294685990338171</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="122"/>
         <v>0.57462686567164167</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="122"/>
         <v>-3.2723004694835858</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="122"/>
         <v>-2.003081664098617E-2</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="122"/>
         <v>-5.2991452991453095E-2</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="122"/>
         <v>-1.6393442622950841E-2</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="122"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="O41" s="9">
@@ -4683,112 +4809,115 @@
         <v>-2.2668393782383424E-2</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" ref="P41:R41" si="137">P30/P29</f>
+        <f t="shared" ref="P41:R41" si="123">P30/P29</f>
         <v>-1.1428571428571432E-2</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="123"/>
         <v>-2.2580645161290342E-2</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="S41" s="9">
-        <f t="shared" ref="S41:V41" si="138">S30/S29</f>
+        <f t="shared" ref="S41:V41" si="124">S30/S29</f>
         <v>0</v>
       </c>
       <c r="T41" s="9">
-        <f t="shared" si="138"/>
-        <v>0</v>
+        <f t="shared" si="124"/>
+        <v>-6.6666666666666152E-2</v>
       </c>
       <c r="U41" s="9">
-        <f t="shared" si="138"/>
-        <v>0</v>
+        <f t="shared" si="124"/>
+        <v>0.27906976744185752</v>
       </c>
       <c r="V41" s="9">
-        <f t="shared" si="138"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="W41" s="9"/>
-      <c r="AB41" s="9">
-        <f t="shared" ref="AB41" si="139">AB30/AB29</f>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AE41" s="9">
+        <f t="shared" ref="AE41" si="125">AE30/AE29</f>
         <v>0.28089005235602083</v>
       </c>
-      <c r="AC41" s="9">
-        <f t="shared" ref="AC41" si="140">AC30/AC29</f>
+      <c r="AF41" s="9">
+        <f t="shared" ref="AF41" si="126">AF30/AF29</f>
         <v>0.2813439665315729</v>
       </c>
-      <c r="AD41" s="9">
-        <f t="shared" ref="AD41:AJ41" si="141">AD30/AD29</f>
+      <c r="AG41" s="9">
+        <f t="shared" ref="AG41:AM41" si="127">AG30/AG29</f>
         <v>0.28280773143438481</v>
       </c>
-      <c r="AE41" s="9">
-        <f t="shared" si="141"/>
+      <c r="AH41" s="9">
+        <f t="shared" si="127"/>
         <v>0.21529060679266754</v>
       </c>
-      <c r="AF41" s="9">
-        <f t="shared" si="141"/>
+      <c r="AI41" s="9">
+        <f t="shared" si="127"/>
         <v>0.29519230769230836</v>
       </c>
-      <c r="AG41" s="9">
-        <f t="shared" si="141"/>
+      <c r="AJ41" s="9">
+        <f t="shared" si="127"/>
         <v>0.15867579908675838</v>
       </c>
-      <c r="AH41" s="9">
-        <f t="shared" si="141"/>
+      <c r="AK41" s="9">
+        <f t="shared" si="127"/>
         <v>-0.9126213592232959</v>
       </c>
-      <c r="AI41" s="9">
-        <f t="shared" si="141"/>
+      <c r="AL41" s="9">
+        <f t="shared" si="127"/>
         <v>0.19281729428172875</v>
       </c>
-      <c r="AJ41" s="9">
-        <f t="shared" si="141"/>
+      <c r="AM41" s="9">
+        <f t="shared" si="127"/>
         <v>3.6274762027270417E-2</v>
       </c>
-      <c r="AK41" s="9">
-        <f>AK30/AK29</f>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="9">
-        <f t="shared" ref="AL41:AT41" si="142">AL30/AL29</f>
-        <v>0</v>
-      </c>
-      <c r="AM41" s="9">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
       <c r="AN41" s="9">
-        <f t="shared" si="142"/>
+        <f>AN30/AN29</f>
         <v>0</v>
       </c>
       <c r="AO41" s="9">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="AO41:AW41" si="128">AO30/AO29</f>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="9">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="9">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="AR41" s="9">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AP41" s="9">
-        <f t="shared" si="142"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="AQ41" s="9">
-        <f t="shared" si="142"/>
+      <c r="AS41" s="9">
+        <f t="shared" si="128"/>
+        <v>0.1</v>
+      </c>
+      <c r="AT41" s="9">
+        <f t="shared" si="128"/>
         <v>0.2</v>
       </c>
-      <c r="AR41" s="9">
-        <f t="shared" si="142"/>
+      <c r="AU41" s="9">
+        <f t="shared" si="128"/>
         <v>0.2</v>
       </c>
-      <c r="AS41" s="9">
-        <f t="shared" si="142"/>
+      <c r="AV41" s="9">
+        <f t="shared" si="128"/>
         <v>0.25</v>
       </c>
-      <c r="AT41" s="9">
-        <f t="shared" si="142"/>
+      <c r="AW41" s="9">
+        <f t="shared" si="128"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
@@ -4819,77 +4948,68 @@
         <f>803.8+238.3</f>
         <v>1042.0999999999999</v>
       </c>
-      <c r="R43" s="6">
-        <f>Q43+R31</f>
-        <v>1027.5509</v>
-      </c>
-      <c r="S43" s="6">
-        <f t="shared" ref="S43:V43" si="143">R43+S31</f>
-        <v>897.46129999999994</v>
-      </c>
-      <c r="T43" s="6">
-        <f t="shared" si="143"/>
-        <v>776.07729999999992</v>
-      </c>
-      <c r="U43" s="6">
-        <f t="shared" si="143"/>
-        <v>665.8433</v>
-      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
       <c r="V43" s="6">
-        <f t="shared" si="143"/>
-        <v>677.32674500000019</v>
+        <f>921.7+277.6</f>
+        <v>1199.3000000000002</v>
       </c>
       <c r="W43" s="6"/>
-      <c r="AI43" s="6">
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AL43" s="6">
         <f>N43</f>
         <v>1319.9</v>
       </c>
-      <c r="AJ43" s="6">
+      <c r="AM43" s="6">
         <f>R43</f>
-        <v>1027.5509</v>
-      </c>
-      <c r="AK43" s="6">
-        <f t="shared" ref="AK43:AT43" si="144">AJ43+AK31</f>
-        <v>751.00676799999985</v>
-      </c>
-      <c r="AL43" s="6">
-        <f t="shared" si="144"/>
-        <v>692.13462336000077</v>
-      </c>
-      <c r="AM43" s="6">
-        <f t="shared" si="144"/>
-        <v>809.00949342720196</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="6">
-        <f t="shared" si="144"/>
-        <v>1201.747330849747</v>
+        <f t="shared" ref="AN43:AW43" si="129">AM43+AN31</f>
+        <v>-329.2480000000005</v>
       </c>
       <c r="AO43" s="6">
-        <f t="shared" si="144"/>
-        <v>1667.9064464331573</v>
+        <f t="shared" si="129"/>
+        <v>-446.63112000000081</v>
       </c>
       <c r="AP43" s="6">
-        <f t="shared" si="144"/>
-        <v>2274.0733136343001</v>
+        <f t="shared" si="129"/>
+        <v>-393.12803280000026</v>
       </c>
       <c r="AQ43" s="6">
-        <f t="shared" si="144"/>
-        <v>2874.9867925452513</v>
+        <f t="shared" si="129"/>
+        <v>-70.949732151999683</v>
       </c>
       <c r="AR43" s="6">
-        <f t="shared" si="144"/>
-        <v>3619.8618558226831</v>
+        <f t="shared" si="129"/>
+        <v>328.34247329112912</v>
       </c>
       <c r="AS43" s="6">
-        <f t="shared" si="144"/>
-        <v>4388.763671790326</v>
+        <f t="shared" si="129"/>
+        <v>862.39465657288997</v>
       </c>
       <c r="AT43" s="6">
-        <f t="shared" si="144"/>
-        <v>5313.5384596189333</v>
-      </c>
-    </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
+        <f t="shared" si="129"/>
+        <v>1395.9189133948885</v>
+      </c>
+      <c r="AU43" s="6">
+        <f t="shared" si="129"/>
+        <v>2068.2770826298083</v>
+      </c>
+      <c r="AV43" s="6">
+        <f t="shared" si="129"/>
+        <v>2765.8166285230791</v>
+      </c>
+      <c r="AW43" s="6">
+        <f t="shared" si="129"/>
+        <v>3613.8841790282886</v>
+      </c>
+    </row>
+    <row r="44" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
@@ -4914,8 +5034,11 @@
       <c r="Q44" s="6">
         <v>125.3</v>
       </c>
-    </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="V44" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
@@ -4940,8 +5063,11 @@
       <c r="Q45" s="6">
         <v>1131.3</v>
       </c>
-    </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="V45" s="6">
+        <v>632.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
@@ -4966,8 +5092,9 @@
       <c r="Q46" s="6">
         <v>283.10000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="V46" s="6"/>
+    </row>
+    <row r="47" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
@@ -4992,8 +5119,9 @@
       <c r="Q47" s="6">
         <v>138.5</v>
       </c>
-    </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="V47" s="6"/>
+    </row>
+    <row r="48" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
@@ -5019,8 +5147,9 @@
       <c r="Q48" s="6">
         <v>523.20000000000005</v>
       </c>
-    </row>
-    <row r="49" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V48" s="6"/>
+    </row>
+    <row r="49" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
@@ -5045,8 +5174,9 @@
       <c r="Q49" s="6">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="50" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V49" s="6"/>
+    </row>
+    <row r="50" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>52</v>
       </c>
@@ -5071,8 +5201,9 @@
       <c r="Q50" s="6">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="51" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V50" s="6"/>
+    </row>
+    <row r="51" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>53</v>
       </c>
@@ -5081,15 +5212,15 @@
         <v>2562.6999999999998</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" ref="L51" si="145">SUM(L43:L50)</f>
+        <f t="shared" ref="L51" si="130">SUM(L43:L50)</f>
         <v>3545.8</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" ref="M51" si="146">SUM(M43:M50)</f>
+        <f t="shared" ref="M51" si="131">SUM(M43:M50)</f>
         <v>3762.0000000000005</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" ref="N51" si="147">SUM(N43:N50)</f>
+        <f t="shared" ref="N51" si="132">SUM(N43:N50)</f>
         <v>3499.2999999999997</v>
       </c>
       <c r="O51" s="6">
@@ -5104,11 +5235,13 @@
         <f>SUM(Q43:Q50)</f>
         <v>3322.5</v>
       </c>
-    </row>
-    <row r="52" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V51" s="6"/>
+    </row>
+    <row r="52" spans="2:53" x14ac:dyDescent="0.2">
       <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V52" s="6"/>
+    </row>
+    <row r="53" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>59</v>
       </c>
@@ -5133,8 +5266,9 @@
       <c r="Q53" s="6">
         <v>888.4</v>
       </c>
-    </row>
-    <row r="54" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V53" s="6"/>
+    </row>
+    <row r="54" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>60</v>
       </c>
@@ -5159,8 +5293,9 @@
       <c r="Q54" s="6">
         <v>504.2</v>
       </c>
-    </row>
-    <row r="55" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V54" s="6"/>
+    </row>
+    <row r="55" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>57</v>
       </c>
@@ -5191,8 +5326,9 @@
         <f>186.2+349.6</f>
         <v>535.79999999999995</v>
       </c>
-    </row>
-    <row r="56" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V55" s="6"/>
+    </row>
+    <row r="56" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>4</v>
       </c>
@@ -5222,8 +5358,9 @@
         <f>9.9+28.8</f>
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="57" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V56" s="6"/>
+    </row>
+    <row r="57" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>61</v>
       </c>
@@ -5249,8 +5386,9 @@
       <c r="Q57" s="6">
         <v>110.4</v>
       </c>
-    </row>
-    <row r="58" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V57" s="6"/>
+    </row>
+    <row r="58" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>62</v>
       </c>
@@ -5275,8 +5413,9 @@
       <c r="Q58" s="6">
         <v>1245</v>
       </c>
-    </row>
-    <row r="59" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>63</v>
       </c>
@@ -5293,7 +5432,7 @@
         <v>3762</v>
       </c>
       <c r="N59" s="6">
-        <f t="shared" ref="N59" si="148">SUM(N53:N58)</f>
+        <f t="shared" ref="N59" si="133">SUM(N53:N58)</f>
         <v>3499.3</v>
       </c>
       <c r="O59" s="6">
@@ -5308,13 +5447,14 @@
         <f>SUM(Q53:Q58)</f>
         <v>3322.5</v>
       </c>
-    </row>
-    <row r="60" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="V59" s="6"/>
+    </row>
+    <row r="60" spans="2:53" x14ac:dyDescent="0.2">
       <c r="K60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>34</v>
       </c>
@@ -5327,31 +5467,31 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6">
-        <f t="shared" ref="K61:Q61" si="149">K31</f>
+        <f t="shared" ref="K61:Q61" si="134">K31</f>
         <v>-66.199999999999875</v>
       </c>
       <c r="L61" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="134"/>
         <v>-61.599999999999888</v>
       </c>
       <c r="M61" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="134"/>
         <v>-105.39999999999986</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="134"/>
         <v>-141.39999999999995</v>
       </c>
       <c r="O61" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="134"/>
         <v>-157.89999999999998</v>
       </c>
       <c r="P61" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="134"/>
         <v>-106.19999999999996</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="134"/>
         <v>-95.099999999999923</v>
       </c>
       <c r="R61" s="6"/>
@@ -5360,72 +5500,75 @@
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
       <c r="AE61" s="6"/>
-      <c r="AF61" s="6">
-        <f t="shared" ref="AF61:AT61" si="150">AF31</f>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6">
+        <f t="shared" ref="AI61:AW61" si="135">AI31</f>
         <v>366.49999999999886</v>
       </c>
-      <c r="AG61" s="6">
-        <f t="shared" si="150"/>
+      <c r="AJ61" s="6">
+        <f t="shared" si="135"/>
         <v>221.0999999999994</v>
       </c>
-      <c r="AH61" s="6">
-        <f t="shared" si="150"/>
+      <c r="AK61" s="6">
+        <f t="shared" si="135"/>
         <v>-78.800000000000239</v>
       </c>
-      <c r="AI61" s="6">
-        <f t="shared" si="150"/>
+      <c r="AL61" s="6">
+        <f t="shared" si="135"/>
         <v>-231.50000000000097</v>
       </c>
-      <c r="AJ61" s="6">
-        <f t="shared" si="150"/>
+      <c r="AM61" s="6">
+        <f t="shared" si="135"/>
         <v>-374.59999999999968</v>
       </c>
-      <c r="AK61" s="6">
-        <f t="shared" si="150"/>
-        <v>-276.5441320000001</v>
-      </c>
-      <c r="AL61" s="6">
-        <f t="shared" si="150"/>
-        <v>-58.872144639999121</v>
-      </c>
-      <c r="AM61" s="6">
-        <f t="shared" si="150"/>
-        <v>116.87487006720121</v>
-      </c>
       <c r="AN61" s="6">
-        <f t="shared" si="150"/>
-        <v>392.73783742254489</v>
+        <f t="shared" si="135"/>
+        <v>-329.2480000000005</v>
       </c>
       <c r="AO61" s="6">
-        <f t="shared" si="150"/>
-        <v>466.1591155834102</v>
+        <f t="shared" si="135"/>
+        <v>-117.38312000000029</v>
       </c>
       <c r="AP61" s="6">
-        <f t="shared" si="150"/>
-        <v>606.16686720114296</v>
+        <f t="shared" si="135"/>
+        <v>53.50308720000055</v>
       </c>
       <c r="AQ61" s="6">
-        <f t="shared" si="150"/>
-        <v>600.9134789109512</v>
+        <f t="shared" si="135"/>
+        <v>322.17830064800057</v>
       </c>
       <c r="AR61" s="6">
-        <f t="shared" si="150"/>
-        <v>744.87506327743188</v>
+        <f t="shared" si="135"/>
+        <v>399.29220544312881</v>
       </c>
       <c r="AS61" s="6">
-        <f t="shared" si="150"/>
-        <v>768.90181596764319</v>
+        <f t="shared" si="135"/>
+        <v>534.05218328176079</v>
       </c>
       <c r="AT61" s="6">
-        <f t="shared" si="150"/>
-        <v>924.77478782860703</v>
-      </c>
-    </row>
-    <row r="62" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="135"/>
+        <v>533.52425682199839</v>
+      </c>
+      <c r="AU61" s="6">
+        <f t="shared" si="135"/>
+        <v>672.35816923492007</v>
+      </c>
+      <c r="AV61" s="6">
+        <f t="shared" si="135"/>
+        <v>697.53954589327054</v>
+      </c>
+      <c r="AW61" s="6">
+        <f t="shared" si="135"/>
+        <v>848.0675505052094</v>
+      </c>
+    </row>
+    <row r="62" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
@@ -5465,28 +5608,31 @@
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
-      <c r="AB62" s="6"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
       <c r="AE62" s="6"/>
-      <c r="AF62" s="2">
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="2">
         <v>34.700000000000003</v>
       </c>
-      <c r="AG62" s="2">
+      <c r="AJ62" s="2">
         <v>-673</v>
       </c>
-      <c r="AH62" s="2">
+      <c r="AK62" s="2">
         <v>-470.9</v>
       </c>
-      <c r="AI62" s="6">
+      <c r="AL62" s="6">
         <v>-215.3</v>
       </c>
-      <c r="AJ62" s="6">
+      <c r="AM62" s="6">
         <v>-381.3</v>
       </c>
-      <c r="AK62" s="6"/>
-    </row>
-    <row r="63" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN62" s="6"/>
+    </row>
+    <row r="63" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>36</v>
       </c>
@@ -5526,34 +5672,37 @@
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
       <c r="AE63" s="6"/>
-      <c r="AF63" s="2">
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="2">
         <v>151.9</v>
       </c>
-      <c r="AG63" s="2">
+      <c r="AJ63" s="2">
         <v>126.9</v>
       </c>
-      <c r="AH63" s="2">
+      <c r="AK63" s="2">
         <v>96.2</v>
       </c>
-      <c r="AI63" s="6">
+      <c r="AL63" s="6">
         <v>80.7</v>
       </c>
-      <c r="AJ63" s="6">
+      <c r="AM63" s="6">
         <v>77.2</v>
       </c>
-      <c r="AK63" s="6"/>
-      <c r="AW63" s="10" t="s">
+      <c r="AN63" s="6"/>
+      <c r="AZ63" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AX63" s="15">
+      <c r="BA63" s="15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>84</v>
       </c>
@@ -5593,34 +5742,37 @@
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
       <c r="AE64" s="6"/>
-      <c r="AF64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="6">
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="6">
         <v>18.2</v>
       </c>
-      <c r="AK64" s="6"/>
-      <c r="AW64" t="s">
+      <c r="AN64" s="6"/>
+      <c r="AZ64" t="s">
         <v>96</v>
       </c>
-      <c r="AX64" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BA64" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
@@ -5660,34 +5812,37 @@
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
       <c r="AE65" s="6"/>
-      <c r="AF65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="6">
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="6">
         <v>6.7</v>
       </c>
-      <c r="AK65" s="6"/>
-      <c r="AW65" s="2" t="s">
+      <c r="AN65" s="6"/>
+      <c r="AZ65" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AX65" s="16">
+      <c r="BA65" s="16">
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
@@ -5724,35 +5879,38 @@
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
       <c r="AE66" s="6"/>
-      <c r="AF66" s="2">
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="2">
         <v>59.1</v>
       </c>
-      <c r="AG66" s="2">
+      <c r="AJ66" s="2">
         <v>57.3</v>
       </c>
-      <c r="AH66" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK66" s="6"/>
-      <c r="AW66" t="s">
+      <c r="AK66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="6"/>
+      <c r="AZ66" t="s">
         <v>97</v>
       </c>
-      <c r="AX66" s="2">
-        <f>NPV(AX63,AK31:CF31)+Main!M5-Main!M6</f>
-        <v>6499.5801066161957</v>
-      </c>
-    </row>
-    <row r="67" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BA66" s="2">
+        <f>NPV(BA63,AN31:CI31)+Main!M5-Main!M6</f>
+        <v>5809.1975303755362</v>
+      </c>
+    </row>
+    <row r="67" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>82</v>
       </c>
@@ -5789,35 +5947,38 @@
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
-      <c r="AB67" s="6"/>
-      <c r="AC67" s="6"/>
-      <c r="AD67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
       <c r="AE67" s="6"/>
-      <c r="AF67" s="2">
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="2">
         <v>395.1</v>
       </c>
-      <c r="AG67" s="2">
+      <c r="AJ67" s="2">
         <v>1015.9</v>
       </c>
-      <c r="AH67" s="2">
+      <c r="AK67" s="2">
         <v>385.6</v>
       </c>
-      <c r="AI67" s="6">
+      <c r="AL67" s="6">
         <v>15.5</v>
       </c>
-      <c r="AJ67" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="6"/>
-      <c r="AW67" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX67" s="17">
-        <f>AX66/Main!M3</f>
-        <v>21.339619450002409</v>
-      </c>
-    </row>
-    <row r="68" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM67" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="6"/>
+      <c r="AZ67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="17">
+        <f>BA66/Main!M3</f>
+        <v>19.07293433954564</v>
+      </c>
+    </row>
+    <row r="68" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
@@ -5857,35 +6018,38 @@
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
-      <c r="AB68" s="6"/>
-      <c r="AC68" s="6"/>
-      <c r="AD68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
       <c r="AE68" s="6"/>
-      <c r="AF68" s="2">
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="2">
         <v>25.6</v>
       </c>
-      <c r="AG68" s="2">
+      <c r="AJ68" s="2">
         <v>10.7</v>
       </c>
-      <c r="AH68" s="2">
+      <c r="AK68" s="2">
         <v>8.9</v>
       </c>
-      <c r="AI68" s="6">
+      <c r="AL68" s="6">
         <v>7.9</v>
       </c>
-      <c r="AJ68" s="6">
+      <c r="AM68" s="6">
         <v>30.5</v>
       </c>
-      <c r="AK68" s="6"/>
-      <c r="AW68" s="2" t="s">
+      <c r="AN68" s="6"/>
+      <c r="AZ68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AX68" s="16">
-        <f>AX67/Main!M2-1</f>
-        <v>-0.1518434240857548</v>
-      </c>
-    </row>
-    <row r="69" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BA68" s="16">
+        <f>BA67/Main!M2-1</f>
+        <v>-0.24193424723586487</v>
+      </c>
+    </row>
+    <row r="69" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>58</v>
       </c>
@@ -5923,28 +6087,31 @@
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
-      <c r="AB69" s="6"/>
-      <c r="AC69" s="6"/>
-      <c r="AD69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
       <c r="AE69" s="6"/>
-      <c r="AF69" s="2">
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="2">
         <v>-107.9</v>
       </c>
-      <c r="AG69" s="2">
+      <c r="AJ69" s="2">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="AH69" s="2">
+      <c r="AK69" s="2">
         <v>61.4</v>
       </c>
-      <c r="AI69" s="6">
+      <c r="AL69" s="6">
         <v>80.3</v>
       </c>
-      <c r="AJ69" s="6">
+      <c r="AM69" s="6">
         <v>-16.3</v>
       </c>
-      <c r="AK69" s="6"/>
-    </row>
-    <row r="70" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN69" s="6"/>
+    </row>
+    <row r="70" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>38</v>
       </c>
@@ -5983,28 +6150,31 @@
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
-      <c r="AB70" s="6"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
       <c r="AE70" s="6"/>
-      <c r="AF70" s="2">
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="2">
         <v>-6.4</v>
       </c>
-      <c r="AG70" s="2">
+      <c r="AJ70" s="2">
         <v>-100.8</v>
       </c>
-      <c r="AH70" s="2">
+      <c r="AK70" s="2">
         <v>1.9</v>
       </c>
-      <c r="AI70" s="6">
+      <c r="AL70" s="6">
         <v>-27.3</v>
       </c>
-      <c r="AJ70" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK70" s="6"/>
-    </row>
-    <row r="71" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM70" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="6"/>
+    </row>
+    <row r="71" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>39</v>
       </c>
@@ -6041,28 +6211,31 @@
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
-      <c r="AB71" s="6"/>
-      <c r="AC71" s="6"/>
-      <c r="AD71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
       <c r="AE71" s="6"/>
-      <c r="AF71" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH71" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK71" s="6"/>
-    </row>
-    <row r="72" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="6"/>
+    </row>
+    <row r="72" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>40</v>
       </c>
@@ -6100,28 +6273,31 @@
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
       <c r="AE72" s="6"/>
-      <c r="AF72" s="2">
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="6"/>
+      <c r="AI72" s="2">
         <v>8.5</v>
       </c>
-      <c r="AG72" s="2">
+      <c r="AJ72" s="2">
         <v>2</v>
       </c>
-      <c r="AH72" s="2">
+      <c r="AK72" s="2">
         <v>9.1</v>
       </c>
-      <c r="AI72" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="6">
+      <c r="AL72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="6">
         <v>5.4</v>
       </c>
-      <c r="AK72" s="6"/>
-    </row>
-    <row r="73" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN72" s="6"/>
+    </row>
+    <row r="73" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>41</v>
       </c>
@@ -6161,28 +6337,31 @@
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
-      <c r="AB73" s="6"/>
-      <c r="AC73" s="6"/>
-      <c r="AD73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
       <c r="AE73" s="6"/>
-      <c r="AF73" s="2">
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="2">
         <v>-34.200000000000003</v>
       </c>
-      <c r="AG73" s="2">
+      <c r="AJ73" s="2">
         <v>-36.200000000000003</v>
       </c>
-      <c r="AH73" s="2">
+      <c r="AK73" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI73" s="6">
+      <c r="AL73" s="6">
         <v>0.9</v>
       </c>
-      <c r="AJ73" s="6">
+      <c r="AM73" s="6">
         <v>-3.5</v>
       </c>
-      <c r="AK73" s="6"/>
-    </row>
-    <row r="74" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN73" s="6"/>
+    </row>
+    <row r="74" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>42</v>
       </c>
@@ -6225,33 +6404,36 @@
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
-      <c r="AB74" s="6"/>
-      <c r="AC74" s="6"/>
-      <c r="AD74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
       <c r="AE74" s="6"/>
-      <c r="AF74" s="2">
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="2">
         <f>35.7-256.3-1.2-24.7+169.8-14.8</f>
         <v>-91.499999999999986</v>
       </c>
-      <c r="AG74" s="2">
+      <c r="AJ74" s="2">
         <f>-34.4-44.7+2.2-18.7+17.1+4.9</f>
         <v>-73.599999999999994</v>
       </c>
-      <c r="AH74" s="2">
+      <c r="AK74" s="2">
         <f>-10.9+361.1+3.6-75.9-792.8+4.1</f>
         <v>-510.79999999999984</v>
       </c>
-      <c r="AI74" s="6">
+      <c r="AL74" s="6">
         <f>39.8+282.4+8.4-87-78.6+19-3</f>
         <v>180.99999999999997</v>
       </c>
-      <c r="AJ74" s="6">
+      <c r="AM74" s="6">
         <f>-38.4-329.6-6.5-21.7+224.4-0.9+1.5</f>
         <v>-171.2</v>
       </c>
-      <c r="AK74" s="6"/>
-    </row>
-    <row r="75" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN74" s="6"/>
+    </row>
+    <row r="75" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>43</v>
       </c>
@@ -6272,11 +6454,11 @@
         <v>-11.500000000000014</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" ref="M75:N75" si="151">SUM(M62:M74)</f>
+        <f t="shared" ref="M75:N75" si="136">SUM(M62:M74)</f>
         <v>-293.20000000000005</v>
       </c>
       <c r="N75" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="136"/>
         <v>-110.89999999999991</v>
       </c>
       <c r="O75" s="6">
@@ -6294,72 +6476,75 @@
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
-      <c r="AB75" s="6"/>
-      <c r="AC75" s="6"/>
-      <c r="AD75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
       <c r="AE75" s="6"/>
-      <c r="AF75" s="18">
-        <f>SUM(AF62:AF74)</f>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="18">
+        <f>SUM(AI62:AI74)</f>
         <v>434.90000000000009</v>
       </c>
-      <c r="AG75" s="18">
-        <f>SUM(AG62:AG74)</f>
+      <c r="AJ75" s="18">
+        <f>SUM(AJ62:AJ74)</f>
         <v>325.09999999999991</v>
       </c>
-      <c r="AH75" s="18">
-        <f t="shared" ref="AH75:AK75" si="152">SUM(AH62:AH74)</f>
+      <c r="AK75" s="18">
+        <f t="shared" ref="AK75:AN75" si="137">SUM(AK62:AK74)</f>
         <v>-414.49999999999983</v>
       </c>
-      <c r="AI75" s="18">
-        <f t="shared" si="152"/>
+      <c r="AL75" s="18">
+        <f t="shared" si="137"/>
         <v>123.69999999999996</v>
       </c>
-      <c r="AJ75" s="18">
-        <f t="shared" si="152"/>
+      <c r="AM75" s="18">
+        <f t="shared" si="137"/>
         <v>-434.30000000000007</v>
       </c>
-      <c r="AK75" s="18">
-        <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="AL75" s="18">
-        <f t="shared" ref="AL75" si="153">SUM(AL62:AL74)</f>
-        <v>0</v>
-      </c>
-      <c r="AM75" s="18">
-        <f t="shared" ref="AM75" si="154">SUM(AM62:AM74)</f>
-        <v>0</v>
-      </c>
       <c r="AN75" s="18">
-        <f t="shared" ref="AN75" si="155">SUM(AN62:AN74)</f>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AO75" s="18">
-        <f t="shared" ref="AO75" si="156">SUM(AO62:AO74)</f>
+        <f t="shared" ref="AO75" si="138">SUM(AO62:AO74)</f>
         <v>0</v>
       </c>
       <c r="AP75" s="18">
-        <f t="shared" ref="AP75" si="157">SUM(AP62:AP74)</f>
+        <f t="shared" ref="AP75" si="139">SUM(AP62:AP74)</f>
         <v>0</v>
       </c>
       <c r="AQ75" s="18">
-        <f t="shared" ref="AQ75" si="158">SUM(AQ62:AQ74)</f>
+        <f t="shared" ref="AQ75" si="140">SUM(AQ62:AQ74)</f>
         <v>0</v>
       </c>
       <c r="AR75" s="18">
-        <f t="shared" ref="AR75" si="159">SUM(AR62:AR74)</f>
+        <f t="shared" ref="AR75" si="141">SUM(AR62:AR74)</f>
         <v>0</v>
       </c>
       <c r="AS75" s="18">
-        <f t="shared" ref="AS75" si="160">SUM(AS62:AS74)</f>
+        <f t="shared" ref="AS75" si="142">SUM(AS62:AS74)</f>
         <v>0</v>
       </c>
       <c r="AT75" s="18">
-        <f t="shared" ref="AT75" si="161">SUM(AT62:AT74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AT75" si="143">SUM(AT62:AT74)</f>
+        <v>0</v>
+      </c>
+      <c r="AU75" s="18">
+        <f t="shared" ref="AU75" si="144">SUM(AU62:AU74)</f>
+        <v>0</v>
+      </c>
+      <c r="AV75" s="18">
+        <f t="shared" ref="AV75" si="145">SUM(AV62:AV74)</f>
+        <v>0</v>
+      </c>
+      <c r="AW75" s="18">
+        <f t="shared" ref="AW75" si="146">SUM(AW62:AW74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -6381,15 +6566,18 @@
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
-      <c r="AB76" s="6"/>
-      <c r="AC76" s="6"/>
-      <c r="AD76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
       <c r="AE76" s="6"/>
-      <c r="AI76" s="6"/>
-      <c r="AJ76" s="6"/>
-      <c r="AK76" s="6"/>
-    </row>
-    <row r="77" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6"/>
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="6"/>
+      <c r="AN76" s="6"/>
+    </row>
+    <row r="77" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>44</v>
       </c>
@@ -6429,28 +6617,31 @@
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
-      <c r="AB77" s="6"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
       <c r="AE77" s="6"/>
-      <c r="AF77" s="13">
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="13">
         <v>113.4</v>
       </c>
-      <c r="AG77" s="13">
+      <c r="AJ77" s="13">
         <v>93.7</v>
       </c>
-      <c r="AH77" s="13">
+      <c r="AK77" s="13">
         <v>78.5</v>
       </c>
-      <c r="AI77" s="14">
+      <c r="AL77" s="14">
         <v>60</v>
       </c>
-      <c r="AJ77" s="14">
+      <c r="AM77" s="14">
         <v>62</v>
       </c>
-      <c r="AK77" s="14"/>
-    </row>
-    <row r="78" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN77" s="14"/>
+    </row>
+    <row r="78" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>45</v>
       </c>
@@ -6487,15 +6678,18 @@
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
-      <c r="AB78" s="6"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
       <c r="AE78" s="6"/>
-      <c r="AI78" s="6"/>
-      <c r="AJ78" s="6"/>
-      <c r="AK78" s="6"/>
-    </row>
-    <row r="79" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+      <c r="AN78" s="6"/>
+    </row>
+    <row r="79" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>41</v>
       </c>
@@ -6535,15 +6729,18 @@
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
       <c r="AE79" s="6"/>
-      <c r="AI79" s="6"/>
-      <c r="AJ79" s="6"/>
-      <c r="AK79" s="6"/>
-    </row>
-    <row r="80" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
+    </row>
+    <row r="80" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>46</v>
       </c>
@@ -6564,19 +6761,19 @@
         <v>-13.6</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" ref="M80:P80" si="162">M77+M78+M79</f>
+        <f t="shared" ref="M80:P80" si="147">M77+M78+M79</f>
         <v>-12.800000000000004</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="147"/>
         <v>-23.7</v>
       </c>
       <c r="O80" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="147"/>
         <v>66.100000000000009</v>
       </c>
       <c r="P80" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="147"/>
         <v>-20.100000000000001</v>
       </c>
       <c r="Q80" s="6"/>
@@ -6586,15 +6783,18 @@
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
-      <c r="AB80" s="6"/>
-      <c r="AC80" s="6"/>
-      <c r="AD80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
       <c r="AE80" s="6"/>
-      <c r="AI80" s="6"/>
-      <c r="AJ80" s="6"/>
-      <c r="AK80" s="6"/>
-    </row>
-    <row r="81" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="6"/>
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="6"/>
+      <c r="AN80" s="6"/>
+    </row>
+    <row r="81" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -6616,15 +6816,18 @@
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
-      <c r="AB81" s="6"/>
-      <c r="AC81" s="6"/>
-      <c r="AD81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
       <c r="AE81" s="6"/>
-      <c r="AI81" s="6"/>
-      <c r="AJ81" s="6"/>
-      <c r="AK81" s="6"/>
-    </row>
-    <row r="82" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6"/>
+      <c r="AN81" s="6"/>
+    </row>
+    <row r="82" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>118</v>
       </c>
@@ -6664,15 +6867,18 @@
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
-      <c r="AB82" s="6"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
       <c r="AE82" s="6"/>
-      <c r="AI82" s="6"/>
-      <c r="AJ82" s="6"/>
-      <c r="AK82" s="6"/>
-    </row>
-    <row r="83" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AL82" s="6"/>
+      <c r="AM82" s="6"/>
+      <c r="AN82" s="6"/>
+    </row>
+    <row r="83" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>4</v>
       </c>
@@ -6712,15 +6918,18 @@
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
-      <c r="AB83" s="6"/>
-      <c r="AC83" s="6"/>
-      <c r="AD83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
       <c r="AE83" s="6"/>
-      <c r="AI83" s="6"/>
-      <c r="AJ83" s="6"/>
-      <c r="AK83" s="6"/>
-    </row>
-    <row r="84" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+      <c r="AN83" s="6"/>
+    </row>
+    <row r="84" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>47</v>
       </c>
@@ -6760,15 +6969,18 @@
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
-      <c r="AB84" s="6"/>
-      <c r="AC84" s="6"/>
-      <c r="AD84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
       <c r="AE84" s="6"/>
-      <c r="AI84" s="6"/>
-      <c r="AJ84" s="6"/>
-      <c r="AK84" s="6"/>
-    </row>
-    <row r="85" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="6"/>
+      <c r="AL84" s="6"/>
+      <c r="AM84" s="6"/>
+      <c r="AN84" s="6"/>
+    </row>
+    <row r="85" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>48</v>
       </c>
@@ -6811,15 +7023,18 @@
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
-      <c r="AB85" s="6"/>
-      <c r="AC85" s="6"/>
-      <c r="AD85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
       <c r="AE85" s="6"/>
-      <c r="AI85" s="6"/>
-      <c r="AJ85" s="6"/>
-      <c r="AK85" s="6"/>
-    </row>
-    <row r="86" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AL85" s="6"/>
+      <c r="AM85" s="6"/>
+      <c r="AN85" s="6"/>
+    </row>
+    <row r="86" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>49</v>
       </c>
@@ -6859,15 +7074,18 @@
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
-      <c r="AB86" s="6"/>
-      <c r="AC86" s="6"/>
-      <c r="AD86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
       <c r="AE86" s="6"/>
-      <c r="AI86" s="6"/>
-      <c r="AJ86" s="6"/>
-      <c r="AK86" s="6"/>
-    </row>
-    <row r="87" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="6"/>
+      <c r="AL86" s="6"/>
+      <c r="AM86" s="6"/>
+      <c r="AN86" s="6"/>
+    </row>
+    <row r="87" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>50</v>
       </c>
@@ -6880,27 +7098,27 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6">
-        <f t="shared" ref="K87:P87" si="163">K85+K80+K75+K86</f>
+        <f t="shared" ref="K87:P87" si="148">K85+K80+K75+K86</f>
         <v>135.80000000000007</v>
       </c>
       <c r="L87" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="148"/>
         <v>1004.7999999999998</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="148"/>
         <v>-307.00000000000006</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="148"/>
         <v>-148.7999999999999</v>
       </c>
       <c r="O87" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="148"/>
         <v>-236.30000000000004</v>
       </c>
       <c r="P87" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="148"/>
         <v>-126.59999999999998</v>
       </c>
       <c r="Q87" s="6"/>
@@ -6910,15 +7128,18 @@
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
-      <c r="AB87" s="6"/>
-      <c r="AC87" s="6"/>
-      <c r="AD87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
       <c r="AE87" s="6"/>
-      <c r="AI87" s="6"/>
-      <c r="AJ87" s="6"/>
-      <c r="AK87" s="6"/>
-    </row>
-    <row r="88" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+      <c r="AN87" s="6"/>
+    </row>
+    <row r="88" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -6940,15 +7161,18 @@
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
-      <c r="AB88" s="6"/>
-      <c r="AC88" s="6"/>
-      <c r="AD88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
       <c r="AE88" s="6"/>
-      <c r="AI88" s="6"/>
-      <c r="AJ88" s="6"/>
-      <c r="AK88" s="6"/>
-    </row>
-    <row r="89" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF88" s="6"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6"/>
+      <c r="AL88" s="6"/>
+      <c r="AM88" s="6"/>
+      <c r="AN88" s="6"/>
+    </row>
+    <row r="89" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>83</v>
       </c>
@@ -6969,19 +7193,19 @@
         <v>-25.000000000000014</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" ref="M89:P89" si="164">M75+M77</f>
+        <f t="shared" ref="M89:P89" si="149">M75+M77</f>
         <v>-305.70000000000005</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="149"/>
         <v>-132.1999999999999</v>
       </c>
       <c r="O89" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="149"/>
         <v>-227.00000000000003</v>
       </c>
       <c r="P89" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="149"/>
         <v>-123.89999999999998</v>
       </c>
       <c r="Q89" s="6"/>
@@ -6991,33 +7215,36 @@
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
-      <c r="AB89" s="6"/>
-      <c r="AC89" s="6"/>
-      <c r="AD89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
       <c r="AE89" s="6"/>
-      <c r="AF89" s="13">
-        <f>AF75-AF77</f>
+      <c r="AF89" s="6"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="6"/>
+      <c r="AI89" s="13">
+        <f>AI75-AI77</f>
         <v>321.50000000000011</v>
       </c>
-      <c r="AG89" s="13">
-        <f>AG75-AG77</f>
+      <c r="AJ89" s="13">
+        <f>AJ75-AJ77</f>
         <v>231.39999999999992</v>
       </c>
-      <c r="AH89" s="13">
-        <f t="shared" ref="AH89:AJ89" si="165">AH75-AH77</f>
+      <c r="AK89" s="13">
+        <f t="shared" ref="AK89:AM89" si="150">AK75-AK77</f>
         <v>-492.99999999999983</v>
       </c>
-      <c r="AI89" s="13">
-        <f t="shared" si="165"/>
+      <c r="AL89" s="13">
+        <f t="shared" si="150"/>
         <v>63.69999999999996</v>
       </c>
-      <c r="AJ89" s="13">
-        <f t="shared" si="165"/>
+      <c r="AM89" s="13">
+        <f t="shared" si="150"/>
         <v>-496.30000000000007</v>
       </c>
-      <c r="AK89" s="6"/>
-    </row>
-    <row r="90" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN89" s="6"/>
+    </row>
+    <row r="90" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -7038,15 +7265,18 @@
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
-      <c r="AB90" s="6"/>
-      <c r="AC90" s="6"/>
-      <c r="AD90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
       <c r="AE90" s="6"/>
-      <c r="AI90" s="6"/>
-      <c r="AJ90" s="6"/>
-      <c r="AK90" s="6"/>
-    </row>
-    <row r="91" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+      <c r="AN90" s="6"/>
+    </row>
+    <row r="91" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>79</v>
       </c>
@@ -7075,15 +7305,18 @@
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
-      <c r="AB91" s="6"/>
-      <c r="AC91" s="6"/>
-      <c r="AD91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
       <c r="AE91" s="6"/>
-      <c r="AI91" s="6"/>
-      <c r="AJ91" s="6"/>
-      <c r="AK91" s="6"/>
-    </row>
-    <row r="92" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="6"/>
+      <c r="AL91" s="6"/>
+      <c r="AM91" s="6"/>
+      <c r="AN91" s="6"/>
+    </row>
+    <row r="92" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
@@ -7112,15 +7345,18 @@
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="6"/>
-      <c r="AD92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
       <c r="AE92" s="6"/>
-      <c r="AI92" s="6"/>
-      <c r="AJ92" s="6"/>
-      <c r="AK92" s="6"/>
-    </row>
-    <row r="93" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF92" s="6"/>
+      <c r="AG92" s="6"/>
+      <c r="AH92" s="6"/>
+      <c r="AL92" s="6"/>
+      <c r="AM92" s="6"/>
+      <c r="AN92" s="6"/>
+    </row>
+    <row r="93" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>76</v>
       </c>
@@ -7149,15 +7385,18 @@
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
-      <c r="AB93" s="6"/>
-      <c r="AC93" s="6"/>
-      <c r="AD93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
       <c r="AE93" s="6"/>
-      <c r="AI93" s="6"/>
-      <c r="AJ93" s="6"/>
-      <c r="AK93" s="6"/>
-    </row>
-    <row r="94" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF93" s="6"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="6"/>
+      <c r="AL93" s="6"/>
+      <c r="AM93" s="6"/>
+      <c r="AN93" s="6"/>
+    </row>
+    <row r="94" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>77</v>
       </c>
@@ -7186,15 +7425,18 @@
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-      <c r="AD94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
       <c r="AE94" s="6"/>
-      <c r="AI94" s="6"/>
-      <c r="AJ94" s="6"/>
-      <c r="AK94" s="6"/>
-    </row>
-    <row r="95" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AF94" s="6"/>
+      <c r="AG94" s="6"/>
+      <c r="AH94" s="6"/>
+      <c r="AL94" s="6"/>
+      <c r="AM94" s="6"/>
+      <c r="AN94" s="6"/>
+    </row>
+    <row r="95" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>78</v>
       </c>
@@ -7205,7 +7447,7 @@
         <v>171.6</v>
       </c>
     </row>
-    <row r="96" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>67</v>
       </c>

--- a/GME.xlsx
+++ b/GME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9962B4-BCD5-42C5-B221-AC4535C27FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7C3C3B-680F-4979-8786-2229AD8A5A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="840" windowWidth="27390" windowHeight="19545" activeTab="1" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
+    <workbookView xWindow="-38265" yWindow="795" windowWidth="26715" windowHeight="17085" xr2:uid="{CD182038-7304-4EC0-81DB-78F78E8AB6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -810,8 +810,8 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1287,9 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8681A739-C7D1-4EC7-91DB-542DCD5B38AF}">
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1315,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>304.57807000000003</v>
+        <v>426.509592</v>
       </c>
       <c r="N3" s="3">
-        <v>44896</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1327,22 +1325,22 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>8595.1931354000008</v>
+        <v>12036.100686239999</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>120</v>
       </c>
+      <c r="I5" s="2"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>999+83</f>
-        <v>1082</v>
+        <v>4193.1000000000004</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -1353,11 +1351,11 @@
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <f>10.8+14.9</f>
-        <v>25.700000000000003</v>
+        <f>11+12.4</f>
+        <v>23.4</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -1366,7 +1364,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>7538.8931354000006</v>
+        <v>7866.4006862399983</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -1415,11 +1413,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A8DC47-869E-4A1F-AC19-77E1C7206D83}">
   <dimension ref="A1:DB112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AM25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="bottomRight" activeCell="AO37" sqref="AO37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4144,7 +4142,7 @@
         <v>1294.2000000000007</v>
       </c>
       <c r="BI28" s="6">
-        <f t="shared" ref="BG28:BP28" si="22">BI26-BI27</f>
+        <f t="shared" ref="BI28:BP28" si="22">BI26-BI27</f>
         <v>1278.1267200000002</v>
       </c>
       <c r="BJ28" s="6">
@@ -4336,7 +4334,7 @@
         <v>1323.9</v>
       </c>
       <c r="BI29" s="6">
-        <f t="shared" ref="BH29:BK29" si="23">BH29*0.99</f>
+        <f t="shared" ref="BI29:BK29" si="23">BH29*0.99</f>
         <v>1310.6610000000001</v>
       </c>
       <c r="BJ29" s="6">
@@ -4578,7 +4576,7 @@
         <v>-29.699999999999363</v>
       </c>
       <c r="BI30" s="6">
-        <f t="shared" ref="BG30:BP30" si="37">BI28-BI29</f>
+        <f t="shared" ref="BI30:BP30" si="37">BI28-BI29</f>
         <v>-32.534279999999853</v>
       </c>
       <c r="BJ30" s="6">
@@ -4764,7 +4762,7 @@
         <v>42.199999999999996</v>
       </c>
       <c r="BI31" s="6">
-        <f t="shared" ref="BG31:BP31" si="40">BH46*$BT$68</f>
+        <f t="shared" ref="BI31:BP31" si="40">BH46*$BT$68</f>
         <v>23.986000000000004</v>
       </c>
       <c r="BJ31" s="6">
@@ -8808,7 +8806,7 @@
       </c>
       <c r="BT69" s="2">
         <f>NPV(BT66,BG34:DB34)+Main!M5-Main!M6</f>
-        <v>1335.0007431851029</v>
+        <v>4448.4007431851041</v>
       </c>
     </row>
     <row r="70" spans="2:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8913,7 +8911,7 @@
       </c>
       <c r="BT70" s="15">
         <f>BT69/Main!M3</f>
-        <v>4.3831151178582974</v>
+        <v>10.429778899755915</v>
       </c>
     </row>
     <row r="71" spans="2:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9026,7 +9024,7 @@
       </c>
       <c r="BT71" s="14">
         <f>BT70/Main!M2-1</f>
-        <v>-0.84468054153585048</v>
+        <v>-0.63041180369397898</v>
       </c>
     </row>
     <row r="72" spans="2:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
